--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -2013,8 +2013,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ecf9d80fe0681d8e397c19ef62846c2e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="928f64266605fa42fea75ae7d7349071" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
     <xsd:element name="properties">
@@ -2035,6 +2035,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2092,6 +2093,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2256,7 +2262,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A37D5E-EDB3-41F0-BD0A-908C8C90A9B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\bldgs\BRESaC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\bldgs\BRESaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4123D064-5F1A-4122-B15C-90E74F71D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFD983-D1C9-48AE-9094-44C4769CAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33825" yWindow="2475" windowWidth="22215" windowHeight="14190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="calc" sheetId="23" r:id="rId2"/>
-    <sheet name="BRESaC-energy" sheetId="10" r:id="rId3"/>
-    <sheet name="BRESaC-cost" sheetId="12" r:id="rId4"/>
+    <sheet name="savings_commercial" sheetId="24" r:id="rId3"/>
+    <sheet name="savings_residential" sheetId="25" r:id="rId4"/>
+    <sheet name="BRESaC-energy" sheetId="10" r:id="rId5"/>
+    <sheet name="BRESaC-cost" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="120">
   <si>
     <t>BRESaC Percent Energy Savings from Retrofitting by Component</t>
   </si>
@@ -207,13 +209,205 @@
   </si>
   <si>
     <t>USD(2012)</t>
+  </si>
+  <si>
+    <t>Final Energy Demand, commercial</t>
+  </si>
+  <si>
+    <t>ID_ConstructionPeriod</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>1961-1990</t>
+  </si>
+  <si>
+    <t>1991-2008</t>
+  </si>
+  <si>
+    <t>2009-2020</t>
+  </si>
+  <si>
+    <t>2021-2050</t>
+  </si>
+  <si>
+    <t>Before 1961</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Floor Area, commercial</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>spec. Heat demand</t>
+  </si>
+  <si>
+    <t>New Scenario* HIGH</t>
+  </si>
+  <si>
+    <t>*Buildings from 1961-1990 and before 1961 are improved to the spec. Heat demand of the cohort of 2009-2020</t>
+  </si>
+  <si>
+    <t>saving:</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>New Scenario* LOW</t>
+  </si>
+  <si>
+    <t>*Buildings from 1961-1990 and before 1961 are improved to the spec. Heat demand of the cohort of 1991-2008</t>
+  </si>
+  <si>
+    <t>Final Energy Demand, residential</t>
+  </si>
+  <si>
+    <t>Floor Area, residential</t>
+  </si>
+  <si>
+    <t>spec. Heat Demand, residential</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Average Floor Area per year</t>
+  </si>
+  <si>
+    <t>Share of bldg floorspace from 1961-90</t>
+  </si>
+  <si>
+    <t>Reduction in energy use from retrofitting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -221,6 +415,8 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -280,7 +476,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +486,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,8 +571,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,8 +597,25 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="12" builtinId="3"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -402,6 +628,7 @@
     <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent" xfId="13" builtinId="5"/>
     <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,26 +911,26 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="73.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="73.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,58 +938,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -770,7 +997,7 @@
         <v>1.2847999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -782,25 +1009,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
     </row>
   </sheetData>
@@ -820,14 +1047,14 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -835,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -848,7 +1075,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -875,7 +1102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
         <v>30</v>
@@ -902,7 +1129,7 @@
         <v>264702.00665149675</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1121,7 +1348,7 @@
         <v>36951</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +1443,7 @@
         <v>7244</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1549,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1420,12 +1647,12 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1750,7 @@
         <v>13895</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1848,7 @@
         <v>6811</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1694,7 +1921,7 @@
         <v>2.5617876469103047E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1727,7 +1954,7 @@
         <v>2.5057165706399284E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
@@ -1737,6 +1964,6354 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D26CD-6318-4B74-895D-30922EB64AE0}">
+  <dimension ref="A1:AO57"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="19" width="4.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>345.72387996362073</v>
+      </c>
+      <c r="D3">
+        <v>341.19012754459908</v>
+      </c>
+      <c r="E3">
+        <v>336.73778705554531</v>
+      </c>
+      <c r="F3">
+        <v>332.37245615987638</v>
+      </c>
+      <c r="G3">
+        <v>327.79912081096876</v>
+      </c>
+      <c r="H3">
+        <v>323.31901996682325</v>
+      </c>
+      <c r="I3">
+        <v>318.77581270076348</v>
+      </c>
+      <c r="J3">
+        <v>314.2795758825489</v>
+      </c>
+      <c r="K3">
+        <v>309.66250673551627</v>
+      </c>
+      <c r="L3">
+        <v>304.81373539171915</v>
+      </c>
+      <c r="M3">
+        <v>299.95769439106135</v>
+      </c>
+      <c r="N3">
+        <v>295.10939318136366</v>
+      </c>
+      <c r="O3">
+        <v>290.0420427422477</v>
+      </c>
+      <c r="P3">
+        <v>285.13686332947429</v>
+      </c>
+      <c r="Q3">
+        <v>280.28260799940466</v>
+      </c>
+      <c r="R3">
+        <v>275.56748482328601</v>
+      </c>
+      <c r="S3">
+        <v>270.75981935717687</v>
+      </c>
+      <c r="T3">
+        <v>265.98095537099806</v>
+      </c>
+      <c r="U3" s="1">
+        <v>261.22714728875513</v>
+      </c>
+      <c r="V3">
+        <v>256.62983384586482</v>
+      </c>
+      <c r="W3">
+        <v>251.94047974569062</v>
+      </c>
+      <c r="X3">
+        <v>247.40799389118433</v>
+      </c>
+      <c r="Y3">
+        <v>243.00239013465986</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>238.58018631793604</v>
+      </c>
+      <c r="AA3">
+        <v>234.25447641047816</v>
+      </c>
+      <c r="AB3">
+        <v>230.07557550887148</v>
+      </c>
+      <c r="AC3">
+        <v>225.94365240237008</v>
+      </c>
+      <c r="AD3">
+        <v>221.86582105174017</v>
+      </c>
+      <c r="AE3">
+        <v>217.89361731285541</v>
+      </c>
+      <c r="AF3">
+        <v>213.93939008429695</v>
+      </c>
+      <c r="AG3">
+        <v>210.14221094234236</v>
+      </c>
+      <c r="AH3">
+        <v>206.25084966188544</v>
+      </c>
+      <c r="AI3">
+        <v>202.46116746604574</v>
+      </c>
+      <c r="AJ3">
+        <v>198.66882899128376</v>
+      </c>
+      <c r="AK3">
+        <v>194.90262591489579</v>
+      </c>
+      <c r="AL3">
+        <v>191.25478707091096</v>
+      </c>
+      <c r="AM3">
+        <v>187.74234611636803</v>
+      </c>
+      <c r="AN3">
+        <v>184.2281552547098</v>
+      </c>
+      <c r="AO3">
+        <v>180.79786263740598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>189.66461975267705</v>
+      </c>
+      <c r="D4">
+        <v>189.32049525695032</v>
+      </c>
+      <c r="E4">
+        <v>188.95011865798278</v>
+      </c>
+      <c r="F4">
+        <v>188.5574110177898</v>
+      </c>
+      <c r="G4">
+        <v>188.14071730602751</v>
+      </c>
+      <c r="H4">
+        <v>187.68315554020333</v>
+      </c>
+      <c r="I4">
+        <v>187.20940332322908</v>
+      </c>
+      <c r="J4">
+        <v>186.74940136600023</v>
+      </c>
+      <c r="K4">
+        <v>184.92479220774541</v>
+      </c>
+      <c r="L4">
+        <v>182.97746906663383</v>
+      </c>
+      <c r="M4">
+        <v>181.04523831380928</v>
+      </c>
+      <c r="N4">
+        <v>178.98596593994759</v>
+      </c>
+      <c r="O4">
+        <v>176.85226794235453</v>
+      </c>
+      <c r="P4">
+        <v>174.77495608003883</v>
+      </c>
+      <c r="Q4">
+        <v>172.77573509575629</v>
+      </c>
+      <c r="R4">
+        <v>170.7979873253251</v>
+      </c>
+      <c r="S4">
+        <v>168.87063177693696</v>
+      </c>
+      <c r="T4">
+        <v>166.95184760905991</v>
+      </c>
+      <c r="U4" s="1">
+        <v>165.11212913687316</v>
+      </c>
+      <c r="V4">
+        <v>163.24433368802949</v>
+      </c>
+      <c r="W4">
+        <v>161.37549703036706</v>
+      </c>
+      <c r="X4">
+        <v>159.55469494114865</v>
+      </c>
+      <c r="Y4">
+        <v>157.78463920657043</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>156.03400714170056</v>
+      </c>
+      <c r="AA4">
+        <v>154.332660754887</v>
+      </c>
+      <c r="AB4">
+        <v>152.57192698937325</v>
+      </c>
+      <c r="AC4">
+        <v>150.85724302370755</v>
+      </c>
+      <c r="AD4">
+        <v>149.15113638086237</v>
+      </c>
+      <c r="AE4">
+        <v>147.50684253786557</v>
+      </c>
+      <c r="AF4">
+        <v>145.81803788046648</v>
+      </c>
+      <c r="AG4">
+        <v>144.18950032116479</v>
+      </c>
+      <c r="AH4">
+        <v>142.58548727270127</v>
+      </c>
+      <c r="AI4">
+        <v>141.01680098713396</v>
+      </c>
+      <c r="AJ4">
+        <v>139.46464684873825</v>
+      </c>
+      <c r="AK4">
+        <v>137.85526963196216</v>
+      </c>
+      <c r="AL4">
+        <v>136.24164131907008</v>
+      </c>
+      <c r="AM4">
+        <v>134.67495270621845</v>
+      </c>
+      <c r="AN4">
+        <v>133.12815654664033</v>
+      </c>
+      <c r="AO4">
+        <v>131.60121183788146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8.4084692833843384</v>
+      </c>
+      <c r="E5">
+        <v>17.60219374091395</v>
+      </c>
+      <c r="F5">
+        <v>25.790586895263633</v>
+      </c>
+      <c r="G5">
+        <v>33.344732642944322</v>
+      </c>
+      <c r="H5">
+        <v>44.295889504397245</v>
+      </c>
+      <c r="I5">
+        <v>49.252166775991967</v>
+      </c>
+      <c r="J5">
+        <v>55.844312107164292</v>
+      </c>
+      <c r="K5">
+        <v>59.440543499673147</v>
+      </c>
+      <c r="L5">
+        <v>59.378398404075909</v>
+      </c>
+      <c r="M5">
+        <v>59.302350775986078</v>
+      </c>
+      <c r="N5">
+        <v>59.198965658024051</v>
+      </c>
+      <c r="O5">
+        <v>59.065400455244252</v>
+      </c>
+      <c r="P5">
+        <v>58.907316309162219</v>
+      </c>
+      <c r="Q5">
+        <v>58.729204826737124</v>
+      </c>
+      <c r="R5">
+        <v>58.537668011196615</v>
+      </c>
+      <c r="S5">
+        <v>58.318746670460648</v>
+      </c>
+      <c r="T5">
+        <v>58.080725943130822</v>
+      </c>
+      <c r="U5" s="1">
+        <v>57.888328597018806</v>
+      </c>
+      <c r="V5">
+        <v>57.657256835567864</v>
+      </c>
+      <c r="W5">
+        <v>57.426195374475903</v>
+      </c>
+      <c r="X5">
+        <v>57.212620453182552</v>
+      </c>
+      <c r="Y5">
+        <v>56.602571186320304</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>56.004000962677161</v>
+      </c>
+      <c r="AA5">
+        <v>55.432457948095816</v>
+      </c>
+      <c r="AB5">
+        <v>54.888460349494451</v>
+      </c>
+      <c r="AC5">
+        <v>54.345278356706899</v>
+      </c>
+      <c r="AD5">
+        <v>53.819170629350893</v>
+      </c>
+      <c r="AE5">
+        <v>53.320800616983021</v>
+      </c>
+      <c r="AF5">
+        <v>52.857661576575914</v>
+      </c>
+      <c r="AG5">
+        <v>52.401627468239589</v>
+      </c>
+      <c r="AH5">
+        <v>51.959513213968748</v>
+      </c>
+      <c r="AI5">
+        <v>51.530779157943499</v>
+      </c>
+      <c r="AJ5">
+        <v>51.087346480019903</v>
+      </c>
+      <c r="AK5">
+        <v>50.660554404968295</v>
+      </c>
+      <c r="AL5">
+        <v>50.249085543721812</v>
+      </c>
+      <c r="AM5">
+        <v>49.844001917961116</v>
+      </c>
+      <c r="AN5">
+        <v>49.447316851261384</v>
+      </c>
+      <c r="AO5">
+        <v>49.050159254654901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3.3982290834624118</v>
+      </c>
+      <c r="M6">
+        <v>8.0696539972987846</v>
+      </c>
+      <c r="N6">
+        <v>11.702779173320282</v>
+      </c>
+      <c r="O6">
+        <v>16.224103191345648</v>
+      </c>
+      <c r="P6">
+        <v>22.378587435735387</v>
+      </c>
+      <c r="Q6">
+        <v>27.036655450840044</v>
+      </c>
+      <c r="R6">
+        <v>31.998649748015506</v>
+      </c>
+      <c r="S6">
+        <v>37.68660622295986</v>
+      </c>
+      <c r="T6">
+        <v>43.067232727325461</v>
+      </c>
+      <c r="U6" s="1">
+        <v>48.338677271911635</v>
+      </c>
+      <c r="V6">
+        <v>52.503944623254007</v>
+      </c>
+      <c r="W6">
+        <v>57.232491646606377</v>
+      </c>
+      <c r="X6">
+        <v>61.544515125038707</v>
+      </c>
+      <c r="Y6">
+        <v>65.972000241146404</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>70.621247439738653</v>
+      </c>
+      <c r="AA6">
+        <v>74.450711191076209</v>
+      </c>
+      <c r="AB6">
+        <v>78.624619381904779</v>
+      </c>
+      <c r="AC6">
+        <v>82.145985235798122</v>
+      </c>
+      <c r="AD6">
+        <v>85.801326622714569</v>
+      </c>
+      <c r="AE6">
+        <v>89.297461644965281</v>
+      </c>
+      <c r="AF6">
+        <v>92.564305539952827</v>
+      </c>
+      <c r="AG6">
+        <v>96.179908251809707</v>
+      </c>
+      <c r="AH6">
+        <v>99.452373370634234</v>
+      </c>
+      <c r="AI6">
+        <v>102.57552565650857</v>
+      </c>
+      <c r="AJ6">
+        <v>106.13735909877948</v>
+      </c>
+      <c r="AK6">
+        <v>108.82101506136792</v>
+      </c>
+      <c r="AL6">
+        <v>111.82213782389692</v>
+      </c>
+      <c r="AM6">
+        <v>114.50232201941006</v>
+      </c>
+      <c r="AN6">
+        <v>118.21904843358608</v>
+      </c>
+      <c r="AO6">
+        <v>121.21271741435925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>260.63893928947186</v>
+      </c>
+      <c r="D7">
+        <v>256.27686928045847</v>
+      </c>
+      <c r="E7">
+        <v>252.07872568763582</v>
+      </c>
+      <c r="F7">
+        <v>247.885139114108</v>
+      </c>
+      <c r="G7">
+        <v>243.76068682060327</v>
+      </c>
+      <c r="H7">
+        <v>239.66692997558738</v>
+      </c>
+      <c r="I7">
+        <v>235.5867772145898</v>
+      </c>
+      <c r="J7">
+        <v>231.59207510593282</v>
+      </c>
+      <c r="K7">
+        <v>227.56444419081868</v>
+      </c>
+      <c r="L7">
+        <v>223.30118298622818</v>
+      </c>
+      <c r="M7">
+        <v>219.17657636687483</v>
+      </c>
+      <c r="N7">
+        <v>214.93572442573867</v>
+      </c>
+      <c r="O7">
+        <v>210.78216945834791</v>
+      </c>
+      <c r="P7">
+        <v>206.67550794858982</v>
+      </c>
+      <c r="Q7">
+        <v>202.76400416493561</v>
+      </c>
+      <c r="R7">
+        <v>198.82565487855294</v>
+      </c>
+      <c r="S7">
+        <v>195.06782567984027</v>
+      </c>
+      <c r="T7">
+        <v>191.28587324277919</v>
+      </c>
+      <c r="U7" s="1">
+        <v>187.57000294958479</v>
+      </c>
+      <c r="V7">
+        <v>183.94357361191973</v>
+      </c>
+      <c r="W7">
+        <v>180.31233992585015</v>
+      </c>
+      <c r="X7">
+        <v>176.84331928006677</v>
+      </c>
+      <c r="Y7">
+        <v>173.47485477680567</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>170.17943390356746</v>
+      </c>
+      <c r="AA7">
+        <v>166.88928432655783</v>
+      </c>
+      <c r="AB7">
+        <v>163.7261220379628</v>
+      </c>
+      <c r="AC7">
+        <v>160.65495320778331</v>
+      </c>
+      <c r="AD7">
+        <v>157.68240337337201</v>
+      </c>
+      <c r="AE7">
+        <v>154.76659681433796</v>
+      </c>
+      <c r="AF7">
+        <v>151.90500570363477</v>
+      </c>
+      <c r="AG7">
+        <v>149.13990255844587</v>
+      </c>
+      <c r="AH7">
+        <v>146.36057850698745</v>
+      </c>
+      <c r="AI7">
+        <v>143.68927031261205</v>
+      </c>
+      <c r="AJ7">
+        <v>141.12169833290568</v>
+      </c>
+      <c r="AK7">
+        <v>138.61551117720535</v>
+      </c>
+      <c r="AL7">
+        <v>136.13619167279776</v>
+      </c>
+      <c r="AM7">
+        <v>133.63900670285904</v>
+      </c>
+      <c r="AN7">
+        <v>131.30860408752028</v>
+      </c>
+      <c r="AO7">
+        <v>129.02298906901726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>796.02743900576968</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
+        <v>795.19596136539212</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>795.36882514207798</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>794.60559318703793</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>793.04525758054388</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>794.9649949870111</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>790.82416001457432</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>788.46536446164635</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>781.59228663375347</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>773.8690149321194</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>767.55151384503029</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>759.93282837839433</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>752.96598378954002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>747.87323110300053</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>741.58820753767372</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>735.72744478637605</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>730.7036297073746</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>725.36663489329339</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>720.13628524414355</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>713.9789426046359</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>708.28700372299022</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>702.56314369062113</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>696.83645554550276</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>691.41887576561976</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>685.35959063109499</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>679.88670426760677</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>673.94711222636602</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>668.31985805804004</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>662.78531892700721</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>657.08440078492697</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>652.0531495420023</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>646.60880202617716</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>641.27354358024388</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>636.47987975172714</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>630.85497619039961</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="0"/>
+        <v>625.70384343039757</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="0"/>
+        <v>620.40262946281678</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="0"/>
+        <v>616.3312811737178</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="0"/>
+        <v>611.68494021331878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>2060935693.5</v>
+      </c>
+      <c r="D11">
+        <v>2042275163.3132641</v>
+      </c>
+      <c r="E11">
+        <v>2023914147.5039585</v>
+      </c>
+      <c r="F11">
+        <v>2005642707.6619689</v>
+      </c>
+      <c r="G11">
+        <v>1987621977.0213895</v>
+      </c>
+      <c r="H11">
+        <v>1969806293.4432237</v>
+      </c>
+      <c r="I11">
+        <v>1951887182.2807832</v>
+      </c>
+      <c r="J11">
+        <v>1934155526.2469637</v>
+      </c>
+      <c r="K11">
+        <v>1916563023.3710897</v>
+      </c>
+      <c r="L11">
+        <v>1899136007.9837737</v>
+      </c>
+      <c r="M11">
+        <v>1881947077.5174427</v>
+      </c>
+      <c r="N11">
+        <v>1864905294.7274187</v>
+      </c>
+      <c r="O11">
+        <v>1848127756.6536748</v>
+      </c>
+      <c r="P11">
+        <v>1831539980.9277525</v>
+      </c>
+      <c r="Q11">
+        <v>1815131875.6812041</v>
+      </c>
+      <c r="R11">
+        <v>1798863900.6194332</v>
+      </c>
+      <c r="S11">
+        <v>1782794591.8453181</v>
+      </c>
+      <c r="T11">
+        <v>1766802436.3054736</v>
+      </c>
+      <c r="U11">
+        <v>1750972991.0042655</v>
+      </c>
+      <c r="V11">
+        <v>1735213361.3345437</v>
+      </c>
+      <c r="W11">
+        <v>1719531787.1735709</v>
+      </c>
+      <c r="X11">
+        <v>1704001190.2785456</v>
+      </c>
+      <c r="Y11">
+        <v>1688630441.1756821</v>
+      </c>
+      <c r="Z11">
+        <v>1673357771.5259085</v>
+      </c>
+      <c r="AA11">
+        <v>1658212442.7058692</v>
+      </c>
+      <c r="AB11">
+        <v>1643249803.4294565</v>
+      </c>
+      <c r="AC11">
+        <v>1628362844.5654836</v>
+      </c>
+      <c r="AD11">
+        <v>1613609249.8796332</v>
+      </c>
+      <c r="AE11">
+        <v>1598929191.2095828</v>
+      </c>
+      <c r="AF11">
+        <v>1584404834.0045245</v>
+      </c>
+      <c r="AG11">
+        <v>1570059258.8434894</v>
+      </c>
+      <c r="AH11">
+        <v>1555750685.6043575</v>
+      </c>
+      <c r="AI11">
+        <v>1541546049.9887047</v>
+      </c>
+      <c r="AJ11">
+        <v>1527516522.9806113</v>
+      </c>
+      <c r="AK11">
+        <v>1513578897.169668</v>
+      </c>
+      <c r="AL11">
+        <v>1499765111.4971585</v>
+      </c>
+      <c r="AM11">
+        <v>1486051210.6588209</v>
+      </c>
+      <c r="AN11">
+        <v>1472509588.9815304</v>
+      </c>
+      <c r="AO11">
+        <v>1459050433.3190351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>1545701770.125</v>
+      </c>
+      <c r="D12">
+        <v>1544647450.1694493</v>
+      </c>
+      <c r="E12">
+        <v>1543601286.9836273</v>
+      </c>
+      <c r="F12">
+        <v>1542551493.8687465</v>
+      </c>
+      <c r="G12">
+        <v>1541507383.5929551</v>
+      </c>
+      <c r="H12">
+        <v>1540466497.6148741</v>
+      </c>
+      <c r="I12">
+        <v>1539410816.235429</v>
+      </c>
+      <c r="J12">
+        <v>1538357306.1732795</v>
+      </c>
+      <c r="K12">
+        <v>1526468896.8105855</v>
+      </c>
+      <c r="L12">
+        <v>1514676063.5065722</v>
+      </c>
+      <c r="M12">
+        <v>1503028301.6954579</v>
+      </c>
+      <c r="N12">
+        <v>1491464372.4260473</v>
+      </c>
+      <c r="O12">
+        <v>1480064088.2551887</v>
+      </c>
+      <c r="P12">
+        <v>1468777356.5352588</v>
+      </c>
+      <c r="Q12">
+        <v>1457597673.3702185</v>
+      </c>
+      <c r="R12">
+        <v>1446498404.8611186</v>
+      </c>
+      <c r="S12">
+        <v>1435519795.5725517</v>
+      </c>
+      <c r="T12">
+        <v>1424579055.9414852</v>
+      </c>
+      <c r="U12">
+        <v>1413734919.1825666</v>
+      </c>
+      <c r="V12">
+        <v>1402923949.1958196</v>
+      </c>
+      <c r="W12">
+        <v>1392151805.0023856</v>
+      </c>
+      <c r="X12">
+        <v>1381468777.8016009</v>
+      </c>
+      <c r="Y12">
+        <v>1370881185.4543021</v>
+      </c>
+      <c r="Z12">
+        <v>1360346743.8723862</v>
+      </c>
+      <c r="AA12">
+        <v>1349885829.9075</v>
+      </c>
+      <c r="AB12">
+        <v>1339536847.1870847</v>
+      </c>
+      <c r="AC12">
+        <v>1329226133.1535454</v>
+      </c>
+      <c r="AD12">
+        <v>1318993763.6222181</v>
+      </c>
+      <c r="AE12">
+        <v>1308798376.384568</v>
+      </c>
+      <c r="AF12">
+        <v>1298697193.2403512</v>
+      </c>
+      <c r="AG12">
+        <v>1288706614.1744671</v>
+      </c>
+      <c r="AH12">
+        <v>1278728076.841296</v>
+      </c>
+      <c r="AI12">
+        <v>1268808341.3104055</v>
+      </c>
+      <c r="AJ12">
+        <v>1258997300.0829699</v>
+      </c>
+      <c r="AK12">
+        <v>1249237063.7535686</v>
+      </c>
+      <c r="AL12">
+        <v>1239550147.6456351</v>
+      </c>
+      <c r="AM12">
+        <v>1229919969.898483</v>
+      </c>
+      <c r="AN12">
+        <v>1220397543.5057945</v>
+      </c>
+      <c r="AO12">
+        <v>1210920037.0967894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>125808386.1421732</v>
+      </c>
+      <c r="E13">
+        <v>253326098.50691557</v>
+      </c>
+      <c r="F13">
+        <v>366697678.60255927</v>
+      </c>
+      <c r="G13">
+        <v>478417593.76247805</v>
+      </c>
+      <c r="H13">
+        <v>636827781.95795453</v>
+      </c>
+      <c r="I13">
+        <v>706077264.52340484</v>
+      </c>
+      <c r="J13">
+        <v>794500158.67708671</v>
+      </c>
+      <c r="K13">
+        <v>853894259.5546124</v>
+      </c>
+      <c r="L13">
+        <v>853311080.47934127</v>
+      </c>
+      <c r="M13">
+        <v>852731238.82937801</v>
+      </c>
+      <c r="N13">
+        <v>852151145.48319364</v>
+      </c>
+      <c r="O13">
+        <v>851575469.99493396</v>
+      </c>
+      <c r="P13">
+        <v>851002020.24374402</v>
+      </c>
+      <c r="Q13">
+        <v>850429979.43413138</v>
+      </c>
+      <c r="R13">
+        <v>849857748.79799986</v>
+      </c>
+      <c r="S13">
+        <v>849287548.75920069</v>
+      </c>
+      <c r="T13">
+        <v>848715632.36646736</v>
+      </c>
+      <c r="U13">
+        <v>848144399.36893713</v>
+      </c>
+      <c r="V13">
+        <v>847570561.41169465</v>
+      </c>
+      <c r="W13">
+        <v>846995986.48561096</v>
+      </c>
+      <c r="X13">
+        <v>846420893.99988484</v>
+      </c>
+      <c r="Y13">
+        <v>839955707.09018159</v>
+      </c>
+      <c r="Z13">
+        <v>833530153.48490763</v>
+      </c>
+      <c r="AA13">
+        <v>827133907.56417513</v>
+      </c>
+      <c r="AB13">
+        <v>820818552.97293663</v>
+      </c>
+      <c r="AC13">
+        <v>814520873.3887639</v>
+      </c>
+      <c r="AD13">
+        <v>808269125.9330194</v>
+      </c>
+      <c r="AE13">
+        <v>802038131.0463897</v>
+      </c>
+      <c r="AF13">
+        <v>795865155.01296937</v>
+      </c>
+      <c r="AG13">
+        <v>789752884.93154883</v>
+      </c>
+      <c r="AH13">
+        <v>783654364.29179668</v>
+      </c>
+      <c r="AI13">
+        <v>777588336.94842887</v>
+      </c>
+      <c r="AJ13">
+        <v>771586209.00692403</v>
+      </c>
+      <c r="AK13">
+        <v>765619340.50867522</v>
+      </c>
+      <c r="AL13">
+        <v>759697704.50085855</v>
+      </c>
+      <c r="AM13">
+        <v>753805179.97505522</v>
+      </c>
+      <c r="AN13">
+        <v>747985406.37755096</v>
+      </c>
+      <c r="AO13">
+        <v>742191791.43365788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>56634006.449162133</v>
+      </c>
+      <c r="M14">
+        <v>135309087.06544811</v>
+      </c>
+      <c r="N14">
+        <v>196776621.26842582</v>
+      </c>
+      <c r="O14">
+        <v>277125989.57607102</v>
+      </c>
+      <c r="P14">
+        <v>386812198.70544159</v>
+      </c>
+      <c r="Q14">
+        <v>471742086.62456691</v>
+      </c>
+      <c r="R14">
+        <v>561657038.31471312</v>
+      </c>
+      <c r="S14">
+        <v>666961724.85200024</v>
+      </c>
+      <c r="T14">
+        <v>761312641.31821966</v>
+      </c>
+      <c r="U14">
+        <v>861591594.07597315</v>
+      </c>
+      <c r="V14">
+        <v>936852844.26207185</v>
+      </c>
+      <c r="W14">
+        <v>1024575833.2228563</v>
+      </c>
+      <c r="X14">
+        <v>1104642421.6828072</v>
+      </c>
+      <c r="Y14">
+        <v>1184810479.3352437</v>
+      </c>
+      <c r="Z14">
+        <v>1270881882.3443985</v>
+      </c>
+      <c r="AA14">
+        <v>1342134019.1413689</v>
+      </c>
+      <c r="AB14">
+        <v>1419118874.5283573</v>
+      </c>
+      <c r="AC14">
+        <v>1486213212.3848672</v>
+      </c>
+      <c r="AD14">
+        <v>1558862947.5729101</v>
+      </c>
+      <c r="AE14">
+        <v>1621379526.8366625</v>
+      </c>
+      <c r="AF14">
+        <v>1682982710.9294062</v>
+      </c>
+      <c r="AG14">
+        <v>1754333035.7381015</v>
+      </c>
+      <c r="AH14">
+        <v>1815556450.2764637</v>
+      </c>
+      <c r="AI14">
+        <v>1873249597.592515</v>
+      </c>
+      <c r="AJ14">
+        <v>1940758247.8497729</v>
+      </c>
+      <c r="AK14">
+        <v>1992370778.7950628</v>
+      </c>
+      <c r="AL14">
+        <v>2047492889.5613465</v>
+      </c>
+      <c r="AM14">
+        <v>2097441151.0541191</v>
+      </c>
+      <c r="AN14">
+        <v>2166716082.2783566</v>
+      </c>
+      <c r="AO14">
+        <v>2222011398.9164119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>1545701770.125</v>
+      </c>
+      <c r="D15">
+        <v>1534642469.8919525</v>
+      </c>
+      <c r="E15">
+        <v>1523739817.5109086</v>
+      </c>
+      <c r="F15">
+        <v>1512869704.169076</v>
+      </c>
+      <c r="G15">
+        <v>1502128254.0587902</v>
+      </c>
+      <c r="H15">
+        <v>1491488820.6302865</v>
+      </c>
+      <c r="I15">
+        <v>1480767322.8452265</v>
+      </c>
+      <c r="J15">
+        <v>1470137540.8372386</v>
+      </c>
+      <c r="K15">
+        <v>1459570888.7345819</v>
+      </c>
+      <c r="L15">
+        <v>1449083473.1517687</v>
+      </c>
+      <c r="M15">
+        <v>1438719419.0448055</v>
+      </c>
+      <c r="N15">
+        <v>1428424387.7016413</v>
+      </c>
+      <c r="O15">
+        <v>1418269550.1065996</v>
+      </c>
+      <c r="P15">
+        <v>1408210442.6777477</v>
+      </c>
+      <c r="Q15">
+        <v>1398241382.6684568</v>
+      </c>
+      <c r="R15">
+        <v>1388338713.698801</v>
+      </c>
+      <c r="S15">
+        <v>1378538423.0520175</v>
+      </c>
+      <c r="T15">
+        <v>1368766729.213227</v>
+      </c>
+      <c r="U15">
+        <v>1359076095.4949491</v>
+      </c>
+      <c r="V15">
+        <v>1349409913.8522403</v>
+      </c>
+      <c r="W15">
+        <v>1339773269.6308401</v>
+      </c>
+      <c r="X15">
+        <v>1330211150.2494438</v>
+      </c>
+      <c r="Y15">
+        <v>1320729340.3662803</v>
+      </c>
+      <c r="Z15">
+        <v>1311290036.4660738</v>
+      </c>
+      <c r="AA15">
+        <v>1301911520.1457057</v>
+      </c>
+      <c r="AB15">
+        <v>1292628354.2292738</v>
+      </c>
+      <c r="AC15">
+        <v>1283374504.1096334</v>
+      </c>
+      <c r="AD15">
+        <v>1274185977.1510439</v>
+      </c>
+      <c r="AE15">
+        <v>1265025692.7600064</v>
+      </c>
+      <c r="AF15">
+        <v>1255945106.5429585</v>
+      </c>
+      <c r="AG15">
+        <v>1246959051.3877869</v>
+      </c>
+      <c r="AH15">
+        <v>1237978981.5494945</v>
+      </c>
+      <c r="AI15">
+        <v>1229046953.7621467</v>
+      </c>
+      <c r="AJ15">
+        <v>1220207963.9596148</v>
+      </c>
+      <c r="AK15">
+        <v>1211409955.8368075</v>
+      </c>
+      <c r="AL15">
+        <v>1202673269.9257338</v>
+      </c>
+      <c r="AM15">
+        <v>1193983007.1292901</v>
+      </c>
+      <c r="AN15">
+        <v>1185385274.8867993</v>
+      </c>
+      <c r="AO15">
+        <v>1176823429.0120325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="27">
+        <f>U11/SUM(U11:U15)</f>
+        <v>0.28089634608528963</v>
+      </c>
+      <c r="V16" s="29"/>
+      <c r="X16" s="29">
+        <v>0.32071782021357825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:AO22" si="1">C3*10^9/C11</f>
+        <v>167.75093034392182</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>167.06374031943508</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>166.3794817931558</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>165.71867705556181</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>164.92025375076702</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>164.13746927453522</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>163.31672014377054</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>162.4892991373745</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>161.57178394835319</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>160.50126694997797</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>159.38689136080725</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>158.24363522143247</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>156.93830780801338</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>155.68148459693489</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>154.41445977263604</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>153.1897353259439</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>151.87381686912195</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>150.54368836347413</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>149.18970688344487</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>147.895261507491</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>146.51690746572953</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>145.19238325810184</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>143.90501569157624</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>142.57571834167808</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>141.26927912096835</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>140.01253797730848</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>138.75510188434779</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>137.49662197851816</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>136.2747134211865</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="1"/>
+        <v>135.02823615071475</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="1"/>
+        <v>133.84349014771186</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="1"/>
+        <v>132.57320184420414</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="1"/>
+        <v>131.3364381605916</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="1"/>
+        <v>130.06001964785651</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="1"/>
+        <v>128.76938643856352</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="1"/>
+        <v>127.52316053011032</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="1"/>
+        <v>126.33639054278282</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="1"/>
+        <v>125.11168459156335</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="1"/>
+        <v>123.91474517171322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>122.70453681200028</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>122.56550531073073</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>122.40862990417223</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>122.23735270249193</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>122.04983207249253</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>121.83527251699131</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>121.61107441160028</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>121.395335541745</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>121.14547017245391</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>120.80303734583964</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>120.45364555649762</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>120.0068665728872</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>119.48960139343785</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>118.99349843758522</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>118.53458485308147</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>118.07685839911022</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>117.63727138961781</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>117.19381027873084</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>116.79143444539262</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>116.36007338929809</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>115.91803167621546</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>115.4964176570504</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>115.09723882765341</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>114.70164341889149</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>114.33015839973854</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>113.89901465552182</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>113.49253468693374</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>113.07948566129971</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>112.70402317073413</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="1"/>
+        <v>112.28024410882037</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>111.88698710414486</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="1"/>
+        <v>111.505714041186</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="1"/>
+        <v>111.14113644736447</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="1"/>
+        <v>110.77438119966367</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="1"/>
+        <v>110.3515686748438</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="1"/>
+        <v>109.91216577872498</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="1"/>
+        <v>109.49895603153306</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="1"/>
+        <v>109.08589357219418</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="1"/>
+        <v>108.67869702891251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>66.835522982403717</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>69.484328084077873</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>70.332015718093601</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>69.69796486936707</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>69.557093392200358</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>69.75464195017905</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>70.288610388889069</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>69.611129053235558</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>69.585875259841387</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>69.544011143998688</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>69.470030019682213</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>69.360147792415432</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>69.221123931397926</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>69.058248470750073</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>68.879371981945951</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>68.667846073645691</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>68.43367051126981</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>68.252916178059635</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>68.026497687148577</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>67.799843553864918</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>67.59358241124697</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>67.387566640157601</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>67.188932192230766</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>67.017513659110818</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>66.87039437728717</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="1"/>
+        <v>66.720547173464965</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="1"/>
+        <v>66.585706298289125</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="1"/>
+        <v>66.481627933845658</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="1"/>
+        <v>66.415348433887075</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="1"/>
+        <v>66.351929151587015</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="1"/>
+        <v>66.304120262158619</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="1"/>
+        <v>66.27000008792713</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="1"/>
+        <v>66.210808181463307</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="1"/>
+        <v>66.169376509362436</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="1"/>
+        <v>66.143526887101473</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="1"/>
+        <v>66.123188380863269</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="1"/>
+        <v>66.107328337770397</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="1"/>
+        <v>66.088253495645588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>60.003331858798532</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>59.638670042874104</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>59.472406314753989</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>58.54414165977073</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>57.853882350739234</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>57.312366688107275</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>56.971866397382726</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>56.504900984119551</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>56.569706569897697</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>56.103933237363087</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>56.042893977238904</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>55.859693144019033</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>55.714422981585365</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>55.68147935200659</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>55.568694794408025</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>55.47189038446853</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>55.40382894846325</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="1"/>
+        <v>55.272005760184122</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="1"/>
+        <v>55.040968647246345</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="1"/>
+        <v>55.074990257947853</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="1"/>
+        <v>55.000152371639835</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="1"/>
+        <v>54.824201729373399</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="1"/>
+        <v>54.777902034106475</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="1"/>
+        <v>54.758066297378519</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="1"/>
+        <v>54.688603908483913</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="1"/>
+        <v>54.618857202463197</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="1"/>
+        <v>54.614176388106344</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="1"/>
+        <v>54.591434883340682</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="1"/>
+        <v>54.561393345673501</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="1"/>
+        <v>54.550898106764869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>168.62175118580225</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>166.9945113004085</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>165.43423148147218</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>163.8509505683146</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>162.27688026102663</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>160.68972603784371</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>159.09776882563872</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>157.53088991526732</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>155.91188201082332</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>154.09821940798636</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>152.34143187723879</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>150.4704948167217</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>148.61925890075349</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>146.7646465932969</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>145.01359112828794</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>143.21120121244996</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>141.5033650262497</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>139.75052809234421</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>138.01287769782709</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>136.31408197291594</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>134.5842195937625</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>132.94379561237685</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>131.3477708677961</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>129.78016241334447</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>128.18788507830405</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>126.66140387705178</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="1"/>
+        <v>125.18166185578141</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="1"/>
+        <v>123.75148228042389</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="1"/>
+        <v>122.34265098337366</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="1"/>
+        <v>120.94876194211994</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="1"/>
+        <v>119.60288703342948</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="1"/>
+        <v>118.22541471891374</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="1"/>
+        <v>116.91113172916236</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="1"/>
+        <v>115.65380861387032</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="1"/>
+        <v>114.42493972360802</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="1"/>
+        <v>113.19465982743949</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="1"/>
+        <v>111.92705918333725</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="1"/>
+        <v>110.77293338240585</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="1"/>
+        <v>109.63665906731201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U23" s="28">
+        <f>(U18-U20)/U18</f>
+        <v>0.54250921458420365</v>
+      </c>
+      <c r="X23" s="28">
+        <f>(X18-X20)/X18</f>
+        <v>0.53445503893211144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34" t="s">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <f>C$11/30</f>
+        <v>68697856.450000003</v>
+      </c>
+      <c r="U35" s="17">
+        <f>U20*U11/10^9</f>
+        <v>119.50901278506051</v>
+      </c>
+      <c r="Z35" s="17">
+        <f>Z20*Z11/10^9</f>
+        <v>112.43112184439666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" s="17">
+        <f>U4</f>
+        <v>165.11212913687316</v>
+      </c>
+      <c r="Z36" s="17">
+        <f>Z4</f>
+        <v>156.03400714170056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="17">
+        <f>U5</f>
+        <v>57.888328597018806</v>
+      </c>
+      <c r="Z37" s="17">
+        <f>Z5</f>
+        <v>56.004000962677161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="U38" s="17">
+        <f>U6</f>
+        <v>48.338677271911635</v>
+      </c>
+      <c r="Z38" s="17">
+        <f>Z6</f>
+        <v>70.621247439738653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="U39" s="17">
+        <f>U20*U15/10^9</f>
+        <v>92.760906825421344</v>
+      </c>
+      <c r="Z39" s="17">
+        <f>Z20*Z15/10^9</f>
+        <v>88.104177344466848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U40" s="17">
+        <f>SUM(U35:U39)</f>
+        <v>483.60905461628545</v>
+      </c>
+      <c r="Z40" s="17">
+        <f>SUM(Z35:Z39)</f>
+        <v>483.1945547329799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U42" s="18">
+        <f>U8-U40</f>
+        <v>236.5272306278581</v>
+      </c>
+      <c r="V42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z42" s="18">
+        <f>Z8-Z40</f>
+        <v>208.22432103263986</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U43" s="19">
+        <f>U42/U8</f>
+        <v>0.32844787226305322</v>
+      </c>
+      <c r="Y43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z43" s="19">
+        <f>Z42/Z8</f>
+        <v>0.30115510052002786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49">
+        <f>C$11/30</f>
+        <v>68697856.450000003</v>
+      </c>
+      <c r="U49" s="17">
+        <f>U19*U11/10^9</f>
+        <v>204.49864729452773</v>
+      </c>
+      <c r="Z49" s="17">
+        <f>Z19*Z11/10^9</f>
+        <v>191.93688642179566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="U50" s="17">
+        <f>U4</f>
+        <v>165.11212913687316</v>
+      </c>
+      <c r="Z50" s="17">
+        <f>Z4</f>
+        <v>156.03400714170056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="U51" s="17">
+        <f>U5</f>
+        <v>57.888328597018806</v>
+      </c>
+      <c r="Z51" s="17">
+        <f>Z5</f>
+        <v>56.004000962677161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="U52" s="17">
+        <f>U6</f>
+        <v>48.338677271911635</v>
+      </c>
+      <c r="Z52" s="17">
+        <f>Z6</f>
+        <v>70.621247439738653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="U53" s="17">
+        <f>U19*U15/10^9</f>
+        <v>158.72844671329852</v>
+      </c>
+      <c r="Z53" s="17">
+        <f>Z19*Z15/10^9</f>
+        <v>150.40712218147681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U54" s="17">
+        <f>SUM(U49:U53)</f>
+        <v>634.56622901362994</v>
+      </c>
+      <c r="Z54" s="17">
+        <f>SUM(Z49:Z53)</f>
+        <v>625.00326414738879</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U56" s="22">
+        <f>U8-U54</f>
+        <v>85.570056230513615</v>
+      </c>
+      <c r="V56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z56" s="22">
+        <f>Z8-Z54</f>
+        <v>66.415611618230969</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="U57" s="23">
+        <f>U56/U8</f>
+        <v>0.1188248085589845</v>
+      </c>
+      <c r="Y57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z57" s="23">
+        <f>Z56/Z8</f>
+        <v>9.6056983611689573E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9921B-F39F-43F4-ABB5-C04C9CADE685}">
+  <dimension ref="A1:AO57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="4.90625" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" customWidth="1"/>
+    <col min="21" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="24">
+        <v>878.59068932657794</v>
+      </c>
+      <c r="D3" s="24">
+        <v>871.84063554522504</v>
+      </c>
+      <c r="E3" s="24">
+        <v>864.94680611155104</v>
+      </c>
+      <c r="F3" s="24">
+        <v>858.03384829451159</v>
+      </c>
+      <c r="G3" s="24">
+        <v>851.12837161995299</v>
+      </c>
+      <c r="H3" s="24">
+        <v>844.2458059921164</v>
+      </c>
+      <c r="I3" s="24">
+        <v>837.21185626135821</v>
+      </c>
+      <c r="J3" s="24">
+        <v>830.09307127692796</v>
+      </c>
+      <c r="K3" s="24">
+        <v>822.78767563311669</v>
+      </c>
+      <c r="L3" s="24">
+        <v>815.03236127144282</v>
+      </c>
+      <c r="M3" s="24">
+        <v>807.07710007912317</v>
+      </c>
+      <c r="N3" s="24">
+        <v>798.84698109667875</v>
+      </c>
+      <c r="O3" s="24">
+        <v>790.68050746094946</v>
+      </c>
+      <c r="P3" s="24">
+        <v>782.92032282864773</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>775.23141803670535</v>
+      </c>
+      <c r="R3" s="24">
+        <v>767.59779469778073</v>
+      </c>
+      <c r="S3" s="24">
+        <v>759.85099599663636</v>
+      </c>
+      <c r="T3" s="24">
+        <v>752.23518149800452</v>
+      </c>
+      <c r="U3" s="17">
+        <v>744.60261682661985</v>
+      </c>
+      <c r="V3" s="24">
+        <v>736.42732138969779</v>
+      </c>
+      <c r="W3" s="24">
+        <v>728.12562067957288</v>
+      </c>
+      <c r="X3" s="24">
+        <v>719.79703181935236</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>711.67997068453303</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>703.26689324214647</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>695.00221738956054</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>686.72910116619812</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>678.53075146773858</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>670.20621082645005</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>661.97494730641483</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>653.79272812159536</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>645.50934720804457</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>637.52097488716311</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>629.39434138818297</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>621.48045702331535</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>613.33944387225006</v>
+      </c>
+      <c r="AL3" s="24">
+        <v>605.78483590374344</v>
+      </c>
+      <c r="AM3" s="24">
+        <v>597.94723145386001</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>589.94576273435086</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>582.12694021209006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="24">
+        <v>382.73008950204081</v>
+      </c>
+      <c r="D4" s="24">
+        <v>382.01398955345866</v>
+      </c>
+      <c r="E4" s="24">
+        <v>381.11756104208035</v>
+      </c>
+      <c r="F4" s="24">
+        <v>380.13550627101023</v>
+      </c>
+      <c r="G4" s="24">
+        <v>379.15616631349889</v>
+      </c>
+      <c r="H4" s="24">
+        <v>378.0727354152894</v>
+      </c>
+      <c r="I4" s="24">
+        <v>376.9452566648024</v>
+      </c>
+      <c r="J4" s="24">
+        <v>375.80787079006336</v>
+      </c>
+      <c r="K4" s="24">
+        <v>373.58154980893772</v>
+      </c>
+      <c r="L4" s="24">
+        <v>371.2732905216543</v>
+      </c>
+      <c r="M4" s="24">
+        <v>368.81753539496094</v>
+      </c>
+      <c r="N4" s="24">
+        <v>366.23164427112351</v>
+      </c>
+      <c r="O4" s="24">
+        <v>363.47763907944716</v>
+      </c>
+      <c r="P4" s="24">
+        <v>360.89804155241416</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>358.37933459874995</v>
+      </c>
+      <c r="R4" s="24">
+        <v>355.97258451397374</v>
+      </c>
+      <c r="S4" s="24">
+        <v>353.47628651606777</v>
+      </c>
+      <c r="T4" s="24">
+        <v>351.01645263819103</v>
+      </c>
+      <c r="U4" s="17">
+        <v>348.47617481414409</v>
+      </c>
+      <c r="V4" s="24">
+        <v>345.82199162692291</v>
+      </c>
+      <c r="W4" s="24">
+        <v>343.16717666833233</v>
+      </c>
+      <c r="X4" s="24">
+        <v>340.57403812410519</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>337.7777160108019</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>334.91079449481015</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>332.12248487257295</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>329.28445701161826</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>326.34656898423555</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>323.46794121695683</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>320.58848779212417</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>317.61661769281619</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>314.61976113944775</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>311.64487334962411</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>308.77926886465298</v>
+      </c>
+      <c r="AJ4" s="24">
+        <v>305.85830034714144</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>302.89868911914431</v>
+      </c>
+      <c r="AL4" s="24">
+        <v>299.95831650650001</v>
+      </c>
+      <c r="AM4" s="24">
+        <v>296.93313252088808</v>
+      </c>
+      <c r="AN4" s="24">
+        <v>293.99302167730622</v>
+      </c>
+      <c r="AO4" s="24">
+        <v>290.8386091068719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>13.715319741877101</v>
+      </c>
+      <c r="E5" s="24">
+        <v>26.518174895115962</v>
+      </c>
+      <c r="F5" s="24">
+        <v>31.460223318316913</v>
+      </c>
+      <c r="G5" s="24">
+        <v>35.48304825601037</v>
+      </c>
+      <c r="H5" s="24">
+        <v>39.627196637152146</v>
+      </c>
+      <c r="I5" s="24">
+        <v>43.092856744782715</v>
+      </c>
+      <c r="J5" s="24">
+        <v>46.687669745202982</v>
+      </c>
+      <c r="K5" s="24">
+        <v>48.995153388473391</v>
+      </c>
+      <c r="L5" s="24">
+        <v>48.97339101256366</v>
+      </c>
+      <c r="M5" s="24">
+        <v>48.949041171783179</v>
+      </c>
+      <c r="N5" s="24">
+        <v>48.923372258039372</v>
+      </c>
+      <c r="O5" s="24">
+        <v>48.889054266724898</v>
+      </c>
+      <c r="P5" s="24">
+        <v>48.85196120902787</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>48.814772798631388</v>
+      </c>
+      <c r="R5" s="24">
+        <v>48.771106580478424</v>
+      </c>
+      <c r="S5" s="24">
+        <v>48.720458348463332</v>
+      </c>
+      <c r="T5" s="24">
+        <v>48.668708354526004</v>
+      </c>
+      <c r="U5" s="17">
+        <v>48.633734931977244</v>
+      </c>
+      <c r="V5" s="24">
+        <v>48.53381460085307</v>
+      </c>
+      <c r="W5" s="24">
+        <v>48.43343465060363</v>
+      </c>
+      <c r="X5" s="24">
+        <v>48.344306396291756</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>48.113224103566537</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>47.87002540849145</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>47.635977643608918</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>47.405540000179506</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>47.174019115855657</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>46.954280276251076</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>46.725686186015714</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>46.509025762420698</v>
+      </c>
+      <c r="AG5" s="24">
+        <v>46.293239426563147</v>
+      </c>
+      <c r="AH5" s="24">
+        <v>46.06188330150794</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>45.828005867707219</v>
+      </c>
+      <c r="AJ5" s="24">
+        <v>45.589926341495392</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>45.355474011828733</v>
+      </c>
+      <c r="AL5" s="24">
+        <v>45.112262664611137</v>
+      </c>
+      <c r="AM5" s="24">
+        <v>44.862340349425459</v>
+      </c>
+      <c r="AN5" s="24">
+        <v>44.616557250024464</v>
+      </c>
+      <c r="AO5" s="24">
+        <v>44.349765226959221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <v>1.9809965269904406</v>
+      </c>
+      <c r="M6" s="24">
+        <v>3.8783701861158972</v>
+      </c>
+      <c r="N6" s="24">
+        <v>5.7200990203808155</v>
+      </c>
+      <c r="O6" s="24">
+        <v>7.5141250176159868</v>
+      </c>
+      <c r="P6" s="24">
+        <v>9.2706150190580061</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>10.984721254901489</v>
+      </c>
+      <c r="R6" s="24">
+        <v>12.557797434378054</v>
+      </c>
+      <c r="S6" s="24">
+        <v>14.134394669076528</v>
+      </c>
+      <c r="T6" s="24">
+        <v>15.566587523609462</v>
+      </c>
+      <c r="U6" s="17">
+        <v>16.99142026116569</v>
+      </c>
+      <c r="V6" s="24">
+        <v>18.322605920410737</v>
+      </c>
+      <c r="W6" s="24">
+        <v>19.647478648444814</v>
+      </c>
+      <c r="X6" s="24">
+        <v>20.984306420467217</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>22.385242496852705</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>23.618027536926213</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>24.846030630971036</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>26.073452353745541</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>27.302225461427184</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>28.527104821456518</v>
+      </c>
+      <c r="AE6" s="24">
+        <v>29.749043701253456</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>30.903725735233191</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>32.060198129166139</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>33.210315028205891</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>34.357894477405942</v>
+      </c>
+      <c r="AJ6" s="24">
+        <v>35.500296892778493</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>36.573121000695537</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>37.64142639974785</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>38.703176496576084</v>
+      </c>
+      <c r="AN6" s="24">
+        <v>39.764257787765672</v>
+      </c>
+      <c r="AO6" s="24">
+        <v>40.81181732532815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="24">
+        <v>742.21784958742194</v>
+      </c>
+      <c r="D7" s="24">
+        <v>733.43587895233748</v>
+      </c>
+      <c r="E7" s="24">
+        <v>724.45765208489399</v>
+      </c>
+      <c r="F7" s="24">
+        <v>715.21856462870721</v>
+      </c>
+      <c r="G7" s="24">
+        <v>706.03208670041067</v>
+      </c>
+      <c r="H7" s="24">
+        <v>697.0245415494885</v>
+      </c>
+      <c r="I7" s="24">
+        <v>688.16951359727739</v>
+      </c>
+      <c r="J7" s="24">
+        <v>679.23382881306156</v>
+      </c>
+      <c r="K7" s="24">
+        <v>670.19640270923401</v>
+      </c>
+      <c r="L7" s="24">
+        <v>661.36979360204555</v>
+      </c>
+      <c r="M7" s="24">
+        <v>652.03478765167483</v>
+      </c>
+      <c r="N7" s="24">
+        <v>643.08372431127975</v>
+      </c>
+      <c r="O7" s="24">
+        <v>633.9043094775235</v>
+      </c>
+      <c r="P7" s="24">
+        <v>625.084769715476</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>616.25572524255608</v>
+      </c>
+      <c r="R7" s="24">
+        <v>607.84035089336226</v>
+      </c>
+      <c r="S7" s="24">
+        <v>599.49094469043928</v>
+      </c>
+      <c r="T7" s="24">
+        <v>591.13897710461947</v>
+      </c>
+      <c r="U7" s="17">
+        <v>583.10966604771659</v>
+      </c>
+      <c r="V7" s="24">
+        <v>574.86171605715117</v>
+      </c>
+      <c r="W7" s="24">
+        <v>566.84978545672936</v>
+      </c>
+      <c r="X7" s="24">
+        <v>558.76450725750851</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>550.89219754419435</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>542.97484266972128</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>535.37134998251452</v>
+      </c>
+      <c r="AB7" s="24">
+        <v>527.85585762012624</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>520.265631746248</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>512.86865436553785</v>
+      </c>
+      <c r="AE7" s="24">
+        <v>505.72658047837297</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>498.59568678872336</v>
+      </c>
+      <c r="AG7" s="24">
+        <v>491.5988560692312</v>
+      </c>
+      <c r="AH7" s="24">
+        <v>484.85016402181373</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>478.26646648481625</v>
+      </c>
+      <c r="AJ7" s="24">
+        <v>471.78986013426749</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>465.26349300365894</v>
+      </c>
+      <c r="AL7" s="24">
+        <v>459.17389888036723</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>453.13969752650814</v>
+      </c>
+      <c r="AN7" s="24">
+        <v>447.01061259973102</v>
+      </c>
+      <c r="AO7" s="24">
+        <v>440.8253592248912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="24">
+        <f>SUM(C3:C7)</f>
+        <v>2003.5386284160409</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
+        <v>2001.0058237928984</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>1997.0401941336413</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>1984.848142512546</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>1971.7996728898729</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>1958.9702795940464</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>1945.4194832682206</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>1931.8224406252559</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>1915.5607815397618</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>1898.6298329346969</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>1880.7568344836582</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="0"/>
+        <v>1862.805820957502</v>
+      </c>
+      <c r="O8" s="24">
+        <f t="shared" si="0"/>
+        <v>1844.465635302261</v>
+      </c>
+      <c r="P8" s="24">
+        <f t="shared" si="0"/>
+        <v>1827.0257103246236</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" si="0"/>
+        <v>1809.6659719315442</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="0"/>
+        <v>1792.7396341199731</v>
+      </c>
+      <c r="S8" s="24">
+        <f t="shared" si="0"/>
+        <v>1775.6730802206835</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="0"/>
+        <v>1758.6259071189506</v>
+      </c>
+      <c r="U8" s="17">
+        <f t="shared" si="0"/>
+        <v>1741.8136128816236</v>
+      </c>
+      <c r="V8" s="24">
+        <f t="shared" si="0"/>
+        <v>1723.9674495950358</v>
+      </c>
+      <c r="W8" s="24">
+        <f t="shared" si="0"/>
+        <v>1706.2234961036829</v>
+      </c>
+      <c r="X8" s="24">
+        <f t="shared" si="0"/>
+        <v>1688.4641900177251</v>
+      </c>
+      <c r="Y8" s="24">
+        <f t="shared" si="0"/>
+        <v>1670.8483508399486</v>
+      </c>
+      <c r="Z8" s="24">
+        <f t="shared" si="0"/>
+        <v>1652.6405833520957</v>
+      </c>
+      <c r="AA8" s="24">
+        <f t="shared" si="0"/>
+        <v>1634.9780605192277</v>
+      </c>
+      <c r="AB8" s="24">
+        <f t="shared" si="0"/>
+        <v>1617.3484081518677</v>
+      </c>
+      <c r="AC8" s="24">
+        <f t="shared" si="0"/>
+        <v>1599.6191967755049</v>
+      </c>
+      <c r="AD8" s="24">
+        <f t="shared" si="0"/>
+        <v>1582.0241915066522</v>
+      </c>
+      <c r="AE8" s="24">
+        <f t="shared" si="0"/>
+        <v>1564.764745464181</v>
+      </c>
+      <c r="AF8" s="24">
+        <f t="shared" si="0"/>
+        <v>1547.417784100789</v>
+      </c>
+      <c r="AG8" s="24">
+        <f t="shared" si="0"/>
+        <v>1530.0814019724528</v>
+      </c>
+      <c r="AH8" s="24">
+        <f t="shared" si="0"/>
+        <v>1513.2882105883148</v>
+      </c>
+      <c r="AI8" s="24">
+        <f t="shared" si="0"/>
+        <v>1496.6259770827653</v>
+      </c>
+      <c r="AJ8" s="24">
+        <f t="shared" si="0"/>
+        <v>1480.2188407389981</v>
+      </c>
+      <c r="AK8" s="24">
+        <f t="shared" si="0"/>
+        <v>1463.4302210075775</v>
+      </c>
+      <c r="AL8" s="24">
+        <f t="shared" si="0"/>
+        <v>1447.6707403549697</v>
+      </c>
+      <c r="AM8" s="24">
+        <f t="shared" si="0"/>
+        <v>1431.585578347258</v>
+      </c>
+      <c r="AN8" s="24">
+        <f t="shared" si="0"/>
+        <v>1415.3302120491783</v>
+      </c>
+      <c r="AO8" s="24">
+        <f t="shared" si="0"/>
+        <v>1398.9524910961404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="25">
+        <v>4504773611.603446</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4493983191.8979292</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4483219787.5778999</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4472526568.9987364</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4461848788.6750441</v>
+      </c>
+      <c r="H11" s="25">
+        <v>4451197720.1654358</v>
+      </c>
+      <c r="I11" s="25">
+        <v>4440573293.8859787</v>
+      </c>
+      <c r="J11" s="25">
+        <v>4429975440.4399815</v>
+      </c>
+      <c r="K11" s="25">
+        <v>4419404090.6174641</v>
+      </c>
+      <c r="L11" s="25">
+        <v>4408854769.9225903</v>
+      </c>
+      <c r="M11" s="25">
+        <v>4398331835.8363285</v>
+      </c>
+      <c r="N11" s="25">
+        <v>4387831184.4737034</v>
+      </c>
+      <c r="O11" s="25">
+        <v>4377356797.4444742</v>
+      </c>
+      <c r="P11" s="25">
+        <v>4366917820.0776768</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>4356504935.4003448</v>
+      </c>
+      <c r="R11" s="25">
+        <v>4346115925.3568716</v>
+      </c>
+      <c r="S11" s="25">
+        <v>4335752885.088398</v>
+      </c>
+      <c r="T11" s="25">
+        <v>4325365992.02948</v>
+      </c>
+      <c r="U11" s="25">
+        <v>4315004388.3215666</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4304683845.3157253</v>
+      </c>
+      <c r="W11" s="25">
+        <v>4294389155.7801137</v>
+      </c>
+      <c r="X11" s="25">
+        <v>4284141462.2267756</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>4273923359.8769569</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>4263726867.8199749</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>4253555880.1398497</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>4243410330.3638215</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>4233290152.1982021</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>4223195279.5278702</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>4213125646.4157887</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>4203072332.3888383</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>4193044166.9306307</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>4183041084.4905128</v>
+      </c>
+      <c r="AI11" s="25">
+        <v>4173063019.6944427</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>4163109907.3444867</v>
+      </c>
+      <c r="AK11" s="25">
+        <v>4153172820.8713307</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>4143260590.6579452</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>4133373151.9357991</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>4123510440.1107812</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>4113672390.7627201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="25">
+        <v>3094739302.8886118</v>
+      </c>
+      <c r="D12" s="25">
+        <v>3093970788.4554524</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3093202473.2384095</v>
+      </c>
+      <c r="F12" s="25">
+        <v>3092437875.5142021</v>
+      </c>
+      <c r="G12" s="25">
+        <v>3091672855.1348429</v>
+      </c>
+      <c r="H12" s="25">
+        <v>3090908032.7434392</v>
+      </c>
+      <c r="I12" s="25">
+        <v>3090143408.2864904</v>
+      </c>
+      <c r="J12" s="25">
+        <v>3089378981.7105193</v>
+      </c>
+      <c r="K12" s="25">
+        <v>3081385463.0201106</v>
+      </c>
+      <c r="L12" s="25">
+        <v>3073408327.2507133</v>
+      </c>
+      <c r="M12" s="25">
+        <v>3065452882.7500072</v>
+      </c>
+      <c r="N12" s="25">
+        <v>3057517521.661994</v>
+      </c>
+      <c r="O12" s="25">
+        <v>3049603734.9638023</v>
+      </c>
+      <c r="P12" s="25">
+        <v>3041727031.2526546</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>3033871712.0135365</v>
+      </c>
+      <c r="R12" s="25">
+        <v>3026036306.9222674</v>
+      </c>
+      <c r="S12" s="25">
+        <v>3018222174.2791934</v>
+      </c>
+      <c r="T12" s="25">
+        <v>3010367717.9592619</v>
+      </c>
+      <c r="U12" s="25">
+        <v>3002533931.2568369</v>
+      </c>
+      <c r="V12" s="25">
+        <v>2994734860.9812336</v>
+      </c>
+      <c r="W12" s="25">
+        <v>2986957050.591423</v>
+      </c>
+      <c r="X12" s="25">
+        <v>2979236799.2442737</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>2971539040.0492282</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>2963860688.9641747</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>2956203200.0792356</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>2948566513.9402442</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>2940950571.2696137</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>2933355312.9658136</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>2925780680.1028142</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>2918221669.2011476</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>2910683191.3981252</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>2903165188.1916423</v>
+      </c>
+      <c r="AI12" s="25">
+        <v>2895667601.2533298</v>
+      </c>
+      <c r="AJ12" s="25">
+        <v>2888190372.4280157</v>
+      </c>
+      <c r="AK12" s="25">
+        <v>2880718547.7957902</v>
+      </c>
+      <c r="AL12" s="25">
+        <v>2873267029.7762189</v>
+      </c>
+      <c r="AM12" s="25">
+        <v>2865835760.5223842</v>
+      </c>
+      <c r="AN12" s="25">
+        <v>2858424682.3590512</v>
+      </c>
+      <c r="AO12" s="25">
+        <v>2851033737.7821369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>285621087.51758736</v>
+      </c>
+      <c r="E13" s="25">
+        <v>580658098.49597871</v>
+      </c>
+      <c r="F13" s="25">
+        <v>701742455.44256842</v>
+      </c>
+      <c r="G13" s="25">
+        <v>799394982.67471373</v>
+      </c>
+      <c r="H13" s="25">
+        <v>907467427.83995807</v>
+      </c>
+      <c r="I13" s="25">
+        <v>999875235.6809442</v>
+      </c>
+      <c r="J13" s="25">
+        <v>1095637498.7496722</v>
+      </c>
+      <c r="K13" s="25">
+        <v>1191760095.9625943</v>
+      </c>
+      <c r="L13" s="25">
+        <v>1191427698.1406326</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1191095396.0453877</v>
+      </c>
+      <c r="N13" s="25">
+        <v>1190763111.3043294</v>
+      </c>
+      <c r="O13" s="25">
+        <v>1190430922.2654023</v>
+      </c>
+      <c r="P13" s="25">
+        <v>1190099208.6564355</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>1189767590.534862</v>
+      </c>
+      <c r="R13" s="25">
+        <v>1189435680.4247272</v>
+      </c>
+      <c r="S13" s="25">
+        <v>1189103865.9937007</v>
+      </c>
+      <c r="T13" s="25">
+        <v>1188770578.5228028</v>
+      </c>
+      <c r="U13" s="25">
+        <v>1188437355.6584709</v>
+      </c>
+      <c r="V13" s="25">
+        <v>1188104903.5827398</v>
+      </c>
+      <c r="W13" s="25">
+        <v>1187772547.5563648</v>
+      </c>
+      <c r="X13" s="25">
+        <v>1187440676.0613475</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>1183953055.7423918</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>1180475243.164124</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>1177008016.4968512</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>1173551342.634511</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>1170105188.5766175</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>1166669521.4279222</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>1163244308.3980727</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>1159828132.5492182</v>
+      </c>
+      <c r="AG13" s="25">
+        <v>1156422353.7014296</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>1153026939.3395951</v>
+      </c>
+      <c r="AI13" s="25">
+        <v>1149641857.0523086</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>1146267074.5315268</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>1142898731.3359911</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>1139540640.1227481</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>1136192768.8383667</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>1132855085.5316088</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>1129527558.3530979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>93743098.887765735</v>
+      </c>
+      <c r="M14" s="25">
+        <v>183671427.81931868</v>
+      </c>
+      <c r="N14" s="25">
+        <v>271096443.88348812</v>
+      </c>
+      <c r="O14" s="25">
+        <v>358091909.25715417</v>
+      </c>
+      <c r="P14" s="25">
+        <v>446854845.22310138</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>534956511.50574458</v>
+      </c>
+      <c r="R14" s="25">
+        <v>620610216.75729096</v>
+      </c>
+      <c r="S14" s="25">
+        <v>706457796.60969591</v>
+      </c>
+      <c r="T14" s="25">
+        <v>782561841.36436462</v>
+      </c>
+      <c r="U14" s="25">
+        <v>858435794.0529052</v>
+      </c>
+      <c r="V14" s="25">
+        <v>934052351.74379897</v>
+      </c>
+      <c r="W14" s="25">
+        <v>1009555247.6643574</v>
+      </c>
+      <c r="X14" s="25">
+        <v>1085431018.9377952</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>1164522354.8259547</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>1243422930.1380289</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>1321339608.844336</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>1399219618.9390497</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>1476828906.5725687</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>1554267202.8367257</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>1631637590.5088789</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>1703392238.4534938</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>1775077947.6245294</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>1846470049.4673121</v>
+      </c>
+      <c r="AI14" s="25">
+        <v>1917789792.5822642</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>1988816144.0548022</v>
+      </c>
+      <c r="AK14" s="25">
+        <v>2054130044.3169935</v>
+      </c>
+      <c r="AL14" s="25">
+        <v>2119272115.522402</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>2184262331.2153649</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>2249127090.4681649</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>2313890006.0310221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="25">
+        <v>3896847381.9112215</v>
+      </c>
+      <c r="D15" s="25">
+        <v>3885420662.2202659</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3874028852.9560761</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3862698423.2289619</v>
+      </c>
+      <c r="G15" s="25">
+        <v>3851393155.4048667</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3840122423.765769</v>
+      </c>
+      <c r="I15" s="25">
+        <v>3828886119.0642619</v>
+      </c>
+      <c r="J15" s="25">
+        <v>3817684132.4077926</v>
+      </c>
+      <c r="K15" s="25">
+        <v>3806516355.2574897</v>
+      </c>
+      <c r="L15" s="25">
+        <v>3795378085.7528377</v>
+      </c>
+      <c r="M15" s="25">
+        <v>3784273837.9817395</v>
+      </c>
+      <c r="N15" s="25">
+        <v>3773198113.175601</v>
+      </c>
+      <c r="O15" s="25">
+        <v>3762156218.8914742</v>
+      </c>
+      <c r="P15" s="25">
+        <v>3751159359.7469196</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>3740196066.6729207</v>
+      </c>
+      <c r="R15" s="25">
+        <v>3729263553.0974422</v>
+      </c>
+      <c r="S15" s="25">
+        <v>3718364412.5407515</v>
+      </c>
+      <c r="T15" s="25">
+        <v>3707461053.8999496</v>
+      </c>
+      <c r="U15" s="25">
+        <v>3696590448.077559</v>
+      </c>
+      <c r="V15" s="25">
+        <v>3685764760.1513481</v>
+      </c>
+      <c r="W15" s="25">
+        <v>3674972166.7627349</v>
+      </c>
+      <c r="X15" s="25">
+        <v>3664226593.7392621</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>3653519104.7373028</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>3642839059.7884731</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>3632191629.1969619</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>3621576709.7466559</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>3610994198.5570855</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>3600443993.0823359</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>3589925991.1099219</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>3579435015.3260689</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>3568976066.3759322</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>3558549042.9296041</v>
+      </c>
+      <c r="AI15" s="25">
+        <v>3548153843.9866385</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>3537790368.8749595</v>
+      </c>
+      <c r="AK15" s="25">
+        <v>3527447714.7654428</v>
+      </c>
+      <c r="AL15" s="25">
+        <v>3517136632.6360412</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>3506857022.629848</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>3496608785.2144852</v>
+      </c>
+      <c r="AO15" s="25">
+        <v>3486391821.1810284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="27">
+        <f>U11/SUM(U11:U15)</f>
+        <v>0.33037315327117933</v>
+      </c>
+      <c r="Z16" s="29">
+        <f>Z11/SUM(Z11:Z15)</f>
+        <v>0.32071782021357825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" ref="C18:AO22" si="1">C3*10^9/C11</f>
+        <v>195.03548126447339</v>
+      </c>
+      <c r="D18" s="24">
+        <f t="shared" si="1"/>
+        <v>194.00175708646196</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>192.92982434368813</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" si="1"/>
+        <v>191.84544464016443</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="1"/>
+        <v>190.75688395811761</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="1"/>
+        <v>189.66710963375016</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="1"/>
+        <v>188.53688495899317</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="1"/>
+        <v>187.38096462098756</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="1"/>
+        <v>186.17615831508172</v>
+      </c>
+      <c r="L18" s="24">
+        <f t="shared" si="1"/>
+        <v>184.86260124321424</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="1"/>
+        <v>183.49618223511325</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="1"/>
+        <v>182.0596434802211</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="1"/>
+        <v>180.62966855307596</v>
+      </c>
+      <c r="P18" s="24">
+        <f t="shared" si="1"/>
+        <v>179.2844186874855</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" si="1"/>
+        <v>177.94801785653544</v>
+      </c>
+      <c r="R18" s="24">
+        <f t="shared" si="1"/>
+        <v>176.61696279644246</v>
+      </c>
+      <c r="S18" s="24">
+        <f t="shared" si="1"/>
+        <v>175.2523762620167</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="1"/>
+        <v>173.91249269638166</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="1"/>
+        <v>172.56126525429849</v>
+      </c>
+      <c r="V18" s="24">
+        <f t="shared" si="1"/>
+        <v>171.07582062990849</v>
+      </c>
+      <c r="W18" s="24">
+        <f t="shared" si="1"/>
+        <v>169.55278021311565</v>
+      </c>
+      <c r="X18" s="24">
+        <f t="shared" si="1"/>
+        <v>168.014300686799</v>
+      </c>
+      <c r="Y18" s="24">
+        <f t="shared" si="1"/>
+        <v>166.5167834701233</v>
+      </c>
+      <c r="Z18" s="24">
+        <f t="shared" si="1"/>
+        <v>164.94182555406599</v>
+      </c>
+      <c r="AA18" s="24">
+        <f t="shared" si="1"/>
+        <v>163.39322603814247</v>
+      </c>
+      <c r="AB18" s="24">
+        <f t="shared" si="1"/>
+        <v>161.83424361587001</v>
+      </c>
+      <c r="AC18" s="24">
+        <f t="shared" si="1"/>
+        <v>160.28448962219159</v>
+      </c>
+      <c r="AD18" s="24">
+        <f t="shared" si="1"/>
+        <v>158.69647659328115</v>
+      </c>
+      <c r="AE18" s="24">
+        <f t="shared" si="1"/>
+        <v>157.12205209677842</v>
+      </c>
+      <c r="AF18" s="24">
+        <f t="shared" si="1"/>
+        <v>155.55114840243752</v>
+      </c>
+      <c r="AG18" s="24">
+        <f t="shared" si="1"/>
+        <v>153.94766224954097</v>
+      </c>
+      <c r="AH18" s="24">
+        <f t="shared" si="1"/>
+        <v>152.40609929720833</v>
+      </c>
+      <c r="AI18" s="24">
+        <f t="shared" si="1"/>
+        <v>150.8231096481903</v>
+      </c>
+      <c r="AJ18" s="24">
+        <f t="shared" si="1"/>
+        <v>149.28274075275078</v>
+      </c>
+      <c r="AK18" s="24">
+        <f t="shared" si="1"/>
+        <v>147.67973073260461</v>
+      </c>
+      <c r="AL18" s="24">
+        <f t="shared" si="1"/>
+        <v>146.20968743062949</v>
+      </c>
+      <c r="AM18" s="24">
+        <f t="shared" si="1"/>
+        <v>144.66325915283525</v>
+      </c>
+      <c r="AN18" s="24">
+        <f t="shared" si="1"/>
+        <v>143.06881752880963</v>
+      </c>
+      <c r="AO18" s="24">
+        <f t="shared" si="1"/>
+        <v>141.51028203394617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="24">
+        <f t="shared" si="1"/>
+        <v>123.67118908684903</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" si="1"/>
+        <v>123.47045776219647</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="1"/>
+        <v>123.21132041610961</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" si="1"/>
+        <v>122.92421758280346</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="1"/>
+        <v>122.63786761389477</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="1"/>
+        <v>122.31769156836359</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="1"/>
+        <v>121.98309491203246</v>
+      </c>
+      <c r="J19" s="24">
+        <f t="shared" si="1"/>
+        <v>121.64511800426214</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="1"/>
+        <v>121.23817493536984</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="1"/>
+        <v>120.80181055986567</v>
+      </c>
+      <c r="M19" s="24">
+        <f t="shared" si="1"/>
+        <v>120.3142078843815</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="1"/>
+        <v>119.78071807485463</v>
+      </c>
+      <c r="O19" s="24">
+        <f t="shared" si="1"/>
+        <v>119.1884817401568</v>
+      </c>
+      <c r="P19" s="24">
+        <f t="shared" si="1"/>
+        <v>118.64905622507089</v>
+      </c>
+      <c r="Q19" s="24">
+        <f t="shared" si="1"/>
+        <v>118.12606748651834</v>
+      </c>
+      <c r="R19" s="24">
+        <f t="shared" si="1"/>
+        <v>117.63658740632485</v>
+      </c>
+      <c r="S19" s="24">
+        <f t="shared" si="1"/>
+        <v>117.11407116690617</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="1"/>
+        <v>116.6025168766247</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="1"/>
+        <v>116.06069499713355</v>
+      </c>
+      <c r="V19" s="24">
+        <f t="shared" si="1"/>
+        <v>115.4766641056208</v>
+      </c>
+      <c r="W19" s="24">
+        <f t="shared" si="1"/>
+        <v>114.88855408897982</v>
+      </c>
+      <c r="X19" s="24">
+        <f t="shared" si="1"/>
+        <v>114.31586714103983</v>
+      </c>
+      <c r="Y19" s="24">
+        <f t="shared" si="1"/>
+        <v>113.67096694957306</v>
+      </c>
+      <c r="Z19" s="24">
+        <f t="shared" si="1"/>
+        <v>112.99815667512243</v>
+      </c>
+      <c r="AA19" s="24">
+        <f t="shared" si="1"/>
+        <v>112.3476508190205</v>
+      </c>
+      <c r="AB19" s="24">
+        <f t="shared" si="1"/>
+        <v>111.67611632799394</v>
+      </c>
+      <c r="AC19" s="24">
+        <f t="shared" si="1"/>
+        <v>110.96635631089546</v>
+      </c>
+      <c r="AD19" s="24">
+        <f t="shared" si="1"/>
+        <v>110.2723355016647</v>
+      </c>
+      <c r="AE19" s="24">
+        <f t="shared" si="1"/>
+        <v>109.57365669010379</v>
+      </c>
+      <c r="AF19" s="24">
+        <f t="shared" si="1"/>
+        <v>108.83909918322365</v>
+      </c>
+      <c r="AG19" s="24">
+        <f t="shared" si="1"/>
+        <v>108.09137939478823</v>
+      </c>
+      <c r="AH19" s="24">
+        <f t="shared" si="1"/>
+        <v>107.34658662111649</v>
+      </c>
+      <c r="AI19" s="24">
+        <f t="shared" si="1"/>
+        <v>106.63491511629451</v>
+      </c>
+      <c r="AJ19" s="24">
+        <f t="shared" si="1"/>
+        <v>105.8996329559867</v>
+      </c>
+      <c r="AK19" s="24">
+        <f t="shared" si="1"/>
+        <v>105.14692223261802</v>
+      </c>
+      <c r="AL19" s="24">
+        <f t="shared" si="1"/>
+        <v>104.39625464600897</v>
+      </c>
+      <c r="AM19" s="24">
+        <f t="shared" si="1"/>
+        <v>103.61135715145208</v>
+      </c>
+      <c r="AN19" s="24">
+        <f t="shared" si="1"/>
+        <v>102.85141444926037</v>
+      </c>
+      <c r="AO19" s="24">
+        <f t="shared" si="1"/>
+        <v>102.01163362350097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" si="1"/>
+        <v>48.019282683504834</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="1"/>
+        <v>45.66917255404406</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" si="1"/>
+        <v>44.831580410046406</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="1"/>
+        <v>44.387379236840886</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="1"/>
+        <v>43.66789971897574</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="1"/>
+        <v>43.098233866583584</v>
+      </c>
+      <c r="J20" s="24">
+        <f t="shared" si="1"/>
+        <v>42.612332818548438</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.111590792859701</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.104794767649409</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.095819305742609</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.085730481229007</v>
+      </c>
+      <c r="O20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.068367220912343</v>
+      </c>
+      <c r="P20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.048646073951581</v>
+      </c>
+      <c r="Q20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.028830493429915</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="1"/>
+        <v>41.003567812143565</v>
+      </c>
+      <c r="S20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.972416070440588</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.940370861973214</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.92242195217014</v>
+      </c>
+      <c r="V20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.849772149327023</v>
+      </c>
+      <c r="W20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.776691421473743</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.713028760852481</v>
+      </c>
+      <c r="Y20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.637780248303322</v>
+      </c>
+      <c r="Z20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.551486094855761</v>
+      </c>
+      <c r="AA20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.472092777574005</v>
+      </c>
+      <c r="AB20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.394943346712537</v>
+      </c>
+      <c r="AC20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.316049852954521</v>
+      </c>
+      <c r="AD20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.246427470550792</v>
+      </c>
+      <c r="AE20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.168420209476551</v>
+      </c>
+      <c r="AF20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.099928995684245</v>
+      </c>
+      <c r="AG20" s="24">
+        <f t="shared" si="1"/>
+        <v>40.031429069482819</v>
+      </c>
+      <c r="AH20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.948661848170033</v>
+      </c>
+      <c r="AI20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.862854319875424</v>
+      </c>
+      <c r="AJ20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.772516679961122</v>
+      </c>
+      <c r="AK20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.684595641129519</v>
+      </c>
+      <c r="AL20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.588112153465424</v>
+      </c>
+      <c r="AM20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.484796576634011</v>
+      </c>
+      <c r="AN20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.38416997888789</v>
+      </c>
+      <c r="AO20" s="24">
+        <f t="shared" si="1"/>
+        <v>39.263995728995916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" si="1"/>
+        <v>21.132185200770842</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" si="1"/>
+        <v>21.11580571982665</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="1"/>
+        <v>21.09986740674179</v>
+      </c>
+      <c r="O21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.983788863601266</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.746367904838234</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.533858395297859</v>
+      </c>
+      <c r="R21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.234596684522796</v>
+      </c>
+      <c r="S21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.007415498714504</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.891830524818015</v>
+      </c>
+      <c r="U21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.793466650481388</v>
+      </c>
+      <c r="V21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.616251579693511</v>
+      </c>
+      <c r="W21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.461519014338212</v>
+      </c>
+      <c r="X21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.33269462024634</v>
+      </c>
+      <c r="Y21" s="24">
+        <f t="shared" si="1"/>
+        <v>19.222681646328997</v>
+      </c>
+      <c r="Z21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.99436383588683</v>
+      </c>
+      <c r="AA21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.80366747856878</v>
+      </c>
+      <c r="AB21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.634281567260746</v>
+      </c>
+      <c r="AC21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.487060579542906</v>
+      </c>
+      <c r="AD21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.354054418307935</v>
+      </c>
+      <c r="AE21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.232629521593246</v>
+      </c>
+      <c r="AF21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.142460108477785</v>
+      </c>
+      <c r="AG21" s="24">
+        <f t="shared" si="1"/>
+        <v>18.061290306755375</v>
+      </c>
+      <c r="AH21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.985840083237054</v>
+      </c>
+      <c r="AI21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.915359968176571</v>
+      </c>
+      <c r="AJ21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.849964160287044</v>
+      </c>
+      <c r="AK21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.804676535392503</v>
+      </c>
+      <c r="AL21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.761488071327364</v>
+      </c>
+      <c r="AM21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.719106328698579</v>
+      </c>
+      <c r="AN21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.679862537020341</v>
+      </c>
+      <c r="AO21" s="24">
+        <f t="shared" si="1"/>
+        <v>17.637751673136787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="24">
+        <f t="shared" ref="C22:K22" si="2">C7*10^9/C15</f>
+        <v>190.46623509884517</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="2"/>
+        <v>188.76614470187803</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="2"/>
+        <v>187.0036800402498</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="2"/>
+        <v>185.16034291665758</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="2"/>
+        <v>183.31862217431578</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="2"/>
+        <v>181.51102090801572</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="2"/>
+        <v>179.73099543776937</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="2"/>
+        <v>177.91776513073449</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" si="2"/>
+        <v>176.06555184862694</v>
+      </c>
+      <c r="L22" s="24">
+        <f t="shared" si="1"/>
+        <v>174.25662968459139</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="1"/>
+        <v>172.30116412490472</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="1"/>
+        <v>170.43465649622286</v>
+      </c>
+      <c r="O22" s="24">
+        <f t="shared" si="1"/>
+        <v>168.49494614136583</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" si="1"/>
+        <v>166.63775376305225</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="1"/>
+        <v>164.76562037314378</v>
+      </c>
+      <c r="R22" s="24">
+        <f t="shared" si="1"/>
+        <v>162.99206056072487</v>
+      </c>
+      <c r="S22" s="24">
+        <f t="shared" si="1"/>
+        <v>161.22436592512682</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="1"/>
+        <v>159.44576854901524</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" si="1"/>
+        <v>157.74256689727889</v>
+      </c>
+      <c r="V22" s="24">
+        <f t="shared" si="1"/>
+        <v>155.96809711576537</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" si="1"/>
+        <v>154.24600778842486</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" si="1"/>
+        <v>152.49179955525122</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="1"/>
+        <v>150.78399257030978</v>
+      </c>
+      <c r="Z22" s="24">
+        <f t="shared" si="1"/>
+        <v>149.05265748996607</v>
+      </c>
+      <c r="AA22" s="24">
+        <f t="shared" si="1"/>
+        <v>147.39622922948018</v>
+      </c>
+      <c r="AB22" s="24">
+        <f t="shared" si="1"/>
+        <v>145.75305175768372</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" si="1"/>
+        <v>144.07822420599305</v>
+      </c>
+      <c r="AD22" s="24">
+        <f t="shared" si="1"/>
+        <v>142.44594704179013</v>
+      </c>
+      <c r="AE22" s="24">
+        <f t="shared" si="1"/>
+        <v>140.87381793684668</v>
+      </c>
+      <c r="AF22" s="24">
+        <f t="shared" si="1"/>
+        <v>139.29452124536022</v>
+      </c>
+      <c r="AG22" s="24">
+        <f t="shared" si="1"/>
+        <v>137.74226750935276</v>
+      </c>
+      <c r="AH22" s="24">
+        <f t="shared" si="1"/>
+        <v>136.24939776652815</v>
+      </c>
+      <c r="AI22" s="24">
+        <f t="shared" si="1"/>
+        <v>134.79304661362852</v>
+      </c>
+      <c r="AJ22" s="24">
+        <f t="shared" si="1"/>
+        <v>133.35721197191785</v>
+      </c>
+      <c r="AK22" s="24">
+        <f t="shared" si="1"/>
+        <v>131.8980550884215</v>
+      </c>
+      <c r="AL22" s="24">
+        <f t="shared" si="1"/>
+        <v>130.55332983644234</v>
+      </c>
+      <c r="AM22" s="24">
+        <f t="shared" si="1"/>
+        <v>129.21533287567323</v>
+      </c>
+      <c r="AN22" s="24">
+        <f t="shared" si="1"/>
+        <v>127.84118557670185</v>
+      </c>
+      <c r="AO22" s="24">
+        <f t="shared" si="1"/>
+        <v>126.44171448163847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U23" s="28">
+        <f>(U18-U20)/U18</f>
+        <v>0.76285279380709248</v>
+      </c>
+      <c r="Z23" s="28">
+        <f>(Z18-Z20)/Z18</f>
+        <v>0.75414673653188435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="25">
+        <f>C$11/30</f>
+        <v>150159120.38678154</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" ref="D26:AO26" si="3">D$11/30</f>
+        <v>149799439.72993097</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="3"/>
+        <v>149440659.58592999</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="3"/>
+        <v>149084218.96662456</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="3"/>
+        <v>148728292.95583481</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="3"/>
+        <v>148373257.33884785</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="3"/>
+        <v>148019109.79619929</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="3"/>
+        <v>147665848.01466605</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="3"/>
+        <v>147313469.6872488</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="3"/>
+        <v>146961825.66408634</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="3"/>
+        <v>146611061.19454429</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="3"/>
+        <v>146261039.48245677</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="3"/>
+        <v>145911893.24814913</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" si="3"/>
+        <v>145563927.33592257</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="3"/>
+        <v>145216831.18001148</v>
+      </c>
+      <c r="R26" s="25">
+        <f t="shared" si="3"/>
+        <v>144870530.84522906</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="3"/>
+        <v>144525096.16961327</v>
+      </c>
+      <c r="T26" s="25">
+        <f t="shared" si="3"/>
+        <v>144178866.40098268</v>
+      </c>
+      <c r="U26" s="25">
+        <f t="shared" si="3"/>
+        <v>143833479.61071888</v>
+      </c>
+      <c r="V26" s="25">
+        <f t="shared" si="3"/>
+        <v>143489461.51052418</v>
+      </c>
+      <c r="W26" s="25">
+        <f t="shared" si="3"/>
+        <v>143146305.19267046</v>
+      </c>
+      <c r="X26" s="25">
+        <f t="shared" si="3"/>
+        <v>142804715.40755919</v>
+      </c>
+      <c r="Y26" s="25">
+        <f t="shared" si="3"/>
+        <v>142464111.99589857</v>
+      </c>
+      <c r="Z26" s="25">
+        <f t="shared" si="3"/>
+        <v>142124228.92733249</v>
+      </c>
+      <c r="AA26" s="25">
+        <f t="shared" si="3"/>
+        <v>141785196.00466165</v>
+      </c>
+      <c r="AB26" s="25">
+        <f t="shared" si="3"/>
+        <v>141447011.01212737</v>
+      </c>
+      <c r="AC26" s="25">
+        <f t="shared" si="3"/>
+        <v>141109671.73994008</v>
+      </c>
+      <c r="AD26" s="25">
+        <f t="shared" si="3"/>
+        <v>140773175.98426235</v>
+      </c>
+      <c r="AE26" s="25">
+        <f t="shared" si="3"/>
+        <v>140437521.54719296</v>
+      </c>
+      <c r="AF26" s="25">
+        <f t="shared" si="3"/>
+        <v>140102411.07962793</v>
+      </c>
+      <c r="AG26" s="25">
+        <f t="shared" si="3"/>
+        <v>139768138.8976877</v>
+      </c>
+      <c r="AH26" s="25">
+        <f t="shared" si="3"/>
+        <v>139434702.81635043</v>
+      </c>
+      <c r="AI26" s="25">
+        <f t="shared" si="3"/>
+        <v>139102100.65648142</v>
+      </c>
+      <c r="AJ26" s="25">
+        <f t="shared" si="3"/>
+        <v>138770330.24481621</v>
+      </c>
+      <c r="AK26" s="25">
+        <f t="shared" si="3"/>
+        <v>138439094.02904436</v>
+      </c>
+      <c r="AL26" s="25">
+        <f t="shared" si="3"/>
+        <v>138108686.35526484</v>
+      </c>
+      <c r="AM26" s="25">
+        <f t="shared" si="3"/>
+        <v>137779105.06452665</v>
+      </c>
+      <c r="AN26" s="25">
+        <f t="shared" si="3"/>
+        <v>137450348.00369272</v>
+      </c>
+      <c r="AO26" s="25">
+        <f t="shared" si="3"/>
+        <v>137122413.025424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="25">
+        <f>C$12/18</f>
+        <v>171929961.27158955</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" ref="D27:AO27" si="4">D$12/18</f>
+        <v>171887266.02530292</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="4"/>
+        <v>171844581.8465783</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="4"/>
+        <v>171802104.19523346</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="4"/>
+        <v>171759603.06304681</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="4"/>
+        <v>171717112.93019107</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="4"/>
+        <v>171674633.7936939</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="4"/>
+        <v>171632165.6505844</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="4"/>
+        <v>171188081.27889502</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="4"/>
+        <v>170744907.06948408</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="4"/>
+        <v>170302937.93055594</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="4"/>
+        <v>169862084.53677744</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="4"/>
+        <v>169422429.72021124</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" si="4"/>
+        <v>168984835.06959191</v>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="4"/>
+        <v>168548428.44519648</v>
+      </c>
+      <c r="R27" s="25">
+        <f t="shared" si="4"/>
+        <v>168113128.16234818</v>
+      </c>
+      <c r="S27" s="25">
+        <f t="shared" si="4"/>
+        <v>167679009.68217742</v>
+      </c>
+      <c r="T27" s="25">
+        <f t="shared" si="4"/>
+        <v>167242650.99773678</v>
+      </c>
+      <c r="U27" s="25">
+        <f>U$12/18</f>
+        <v>166807440.62537983</v>
+      </c>
+      <c r="V27" s="25">
+        <f t="shared" si="4"/>
+        <v>166374158.94340187</v>
+      </c>
+      <c r="W27" s="25">
+        <f t="shared" si="4"/>
+        <v>165942058.36619017</v>
+      </c>
+      <c r="X27" s="25">
+        <f t="shared" si="4"/>
+        <v>165513155.51357076</v>
+      </c>
+      <c r="Y27" s="25">
+        <f t="shared" si="4"/>
+        <v>165085502.22495711</v>
+      </c>
+      <c r="Z27" s="25">
+        <f t="shared" si="4"/>
+        <v>164658927.16467637</v>
+      </c>
+      <c r="AA27" s="25">
+        <f t="shared" si="4"/>
+        <v>164233511.11551309</v>
+      </c>
+      <c r="AB27" s="25">
+        <f t="shared" si="4"/>
+        <v>163809250.77445802</v>
+      </c>
+      <c r="AC27" s="25">
+        <f t="shared" si="4"/>
+        <v>163386142.84831187</v>
+      </c>
+      <c r="AD27" s="25">
+        <f t="shared" si="4"/>
+        <v>162964184.05365631</v>
+      </c>
+      <c r="AE27" s="25">
+        <f t="shared" si="4"/>
+        <v>162543371.11682302</v>
+      </c>
+      <c r="AF27" s="25">
+        <f t="shared" si="4"/>
+        <v>162123426.06673041</v>
+      </c>
+      <c r="AG27" s="25">
+        <f t="shared" si="4"/>
+        <v>161704621.7443403</v>
+      </c>
+      <c r="AH27" s="25">
+        <f t="shared" si="4"/>
+        <v>161286954.89953569</v>
+      </c>
+      <c r="AI27" s="25">
+        <f t="shared" si="4"/>
+        <v>160870422.29185164</v>
+      </c>
+      <c r="AJ27" s="25">
+        <f t="shared" si="4"/>
+        <v>160455020.6904453</v>
+      </c>
+      <c r="AK27" s="25">
+        <f t="shared" si="4"/>
+        <v>160039919.32198834</v>
+      </c>
+      <c r="AL27" s="25">
+        <f t="shared" si="4"/>
+        <v>159625946.09867883</v>
+      </c>
+      <c r="AM27" s="25">
+        <f t="shared" si="4"/>
+        <v>159213097.80679911</v>
+      </c>
+      <c r="AN27" s="25">
+        <f t="shared" si="4"/>
+        <v>158801371.2421695</v>
+      </c>
+      <c r="AO27" s="25">
+        <f t="shared" si="4"/>
+        <v>158390763.21011871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="25">
+        <f>C$13/12</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" ref="D28:AO28" si="5">D$13/12</f>
+        <v>23801757.293132279</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="5"/>
+        <v>48388174.874664895</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="5"/>
+        <v>58478537.953547366</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="5"/>
+        <v>66616248.556226142</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="5"/>
+        <v>75622285.653329834</v>
+      </c>
+      <c r="I28" s="25">
+        <f t="shared" si="5"/>
+        <v>83322936.30674535</v>
+      </c>
+      <c r="J28" s="25">
+        <f t="shared" si="5"/>
+        <v>91303124.895806015</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="5"/>
+        <v>99313341.330216184</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="5"/>
+        <v>99285641.511719391</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="5"/>
+        <v>99257949.670448974</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="5"/>
+        <v>99230259.275360778</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="5"/>
+        <v>99202576.855450198</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="5"/>
+        <v>99174934.054702953</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" si="5"/>
+        <v>99147299.211238503</v>
+      </c>
+      <c r="R28" s="25">
+        <f t="shared" si="5"/>
+        <v>99119640.035393938</v>
+      </c>
+      <c r="S28" s="25">
+        <f t="shared" si="5"/>
+        <v>99091988.83280839</v>
+      </c>
+      <c r="T28" s="25">
+        <f t="shared" si="5"/>
+        <v>99064214.876900241</v>
+      </c>
+      <c r="U28" s="25">
+        <f>U$13/12</f>
+        <v>99036446.304872572</v>
+      </c>
+      <c r="V28" s="25">
+        <f t="shared" si="5"/>
+        <v>99008741.965228319</v>
+      </c>
+      <c r="W28" s="25">
+        <f t="shared" si="5"/>
+        <v>98981045.62969707</v>
+      </c>
+      <c r="X28" s="25">
+        <f t="shared" si="5"/>
+        <v>98953389.671778962</v>
+      </c>
+      <c r="Y28" s="25">
+        <f t="shared" si="5"/>
+        <v>98662754.645199314</v>
+      </c>
+      <c r="Z28" s="25">
+        <f t="shared" si="5"/>
+        <v>98372936.930343673</v>
+      </c>
+      <c r="AA28" s="25">
+        <f t="shared" si="5"/>
+        <v>98084001.374737605</v>
+      </c>
+      <c r="AB28" s="25">
+        <f t="shared" si="5"/>
+        <v>97795945.219542578</v>
+      </c>
+      <c r="AC28" s="25">
+        <f t="shared" si="5"/>
+        <v>97508765.714718118</v>
+      </c>
+      <c r="AD28" s="25">
+        <f t="shared" si="5"/>
+        <v>97222460.118993521</v>
+      </c>
+      <c r="AE28" s="25">
+        <f t="shared" si="5"/>
+        <v>96937025.699839398</v>
+      </c>
+      <c r="AF28" s="25">
+        <f t="shared" si="5"/>
+        <v>96652344.379101515</v>
+      </c>
+      <c r="AG28" s="25">
+        <f t="shared" si="5"/>
+        <v>96368529.475119129</v>
+      </c>
+      <c r="AH28" s="25">
+        <f t="shared" si="5"/>
+        <v>96085578.278299585</v>
+      </c>
+      <c r="AI28" s="25">
+        <f t="shared" si="5"/>
+        <v>95803488.08769238</v>
+      </c>
+      <c r="AJ28" s="25">
+        <f t="shared" si="5"/>
+        <v>95522256.210960567</v>
+      </c>
+      <c r="AK28" s="25">
+        <f t="shared" si="5"/>
+        <v>95241560.944665924</v>
+      </c>
+      <c r="AL28" s="25">
+        <f t="shared" si="5"/>
+        <v>94961720.010229006</v>
+      </c>
+      <c r="AM28" s="25">
+        <f t="shared" si="5"/>
+        <v>94682730.736530557</v>
+      </c>
+      <c r="AN28" s="25">
+        <f t="shared" si="5"/>
+        <v>94404590.460967407</v>
+      </c>
+      <c r="AO28" s="25">
+        <f t="shared" si="5"/>
+        <v>94127296.529424831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="25">
+        <f>C$14/30</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" ref="D29:AO29" si="6">D$14/30</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="6"/>
+        <v>3124769.9629255245</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="6"/>
+        <v>6122380.9273106223</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="6"/>
+        <v>9036548.1294496041</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="6"/>
+        <v>11936396.975238472</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="6"/>
+        <v>14895161.507436713</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" si="6"/>
+        <v>17831883.716858152</v>
+      </c>
+      <c r="R29" s="25">
+        <f t="shared" si="6"/>
+        <v>20687007.225243032</v>
+      </c>
+      <c r="S29" s="25">
+        <f t="shared" si="6"/>
+        <v>23548593.220323198</v>
+      </c>
+      <c r="T29" s="25">
+        <f t="shared" si="6"/>
+        <v>26085394.712145489</v>
+      </c>
+      <c r="U29" s="25">
+        <f t="shared" si="6"/>
+        <v>28614526.468430173</v>
+      </c>
+      <c r="V29" s="25">
+        <f t="shared" si="6"/>
+        <v>31135078.391459964</v>
+      </c>
+      <c r="W29" s="25">
+        <f t="shared" si="6"/>
+        <v>33651841.588811912</v>
+      </c>
+      <c r="X29" s="25">
+        <f t="shared" si="6"/>
+        <v>36181033.964593172</v>
+      </c>
+      <c r="Y29" s="25">
+        <f t="shared" si="6"/>
+        <v>38817411.827531822</v>
+      </c>
+      <c r="Z29" s="25">
+        <f t="shared" si="6"/>
+        <v>41447431.004600964</v>
+      </c>
+      <c r="AA29" s="25">
+        <f t="shared" si="6"/>
+        <v>44044653.628144532</v>
+      </c>
+      <c r="AB29" s="25">
+        <f t="shared" si="6"/>
+        <v>46640653.964634992</v>
+      </c>
+      <c r="AC29" s="25">
+        <f t="shared" si="6"/>
+        <v>49227630.219085619</v>
+      </c>
+      <c r="AD29" s="25">
+        <f t="shared" si="6"/>
+        <v>51808906.761224188</v>
+      </c>
+      <c r="AE29" s="25">
+        <f t="shared" si="6"/>
+        <v>54387919.683629297</v>
+      </c>
+      <c r="AF29" s="25">
+        <f t="shared" si="6"/>
+        <v>56779741.281783126</v>
+      </c>
+      <c r="AG29" s="25">
+        <f t="shared" si="6"/>
+        <v>59169264.920817643</v>
+      </c>
+      <c r="AH29" s="25">
+        <f t="shared" si="6"/>
+        <v>61549001.648910403</v>
+      </c>
+      <c r="AI29" s="25">
+        <f t="shared" si="6"/>
+        <v>63926326.419408806</v>
+      </c>
+      <c r="AJ29" s="25">
+        <f t="shared" si="6"/>
+        <v>66293871.468493409</v>
+      </c>
+      <c r="AK29" s="25">
+        <f t="shared" si="6"/>
+        <v>68471001.477233112</v>
+      </c>
+      <c r="AL29" s="25">
+        <f t="shared" si="6"/>
+        <v>70642403.850746736</v>
+      </c>
+      <c r="AM29" s="25">
+        <f t="shared" si="6"/>
+        <v>72808744.373845503</v>
+      </c>
+      <c r="AN29" s="25">
+        <f t="shared" si="6"/>
+        <v>74970903.015605494</v>
+      </c>
+      <c r="AO29" s="25">
+        <f t="shared" si="6"/>
+        <v>77129666.867700741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34" t="s">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <f>C$11/30</f>
+        <v>150159120.38678154</v>
+      </c>
+      <c r="U35" s="17">
+        <f>U20*U11/10^9</f>
+        <v>176.58043030436096</v>
+      </c>
+      <c r="Z35" s="17">
+        <f>Z20*Z11/10^9</f>
+        <v>172.9004607926646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" s="17">
+        <f>U4</f>
+        <v>348.47617481414409</v>
+      </c>
+      <c r="Z36" s="17">
+        <f>Z4</f>
+        <v>334.91079449481015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="17">
+        <f>U5</f>
+        <v>48.633734931977244</v>
+      </c>
+      <c r="Z37" s="17">
+        <f>Z5</f>
+        <v>47.87002540849145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="U38" s="17">
+        <f>U6</f>
+        <v>16.99142026116569</v>
+      </c>
+      <c r="Z38" s="17">
+        <f>Z6</f>
+        <v>23.618027536926213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="U39" s="17">
+        <f>U20*U15/10^9</f>
+        <v>151.27343410059154</v>
+      </c>
+      <c r="Z39" s="17">
+        <f>Z20*Z15/10^9</f>
+        <v>147.7225374788097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U40" s="17">
+        <f>SUM(U35:U39)</f>
+        <v>741.95519441223951</v>
+      </c>
+      <c r="Z40" s="17">
+        <f>SUM(Z35:Z39)</f>
+        <v>727.0218457117021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U42" s="18">
+        <f>U8-U40</f>
+        <v>999.85841846938411</v>
+      </c>
+      <c r="V42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z42" s="18">
+        <f>Z8-Z40</f>
+        <v>925.61873764039365</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U43" s="19">
+        <f>U42/U8</f>
+        <v>0.5740329568415975</v>
+      </c>
+      <c r="Y43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z43" s="19">
+        <f>Z42/Z8</f>
+        <v>0.5600847195479951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49">
+        <f>C$11/30</f>
+        <v>150159120.38678154</v>
+      </c>
+      <c r="U49" s="17">
+        <f>U19*U11/10^9</f>
+        <v>500.80240822428215</v>
+      </c>
+      <c r="Z49" s="17">
+        <f>Z19*Z11/10^9</f>
+        <v>481.79327662985054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="U50" s="17">
+        <f>U4</f>
+        <v>348.47617481414409</v>
+      </c>
+      <c r="Z50" s="17">
+        <f>Z4</f>
+        <v>334.91079449481015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="U51" s="17">
+        <f>U5</f>
+        <v>48.633734931977244</v>
+      </c>
+      <c r="Z51" s="17">
+        <f>Z5</f>
+        <v>47.87002540849145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="U52" s="17">
+        <f>U6</f>
+        <v>16.99142026116569</v>
+      </c>
+      <c r="Z52" s="17">
+        <f>Z6</f>
+        <v>23.618027536926213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="U53" s="17">
+        <f>U19*U15/10^9</f>
+        <v>429.02885652364682</v>
+      </c>
+      <c r="Z53" s="17">
+        <f>Z19*Z15/10^9</f>
+        <v>411.63409882023359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U54" s="17">
+        <f>SUM(U49:U53)</f>
+        <v>1343.9325947552159</v>
+      </c>
+      <c r="Z54" s="17">
+        <f>SUM(Z49:Z53)</f>
+        <v>1299.8262228903118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U56" s="22">
+        <f>U8-U54</f>
+        <v>397.88101812640775</v>
+      </c>
+      <c r="V56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z56" s="22">
+        <f>Z8-Z54</f>
+        <v>352.81436046178396</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="U57" s="23">
+        <f>U56/U8</f>
+        <v>0.22842915865616695</v>
+      </c>
+      <c r="Y57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z57" s="23">
+        <f>Z56/Z8</f>
+        <v>0.21348523327810395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Tabelle3">
     <tabColor theme="3"/>
@@ -1744,18 +8319,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1769,41 +8344,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>-calc!F24</f>
-        <v>0.31934390524380069</v>
+        <f>savings_residential!U23</f>
+        <v>0.76285279380709248</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C7" si="0">$B2</f>
-        <v>0.31934390524380069</v>
+        <v>0.76285279380709248</v>
       </c>
       <c r="D2" s="7">
-        <f>-calc!F25</f>
-        <v>0.32955836551672563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>savings_commercial!X23</f>
+        <v>0.53445503893211144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7">
         <f>B2</f>
-        <v>0.31934390524380069</v>
+        <v>0.76285279380709248</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>0.31934390524380069</v>
+        <v>0.76285279380709248</v>
       </c>
       <c r="D3" s="7">
         <f>D2</f>
-        <v>0.32955836551672563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.53445503893211144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1868,26 +8443,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Tabelle4">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +8476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +8493,7 @@
         <v>3.2193446499581796E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +8510,7 @@
         <v>3.2193446499581796E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +8837,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\bldgs\BRESaC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\bldgs\BRESaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFD983-D1C9-48AE-9094-44C4769CAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE709BDC-4715-4232-9438-A8082CDA6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="2475" windowWidth="22215" windowHeight="14190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="121">
   <si>
     <t>BRESaC Percent Energy Savings from Retrofitting by Component</t>
   </si>
@@ -397,10 +397,13 @@
     <t>Average Floor Area per year</t>
   </si>
   <si>
-    <t>Share of bldg floorspace from 1961-90</t>
-  </si>
-  <si>
-    <t>Reduction in energy use from retrofitting</t>
+    <t>TWh/m2</t>
+  </si>
+  <si>
+    <t>reduction in spec. heat demand</t>
+  </si>
+  <si>
+    <t>Share of bldg floorspace from pre 1961 and 1961-90</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -613,7 +616,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1043,14 +1048,15 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1965,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D26CD-6318-4B74-895D-30922EB64AE0}">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ59" sqref="AJ59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2108,382 +2114,382 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3">
-        <v>345.72387996362073</v>
+        <v>260.63893928947186</v>
       </c>
       <c r="D3">
-        <v>341.19012754459908</v>
+        <v>256.27686928045847</v>
       </c>
       <c r="E3">
-        <v>336.73778705554531</v>
+        <v>252.07872568763582</v>
       </c>
       <c r="F3">
-        <v>332.37245615987638</v>
+        <v>247.885139114108</v>
       </c>
       <c r="G3">
-        <v>327.79912081096876</v>
+        <v>243.76068682060327</v>
       </c>
       <c r="H3">
-        <v>323.31901996682325</v>
+        <v>239.66692997558738</v>
       </c>
       <c r="I3">
-        <v>318.77581270076348</v>
+        <v>235.5867772145898</v>
       </c>
       <c r="J3">
-        <v>314.2795758825489</v>
+        <v>231.59207510593282</v>
       </c>
       <c r="K3">
-        <v>309.66250673551627</v>
+        <v>227.56444419081868</v>
       </c>
       <c r="L3">
-        <v>304.81373539171915</v>
+        <v>223.30118298622818</v>
       </c>
       <c r="M3">
-        <v>299.95769439106135</v>
+        <v>219.17657636687483</v>
       </c>
       <c r="N3">
-        <v>295.10939318136366</v>
+        <v>214.93572442573867</v>
       </c>
       <c r="O3">
-        <v>290.0420427422477</v>
+        <v>210.78216945834791</v>
       </c>
       <c r="P3">
-        <v>285.13686332947429</v>
+        <v>206.67550794858982</v>
       </c>
       <c r="Q3">
-        <v>280.28260799940466</v>
+        <v>202.76400416493561</v>
       </c>
       <c r="R3">
-        <v>275.56748482328601</v>
+        <v>198.82565487855294</v>
       </c>
       <c r="S3">
-        <v>270.75981935717687</v>
+        <v>195.06782567984027</v>
       </c>
       <c r="T3">
-        <v>265.98095537099806</v>
+        <v>191.28587324277919</v>
       </c>
       <c r="U3" s="1">
-        <v>261.22714728875513</v>
+        <v>187.57000294958479</v>
       </c>
       <c r="V3">
-        <v>256.62983384586482</v>
+        <v>183.94357361191973</v>
       </c>
       <c r="W3">
-        <v>251.94047974569062</v>
+        <v>180.31233992585015</v>
       </c>
       <c r="X3">
-        <v>247.40799389118433</v>
+        <v>176.84331928006677</v>
       </c>
       <c r="Y3">
-        <v>243.00239013465986</v>
+        <v>173.47485477680567</v>
       </c>
       <c r="Z3" s="1">
-        <v>238.58018631793604</v>
+        <v>170.17943390356746</v>
       </c>
       <c r="AA3">
-        <v>234.25447641047816</v>
+        <v>166.88928432655783</v>
       </c>
       <c r="AB3">
-        <v>230.07557550887148</v>
+        <v>163.7261220379628</v>
       </c>
       <c r="AC3">
-        <v>225.94365240237008</v>
+        <v>160.65495320778331</v>
       </c>
       <c r="AD3">
-        <v>221.86582105174017</v>
+        <v>157.68240337337201</v>
       </c>
       <c r="AE3">
-        <v>217.89361731285541</v>
+        <v>154.76659681433796</v>
       </c>
       <c r="AF3">
-        <v>213.93939008429695</v>
+        <v>151.90500570363477</v>
       </c>
       <c r="AG3">
-        <v>210.14221094234236</v>
+        <v>149.13990255844587</v>
       </c>
       <c r="AH3">
-        <v>206.25084966188544</v>
+        <v>146.36057850698745</v>
       </c>
       <c r="AI3">
-        <v>202.46116746604574</v>
+        <v>143.68927031261205</v>
       </c>
       <c r="AJ3">
-        <v>198.66882899128376</v>
+        <v>141.12169833290568</v>
       </c>
       <c r="AK3">
-        <v>194.90262591489579</v>
+        <v>138.61551117720535</v>
       </c>
       <c r="AL3">
-        <v>191.25478707091096</v>
+        <v>136.13619167279776</v>
       </c>
       <c r="AM3">
-        <v>187.74234611636803</v>
+        <v>133.63900670285904</v>
       </c>
       <c r="AN3">
-        <v>184.2281552547098</v>
+        <v>131.30860408752028</v>
       </c>
       <c r="AO3">
-        <v>180.79786263740598</v>
+        <v>129.02298906901726</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4">
-        <v>189.66461975267705</v>
+        <v>345.72387996362073</v>
       </c>
       <c r="D4">
-        <v>189.32049525695032</v>
+        <v>341.19012754459908</v>
       </c>
       <c r="E4">
-        <v>188.95011865798278</v>
+        <v>336.73778705554531</v>
       </c>
       <c r="F4">
-        <v>188.5574110177898</v>
+        <v>332.37245615987638</v>
       </c>
       <c r="G4">
-        <v>188.14071730602751</v>
+        <v>327.79912081096876</v>
       </c>
       <c r="H4">
-        <v>187.68315554020333</v>
+        <v>323.31901996682325</v>
       </c>
       <c r="I4">
-        <v>187.20940332322908</v>
+        <v>318.77581270076348</v>
       </c>
       <c r="J4">
-        <v>186.74940136600023</v>
+        <v>314.2795758825489</v>
       </c>
       <c r="K4">
-        <v>184.92479220774541</v>
+        <v>309.66250673551627</v>
       </c>
       <c r="L4">
-        <v>182.97746906663383</v>
+        <v>304.81373539171915</v>
       </c>
       <c r="M4">
-        <v>181.04523831380928</v>
+        <v>299.95769439106135</v>
       </c>
       <c r="N4">
-        <v>178.98596593994759</v>
+        <v>295.10939318136366</v>
       </c>
       <c r="O4">
-        <v>176.85226794235453</v>
+        <v>290.0420427422477</v>
       </c>
       <c r="P4">
-        <v>174.77495608003883</v>
+        <v>285.13686332947429</v>
       </c>
       <c r="Q4">
-        <v>172.77573509575629</v>
+        <v>280.28260799940466</v>
       </c>
       <c r="R4">
-        <v>170.7979873253251</v>
+        <v>275.56748482328601</v>
       </c>
       <c r="S4">
-        <v>168.87063177693696</v>
+        <v>270.75981935717687</v>
       </c>
       <c r="T4">
-        <v>166.95184760905991</v>
+        <v>265.98095537099806</v>
       </c>
       <c r="U4" s="1">
-        <v>165.11212913687316</v>
+        <v>261.22714728875513</v>
       </c>
       <c r="V4">
-        <v>163.24433368802949</v>
+        <v>256.62983384586482</v>
       </c>
       <c r="W4">
-        <v>161.37549703036706</v>
+        <v>251.94047974569062</v>
       </c>
       <c r="X4">
-        <v>159.55469494114865</v>
+        <v>247.40799389118433</v>
       </c>
       <c r="Y4">
-        <v>157.78463920657043</v>
+        <v>243.00239013465986</v>
       </c>
       <c r="Z4" s="1">
-        <v>156.03400714170056</v>
+        <v>238.58018631793604</v>
       </c>
       <c r="AA4">
-        <v>154.332660754887</v>
+        <v>234.25447641047816</v>
       </c>
       <c r="AB4">
-        <v>152.57192698937325</v>
+        <v>230.07557550887148</v>
       </c>
       <c r="AC4">
-        <v>150.85724302370755</v>
+        <v>225.94365240237008</v>
       </c>
       <c r="AD4">
-        <v>149.15113638086237</v>
+        <v>221.86582105174017</v>
       </c>
       <c r="AE4">
-        <v>147.50684253786557</v>
+        <v>217.89361731285541</v>
       </c>
       <c r="AF4">
-        <v>145.81803788046648</v>
+        <v>213.93939008429695</v>
       </c>
       <c r="AG4">
-        <v>144.18950032116479</v>
+        <v>210.14221094234236</v>
       </c>
       <c r="AH4">
-        <v>142.58548727270127</v>
+        <v>206.25084966188544</v>
       </c>
       <c r="AI4">
-        <v>141.01680098713396</v>
+        <v>202.46116746604574</v>
       </c>
       <c r="AJ4">
-        <v>139.46464684873825</v>
+        <v>198.66882899128376</v>
       </c>
       <c r="AK4">
-        <v>137.85526963196216</v>
+        <v>194.90262591489579</v>
       </c>
       <c r="AL4">
-        <v>136.24164131907008</v>
+        <v>191.25478707091096</v>
       </c>
       <c r="AM4">
-        <v>134.67495270621845</v>
+        <v>187.74234611636803</v>
       </c>
       <c r="AN4">
-        <v>133.12815654664033</v>
+        <v>184.2281552547098</v>
       </c>
       <c r="AO4">
-        <v>131.60121183788146</v>
+        <v>180.79786263740598</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>189.66461975267705</v>
       </c>
       <c r="D5">
-        <v>8.4084692833843384</v>
+        <v>189.32049525695032</v>
       </c>
       <c r="E5">
-        <v>17.60219374091395</v>
+        <v>188.95011865798278</v>
       </c>
       <c r="F5">
-        <v>25.790586895263633</v>
+        <v>188.5574110177898</v>
       </c>
       <c r="G5">
-        <v>33.344732642944322</v>
+        <v>188.14071730602751</v>
       </c>
       <c r="H5">
-        <v>44.295889504397245</v>
+        <v>187.68315554020333</v>
       </c>
       <c r="I5">
-        <v>49.252166775991967</v>
+        <v>187.20940332322908</v>
       </c>
       <c r="J5">
-        <v>55.844312107164292</v>
+        <v>186.74940136600023</v>
       </c>
       <c r="K5">
-        <v>59.440543499673147</v>
+        <v>184.92479220774541</v>
       </c>
       <c r="L5">
-        <v>59.378398404075909</v>
+        <v>182.97746906663383</v>
       </c>
       <c r="M5">
-        <v>59.302350775986078</v>
+        <v>181.04523831380928</v>
       </c>
       <c r="N5">
-        <v>59.198965658024051</v>
+        <v>178.98596593994759</v>
       </c>
       <c r="O5">
-        <v>59.065400455244252</v>
+        <v>176.85226794235453</v>
       </c>
       <c r="P5">
-        <v>58.907316309162219</v>
+        <v>174.77495608003883</v>
       </c>
       <c r="Q5">
-        <v>58.729204826737124</v>
+        <v>172.77573509575629</v>
       </c>
       <c r="R5">
-        <v>58.537668011196615</v>
+        <v>170.7979873253251</v>
       </c>
       <c r="S5">
-        <v>58.318746670460648</v>
+        <v>168.87063177693696</v>
       </c>
       <c r="T5">
-        <v>58.080725943130822</v>
+        <v>166.95184760905991</v>
       </c>
       <c r="U5" s="1">
-        <v>57.888328597018806</v>
+        <v>165.11212913687316</v>
       </c>
       <c r="V5">
-        <v>57.657256835567864</v>
+        <v>163.24433368802949</v>
       </c>
       <c r="W5">
-        <v>57.426195374475903</v>
+        <v>161.37549703036706</v>
       </c>
       <c r="X5">
-        <v>57.212620453182552</v>
+        <v>159.55469494114865</v>
       </c>
       <c r="Y5">
-        <v>56.602571186320304</v>
+        <v>157.78463920657043</v>
       </c>
       <c r="Z5" s="1">
-        <v>56.004000962677161</v>
+        <v>156.03400714170056</v>
       </c>
       <c r="AA5">
-        <v>55.432457948095816</v>
+        <v>154.332660754887</v>
       </c>
       <c r="AB5">
-        <v>54.888460349494451</v>
+        <v>152.57192698937325</v>
       </c>
       <c r="AC5">
-        <v>54.345278356706899</v>
+        <v>150.85724302370755</v>
       </c>
       <c r="AD5">
-        <v>53.819170629350893</v>
+        <v>149.15113638086237</v>
       </c>
       <c r="AE5">
-        <v>53.320800616983021</v>
+        <v>147.50684253786557</v>
       </c>
       <c r="AF5">
-        <v>52.857661576575914</v>
+        <v>145.81803788046648</v>
       </c>
       <c r="AG5">
-        <v>52.401627468239589</v>
+        <v>144.18950032116479</v>
       </c>
       <c r="AH5">
-        <v>51.959513213968748</v>
+        <v>142.58548727270127</v>
       </c>
       <c r="AI5">
-        <v>51.530779157943499</v>
+        <v>141.01680098713396</v>
       </c>
       <c r="AJ5">
-        <v>51.087346480019903</v>
+        <v>139.46464684873825</v>
       </c>
       <c r="AK5">
-        <v>50.660554404968295</v>
+        <v>137.85526963196216</v>
       </c>
       <c r="AL5">
-        <v>50.249085543721812</v>
+        <v>136.24164131907008</v>
       </c>
       <c r="AM5">
-        <v>49.844001917961116</v>
+        <v>134.67495270621845</v>
       </c>
       <c r="AN5">
-        <v>49.447316851261384</v>
+        <v>133.12815654664033</v>
       </c>
       <c r="AO5">
-        <v>49.050159254654901</v>
+        <v>131.60121183788146</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -2492,243 +2498,243 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.4084692833843384</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>17.60219374091395</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>25.790586895263633</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>33.344732642944322</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>44.295889504397245</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>49.252166775991967</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>55.844312107164292</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>59.440543499673147</v>
       </c>
       <c r="L6">
-        <v>3.3982290834624118</v>
+        <v>59.378398404075909</v>
       </c>
       <c r="M6">
-        <v>8.0696539972987846</v>
+        <v>59.302350775986078</v>
       </c>
       <c r="N6">
-        <v>11.702779173320282</v>
+        <v>59.198965658024051</v>
       </c>
       <c r="O6">
-        <v>16.224103191345648</v>
+        <v>59.065400455244252</v>
       </c>
       <c r="P6">
-        <v>22.378587435735387</v>
+        <v>58.907316309162219</v>
       </c>
       <c r="Q6">
-        <v>27.036655450840044</v>
+        <v>58.729204826737124</v>
       </c>
       <c r="R6">
-        <v>31.998649748015506</v>
+        <v>58.537668011196615</v>
       </c>
       <c r="S6">
-        <v>37.68660622295986</v>
+        <v>58.318746670460648</v>
       </c>
       <c r="T6">
-        <v>43.067232727325461</v>
+        <v>58.080725943130822</v>
       </c>
       <c r="U6" s="1">
-        <v>48.338677271911635</v>
+        <v>57.888328597018806</v>
       </c>
       <c r="V6">
-        <v>52.503944623254007</v>
+        <v>57.657256835567864</v>
       </c>
       <c r="W6">
-        <v>57.232491646606377</v>
+        <v>57.426195374475903</v>
       </c>
       <c r="X6">
-        <v>61.544515125038707</v>
+        <v>57.212620453182552</v>
       </c>
       <c r="Y6">
-        <v>65.972000241146404</v>
+        <v>56.602571186320304</v>
       </c>
       <c r="Z6" s="1">
-        <v>70.621247439738653</v>
+        <v>56.004000962677161</v>
       </c>
       <c r="AA6">
-        <v>74.450711191076209</v>
+        <v>55.432457948095816</v>
       </c>
       <c r="AB6">
-        <v>78.624619381904779</v>
+        <v>54.888460349494451</v>
       </c>
       <c r="AC6">
-        <v>82.145985235798122</v>
+        <v>54.345278356706899</v>
       </c>
       <c r="AD6">
-        <v>85.801326622714569</v>
+        <v>53.819170629350893</v>
       </c>
       <c r="AE6">
-        <v>89.297461644965281</v>
+        <v>53.320800616983021</v>
       </c>
       <c r="AF6">
-        <v>92.564305539952827</v>
+        <v>52.857661576575914</v>
       </c>
       <c r="AG6">
-        <v>96.179908251809707</v>
+        <v>52.401627468239589</v>
       </c>
       <c r="AH6">
-        <v>99.452373370634234</v>
+        <v>51.959513213968748</v>
       </c>
       <c r="AI6">
-        <v>102.57552565650857</v>
+        <v>51.530779157943499</v>
       </c>
       <c r="AJ6">
-        <v>106.13735909877948</v>
+        <v>51.087346480019903</v>
       </c>
       <c r="AK6">
-        <v>108.82101506136792</v>
+        <v>50.660554404968295</v>
       </c>
       <c r="AL6">
-        <v>111.82213782389692</v>
+        <v>50.249085543721812</v>
       </c>
       <c r="AM6">
-        <v>114.50232201941006</v>
+        <v>49.844001917961116</v>
       </c>
       <c r="AN6">
-        <v>118.21904843358608</v>
+        <v>49.447316851261384</v>
       </c>
       <c r="AO6">
-        <v>121.21271741435925</v>
+        <v>49.050159254654901</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7">
-        <v>260.63893928947186</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>256.27686928045847</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>252.07872568763582</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>247.885139114108</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>243.76068682060327</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>239.66692997558738</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>235.5867772145898</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>231.59207510593282</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>227.56444419081868</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>223.30118298622818</v>
+        <v>3.3982290834624118</v>
       </c>
       <c r="M7">
-        <v>219.17657636687483</v>
+        <v>8.0696539972987846</v>
       </c>
       <c r="N7">
-        <v>214.93572442573867</v>
+        <v>11.702779173320282</v>
       </c>
       <c r="O7">
-        <v>210.78216945834791</v>
+        <v>16.224103191345648</v>
       </c>
       <c r="P7">
-        <v>206.67550794858982</v>
+        <v>22.378587435735387</v>
       </c>
       <c r="Q7">
-        <v>202.76400416493561</v>
+        <v>27.036655450840044</v>
       </c>
       <c r="R7">
-        <v>198.82565487855294</v>
+        <v>31.998649748015506</v>
       </c>
       <c r="S7">
-        <v>195.06782567984027</v>
+        <v>37.68660622295986</v>
       </c>
       <c r="T7">
-        <v>191.28587324277919</v>
+        <v>43.067232727325461</v>
       </c>
       <c r="U7" s="1">
-        <v>187.57000294958479</v>
+        <v>48.338677271911635</v>
       </c>
       <c r="V7">
-        <v>183.94357361191973</v>
+        <v>52.503944623254007</v>
       </c>
       <c r="W7">
-        <v>180.31233992585015</v>
+        <v>57.232491646606377</v>
       </c>
       <c r="X7">
-        <v>176.84331928006677</v>
+        <v>61.544515125038707</v>
       </c>
       <c r="Y7">
-        <v>173.47485477680567</v>
+        <v>65.972000241146404</v>
       </c>
       <c r="Z7" s="1">
-        <v>170.17943390356746</v>
+        <v>70.621247439738653</v>
       </c>
       <c r="AA7">
-        <v>166.88928432655783</v>
+        <v>74.450711191076209</v>
       </c>
       <c r="AB7">
-        <v>163.7261220379628</v>
+        <v>78.624619381904779</v>
       </c>
       <c r="AC7">
-        <v>160.65495320778331</v>
+        <v>82.145985235798122</v>
       </c>
       <c r="AD7">
-        <v>157.68240337337201</v>
+        <v>85.801326622714569</v>
       </c>
       <c r="AE7">
-        <v>154.76659681433796</v>
+        <v>89.297461644965281</v>
       </c>
       <c r="AF7">
-        <v>151.90500570363477</v>
+        <v>92.564305539952827</v>
       </c>
       <c r="AG7">
-        <v>149.13990255844587</v>
+        <v>96.179908251809707</v>
       </c>
       <c r="AH7">
-        <v>146.36057850698745</v>
+        <v>99.452373370634234</v>
       </c>
       <c r="AI7">
-        <v>143.68927031261205</v>
+        <v>102.57552565650857</v>
       </c>
       <c r="AJ7">
-        <v>141.12169833290568</v>
+        <v>106.13735909877948</v>
       </c>
       <c r="AK7">
-        <v>138.61551117720535</v>
+        <v>108.82101506136792</v>
       </c>
       <c r="AL7">
-        <v>136.13619167279776</v>
+        <v>111.82213782389692</v>
       </c>
       <c r="AM7">
-        <v>133.63900670285904</v>
+        <v>114.50232201941006</v>
       </c>
       <c r="AN7">
-        <v>131.30860408752028</v>
+        <v>118.21904843358608</v>
       </c>
       <c r="AO7">
-        <v>129.02298906901726</v>
+        <v>121.21271741435925</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -2736,160 +2742,160 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <f>SUM(C3:C7)</f>
-        <v>796.02743900576968</v>
+        <f>SUM(C4:C7)</f>
+        <v>535.38849971629782</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
-        <v>795.19596136539212</v>
+        <f>SUM(D4:D7)</f>
+        <v>538.91909208493371</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>795.36882514207798</v>
+        <f>SUM(E4:E7)</f>
+        <v>543.29009945444216</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>794.60559318703793</v>
+        <f>SUM(F4:F7)</f>
+        <v>546.7204540729299</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>793.04525758054388</v>
+        <f>SUM(G4:G7)</f>
+        <v>549.28457075994061</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>794.9649949870111</v>
+        <f>SUM(H4:H7)</f>
+        <v>555.29806501142377</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>790.82416001457432</v>
+        <f>SUM(I4:I7)</f>
+        <v>555.23738279998452</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>788.46536446164635</v>
+        <f>SUM(J4:J7)</f>
+        <v>556.8732893557135</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>781.59228663375347</v>
+        <f>SUM(K4:K7)</f>
+        <v>554.0278424429348</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>773.8690149321194</v>
+        <f>SUM(L4:L7)</f>
+        <v>550.56783194589127</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>767.55151384503029</v>
+        <f>SUM(M4:M7)</f>
+        <v>548.37493747815552</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>759.93282837839433</v>
+        <f>SUM(N4:N7)</f>
+        <v>544.99710395265561</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>752.96598378954002</v>
+        <f>SUM(O4:O7)</f>
+        <v>542.18381433119214</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>747.87323110300053</v>
+        <f>SUM(P4:P7)</f>
+        <v>541.19772315441071</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>741.58820753767372</v>
+        <f>SUM(Q4:Q7)</f>
+        <v>538.82420337273811</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>735.72744478637605</v>
+        <f>SUM(R4:R7)</f>
+        <v>536.90178990782317</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>730.7036297073746</v>
+        <f>SUM(S4:S7)</f>
+        <v>535.63580402753439</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>725.36663489329339</v>
+        <f>SUM(T4:T7)</f>
+        <v>534.08076165051421</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="0"/>
-        <v>720.13628524414355</v>
+        <f>SUM(U4:U7)</f>
+        <v>532.56628229455873</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
-        <v>713.9789426046359</v>
+        <f>SUM(V4:V7)</f>
+        <v>530.03536899271614</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
-        <v>708.28700372299022</v>
+        <f>SUM(W4:W7)</f>
+        <v>527.97466379714001</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
-        <v>702.56314369062113</v>
+        <f>SUM(X4:X7)</f>
+        <v>525.71982441055434</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>696.83645554550276</v>
+        <f>SUM(Y4:Y7)</f>
+        <v>523.36160076869703</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="0"/>
-        <v>691.41887576561976</v>
+        <f>SUM(Z4:Z7)</f>
+        <v>521.23944186205233</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>685.35959063109499</v>
+        <f>SUM(AA4:AA7)</f>
+        <v>518.47030630453719</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>679.88670426760677</v>
+        <f>SUM(AB4:AB7)</f>
+        <v>516.16058222964398</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>673.94711222636602</v>
+        <f>SUM(AC4:AC7)</f>
+        <v>513.29215901858265</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>668.31985805804004</v>
+        <f>SUM(AD4:AD7)</f>
+        <v>510.637454684668</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>662.78531892700721</v>
+        <f>SUM(AE4:AE7)</f>
+        <v>508.01872211266925</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>657.08440078492697</v>
+        <f>SUM(AF4:AF7)</f>
+        <v>505.17939508129223</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>652.0531495420023</v>
+        <f>SUM(AG4:AG7)</f>
+        <v>502.91324698355646</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>646.60880202617716</v>
+        <f>SUM(AH4:AH7)</f>
+        <v>500.24822351918971</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>641.27354358024388</v>
+        <f>SUM(AI4:AI7)</f>
+        <v>497.58427326763183</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>636.47987975172714</v>
+        <f>SUM(AJ4:AJ7)</f>
+        <v>495.3581814188214</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>630.85497619039961</v>
+        <f>SUM(AK4:AK7)</f>
+        <v>492.23946501319421</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="0"/>
-        <v>625.70384343039757</v>
+        <f>SUM(AL4:AL7)</f>
+        <v>489.56765175759978</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="0"/>
-        <v>620.40262946281678</v>
+        <f>SUM(AM4:AM7)</f>
+        <v>486.76362275995768</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="0"/>
-        <v>616.3312811737178</v>
+        <f>SUM(AN4:AN7)</f>
+        <v>485.02267708619758</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="0"/>
-        <v>611.68494021331878</v>
+        <f>SUM(AO4:AO7)</f>
+        <v>482.66195114430155</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -2899,382 +2905,382 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
       </c>
       <c r="C11">
-        <v>2060935693.5</v>
+        <v>1545701770.125</v>
       </c>
       <c r="D11">
-        <v>2042275163.3132641</v>
+        <v>1534642469.8919525</v>
       </c>
       <c r="E11">
-        <v>2023914147.5039585</v>
+        <v>1523739817.5109086</v>
       </c>
       <c r="F11">
-        <v>2005642707.6619689</v>
+        <v>1512869704.169076</v>
       </c>
       <c r="G11">
-        <v>1987621977.0213895</v>
+        <v>1502128254.0587902</v>
       </c>
       <c r="H11">
-        <v>1969806293.4432237</v>
+        <v>1491488820.6302865</v>
       </c>
       <c r="I11">
-        <v>1951887182.2807832</v>
+        <v>1480767322.8452265</v>
       </c>
       <c r="J11">
-        <v>1934155526.2469637</v>
+        <v>1470137540.8372386</v>
       </c>
       <c r="K11">
-        <v>1916563023.3710897</v>
+        <v>1459570888.7345819</v>
       </c>
       <c r="L11">
-        <v>1899136007.9837737</v>
+        <v>1449083473.1517687</v>
       </c>
       <c r="M11">
-        <v>1881947077.5174427</v>
+        <v>1438719419.0448055</v>
       </c>
       <c r="N11">
-        <v>1864905294.7274187</v>
+        <v>1428424387.7016413</v>
       </c>
       <c r="O11">
-        <v>1848127756.6536748</v>
+        <v>1418269550.1065996</v>
       </c>
       <c r="P11">
-        <v>1831539980.9277525</v>
+        <v>1408210442.6777477</v>
       </c>
       <c r="Q11">
-        <v>1815131875.6812041</v>
+        <v>1398241382.6684568</v>
       </c>
       <c r="R11">
-        <v>1798863900.6194332</v>
+        <v>1388338713.698801</v>
       </c>
       <c r="S11">
-        <v>1782794591.8453181</v>
+        <v>1378538423.0520175</v>
       </c>
       <c r="T11">
-        <v>1766802436.3054736</v>
+        <v>1368766729.213227</v>
       </c>
       <c r="U11">
-        <v>1750972991.0042655</v>
+        <v>1359076095.4949491</v>
       </c>
       <c r="V11">
-        <v>1735213361.3345437</v>
+        <v>1349409913.8522403</v>
       </c>
       <c r="W11">
-        <v>1719531787.1735709</v>
+        <v>1339773269.6308401</v>
       </c>
       <c r="X11">
-        <v>1704001190.2785456</v>
+        <v>1330211150.2494438</v>
       </c>
       <c r="Y11">
-        <v>1688630441.1756821</v>
+        <v>1320729340.3662803</v>
       </c>
       <c r="Z11">
-        <v>1673357771.5259085</v>
+        <v>1311290036.4660738</v>
       </c>
       <c r="AA11">
-        <v>1658212442.7058692</v>
+        <v>1301911520.1457057</v>
       </c>
       <c r="AB11">
-        <v>1643249803.4294565</v>
+        <v>1292628354.2292738</v>
       </c>
       <c r="AC11">
-        <v>1628362844.5654836</v>
+        <v>1283374504.1096334</v>
       </c>
       <c r="AD11">
-        <v>1613609249.8796332</v>
+        <v>1274185977.1510439</v>
       </c>
       <c r="AE11">
-        <v>1598929191.2095828</v>
+        <v>1265025692.7600064</v>
       </c>
       <c r="AF11">
-        <v>1584404834.0045245</v>
+        <v>1255945106.5429585</v>
       </c>
       <c r="AG11">
-        <v>1570059258.8434894</v>
+        <v>1246959051.3877869</v>
       </c>
       <c r="AH11">
-        <v>1555750685.6043575</v>
+        <v>1237978981.5494945</v>
       </c>
       <c r="AI11">
-        <v>1541546049.9887047</v>
+        <v>1229046953.7621467</v>
       </c>
       <c r="AJ11">
-        <v>1527516522.9806113</v>
+        <v>1220207963.9596148</v>
       </c>
       <c r="AK11">
-        <v>1513578897.169668</v>
+        <v>1211409955.8368075</v>
       </c>
       <c r="AL11">
-        <v>1499765111.4971585</v>
+        <v>1202673269.9257338</v>
       </c>
       <c r="AM11">
-        <v>1486051210.6588209</v>
+        <v>1193983007.1292901</v>
       </c>
       <c r="AN11">
-        <v>1472509588.9815304</v>
+        <v>1185385274.8867993</v>
       </c>
       <c r="AO11">
-        <v>1459050433.3190351</v>
+        <v>1176823429.0120325</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
       </c>
       <c r="C12">
-        <v>1545701770.125</v>
+        <v>2060935693.5</v>
       </c>
       <c r="D12">
-        <v>1544647450.1694493</v>
+        <v>2042275163.3132641</v>
       </c>
       <c r="E12">
-        <v>1543601286.9836273</v>
+        <v>2023914147.5039585</v>
       </c>
       <c r="F12">
-        <v>1542551493.8687465</v>
+        <v>2005642707.6619689</v>
       </c>
       <c r="G12">
-        <v>1541507383.5929551</v>
+        <v>1987621977.0213895</v>
       </c>
       <c r="H12">
-        <v>1540466497.6148741</v>
+        <v>1969806293.4432237</v>
       </c>
       <c r="I12">
-        <v>1539410816.235429</v>
+        <v>1951887182.2807832</v>
       </c>
       <c r="J12">
-        <v>1538357306.1732795</v>
+        <v>1934155526.2469637</v>
       </c>
       <c r="K12">
-        <v>1526468896.8105855</v>
+        <v>1916563023.3710897</v>
       </c>
       <c r="L12">
-        <v>1514676063.5065722</v>
+        <v>1899136007.9837737</v>
       </c>
       <c r="M12">
-        <v>1503028301.6954579</v>
+        <v>1881947077.5174427</v>
       </c>
       <c r="N12">
-        <v>1491464372.4260473</v>
+        <v>1864905294.7274187</v>
       </c>
       <c r="O12">
-        <v>1480064088.2551887</v>
+        <v>1848127756.6536748</v>
       </c>
       <c r="P12">
-        <v>1468777356.5352588</v>
+        <v>1831539980.9277525</v>
       </c>
       <c r="Q12">
-        <v>1457597673.3702185</v>
+        <v>1815131875.6812041</v>
       </c>
       <c r="R12">
-        <v>1446498404.8611186</v>
+        <v>1798863900.6194332</v>
       </c>
       <c r="S12">
-        <v>1435519795.5725517</v>
+        <v>1782794591.8453181</v>
       </c>
       <c r="T12">
-        <v>1424579055.9414852</v>
+        <v>1766802436.3054736</v>
       </c>
       <c r="U12">
-        <v>1413734919.1825666</v>
+        <v>1750972991.0042655</v>
       </c>
       <c r="V12">
-        <v>1402923949.1958196</v>
+        <v>1735213361.3345437</v>
       </c>
       <c r="W12">
-        <v>1392151805.0023856</v>
+        <v>1719531787.1735709</v>
       </c>
       <c r="X12">
-        <v>1381468777.8016009</v>
+        <v>1704001190.2785456</v>
       </c>
       <c r="Y12">
-        <v>1370881185.4543021</v>
+        <v>1688630441.1756821</v>
       </c>
       <c r="Z12">
-        <v>1360346743.8723862</v>
+        <v>1673357771.5259085</v>
       </c>
       <c r="AA12">
-        <v>1349885829.9075</v>
+        <v>1658212442.7058692</v>
       </c>
       <c r="AB12">
-        <v>1339536847.1870847</v>
+        <v>1643249803.4294565</v>
       </c>
       <c r="AC12">
-        <v>1329226133.1535454</v>
+        <v>1628362844.5654836</v>
       </c>
       <c r="AD12">
-        <v>1318993763.6222181</v>
+        <v>1613609249.8796332</v>
       </c>
       <c r="AE12">
-        <v>1308798376.384568</v>
+        <v>1598929191.2095828</v>
       </c>
       <c r="AF12">
-        <v>1298697193.2403512</v>
+        <v>1584404834.0045245</v>
       </c>
       <c r="AG12">
-        <v>1288706614.1744671</v>
+        <v>1570059258.8434894</v>
       </c>
       <c r="AH12">
-        <v>1278728076.841296</v>
+        <v>1555750685.6043575</v>
       </c>
       <c r="AI12">
-        <v>1268808341.3104055</v>
+        <v>1541546049.9887047</v>
       </c>
       <c r="AJ12">
-        <v>1258997300.0829699</v>
+        <v>1527516522.9806113</v>
       </c>
       <c r="AK12">
-        <v>1249237063.7535686</v>
+        <v>1513578897.169668</v>
       </c>
       <c r="AL12">
-        <v>1239550147.6456351</v>
+        <v>1499765111.4971585</v>
       </c>
       <c r="AM12">
-        <v>1229919969.898483</v>
+        <v>1486051210.6588209</v>
       </c>
       <c r="AN12">
-        <v>1220397543.5057945</v>
+        <v>1472509588.9815304</v>
       </c>
       <c r="AO12">
-        <v>1210920037.0967894</v>
+        <v>1459050433.3190351</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1545701770.125</v>
       </c>
       <c r="D13">
-        <v>125808386.1421732</v>
+        <v>1544647450.1694493</v>
       </c>
       <c r="E13">
-        <v>253326098.50691557</v>
+        <v>1543601286.9836273</v>
       </c>
       <c r="F13">
-        <v>366697678.60255927</v>
+        <v>1542551493.8687465</v>
       </c>
       <c r="G13">
-        <v>478417593.76247805</v>
+        <v>1541507383.5929551</v>
       </c>
       <c r="H13">
-        <v>636827781.95795453</v>
+        <v>1540466497.6148741</v>
       </c>
       <c r="I13">
-        <v>706077264.52340484</v>
+        <v>1539410816.235429</v>
       </c>
       <c r="J13">
-        <v>794500158.67708671</v>
+        <v>1538357306.1732795</v>
       </c>
       <c r="K13">
-        <v>853894259.5546124</v>
+        <v>1526468896.8105855</v>
       </c>
       <c r="L13">
-        <v>853311080.47934127</v>
+        <v>1514676063.5065722</v>
       </c>
       <c r="M13">
-        <v>852731238.82937801</v>
+        <v>1503028301.6954579</v>
       </c>
       <c r="N13">
-        <v>852151145.48319364</v>
+        <v>1491464372.4260473</v>
       </c>
       <c r="O13">
-        <v>851575469.99493396</v>
+        <v>1480064088.2551887</v>
       </c>
       <c r="P13">
-        <v>851002020.24374402</v>
+        <v>1468777356.5352588</v>
       </c>
       <c r="Q13">
-        <v>850429979.43413138</v>
+        <v>1457597673.3702185</v>
       </c>
       <c r="R13">
-        <v>849857748.79799986</v>
+        <v>1446498404.8611186</v>
       </c>
       <c r="S13">
-        <v>849287548.75920069</v>
+        <v>1435519795.5725517</v>
       </c>
       <c r="T13">
-        <v>848715632.36646736</v>
+        <v>1424579055.9414852</v>
       </c>
       <c r="U13">
-        <v>848144399.36893713</v>
+        <v>1413734919.1825666</v>
       </c>
       <c r="V13">
-        <v>847570561.41169465</v>
+        <v>1402923949.1958196</v>
       </c>
       <c r="W13">
-        <v>846995986.48561096</v>
+        <v>1392151805.0023856</v>
       </c>
       <c r="X13">
-        <v>846420893.99988484</v>
+        <v>1381468777.8016009</v>
       </c>
       <c r="Y13">
-        <v>839955707.09018159</v>
+        <v>1370881185.4543021</v>
       </c>
       <c r="Z13">
-        <v>833530153.48490763</v>
+        <v>1360346743.8723862</v>
       </c>
       <c r="AA13">
-        <v>827133907.56417513</v>
+        <v>1349885829.9075</v>
       </c>
       <c r="AB13">
-        <v>820818552.97293663</v>
+        <v>1339536847.1870847</v>
       </c>
       <c r="AC13">
-        <v>814520873.3887639</v>
+        <v>1329226133.1535454</v>
       </c>
       <c r="AD13">
-        <v>808269125.9330194</v>
+        <v>1318993763.6222181</v>
       </c>
       <c r="AE13">
-        <v>802038131.0463897</v>
+        <v>1308798376.384568</v>
       </c>
       <c r="AF13">
-        <v>795865155.01296937</v>
+        <v>1298697193.2403512</v>
       </c>
       <c r="AG13">
-        <v>789752884.93154883</v>
+        <v>1288706614.1744671</v>
       </c>
       <c r="AH13">
-        <v>783654364.29179668</v>
+        <v>1278728076.841296</v>
       </c>
       <c r="AI13">
-        <v>777588336.94842887</v>
+        <v>1268808341.3104055</v>
       </c>
       <c r="AJ13">
-        <v>771586209.00692403</v>
+        <v>1258997300.0829699</v>
       </c>
       <c r="AK13">
-        <v>765619340.50867522</v>
+        <v>1249237063.7535686</v>
       </c>
       <c r="AL13">
-        <v>759697704.50085855</v>
+        <v>1239550147.6456351</v>
       </c>
       <c r="AM13">
-        <v>753805179.97505522</v>
+        <v>1229919969.898483</v>
       </c>
       <c r="AN13">
-        <v>747985406.37755096</v>
+        <v>1220397543.5057945</v>
       </c>
       <c r="AO13">
-        <v>742191791.43365788</v>
+        <v>1210920037.0967894</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
@@ -3283,256 +3289,257 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>125808386.1421732</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>253326098.50691557</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>366697678.60255927</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>478417593.76247805</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>636827781.95795453</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>706077264.52340484</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>794500158.67708671</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>853894259.5546124</v>
       </c>
       <c r="L14">
-        <v>56634006.449162133</v>
+        <v>853311080.47934127</v>
       </c>
       <c r="M14">
-        <v>135309087.06544811</v>
+        <v>852731238.82937801</v>
       </c>
       <c r="N14">
-        <v>196776621.26842582</v>
+        <v>852151145.48319364</v>
       </c>
       <c r="O14">
-        <v>277125989.57607102</v>
+        <v>851575469.99493396</v>
       </c>
       <c r="P14">
-        <v>386812198.70544159</v>
+        <v>851002020.24374402</v>
       </c>
       <c r="Q14">
-        <v>471742086.62456691</v>
+        <v>850429979.43413138</v>
       </c>
       <c r="R14">
-        <v>561657038.31471312</v>
+        <v>849857748.79799986</v>
       </c>
       <c r="S14">
-        <v>666961724.85200024</v>
+        <v>849287548.75920069</v>
       </c>
       <c r="T14">
-        <v>761312641.31821966</v>
+        <v>848715632.36646736</v>
       </c>
       <c r="U14">
-        <v>861591594.07597315</v>
+        <v>848144399.36893713</v>
       </c>
       <c r="V14">
-        <v>936852844.26207185</v>
+        <v>847570561.41169465</v>
       </c>
       <c r="W14">
-        <v>1024575833.2228563</v>
+        <v>846995986.48561096</v>
       </c>
       <c r="X14">
-        <v>1104642421.6828072</v>
+        <v>846420893.99988484</v>
       </c>
       <c r="Y14">
-        <v>1184810479.3352437</v>
+        <v>839955707.09018159</v>
       </c>
       <c r="Z14">
-        <v>1270881882.3443985</v>
+        <v>833530153.48490763</v>
       </c>
       <c r="AA14">
-        <v>1342134019.1413689</v>
+        <v>827133907.56417513</v>
       </c>
       <c r="AB14">
-        <v>1419118874.5283573</v>
+        <v>820818552.97293663</v>
       </c>
       <c r="AC14">
-        <v>1486213212.3848672</v>
+        <v>814520873.3887639</v>
       </c>
       <c r="AD14">
-        <v>1558862947.5729101</v>
+        <v>808269125.9330194</v>
       </c>
       <c r="AE14">
-        <v>1621379526.8366625</v>
+        <v>802038131.0463897</v>
       </c>
       <c r="AF14">
-        <v>1682982710.9294062</v>
+        <v>795865155.01296937</v>
       </c>
       <c r="AG14">
-        <v>1754333035.7381015</v>
+        <v>789752884.93154883</v>
       </c>
       <c r="AH14">
-        <v>1815556450.2764637</v>
+        <v>783654364.29179668</v>
       </c>
       <c r="AI14">
-        <v>1873249597.592515</v>
+        <v>777588336.94842887</v>
       </c>
       <c r="AJ14">
-        <v>1940758247.8497729</v>
+        <v>771586209.00692403</v>
       </c>
       <c r="AK14">
-        <v>1992370778.7950628</v>
+        <v>765619340.50867522</v>
       </c>
       <c r="AL14">
-        <v>2047492889.5613465</v>
+        <v>759697704.50085855</v>
       </c>
       <c r="AM14">
-        <v>2097441151.0541191</v>
+        <v>753805179.97505522</v>
       </c>
       <c r="AN14">
-        <v>2166716082.2783566</v>
+        <v>747985406.37755096</v>
       </c>
       <c r="AO14">
-        <v>2222011398.9164119</v>
+        <v>742191791.43365788</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>105</v>
       </c>
       <c r="C15">
-        <v>1545701770.125</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1534642469.8919525</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1523739817.5109086</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1512869704.169076</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1502128254.0587902</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1491488820.6302865</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1480767322.8452265</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1470137540.8372386</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1459570888.7345819</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1449083473.1517687</v>
+        <v>56634006.449162133</v>
       </c>
       <c r="M15">
-        <v>1438719419.0448055</v>
+        <v>135309087.06544811</v>
       </c>
       <c r="N15">
-        <v>1428424387.7016413</v>
+        <v>196776621.26842582</v>
       </c>
       <c r="O15">
-        <v>1418269550.1065996</v>
+        <v>277125989.57607102</v>
       </c>
       <c r="P15">
-        <v>1408210442.6777477</v>
+        <v>386812198.70544159</v>
       </c>
       <c r="Q15">
-        <v>1398241382.6684568</v>
+        <v>471742086.62456691</v>
       </c>
       <c r="R15">
-        <v>1388338713.698801</v>
+        <v>561657038.31471312</v>
       </c>
       <c r="S15">
-        <v>1378538423.0520175</v>
+        <v>666961724.85200024</v>
       </c>
       <c r="T15">
-        <v>1368766729.213227</v>
+        <v>761312641.31821966</v>
       </c>
       <c r="U15">
-        <v>1359076095.4949491</v>
+        <v>861591594.07597315</v>
       </c>
       <c r="V15">
-        <v>1349409913.8522403</v>
+        <v>936852844.26207185</v>
       </c>
       <c r="W15">
-        <v>1339773269.6308401</v>
+        <v>1024575833.2228563</v>
       </c>
       <c r="X15">
-        <v>1330211150.2494438</v>
+        <v>1104642421.6828072</v>
       </c>
       <c r="Y15">
-        <v>1320729340.3662803</v>
+        <v>1184810479.3352437</v>
       </c>
       <c r="Z15">
-        <v>1311290036.4660738</v>
+        <v>1270881882.3443985</v>
       </c>
       <c r="AA15">
-        <v>1301911520.1457057</v>
+        <v>1342134019.1413689</v>
       </c>
       <c r="AB15">
-        <v>1292628354.2292738</v>
+        <v>1419118874.5283573</v>
       </c>
       <c r="AC15">
-        <v>1283374504.1096334</v>
+        <v>1486213212.3848672</v>
       </c>
       <c r="AD15">
-        <v>1274185977.1510439</v>
+        <v>1558862947.5729101</v>
       </c>
       <c r="AE15">
-        <v>1265025692.7600064</v>
+        <v>1621379526.8366625</v>
       </c>
       <c r="AF15">
-        <v>1255945106.5429585</v>
+        <v>1682982710.9294062</v>
       </c>
       <c r="AG15">
-        <v>1246959051.3877869</v>
+        <v>1754333035.7381015</v>
       </c>
       <c r="AH15">
-        <v>1237978981.5494945</v>
+        <v>1815556450.2764637</v>
       </c>
       <c r="AI15">
-        <v>1229046953.7621467</v>
+        <v>1873249597.592515</v>
       </c>
       <c r="AJ15">
-        <v>1220207963.9596148</v>
+        <v>1940758247.8497729</v>
       </c>
       <c r="AK15">
-        <v>1211409955.8368075</v>
+        <v>1992370778.7950628</v>
       </c>
       <c r="AL15">
-        <v>1202673269.9257338</v>
+        <v>2047492889.5613465</v>
       </c>
       <c r="AM15">
-        <v>1193983007.1292901</v>
+        <v>2097441151.0541191</v>
       </c>
       <c r="AN15">
-        <v>1185385274.8867993</v>
+        <v>2166716082.2783566</v>
       </c>
       <c r="AO15">
-        <v>1176823429.0120325</v>
+        <v>2222011398.9164119</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="T16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="U16" s="27">
-        <f>U11/SUM(U11:U15)</f>
-        <v>0.28089634608528963</v>
-      </c>
-      <c r="V16" s="29"/>
-      <c r="X16" s="29">
-        <v>0.32071782021357825</v>
+        <v>120</v>
+      </c>
+      <c r="U16" s="29">
+        <f>SUM(U11:U12)/SUM(U11:U15)</f>
+        <v>0.49892341517071065</v>
+      </c>
+      <c r="V16" s="27"/>
+      <c r="Z16" s="27">
+        <f>SUM(Z11:Z12)/SUM(Z11:Z15)</f>
+        <v>0.46277867078299695</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
@@ -3545,1269 +3552,1462 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:AO22" si="1">C3*10^9/C11</f>
-        <v>167.75093034392182</v>
+        <f>C3*10^9/C11</f>
+        <v>168.62175118580225</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>167.06374031943508</v>
+        <f>D3*10^9/D11</f>
+        <v>166.9945113004085</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>166.3794817931558</v>
+        <f>E3*10^9/E11</f>
+        <v>165.43423148147218</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>165.71867705556181</v>
+        <f>F3*10^9/F11</f>
+        <v>163.8509505683146</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>164.92025375076702</v>
+        <f>G3*10^9/G11</f>
+        <v>162.27688026102663</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>164.13746927453522</v>
+        <f>H3*10^9/H11</f>
+        <v>160.68972603784371</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>163.31672014377054</v>
+        <f>I3*10^9/I11</f>
+        <v>159.09776882563872</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>162.4892991373745</v>
+        <f>J3*10^9/J11</f>
+        <v>157.53088991526732</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>161.57178394835319</v>
+        <f>K3*10^9/K11</f>
+        <v>155.91188201082332</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>160.50126694997797</v>
+        <f>L3*10^9/L11</f>
+        <v>154.09821940798636</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>159.38689136080725</v>
+        <f>M3*10^9/M11</f>
+        <v>152.34143187723879</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>158.24363522143247</v>
+        <f>N3*10^9/N11</f>
+        <v>150.4704948167217</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>156.93830780801338</v>
+        <f>O3*10^9/O11</f>
+        <v>148.61925890075349</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>155.68148459693489</v>
+        <f>P3*10^9/P11</f>
+        <v>146.7646465932969</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>154.41445977263604</v>
+        <f>Q3*10^9/Q11</f>
+        <v>145.01359112828794</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>153.1897353259439</v>
+        <f>R3*10^9/R11</f>
+        <v>143.21120121244996</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
-        <v>151.87381686912195</v>
+        <f>S3*10^9/S11</f>
+        <v>141.5033650262497</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
-        <v>150.54368836347413</v>
+        <f>T3*10^9/T11</f>
+        <v>139.75052809234421</v>
       </c>
       <c r="U18">
-        <f t="shared" si="1"/>
-        <v>149.18970688344487</v>
+        <f>U3*10^9/U11</f>
+        <v>138.01287769782709</v>
       </c>
       <c r="V18">
-        <f t="shared" si="1"/>
-        <v>147.895261507491</v>
+        <f>V3*10^9/V11</f>
+        <v>136.31408197291594</v>
       </c>
       <c r="W18">
-        <f t="shared" si="1"/>
-        <v>146.51690746572953</v>
+        <f>W3*10^9/W11</f>
+        <v>134.5842195937625</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
-        <v>145.19238325810184</v>
+        <f>X3*10^9/X11</f>
+        <v>132.94379561237685</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="1"/>
-        <v>143.90501569157624</v>
+        <f>Y3*10^9/Y11</f>
+        <v>131.3477708677961</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="1"/>
-        <v>142.57571834167808</v>
+        <f>Z3*10^9/Z11</f>
+        <v>129.78016241334447</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="1"/>
-        <v>141.26927912096835</v>
+        <f>AA3*10^9/AA11</f>
+        <v>128.18788507830405</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>140.01253797730848</v>
+        <f>AB3*10^9/AB11</f>
+        <v>126.66140387705178</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>138.75510188434779</v>
+        <f>AC3*10^9/AC11</f>
+        <v>125.18166185578141</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="1"/>
-        <v>137.49662197851816</v>
+        <f>AD3*10^9/AD11</f>
+        <v>123.75148228042389</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="1"/>
-        <v>136.2747134211865</v>
+        <f>AE3*10^9/AE11</f>
+        <v>122.34265098337366</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="1"/>
-        <v>135.02823615071475</v>
+        <f>AF3*10^9/AF11</f>
+        <v>120.94876194211994</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="1"/>
-        <v>133.84349014771186</v>
+        <f>AG3*10^9/AG11</f>
+        <v>119.60288703342948</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="1"/>
-        <v>132.57320184420414</v>
+        <f>AH3*10^9/AH11</f>
+        <v>118.22541471891374</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="1"/>
-        <v>131.3364381605916</v>
+        <f>AI3*10^9/AI11</f>
+        <v>116.91113172916236</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="1"/>
-        <v>130.06001964785651</v>
+        <f>AJ3*10^9/AJ11</f>
+        <v>115.65380861387032</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="1"/>
-        <v>128.76938643856352</v>
+        <f>AK3*10^9/AK11</f>
+        <v>114.42493972360802</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="1"/>
-        <v>127.52316053011032</v>
+        <f>AL3*10^9/AL11</f>
+        <v>113.19465982743949</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="1"/>
-        <v>126.33639054278282</v>
+        <f>AM3*10^9/AM11</f>
+        <v>111.92705918333725</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="1"/>
-        <v>125.11168459156335</v>
+        <f>AN3*10^9/AN11</f>
+        <v>110.77293338240585</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="1"/>
-        <v>123.91474517171322</v>
+        <f>AO3*10^9/AO11</f>
+        <v>109.63665906731201</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>122.70453681200028</v>
+        <f>C4*10^9/C12</f>
+        <v>167.75093034392182</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>122.56550531073073</v>
+        <f>D4*10^9/D12</f>
+        <v>167.06374031943508</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>122.40862990417223</v>
+        <f>E4*10^9/E12</f>
+        <v>166.3794817931558</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>122.23735270249193</v>
+        <f>F4*10^9/F12</f>
+        <v>165.71867705556181</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>122.04983207249253</v>
+        <f>G4*10^9/G12</f>
+        <v>164.92025375076702</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>121.83527251699131</v>
+        <f>H4*10^9/H12</f>
+        <v>164.13746927453522</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>121.61107441160028</v>
+        <f>I4*10^9/I12</f>
+        <v>163.31672014377054</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>121.395335541745</v>
+        <f>J4*10^9/J12</f>
+        <v>162.4892991373745</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>121.14547017245391</v>
+        <f>K4*10^9/K12</f>
+        <v>161.57178394835319</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
-        <v>120.80303734583964</v>
+        <f>L4*10^9/L12</f>
+        <v>160.50126694997797</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>120.45364555649762</v>
+        <f>M4*10^9/M12</f>
+        <v>159.38689136080725</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>120.0068665728872</v>
+        <f>N4*10^9/N12</f>
+        <v>158.24363522143247</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>119.48960139343785</v>
+        <f>O4*10^9/O12</f>
+        <v>156.93830780801338</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>118.99349843758522</v>
+        <f>P4*10^9/P12</f>
+        <v>155.68148459693489</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>118.53458485308147</v>
+        <f>Q4*10^9/Q12</f>
+        <v>154.41445977263604</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
-        <v>118.07685839911022</v>
+        <f>R4*10^9/R12</f>
+        <v>153.1897353259439</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>117.63727138961781</v>
+        <f>S4*10^9/S12</f>
+        <v>151.87381686912195</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
-        <v>117.19381027873084</v>
+        <f>T4*10^9/T12</f>
+        <v>150.54368836347413</v>
       </c>
       <c r="U19">
-        <f t="shared" si="1"/>
-        <v>116.79143444539262</v>
+        <f>U4*10^9/U12</f>
+        <v>149.18970688344487</v>
       </c>
       <c r="V19">
-        <f t="shared" si="1"/>
-        <v>116.36007338929809</v>
+        <f>V4*10^9/V12</f>
+        <v>147.895261507491</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
-        <v>115.91803167621546</v>
+        <f>W4*10^9/W12</f>
+        <v>146.51690746572953</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
-        <v>115.4964176570504</v>
+        <f>X4*10^9/X12</f>
+        <v>145.19238325810184</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="1"/>
-        <v>115.09723882765341</v>
+        <f>Y4*10^9/Y12</f>
+        <v>143.90501569157624</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="1"/>
-        <v>114.70164341889149</v>
+        <f>Z4*10^9/Z12</f>
+        <v>142.57571834167808</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="1"/>
-        <v>114.33015839973854</v>
+        <f>AA4*10^9/AA12</f>
+        <v>141.26927912096835</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="1"/>
-        <v>113.89901465552182</v>
+        <f>AB4*10^9/AB12</f>
+        <v>140.01253797730848</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="1"/>
-        <v>113.49253468693374</v>
+        <f>AC4*10^9/AC12</f>
+        <v>138.75510188434779</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="1"/>
-        <v>113.07948566129971</v>
+        <f>AD4*10^9/AD12</f>
+        <v>137.49662197851816</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="1"/>
-        <v>112.70402317073413</v>
+        <f>AE4*10^9/AE12</f>
+        <v>136.2747134211865</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="1"/>
-        <v>112.28024410882037</v>
+        <f>AF4*10^9/AF12</f>
+        <v>135.02823615071475</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="1"/>
-        <v>111.88698710414486</v>
+        <f>AG4*10^9/AG12</f>
+        <v>133.84349014771186</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="1"/>
-        <v>111.505714041186</v>
+        <f>AH4*10^9/AH12</f>
+        <v>132.57320184420414</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="1"/>
-        <v>111.14113644736447</v>
+        <f>AI4*10^9/AI12</f>
+        <v>131.3364381605916</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="1"/>
-        <v>110.77438119966367</v>
+        <f>AJ4*10^9/AJ12</f>
+        <v>130.06001964785651</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="1"/>
-        <v>110.3515686748438</v>
+        <f>AK4*10^9/AK12</f>
+        <v>128.76938643856352</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="1"/>
-        <v>109.91216577872498</v>
+        <f>AL4*10^9/AL12</f>
+        <v>127.52316053011032</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="1"/>
-        <v>109.49895603153306</v>
+        <f>AM4*10^9/AM12</f>
+        <v>126.33639054278282</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="1"/>
-        <v>109.08589357219418</v>
+        <f>AN4*10^9/AN12</f>
+        <v>125.11168459156335</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="1"/>
-        <v>108.67869702891251</v>
+        <f>AO4*10^9/AO12</f>
+        <v>123.91474517171322</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <f>C5*10^9/C13</f>
+        <v>122.70453681200028</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>66.835522982403717</v>
+        <f>D5*10^9/D13</f>
+        <v>122.56550531073073</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>69.484328084077873</v>
+        <f>E5*10^9/E13</f>
+        <v>122.40862990417223</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>70.332015718093601</v>
+        <f>F5*10^9/F13</f>
+        <v>122.23735270249193</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>69.69796486936707</v>
+        <f>G5*10^9/G13</f>
+        <v>122.04983207249253</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>69.557093392200358</v>
+        <f>H5*10^9/H13</f>
+        <v>121.83527251699131</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>69.75464195017905</v>
+        <f>I5*10^9/I13</f>
+        <v>121.61107441160028</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>70.288610388889069</v>
+        <f>J5*10^9/J13</f>
+        <v>121.395335541745</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>69.611129053235558</v>
+        <f>K5*10^9/K13</f>
+        <v>121.14547017245391</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
-        <v>69.585875259841387</v>
+        <f>L5*10^9/L13</f>
+        <v>120.80303734583964</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>69.544011143998688</v>
+        <f>M5*10^9/M13</f>
+        <v>120.45364555649762</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>69.470030019682213</v>
+        <f>N5*10^9/N13</f>
+        <v>120.0068665728872</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>69.360147792415432</v>
+        <f>O5*10^9/O13</f>
+        <v>119.48960139343785</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>69.221123931397926</v>
+        <f>P5*10^9/P13</f>
+        <v>118.99349843758522</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>69.058248470750073</v>
+        <f>Q5*10^9/Q13</f>
+        <v>118.53458485308147</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
-        <v>68.879371981945951</v>
+        <f>R5*10^9/R13</f>
+        <v>118.07685839911022</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
-        <v>68.667846073645691</v>
+        <f>S5*10^9/S13</f>
+        <v>117.63727138961781</v>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
-        <v>68.43367051126981</v>
+        <f>T5*10^9/T13</f>
+        <v>117.19381027873084</v>
       </c>
       <c r="U20">
-        <f t="shared" si="1"/>
-        <v>68.252916178059635</v>
+        <f>U5*10^9/U13</f>
+        <v>116.79143444539262</v>
       </c>
       <c r="V20">
-        <f t="shared" si="1"/>
-        <v>68.026497687148577</v>
+        <f>V5*10^9/V13</f>
+        <v>116.36007338929809</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
-        <v>67.799843553864918</v>
+        <f>W5*10^9/W13</f>
+        <v>115.91803167621546</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
-        <v>67.59358241124697</v>
+        <f>X5*10^9/X13</f>
+        <v>115.4964176570504</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="1"/>
-        <v>67.387566640157601</v>
+        <f>Y5*10^9/Y13</f>
+        <v>115.09723882765341</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="1"/>
-        <v>67.188932192230766</v>
+        <f>Z5*10^9/Z13</f>
+        <v>114.70164341889149</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="1"/>
-        <v>67.017513659110818</v>
+        <f>AA5*10^9/AA13</f>
+        <v>114.33015839973854</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="1"/>
-        <v>66.87039437728717</v>
+        <f>AB5*10^9/AB13</f>
+        <v>113.89901465552182</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="1"/>
-        <v>66.720547173464965</v>
+        <f>AC5*10^9/AC13</f>
+        <v>113.49253468693374</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="1"/>
-        <v>66.585706298289125</v>
+        <f>AD5*10^9/AD13</f>
+        <v>113.07948566129971</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="1"/>
-        <v>66.481627933845658</v>
+        <f>AE5*10^9/AE13</f>
+        <v>112.70402317073413</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="1"/>
-        <v>66.415348433887075</v>
+        <f>AF5*10^9/AF13</f>
+        <v>112.28024410882037</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="1"/>
-        <v>66.351929151587015</v>
+        <f>AG5*10^9/AG13</f>
+        <v>111.88698710414486</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="1"/>
-        <v>66.304120262158619</v>
+        <f>AH5*10^9/AH13</f>
+        <v>111.505714041186</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="1"/>
-        <v>66.27000008792713</v>
+        <f>AI5*10^9/AI13</f>
+        <v>111.14113644736447</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="1"/>
-        <v>66.210808181463307</v>
+        <f>AJ5*10^9/AJ13</f>
+        <v>110.77438119966367</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="1"/>
-        <v>66.169376509362436</v>
+        <f>AK5*10^9/AK13</f>
+        <v>110.3515686748438</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="1"/>
-        <v>66.143526887101473</v>
+        <f>AL5*10^9/AL13</f>
+        <v>109.91216577872498</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="1"/>
-        <v>66.123188380863269</v>
+        <f>AM5*10^9/AM13</f>
+        <v>109.49895603153306</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="1"/>
-        <v>66.107328337770397</v>
+        <f>AN5*10^9/AN13</f>
+        <v>109.08589357219418</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="1"/>
-        <v>66.088253495645588</v>
+        <f>AO5*10^9/AO13</f>
+        <v>108.67869702891251</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="e">
-        <f t="shared" si="1"/>
+        <f>C6*10^9/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="D21">
+        <f>D6*10^9/D14</f>
+        <v>66.835522982403717</v>
+      </c>
+      <c r="E21">
+        <f>E6*10^9/E14</f>
+        <v>69.484328084077873</v>
+      </c>
+      <c r="F21">
+        <f>F6*10^9/F14</f>
+        <v>70.332015718093601</v>
+      </c>
+      <c r="G21">
+        <f>G6*10^9/G14</f>
+        <v>69.69796486936707</v>
+      </c>
+      <c r="H21">
+        <f>H6*10^9/H14</f>
+        <v>69.557093392200358</v>
+      </c>
+      <c r="I21">
+        <f>I6*10^9/I14</f>
+        <v>69.75464195017905</v>
+      </c>
+      <c r="J21">
+        <f>J6*10^9/J14</f>
+        <v>70.288610388889069</v>
+      </c>
+      <c r="K21">
+        <f>K6*10^9/K14</f>
+        <v>69.611129053235558</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
-        <v>60.003331858798532</v>
+        <f>L6*10^9/L14</f>
+        <v>69.585875259841387</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>59.638670042874104</v>
+        <f>M6*10^9/M14</f>
+        <v>69.544011143998688</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>59.472406314753989</v>
+        <f>N6*10^9/N14</f>
+        <v>69.470030019682213</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>58.54414165977073</v>
+        <f>O6*10^9/O14</f>
+        <v>69.360147792415432</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>57.853882350739234</v>
+        <f>P6*10^9/P14</f>
+        <v>69.221123931397926</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>57.312366688107275</v>
+        <f>Q6*10^9/Q14</f>
+        <v>69.058248470750073</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
-        <v>56.971866397382726</v>
+        <f>R6*10^9/R14</f>
+        <v>68.879371981945951</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
-        <v>56.504900984119551</v>
+        <f>S6*10^9/S14</f>
+        <v>68.667846073645691</v>
       </c>
       <c r="T21">
-        <f t="shared" si="1"/>
-        <v>56.569706569897697</v>
+        <f>T6*10^9/T14</f>
+        <v>68.43367051126981</v>
       </c>
       <c r="U21">
-        <f t="shared" si="1"/>
-        <v>56.103933237363087</v>
+        <f>U6*10^9/U14</f>
+        <v>68.252916178059635</v>
       </c>
       <c r="V21">
-        <f t="shared" si="1"/>
-        <v>56.042893977238904</v>
+        <f>V6*10^9/V14</f>
+        <v>68.026497687148577</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
-        <v>55.859693144019033</v>
+        <f>W6*10^9/W14</f>
+        <v>67.799843553864918</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
-        <v>55.714422981585365</v>
+        <f>X6*10^9/X14</f>
+        <v>67.59358241124697</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="1"/>
-        <v>55.68147935200659</v>
+        <f>Y6*10^9/Y14</f>
+        <v>67.387566640157601</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="1"/>
-        <v>55.568694794408025</v>
+        <f>Z6*10^9/Z14</f>
+        <v>67.188932192230766</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="1"/>
-        <v>55.47189038446853</v>
+        <f>AA6*10^9/AA14</f>
+        <v>67.017513659110818</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="1"/>
-        <v>55.40382894846325</v>
+        <f>AB6*10^9/AB14</f>
+        <v>66.87039437728717</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="1"/>
-        <v>55.272005760184122</v>
+        <f>AC6*10^9/AC14</f>
+        <v>66.720547173464965</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="1"/>
-        <v>55.040968647246345</v>
+        <f>AD6*10^9/AD14</f>
+        <v>66.585706298289125</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="1"/>
-        <v>55.074990257947853</v>
+        <f>AE6*10^9/AE14</f>
+        <v>66.481627933845658</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="1"/>
-        <v>55.000152371639835</v>
+        <f>AF6*10^9/AF14</f>
+        <v>66.415348433887075</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="1"/>
-        <v>54.824201729373399</v>
+        <f>AG6*10^9/AG14</f>
+        <v>66.351929151587015</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="1"/>
-        <v>54.777902034106475</v>
+        <f>AH6*10^9/AH14</f>
+        <v>66.304120262158619</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="1"/>
-        <v>54.758066297378519</v>
+        <f>AI6*10^9/AI14</f>
+        <v>66.27000008792713</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="1"/>
-        <v>54.688603908483913</v>
+        <f>AJ6*10^9/AJ14</f>
+        <v>66.210808181463307</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="1"/>
-        <v>54.618857202463197</v>
+        <f>AK6*10^9/AK14</f>
+        <v>66.169376509362436</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="1"/>
-        <v>54.614176388106344</v>
+        <f>AL6*10^9/AL14</f>
+        <v>66.143526887101473</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="1"/>
-        <v>54.591434883340682</v>
+        <f>AM6*10^9/AM14</f>
+        <v>66.123188380863269</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="1"/>
-        <v>54.561393345673501</v>
+        <f>AN6*10^9/AN14</f>
+        <v>66.107328337770397</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="1"/>
-        <v>54.550898106764869</v>
+        <f>AO6*10^9/AO14</f>
+        <v>66.088253495645588</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="e">
+        <f>C7*10^9/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>D7*10^9/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <f>E7*10^9/E15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <f>F7*10^9/F15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <f>G7*10^9/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>H7*10^9/H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>I7*10^9/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f>J7*10^9/J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>K7*10^9/K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22">
+        <f>L7*10^9/L15</f>
+        <v>60.003331858798532</v>
+      </c>
+      <c r="M22">
+        <f>M7*10^9/M15</f>
+        <v>59.638670042874104</v>
+      </c>
+      <c r="N22">
+        <f>N7*10^9/N15</f>
+        <v>59.472406314753989</v>
+      </c>
+      <c r="O22">
+        <f>O7*10^9/O15</f>
+        <v>58.54414165977073</v>
+      </c>
+      <c r="P22">
+        <f>P7*10^9/P15</f>
+        <v>57.853882350739234</v>
+      </c>
+      <c r="Q22">
+        <f>Q7*10^9/Q15</f>
+        <v>57.312366688107275</v>
+      </c>
+      <c r="R22">
+        <f>R7*10^9/R15</f>
+        <v>56.971866397382726</v>
+      </c>
+      <c r="S22">
+        <f>S7*10^9/S15</f>
+        <v>56.504900984119551</v>
+      </c>
+      <c r="T22">
+        <f>T7*10^9/T15</f>
+        <v>56.569706569897697</v>
+      </c>
+      <c r="U22">
+        <f>U7*10^9/U15</f>
+        <v>56.103933237363087</v>
+      </c>
+      <c r="V22">
+        <f>V7*10^9/V15</f>
+        <v>56.042893977238904</v>
+      </c>
+      <c r="W22">
+        <f>W7*10^9/W15</f>
+        <v>55.859693144019033</v>
+      </c>
+      <c r="X22">
+        <f>X7*10^9/X15</f>
+        <v>55.714422981585365</v>
+      </c>
+      <c r="Y22">
+        <f>Y7*10^9/Y15</f>
+        <v>55.68147935200659</v>
+      </c>
+      <c r="Z22">
+        <f>Z7*10^9/Z15</f>
+        <v>55.568694794408025</v>
+      </c>
+      <c r="AA22">
+        <f>AA7*10^9/AA15</f>
+        <v>55.47189038446853</v>
+      </c>
+      <c r="AB22">
+        <f>AB7*10^9/AB15</f>
+        <v>55.40382894846325</v>
+      </c>
+      <c r="AC22">
+        <f>AC7*10^9/AC15</f>
+        <v>55.272005760184122</v>
+      </c>
+      <c r="AD22">
+        <f>AD7*10^9/AD15</f>
+        <v>55.040968647246345</v>
+      </c>
+      <c r="AE22">
+        <f>AE7*10^9/AE15</f>
+        <v>55.074990257947853</v>
+      </c>
+      <c r="AF22">
+        <f>AF7*10^9/AF15</f>
+        <v>55.000152371639835</v>
+      </c>
+      <c r="AG22">
+        <f>AG7*10^9/AG15</f>
+        <v>54.824201729373399</v>
+      </c>
+      <c r="AH22">
+        <f>AH7*10^9/AH15</f>
+        <v>54.777902034106475</v>
+      </c>
+      <c r="AI22">
+        <f>AI7*10^9/AI15</f>
+        <v>54.758066297378519</v>
+      </c>
+      <c r="AJ22">
+        <f>AJ7*10^9/AJ15</f>
+        <v>54.688603908483913</v>
+      </c>
+      <c r="AK22">
+        <f>AK7*10^9/AK15</f>
+        <v>54.618857202463197</v>
+      </c>
+      <c r="AL22">
+        <f>AL7*10^9/AL15</f>
+        <v>54.614176388106344</v>
+      </c>
+      <c r="AM22">
+        <f>AM7*10^9/AM15</f>
+        <v>54.591434883340682</v>
+      </c>
+      <c r="AN22">
+        <f>AN7*10^9/AN15</f>
+        <v>54.561393345673501</v>
+      </c>
+      <c r="AO22">
+        <f>AO7*10^9/AO15</f>
+        <v>54.550898106764869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="T23" s="5"/>
+      <c r="U23" s="28"/>
+      <c r="X23" s="28"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>168.62175118580225</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>166.9945113004085</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>165.43423148147218</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>163.8509505683146</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>162.27688026102663</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>160.68972603784371</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>159.09776882563872</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>157.53088991526732</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>155.91188201082332</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>154.09821940798636</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>152.34143187723879</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>150.4704948167217</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>148.61925890075349</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>146.7646465932969</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>145.01359112828794</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="1"/>
-        <v>143.21120121244996</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="1"/>
-        <v>141.5033650262497</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="1"/>
-        <v>139.75052809234421</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="1"/>
-        <v>138.01287769782709</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="1"/>
-        <v>136.31408197291594</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>134.5842195937625</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="1"/>
-        <v>132.94379561237685</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="1"/>
-        <v>131.3477708677961</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="1"/>
-        <v>129.78016241334447</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="1"/>
-        <v>128.18788507830405</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="1"/>
-        <v>126.66140387705178</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="1"/>
-        <v>125.18166185578141</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="1"/>
-        <v>123.75148228042389</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="1"/>
-        <v>122.34265098337366</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="1"/>
-        <v>120.94876194211994</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="1"/>
-        <v>119.60288703342948</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="1"/>
-        <v>118.22541471891374</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="1"/>
-        <v>116.91113172916236</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="1"/>
-        <v>115.65380861387032</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="1"/>
-        <v>114.42493972360802</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="1"/>
-        <v>113.19465982743949</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="1"/>
-        <v>111.92705918333725</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="1"/>
-        <v>110.77293338240585</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="1"/>
-        <v>109.63665906731201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U23" s="28">
-        <f>(U18-U20)/U18</f>
-        <v>0.54250921458420365</v>
-      </c>
-      <c r="X23" s="28">
-        <f>(X18-X20)/X18</f>
-        <v>0.53445503893211144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="29">
+        <f>(U20-U18)/U18</f>
+        <v>-0.15376422553044544</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="29">
+        <f>(Z20-Z18)/Z18</f>
+        <v>-0.11618508340611038</v>
+      </c>
+      <c r="AA26" s="24"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="29">
+        <f>(U20-U19)/U19</f>
+        <v>-0.21716157980901149</v>
+      </c>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="29">
+        <f>(Z20-Z19)/Z19</f>
+        <v>-0.19550366112122455</v>
+      </c>
+      <c r="AA27" s="24"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U31" s="30">
+        <f>(U26*U11+U27*U12)/SUM(U11:U12)</f>
+        <v>-0.1894572490022555</v>
+      </c>
+      <c r="Z31" s="30">
+        <f>(Z26*Z11+Z27*Z12)/SUM(Z11:Z12)</f>
+        <v>-0.1606554420496199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U34" s="31">
+        <f>SUM(U11:U12)/SUM(U11:U14)</f>
+        <v>0.5789446269565186</v>
+      </c>
+      <c r="Z34" s="31">
+        <f>SUM(Z11:Z12)/SUM(Z11:Z14)</f>
+        <v>0.57635098369018545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="16"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E38" t="s">
         <v>61</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F38" t="s">
         <v>62</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>63</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H38" t="s">
         <v>64</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" t="s">
         <v>65</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J38" t="s">
         <v>66</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K38" t="s">
         <v>67</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L38" t="s">
         <v>68</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M38" t="s">
         <v>69</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N38" t="s">
         <v>70</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O38" t="s">
         <v>71</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P38" t="s">
         <v>72</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q38" t="s">
         <v>73</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R38" t="s">
         <v>74</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S38" t="s">
         <v>75</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T38" t="s">
         <v>76</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V38" t="s">
         <v>78</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W38" t="s">
         <v>79</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X38" t="s">
         <v>80</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y38" t="s">
         <v>81</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA38" t="s">
         <v>83</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB38" t="s">
         <v>84</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC38" t="s">
         <v>85</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AD38" t="s">
         <v>86</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE38" t="s">
         <v>87</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF38" t="s">
         <v>88</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG38" t="s">
         <v>89</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AH38" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AI38" t="s">
         <v>91</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AJ38" t="s">
         <v>92</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AK38" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AL38" t="s">
         <v>94</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AM38" t="s">
         <v>95</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AN38" t="s">
         <v>96</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AO38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>98</v>
       </c>
-      <c r="C35">
-        <f>C$11/30</f>
+      <c r="C39">
+        <f>C$12/30</f>
         <v>68697856.450000003</v>
       </c>
-      <c r="U35" s="17">
-        <f>U20*U11/10^9</f>
+      <c r="U39" s="17">
+        <f>U21*U12/10^9</f>
         <v>119.50901278506051</v>
       </c>
-      <c r="Z35" s="17">
-        <f>Z20*Z11/10^9</f>
+      <c r="Z39" s="17">
+        <f>Z21*Z12/10^9</f>
         <v>112.43112184439666</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>99</v>
       </c>
-      <c r="U36" s="17">
-        <f>U4</f>
+      <c r="U40" s="17">
+        <f>U5</f>
         <v>165.11212913687316</v>
       </c>
-      <c r="Z36" s="17">
-        <f>Z4</f>
+      <c r="Z40" s="17">
+        <f>Z5</f>
         <v>156.03400714170056</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
-      <c r="U37" s="17">
-        <f>U5</f>
+      <c r="U41" s="17">
+        <f>U6</f>
         <v>57.888328597018806</v>
       </c>
-      <c r="Z37" s="17">
-        <f>Z5</f>
+      <c r="Z41" s="17">
+        <f>Z6</f>
         <v>56.004000962677161</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>101</v>
       </c>
-      <c r="U38" s="17">
-        <f>U6</f>
+      <c r="U42" s="17">
+        <f>U7</f>
         <v>48.338677271911635</v>
       </c>
-      <c r="Z38" s="17">
-        <f>Z6</f>
+      <c r="Z42" s="17">
+        <f>Z7</f>
         <v>70.621247439738653</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>102</v>
       </c>
-      <c r="U39" s="17">
-        <f>U20*U15/10^9</f>
+      <c r="U43" s="17">
+        <f>U21*U11/10^9</f>
         <v>92.760906825421344</v>
       </c>
-      <c r="Z39" s="17">
-        <f>Z20*Z15/10^9</f>
+      <c r="Z43" s="17">
+        <f>Z21*Z11/10^9</f>
         <v>88.104177344466848</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U40" s="17">
-        <f>SUM(U35:U39)</f>
+    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="U44" s="17">
+        <f>SUM(U39:U43)</f>
         <v>483.60905461628545</v>
       </c>
-      <c r="Z40" s="17">
-        <f>SUM(Z35:Z39)</f>
+      <c r="Z44" s="17">
+        <f>SUM(Z39:Z43)</f>
         <v>483.1945547329799</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T42" s="16" t="s">
+    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="T46" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="U42" s="18">
-        <f>U8-U40</f>
-        <v>236.5272306278581</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="U46" s="18">
+        <f>U8-U44</f>
+        <v>48.957227678273284</v>
+      </c>
+      <c r="V46" t="s">
         <v>38</v>
       </c>
-      <c r="Y42" s="16" t="s">
+      <c r="Y46" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="Z42" s="18">
-        <f>Z8-Z40</f>
-        <v>208.22432103263986</v>
-      </c>
-      <c r="AA42" t="s">
+      <c r="Z46" s="18">
+        <f>Z8-Z44</f>
+        <v>38.044887129072436</v>
+      </c>
+      <c r="AA46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T43" s="16" t="s">
+    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="T47" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="19">
-        <f>U42/U8</f>
-        <v>0.32844787226305322</v>
-      </c>
-      <c r="Y43" s="16" t="s">
+      <c r="U47" s="19">
+        <f>U46/U8</f>
+        <v>9.1927013229867557E-2</v>
+      </c>
+      <c r="Y47" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="Z43" s="19">
-        <f>Z42/Z8</f>
-        <v>0.30115510052002786</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="Z47" s="19">
+        <f>Z46/Z8</f>
+        <v>7.2989271481763915E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D52" t="s">
         <v>60</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E52" t="s">
         <v>61</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F52" t="s">
         <v>62</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G52" t="s">
         <v>63</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H52" t="s">
         <v>64</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I52" t="s">
         <v>65</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J52" t="s">
         <v>66</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K52" t="s">
         <v>67</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L52" t="s">
         <v>68</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M52" t="s">
         <v>69</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N52" t="s">
         <v>70</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O52" t="s">
         <v>71</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P52" t="s">
         <v>72</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q52" t="s">
         <v>73</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R52" t="s">
         <v>74</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S52" t="s">
         <v>75</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T52" t="s">
         <v>76</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V52" t="s">
         <v>78</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W52" t="s">
         <v>79</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X52" t="s">
         <v>80</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Y52" t="s">
         <v>81</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z52" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49">
-        <f>C$11/30</f>
-        <v>68697856.450000003</v>
-      </c>
-      <c r="U49" s="17">
-        <f>U19*U11/10^9</f>
-        <v>204.49864729452773</v>
-      </c>
-      <c r="Z49" s="17">
-        <f>Z19*Z11/10^9</f>
-        <v>191.93688642179566</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="U50" s="17">
-        <f>U4</f>
-        <v>165.11212913687316</v>
-      </c>
-      <c r="Z50" s="17">
-        <f>Z4</f>
-        <v>156.03400714170056</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="U51" s="17">
-        <f>U5</f>
-        <v>57.888328597018806</v>
-      </c>
-      <c r="Z51" s="17">
-        <f>Z5</f>
-        <v>56.004000962677161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="U52" s="17">
-        <f>U6</f>
-        <v>48.338677271911635</v>
-      </c>
-      <c r="Z52" s="17">
-        <f>Z6</f>
-        <v>70.621247439738653</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <f>C$12/30</f>
+        <v>68697856.450000003</v>
       </c>
       <c r="U53" s="17">
-        <f>U19*U15/10^9</f>
-        <v>158.72844671329852</v>
+        <f>U20*U12/10^9</f>
+        <v>204.49864729452773</v>
       </c>
       <c r="Z53" s="17">
-        <f>Z19*Z15/10^9</f>
-        <v>150.40712218147681</v>
+        <f>Z20*Z12/10^9</f>
+        <v>191.93688642179566</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
       <c r="U54" s="17">
-        <f>SUM(U49:U53)</f>
-        <v>634.56622901362994</v>
+        <f>U5</f>
+        <v>165.11212913687316</v>
       </c>
       <c r="Z54" s="17">
-        <f>SUM(Z49:Z53)</f>
-        <v>625.00326414738879</v>
+        <f>Z5</f>
+        <v>156.03400714170056</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="17">
+        <f>U6</f>
+        <v>57.888328597018806</v>
+      </c>
+      <c r="Z55" s="17">
+        <f>Z6</f>
+        <v>56.004000962677161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="U56" s="17">
+        <f>U7</f>
+        <v>48.338677271911635</v>
+      </c>
+      <c r="Z56" s="17">
+        <f>Z7</f>
+        <v>70.621247439738653</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="U57" s="17">
+        <f>U20*U11/10^9</f>
+        <v>158.72844671329852</v>
+      </c>
+      <c r="Z57" s="17">
+        <f>Z20*Z11/10^9</f>
+        <v>150.40712218147681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U58" s="17">
+        <f>SUM(U53:U57)</f>
+        <v>634.56622901362994</v>
+      </c>
+      <c r="Z58" s="17">
+        <f>SUM(Z53:Z57)</f>
+        <v>625.00326414738879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T56" s="21" t="s">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T60" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="U56" s="22">
-        <f>U8-U54</f>
-        <v>85.570056230513615</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="U60" s="22">
+        <f>U8-U58</f>
+        <v>-101.9999467190712</v>
+      </c>
+      <c r="V60" t="s">
         <v>38</v>
       </c>
-      <c r="Y56" s="21" t="s">
+      <c r="Y60" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="Z56" s="22">
-        <f>Z8-Z54</f>
-        <v>66.415611618230969</v>
-      </c>
-      <c r="AA56" t="s">
+      <c r="Z60" s="22">
+        <f>Z8-Z58</f>
+        <v>-103.76382228533646</v>
+      </c>
+      <c r="AA60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T57" s="21" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T61" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="U57" s="23">
-        <f>U56/U8</f>
-        <v>0.1188248085589845</v>
-      </c>
-      <c r="Y57" s="21" t="s">
+      <c r="U61" s="23">
+        <f>U60/U8</f>
+        <v>-0.19152535582914679</v>
+      </c>
+      <c r="Y61" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Z57" s="23">
-        <f>Z56/Z8</f>
-        <v>9.6056983611689573E-2</v>
+      <c r="Z61" s="23">
+        <f>Z60/Z8</f>
+        <v>-0.19907131723312274</v>
       </c>
     </row>
   </sheetData>
@@ -4817,18 +5017,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9921B-F39F-43F4-ABB5-C04C9CADE685}">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="4.90625" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" customWidth="1"/>
-    <col min="21" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="12.54296875" hidden="1" customWidth="1"/>
+    <col min="20" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -4912,7 +5111,7 @@
       <c r="Y2" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AA2" t="s">
@@ -4963,382 +5162,382 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="24">
-        <v>878.59068932657794</v>
+        <v>742.21784958742194</v>
       </c>
       <c r="D3" s="24">
-        <v>871.84063554522504</v>
+        <v>733.43587895233748</v>
       </c>
       <c r="E3" s="24">
-        <v>864.94680611155104</v>
+        <v>724.45765208489399</v>
       </c>
       <c r="F3" s="24">
-        <v>858.03384829451159</v>
+        <v>715.21856462870721</v>
       </c>
       <c r="G3" s="24">
-        <v>851.12837161995299</v>
+        <v>706.03208670041067</v>
       </c>
       <c r="H3" s="24">
-        <v>844.2458059921164</v>
+        <v>697.0245415494885</v>
       </c>
       <c r="I3" s="24">
-        <v>837.21185626135821</v>
+        <v>688.16951359727739</v>
       </c>
       <c r="J3" s="24">
-        <v>830.09307127692796</v>
+        <v>679.23382881306156</v>
       </c>
       <c r="K3" s="24">
-        <v>822.78767563311669</v>
+        <v>670.19640270923401</v>
       </c>
       <c r="L3" s="24">
-        <v>815.03236127144282</v>
+        <v>661.36979360204555</v>
       </c>
       <c r="M3" s="24">
-        <v>807.07710007912317</v>
+        <v>652.03478765167483</v>
       </c>
       <c r="N3" s="24">
-        <v>798.84698109667875</v>
+        <v>643.08372431127975</v>
       </c>
       <c r="O3" s="24">
-        <v>790.68050746094946</v>
+        <v>633.9043094775235</v>
       </c>
       <c r="P3" s="24">
-        <v>782.92032282864773</v>
+        <v>625.084769715476</v>
       </c>
       <c r="Q3" s="24">
-        <v>775.23141803670535</v>
+        <v>616.25572524255608</v>
       </c>
       <c r="R3" s="24">
-        <v>767.59779469778073</v>
+        <v>607.84035089336226</v>
       </c>
       <c r="S3" s="24">
-        <v>759.85099599663636</v>
+        <v>599.49094469043928</v>
       </c>
       <c r="T3" s="24">
-        <v>752.23518149800452</v>
+        <v>591.13897710461947</v>
       </c>
       <c r="U3" s="17">
-        <v>744.60261682661985</v>
+        <v>583.10966604771659</v>
       </c>
       <c r="V3" s="24">
-        <v>736.42732138969779</v>
+        <v>574.86171605715117</v>
       </c>
       <c r="W3" s="24">
-        <v>728.12562067957288</v>
+        <v>566.84978545672936</v>
       </c>
       <c r="X3" s="24">
-        <v>719.79703181935236</v>
+        <v>558.76450725750851</v>
       </c>
       <c r="Y3" s="24">
-        <v>711.67997068453303</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>703.26689324214647</v>
+        <v>550.89219754419435</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>542.97484266972128</v>
       </c>
       <c r="AA3" s="24">
-        <v>695.00221738956054</v>
+        <v>535.37134998251452</v>
       </c>
       <c r="AB3" s="24">
-        <v>686.72910116619812</v>
+        <v>527.85585762012624</v>
       </c>
       <c r="AC3" s="24">
-        <v>678.53075146773858</v>
+        <v>520.265631746248</v>
       </c>
       <c r="AD3" s="24">
-        <v>670.20621082645005</v>
+        <v>512.86865436553785</v>
       </c>
       <c r="AE3" s="24">
-        <v>661.97494730641483</v>
+        <v>505.72658047837297</v>
       </c>
       <c r="AF3" s="24">
-        <v>653.79272812159536</v>
+        <v>498.59568678872336</v>
       </c>
       <c r="AG3" s="24">
-        <v>645.50934720804457</v>
+        <v>491.5988560692312</v>
       </c>
       <c r="AH3" s="24">
-        <v>637.52097488716311</v>
+        <v>484.85016402181373</v>
       </c>
       <c r="AI3" s="24">
-        <v>629.39434138818297</v>
+        <v>478.26646648481625</v>
       </c>
       <c r="AJ3" s="24">
-        <v>621.48045702331535</v>
+        <v>471.78986013426749</v>
       </c>
       <c r="AK3" s="24">
-        <v>613.33944387225006</v>
+        <v>465.26349300365894</v>
       </c>
       <c r="AL3" s="24">
-        <v>605.78483590374344</v>
+        <v>459.17389888036723</v>
       </c>
       <c r="AM3" s="24">
-        <v>597.94723145386001</v>
+        <v>453.13969752650814</v>
       </c>
       <c r="AN3" s="24">
-        <v>589.94576273435086</v>
+        <v>447.01061259973102</v>
       </c>
       <c r="AO3" s="24">
-        <v>582.12694021209006</v>
+        <v>440.8253592248912</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="24">
-        <v>382.73008950204081</v>
+        <v>878.59068932657794</v>
       </c>
       <c r="D4" s="24">
-        <v>382.01398955345866</v>
+        <v>871.84063554522504</v>
       </c>
       <c r="E4" s="24">
-        <v>381.11756104208035</v>
+        <v>864.94680611155104</v>
       </c>
       <c r="F4" s="24">
-        <v>380.13550627101023</v>
+        <v>858.03384829451159</v>
       </c>
       <c r="G4" s="24">
-        <v>379.15616631349889</v>
+        <v>851.12837161995299</v>
       </c>
       <c r="H4" s="24">
-        <v>378.0727354152894</v>
+        <v>844.2458059921164</v>
       </c>
       <c r="I4" s="24">
-        <v>376.9452566648024</v>
+        <v>837.21185626135821</v>
       </c>
       <c r="J4" s="24">
-        <v>375.80787079006336</v>
+        <v>830.09307127692796</v>
       </c>
       <c r="K4" s="24">
-        <v>373.58154980893772</v>
+        <v>822.78767563311669</v>
       </c>
       <c r="L4" s="24">
-        <v>371.2732905216543</v>
+        <v>815.03236127144282</v>
       </c>
       <c r="M4" s="24">
-        <v>368.81753539496094</v>
+        <v>807.07710007912317</v>
       </c>
       <c r="N4" s="24">
-        <v>366.23164427112351</v>
+        <v>798.84698109667875</v>
       </c>
       <c r="O4" s="24">
-        <v>363.47763907944716</v>
+        <v>790.68050746094946</v>
       </c>
       <c r="P4" s="24">
-        <v>360.89804155241416</v>
+        <v>782.92032282864773</v>
       </c>
       <c r="Q4" s="24">
-        <v>358.37933459874995</v>
+        <v>775.23141803670535</v>
       </c>
       <c r="R4" s="24">
-        <v>355.97258451397374</v>
+        <v>767.59779469778073</v>
       </c>
       <c r="S4" s="24">
-        <v>353.47628651606777</v>
+        <v>759.85099599663636</v>
       </c>
       <c r="T4" s="24">
-        <v>351.01645263819103</v>
+        <v>752.23518149800452</v>
       </c>
       <c r="U4" s="17">
-        <v>348.47617481414409</v>
+        <v>744.60261682661985</v>
       </c>
       <c r="V4" s="24">
-        <v>345.82199162692291</v>
+        <v>736.42732138969779</v>
       </c>
       <c r="W4" s="24">
-        <v>343.16717666833233</v>
+        <v>728.12562067957288</v>
       </c>
       <c r="X4" s="24">
-        <v>340.57403812410519</v>
+        <v>719.79703181935236</v>
       </c>
       <c r="Y4" s="24">
-        <v>337.7777160108019</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>334.91079449481015</v>
+        <v>711.67997068453303</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>703.26689324214647</v>
       </c>
       <c r="AA4" s="24">
-        <v>332.12248487257295</v>
+        <v>695.00221738956054</v>
       </c>
       <c r="AB4" s="24">
-        <v>329.28445701161826</v>
+        <v>686.72910116619812</v>
       </c>
       <c r="AC4" s="24">
-        <v>326.34656898423555</v>
+        <v>678.53075146773858</v>
       </c>
       <c r="AD4" s="24">
-        <v>323.46794121695683</v>
+        <v>670.20621082645005</v>
       </c>
       <c r="AE4" s="24">
-        <v>320.58848779212417</v>
+        <v>661.97494730641483</v>
       </c>
       <c r="AF4" s="24">
-        <v>317.61661769281619</v>
+        <v>653.79272812159536</v>
       </c>
       <c r="AG4" s="24">
-        <v>314.61976113944775</v>
+        <v>645.50934720804457</v>
       </c>
       <c r="AH4" s="24">
-        <v>311.64487334962411</v>
+        <v>637.52097488716311</v>
       </c>
       <c r="AI4" s="24">
-        <v>308.77926886465298</v>
+        <v>629.39434138818297</v>
       </c>
       <c r="AJ4" s="24">
-        <v>305.85830034714144</v>
+        <v>621.48045702331535</v>
       </c>
       <c r="AK4" s="24">
-        <v>302.89868911914431</v>
+        <v>613.33944387225006</v>
       </c>
       <c r="AL4" s="24">
-        <v>299.95831650650001</v>
+        <v>605.78483590374344</v>
       </c>
       <c r="AM4" s="24">
-        <v>296.93313252088808</v>
+        <v>597.94723145386001</v>
       </c>
       <c r="AN4" s="24">
-        <v>293.99302167730622</v>
+        <v>589.94576273435086</v>
       </c>
       <c r="AO4" s="24">
-        <v>290.8386091068719</v>
+        <v>582.12694021209006</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="24">
-        <v>0</v>
+        <v>382.73008950204081</v>
       </c>
       <c r="D5" s="24">
-        <v>13.715319741877101</v>
+        <v>382.01398955345866</v>
       </c>
       <c r="E5" s="24">
-        <v>26.518174895115962</v>
+        <v>381.11756104208035</v>
       </c>
       <c r="F5" s="24">
-        <v>31.460223318316913</v>
+        <v>380.13550627101023</v>
       </c>
       <c r="G5" s="24">
-        <v>35.48304825601037</v>
+        <v>379.15616631349889</v>
       </c>
       <c r="H5" s="24">
-        <v>39.627196637152146</v>
+        <v>378.0727354152894</v>
       </c>
       <c r="I5" s="24">
-        <v>43.092856744782715</v>
+        <v>376.9452566648024</v>
       </c>
       <c r="J5" s="24">
-        <v>46.687669745202982</v>
+        <v>375.80787079006336</v>
       </c>
       <c r="K5" s="24">
-        <v>48.995153388473391</v>
+        <v>373.58154980893772</v>
       </c>
       <c r="L5" s="24">
-        <v>48.97339101256366</v>
+        <v>371.2732905216543</v>
       </c>
       <c r="M5" s="24">
-        <v>48.949041171783179</v>
+        <v>368.81753539496094</v>
       </c>
       <c r="N5" s="24">
-        <v>48.923372258039372</v>
+        <v>366.23164427112351</v>
       </c>
       <c r="O5" s="24">
-        <v>48.889054266724898</v>
+        <v>363.47763907944716</v>
       </c>
       <c r="P5" s="24">
-        <v>48.85196120902787</v>
+        <v>360.89804155241416</v>
       </c>
       <c r="Q5" s="24">
-        <v>48.814772798631388</v>
+        <v>358.37933459874995</v>
       </c>
       <c r="R5" s="24">
-        <v>48.771106580478424</v>
+        <v>355.97258451397374</v>
       </c>
       <c r="S5" s="24">
-        <v>48.720458348463332</v>
+        <v>353.47628651606777</v>
       </c>
       <c r="T5" s="24">
-        <v>48.668708354526004</v>
+        <v>351.01645263819103</v>
       </c>
       <c r="U5" s="17">
-        <v>48.633734931977244</v>
+        <v>348.47617481414409</v>
       </c>
       <c r="V5" s="24">
-        <v>48.53381460085307</v>
+        <v>345.82199162692291</v>
       </c>
       <c r="W5" s="24">
-        <v>48.43343465060363</v>
+        <v>343.16717666833233</v>
       </c>
       <c r="X5" s="24">
-        <v>48.344306396291756</v>
+        <v>340.57403812410519</v>
       </c>
       <c r="Y5" s="24">
-        <v>48.113224103566537</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>47.87002540849145</v>
+        <v>337.7777160108019</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>334.91079449481015</v>
       </c>
       <c r="AA5" s="24">
-        <v>47.635977643608918</v>
+        <v>332.12248487257295</v>
       </c>
       <c r="AB5" s="24">
-        <v>47.405540000179506</v>
+        <v>329.28445701161826</v>
       </c>
       <c r="AC5" s="24">
-        <v>47.174019115855657</v>
+        <v>326.34656898423555</v>
       </c>
       <c r="AD5" s="24">
-        <v>46.954280276251076</v>
+        <v>323.46794121695683</v>
       </c>
       <c r="AE5" s="24">
-        <v>46.725686186015714</v>
+        <v>320.58848779212417</v>
       </c>
       <c r="AF5" s="24">
-        <v>46.509025762420698</v>
+        <v>317.61661769281619</v>
       </c>
       <c r="AG5" s="24">
-        <v>46.293239426563147</v>
+        <v>314.61976113944775</v>
       </c>
       <c r="AH5" s="24">
-        <v>46.06188330150794</v>
+        <v>311.64487334962411</v>
       </c>
       <c r="AI5" s="24">
-        <v>45.828005867707219</v>
+        <v>308.77926886465298</v>
       </c>
       <c r="AJ5" s="24">
-        <v>45.589926341495392</v>
+        <v>305.85830034714144</v>
       </c>
       <c r="AK5" s="24">
-        <v>45.355474011828733</v>
+        <v>302.89868911914431</v>
       </c>
       <c r="AL5" s="24">
-        <v>45.112262664611137</v>
+        <v>299.95831650650001</v>
       </c>
       <c r="AM5" s="24">
-        <v>44.862340349425459</v>
+        <v>296.93313252088808</v>
       </c>
       <c r="AN5" s="24">
-        <v>44.616557250024464</v>
+        <v>293.99302167730622</v>
       </c>
       <c r="AO5" s="24">
-        <v>44.349765226959221</v>
+        <v>290.8386091068719</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -5347,243 +5546,243 @@
         <v>0</v>
       </c>
       <c r="D6" s="24">
-        <v>0</v>
+        <v>13.715319741877101</v>
       </c>
       <c r="E6" s="24">
-        <v>0</v>
+        <v>26.518174895115962</v>
       </c>
       <c r="F6" s="24">
-        <v>0</v>
+        <v>31.460223318316913</v>
       </c>
       <c r="G6" s="24">
-        <v>0</v>
+        <v>35.48304825601037</v>
       </c>
       <c r="H6" s="24">
-        <v>0</v>
+        <v>39.627196637152146</v>
       </c>
       <c r="I6" s="24">
-        <v>0</v>
+        <v>43.092856744782715</v>
       </c>
       <c r="J6" s="24">
-        <v>0</v>
+        <v>46.687669745202982</v>
       </c>
       <c r="K6" s="24">
-        <v>0</v>
+        <v>48.995153388473391</v>
       </c>
       <c r="L6" s="24">
-        <v>1.9809965269904406</v>
+        <v>48.97339101256366</v>
       </c>
       <c r="M6" s="24">
-        <v>3.8783701861158972</v>
+        <v>48.949041171783179</v>
       </c>
       <c r="N6" s="24">
-        <v>5.7200990203808155</v>
+        <v>48.923372258039372</v>
       </c>
       <c r="O6" s="24">
-        <v>7.5141250176159868</v>
+        <v>48.889054266724898</v>
       </c>
       <c r="P6" s="24">
-        <v>9.2706150190580061</v>
+        <v>48.85196120902787</v>
       </c>
       <c r="Q6" s="24">
-        <v>10.984721254901489</v>
+        <v>48.814772798631388</v>
       </c>
       <c r="R6" s="24">
-        <v>12.557797434378054</v>
+        <v>48.771106580478424</v>
       </c>
       <c r="S6" s="24">
-        <v>14.134394669076528</v>
+        <v>48.720458348463332</v>
       </c>
       <c r="T6" s="24">
-        <v>15.566587523609462</v>
+        <v>48.668708354526004</v>
       </c>
       <c r="U6" s="17">
-        <v>16.99142026116569</v>
+        <v>48.633734931977244</v>
       </c>
       <c r="V6" s="24">
-        <v>18.322605920410737</v>
+        <v>48.53381460085307</v>
       </c>
       <c r="W6" s="24">
-        <v>19.647478648444814</v>
+        <v>48.43343465060363</v>
       </c>
       <c r="X6" s="24">
-        <v>20.984306420467217</v>
+        <v>48.344306396291756</v>
       </c>
       <c r="Y6" s="24">
-        <v>22.385242496852705</v>
-      </c>
-      <c r="Z6" s="24">
-        <v>23.618027536926213</v>
+        <v>48.113224103566537</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>47.87002540849145</v>
       </c>
       <c r="AA6" s="24">
-        <v>24.846030630971036</v>
+        <v>47.635977643608918</v>
       </c>
       <c r="AB6" s="24">
-        <v>26.073452353745541</v>
+        <v>47.405540000179506</v>
       </c>
       <c r="AC6" s="24">
-        <v>27.302225461427184</v>
+        <v>47.174019115855657</v>
       </c>
       <c r="AD6" s="24">
-        <v>28.527104821456518</v>
+        <v>46.954280276251076</v>
       </c>
       <c r="AE6" s="24">
-        <v>29.749043701253456</v>
+        <v>46.725686186015714</v>
       </c>
       <c r="AF6" s="24">
-        <v>30.903725735233191</v>
+        <v>46.509025762420698</v>
       </c>
       <c r="AG6" s="24">
-        <v>32.060198129166139</v>
+        <v>46.293239426563147</v>
       </c>
       <c r="AH6" s="24">
-        <v>33.210315028205891</v>
+        <v>46.06188330150794</v>
       </c>
       <c r="AI6" s="24">
-        <v>34.357894477405942</v>
+        <v>45.828005867707219</v>
       </c>
       <c r="AJ6" s="24">
-        <v>35.500296892778493</v>
+        <v>45.589926341495392</v>
       </c>
       <c r="AK6" s="24">
-        <v>36.573121000695537</v>
+        <v>45.355474011828733</v>
       </c>
       <c r="AL6" s="24">
-        <v>37.64142639974785</v>
+        <v>45.112262664611137</v>
       </c>
       <c r="AM6" s="24">
-        <v>38.703176496576084</v>
+        <v>44.862340349425459</v>
       </c>
       <c r="AN6" s="24">
-        <v>39.764257787765672</v>
+        <v>44.616557250024464</v>
       </c>
       <c r="AO6" s="24">
-        <v>40.81181732532815</v>
+        <v>44.349765226959221</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="24">
-        <v>742.21784958742194</v>
+        <v>0</v>
       </c>
       <c r="D7" s="24">
-        <v>733.43587895233748</v>
+        <v>0</v>
       </c>
       <c r="E7" s="24">
-        <v>724.45765208489399</v>
+        <v>0</v>
       </c>
       <c r="F7" s="24">
-        <v>715.21856462870721</v>
+        <v>0</v>
       </c>
       <c r="G7" s="24">
-        <v>706.03208670041067</v>
+        <v>0</v>
       </c>
       <c r="H7" s="24">
-        <v>697.0245415494885</v>
+        <v>0</v>
       </c>
       <c r="I7" s="24">
-        <v>688.16951359727739</v>
+        <v>0</v>
       </c>
       <c r="J7" s="24">
-        <v>679.23382881306156</v>
+        <v>0</v>
       </c>
       <c r="K7" s="24">
-        <v>670.19640270923401</v>
+        <v>0</v>
       </c>
       <c r="L7" s="24">
-        <v>661.36979360204555</v>
+        <v>1.9809965269904406</v>
       </c>
       <c r="M7" s="24">
-        <v>652.03478765167483</v>
+        <v>3.8783701861158972</v>
       </c>
       <c r="N7" s="24">
-        <v>643.08372431127975</v>
+        <v>5.7200990203808155</v>
       </c>
       <c r="O7" s="24">
-        <v>633.9043094775235</v>
+        <v>7.5141250176159868</v>
       </c>
       <c r="P7" s="24">
-        <v>625.084769715476</v>
+        <v>9.2706150190580061</v>
       </c>
       <c r="Q7" s="24">
-        <v>616.25572524255608</v>
+        <v>10.984721254901489</v>
       </c>
       <c r="R7" s="24">
-        <v>607.84035089336226</v>
+        <v>12.557797434378054</v>
       </c>
       <c r="S7" s="24">
-        <v>599.49094469043928</v>
+        <v>14.134394669076528</v>
       </c>
       <c r="T7" s="24">
-        <v>591.13897710461947</v>
+        <v>15.566587523609462</v>
       </c>
       <c r="U7" s="17">
-        <v>583.10966604771659</v>
+        <v>16.99142026116569</v>
       </c>
       <c r="V7" s="24">
-        <v>574.86171605715117</v>
+        <v>18.322605920410737</v>
       </c>
       <c r="W7" s="24">
-        <v>566.84978545672936</v>
+        <v>19.647478648444814</v>
       </c>
       <c r="X7" s="24">
-        <v>558.76450725750851</v>
+        <v>20.984306420467217</v>
       </c>
       <c r="Y7" s="24">
-        <v>550.89219754419435</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>542.97484266972128</v>
+        <v>22.385242496852705</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>23.618027536926213</v>
       </c>
       <c r="AA7" s="24">
-        <v>535.37134998251452</v>
+        <v>24.846030630971036</v>
       </c>
       <c r="AB7" s="24">
-        <v>527.85585762012624</v>
+        <v>26.073452353745541</v>
       </c>
       <c r="AC7" s="24">
-        <v>520.265631746248</v>
+        <v>27.302225461427184</v>
       </c>
       <c r="AD7" s="24">
-        <v>512.86865436553785</v>
+        <v>28.527104821456518</v>
       </c>
       <c r="AE7" s="24">
-        <v>505.72658047837297</v>
+        <v>29.749043701253456</v>
       </c>
       <c r="AF7" s="24">
-        <v>498.59568678872336</v>
+        <v>30.903725735233191</v>
       </c>
       <c r="AG7" s="24">
-        <v>491.5988560692312</v>
+        <v>32.060198129166139</v>
       </c>
       <c r="AH7" s="24">
-        <v>484.85016402181373</v>
+        <v>33.210315028205891</v>
       </c>
       <c r="AI7" s="24">
-        <v>478.26646648481625</v>
+        <v>34.357894477405942</v>
       </c>
       <c r="AJ7" s="24">
-        <v>471.78986013426749</v>
+        <v>35.500296892778493</v>
       </c>
       <c r="AK7" s="24">
-        <v>465.26349300365894</v>
+        <v>36.573121000695537</v>
       </c>
       <c r="AL7" s="24">
-        <v>459.17389888036723</v>
+        <v>37.64142639974785</v>
       </c>
       <c r="AM7" s="24">
-        <v>453.13969752650814</v>
+        <v>38.703176496576084</v>
       </c>
       <c r="AN7" s="24">
-        <v>447.01061259973102</v>
+        <v>39.764257787765672</v>
       </c>
       <c r="AO7" s="24">
-        <v>440.8253592248912</v>
+        <v>40.81181732532815</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -5592,19 +5791,19 @@
       </c>
       <c r="C8" s="24">
         <f>SUM(C3:C7)</f>
-        <v>2003.5386284160409</v>
+        <v>2003.5386284160406</v>
       </c>
       <c r="D8" s="24">
         <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
-        <v>2001.0058237928984</v>
+        <v>2001.0058237928981</v>
       </c>
       <c r="E8" s="24">
         <f t="shared" si="0"/>
-        <v>1997.0401941336413</v>
+        <v>1997.0401941336411</v>
       </c>
       <c r="F8" s="24">
         <f t="shared" si="0"/>
-        <v>1984.848142512546</v>
+        <v>1984.8481425125458</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="0"/>
@@ -5628,7 +5827,7 @@
       </c>
       <c r="L8" s="24">
         <f t="shared" si="0"/>
-        <v>1898.6298329346969</v>
+        <v>1898.6298329346967</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="0"/>
@@ -5636,15 +5835,15 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>1862.805820957502</v>
+        <v>1862.8058209575022</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" si="0"/>
-        <v>1844.465635302261</v>
+        <v>1844.4656353022613</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="0"/>
-        <v>1827.0257103246236</v>
+        <v>1827.0257103246238</v>
       </c>
       <c r="Q8" s="24">
         <f t="shared" si="0"/>
@@ -5660,19 +5859,19 @@
       </c>
       <c r="T8" s="24">
         <f t="shared" si="0"/>
-        <v>1758.6259071189506</v>
-      </c>
-      <c r="U8" s="17">
+        <v>1758.6259071189504</v>
+      </c>
+      <c r="U8" s="24">
         <f t="shared" si="0"/>
-        <v>1741.8136128816236</v>
+        <v>1741.8136128816234</v>
       </c>
       <c r="V8" s="24">
         <f t="shared" si="0"/>
-        <v>1723.9674495950358</v>
+        <v>1723.9674495950355</v>
       </c>
       <c r="W8" s="24">
         <f t="shared" si="0"/>
-        <v>1706.2234961036829</v>
+        <v>1706.2234961036831</v>
       </c>
       <c r="X8" s="24">
         <f t="shared" si="0"/>
@@ -5684,23 +5883,23 @@
       </c>
       <c r="Z8" s="24">
         <f t="shared" si="0"/>
-        <v>1652.6405833520957</v>
+        <v>1652.6405833520955</v>
       </c>
       <c r="AA8" s="24">
         <f t="shared" si="0"/>
-        <v>1634.9780605192277</v>
+        <v>1634.9780605192279</v>
       </c>
       <c r="AB8" s="24">
         <f t="shared" si="0"/>
-        <v>1617.3484081518677</v>
+        <v>1617.3484081518679</v>
       </c>
       <c r="AC8" s="24">
         <f t="shared" si="0"/>
-        <v>1599.6191967755049</v>
+        <v>1599.6191967755051</v>
       </c>
       <c r="AD8" s="24">
         <f t="shared" si="0"/>
-        <v>1582.0241915066522</v>
+        <v>1582.0241915066524</v>
       </c>
       <c r="AE8" s="24">
         <f t="shared" si="0"/>
@@ -5708,7 +5907,7 @@
       </c>
       <c r="AF8" s="24">
         <f t="shared" si="0"/>
-        <v>1547.417784100789</v>
+        <v>1547.4177841007886</v>
       </c>
       <c r="AG8" s="24">
         <f t="shared" si="0"/>
@@ -5724,11 +5923,11 @@
       </c>
       <c r="AJ8" s="24">
         <f t="shared" si="0"/>
-        <v>1480.2188407389981</v>
+        <v>1480.2188407389983</v>
       </c>
       <c r="AK8" s="24">
         <f t="shared" si="0"/>
-        <v>1463.4302210075775</v>
+        <v>1463.4302210075778</v>
       </c>
       <c r="AL8" s="24">
         <f t="shared" si="0"/>
@@ -5744,7 +5943,7 @@
       </c>
       <c r="AO8" s="24">
         <f t="shared" si="0"/>
-        <v>1398.9524910961404</v>
+        <v>1398.9524910961406</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -5754,382 +5953,382 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="25">
-        <v>4504773611.603446</v>
+        <v>3896847381.9112215</v>
       </c>
       <c r="D11" s="25">
-        <v>4493983191.8979292</v>
+        <v>3885420662.2202659</v>
       </c>
       <c r="E11" s="25">
-        <v>4483219787.5778999</v>
+        <v>3874028852.9560761</v>
       </c>
       <c r="F11" s="25">
-        <v>4472526568.9987364</v>
+        <v>3862698423.2289619</v>
       </c>
       <c r="G11" s="25">
-        <v>4461848788.6750441</v>
+        <v>3851393155.4048667</v>
       </c>
       <c r="H11" s="25">
-        <v>4451197720.1654358</v>
+        <v>3840122423.765769</v>
       </c>
       <c r="I11" s="25">
-        <v>4440573293.8859787</v>
+        <v>3828886119.0642619</v>
       </c>
       <c r="J11" s="25">
-        <v>4429975440.4399815</v>
+        <v>3817684132.4077926</v>
       </c>
       <c r="K11" s="25">
-        <v>4419404090.6174641</v>
+        <v>3806516355.2574897</v>
       </c>
       <c r="L11" s="25">
-        <v>4408854769.9225903</v>
+        <v>3795378085.7528377</v>
       </c>
       <c r="M11" s="25">
-        <v>4398331835.8363285</v>
+        <v>3784273837.9817395</v>
       </c>
       <c r="N11" s="25">
-        <v>4387831184.4737034</v>
+        <v>3773198113.175601</v>
       </c>
       <c r="O11" s="25">
-        <v>4377356797.4444742</v>
+        <v>3762156218.8914742</v>
       </c>
       <c r="P11" s="25">
-        <v>4366917820.0776768</v>
+        <v>3751159359.7469196</v>
       </c>
       <c r="Q11" s="25">
-        <v>4356504935.4003448</v>
+        <v>3740196066.6729207</v>
       </c>
       <c r="R11" s="25">
-        <v>4346115925.3568716</v>
+        <v>3729263553.0974422</v>
       </c>
       <c r="S11" s="25">
-        <v>4335752885.088398</v>
+        <v>3718364412.5407515</v>
       </c>
       <c r="T11" s="25">
-        <v>4325365992.02948</v>
+        <v>3707461053.8999496</v>
       </c>
       <c r="U11" s="25">
-        <v>4315004388.3215666</v>
+        <v>3696590448.077559</v>
       </c>
       <c r="V11" s="25">
-        <v>4304683845.3157253</v>
+        <v>3685764760.1513481</v>
       </c>
       <c r="W11" s="25">
-        <v>4294389155.7801137</v>
+        <v>3674972166.7627349</v>
       </c>
       <c r="X11" s="25">
-        <v>4284141462.2267756</v>
+        <v>3664226593.7392621</v>
       </c>
       <c r="Y11" s="25">
-        <v>4273923359.8769569</v>
+        <v>3653519104.7373028</v>
       </c>
       <c r="Z11" s="25">
-        <v>4263726867.8199749</v>
+        <v>3642839059.7884731</v>
       </c>
       <c r="AA11" s="25">
-        <v>4253555880.1398497</v>
+        <v>3632191629.1969619</v>
       </c>
       <c r="AB11" s="25">
-        <v>4243410330.3638215</v>
+        <v>3621576709.7466559</v>
       </c>
       <c r="AC11" s="25">
-        <v>4233290152.1982021</v>
+        <v>3610994198.5570855</v>
       </c>
       <c r="AD11" s="25">
-        <v>4223195279.5278702</v>
+        <v>3600443993.0823359</v>
       </c>
       <c r="AE11" s="25">
-        <v>4213125646.4157887</v>
+        <v>3589925991.1099219</v>
       </c>
       <c r="AF11" s="25">
-        <v>4203072332.3888383</v>
+        <v>3579435015.3260689</v>
       </c>
       <c r="AG11" s="25">
-        <v>4193044166.9306307</v>
+        <v>3568976066.3759322</v>
       </c>
       <c r="AH11" s="25">
-        <v>4183041084.4905128</v>
+        <v>3558549042.9296041</v>
       </c>
       <c r="AI11" s="25">
-        <v>4173063019.6944427</v>
+        <v>3548153843.9866385</v>
       </c>
       <c r="AJ11" s="25">
-        <v>4163109907.3444867</v>
+        <v>3537790368.8749595</v>
       </c>
       <c r="AK11" s="25">
-        <v>4153172820.8713307</v>
+        <v>3527447714.7654428</v>
       </c>
       <c r="AL11" s="25">
-        <v>4143260590.6579452</v>
+        <v>3517136632.6360412</v>
       </c>
       <c r="AM11" s="25">
-        <v>4133373151.9357991</v>
+        <v>3506857022.629848</v>
       </c>
       <c r="AN11" s="25">
-        <v>4123510440.1107812</v>
+        <v>3496608785.2144852</v>
       </c>
       <c r="AO11" s="25">
-        <v>4113672390.7627201</v>
+        <v>3486391821.1810284</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="25">
-        <v>3094739302.8886118</v>
+        <v>4504773611.603446</v>
       </c>
       <c r="D12" s="25">
-        <v>3093970788.4554524</v>
+        <v>4493983191.8979292</v>
       </c>
       <c r="E12" s="25">
-        <v>3093202473.2384095</v>
+        <v>4483219787.5778999</v>
       </c>
       <c r="F12" s="25">
-        <v>3092437875.5142021</v>
+        <v>4472526568.9987364</v>
       </c>
       <c r="G12" s="25">
-        <v>3091672855.1348429</v>
+        <v>4461848788.6750441</v>
       </c>
       <c r="H12" s="25">
-        <v>3090908032.7434392</v>
+        <v>4451197720.1654358</v>
       </c>
       <c r="I12" s="25">
-        <v>3090143408.2864904</v>
+        <v>4440573293.8859787</v>
       </c>
       <c r="J12" s="25">
-        <v>3089378981.7105193</v>
+        <v>4429975440.4399815</v>
       </c>
       <c r="K12" s="25">
-        <v>3081385463.0201106</v>
+        <v>4419404090.6174641</v>
       </c>
       <c r="L12" s="25">
-        <v>3073408327.2507133</v>
+        <v>4408854769.9225903</v>
       </c>
       <c r="M12" s="25">
-        <v>3065452882.7500072</v>
+        <v>4398331835.8363285</v>
       </c>
       <c r="N12" s="25">
-        <v>3057517521.661994</v>
+        <v>4387831184.4737034</v>
       </c>
       <c r="O12" s="25">
-        <v>3049603734.9638023</v>
+        <v>4377356797.4444742</v>
       </c>
       <c r="P12" s="25">
-        <v>3041727031.2526546</v>
+        <v>4366917820.0776768</v>
       </c>
       <c r="Q12" s="25">
-        <v>3033871712.0135365</v>
+        <v>4356504935.4003448</v>
       </c>
       <c r="R12" s="25">
-        <v>3026036306.9222674</v>
+        <v>4346115925.3568716</v>
       </c>
       <c r="S12" s="25">
-        <v>3018222174.2791934</v>
+        <v>4335752885.088398</v>
       </c>
       <c r="T12" s="25">
-        <v>3010367717.9592619</v>
+        <v>4325365992.02948</v>
       </c>
       <c r="U12" s="25">
-        <v>3002533931.2568369</v>
+        <v>4315004388.3215666</v>
       </c>
       <c r="V12" s="25">
-        <v>2994734860.9812336</v>
+        <v>4304683845.3157253</v>
       </c>
       <c r="W12" s="25">
-        <v>2986957050.591423</v>
+        <v>4294389155.7801137</v>
       </c>
       <c r="X12" s="25">
-        <v>2979236799.2442737</v>
+        <v>4284141462.2267756</v>
       </c>
       <c r="Y12" s="25">
-        <v>2971539040.0492282</v>
+        <v>4273923359.8769569</v>
       </c>
       <c r="Z12" s="25">
-        <v>2963860688.9641747</v>
+        <v>4263726867.8199749</v>
       </c>
       <c r="AA12" s="25">
-        <v>2956203200.0792356</v>
+        <v>4253555880.1398497</v>
       </c>
       <c r="AB12" s="25">
-        <v>2948566513.9402442</v>
+        <v>4243410330.3638215</v>
       </c>
       <c r="AC12" s="25">
-        <v>2940950571.2696137</v>
+        <v>4233290152.1982021</v>
       </c>
       <c r="AD12" s="25">
-        <v>2933355312.9658136</v>
+        <v>4223195279.5278702</v>
       </c>
       <c r="AE12" s="25">
-        <v>2925780680.1028142</v>
+        <v>4213125646.4157887</v>
       </c>
       <c r="AF12" s="25">
-        <v>2918221669.2011476</v>
+        <v>4203072332.3888383</v>
       </c>
       <c r="AG12" s="25">
-        <v>2910683191.3981252</v>
+        <v>4193044166.9306307</v>
       </c>
       <c r="AH12" s="25">
-        <v>2903165188.1916423</v>
+        <v>4183041084.4905128</v>
       </c>
       <c r="AI12" s="25">
-        <v>2895667601.2533298</v>
+        <v>4173063019.6944427</v>
       </c>
       <c r="AJ12" s="25">
-        <v>2888190372.4280157</v>
+        <v>4163109907.3444867</v>
       </c>
       <c r="AK12" s="25">
-        <v>2880718547.7957902</v>
+        <v>4153172820.8713307</v>
       </c>
       <c r="AL12" s="25">
-        <v>2873267029.7762189</v>
+        <v>4143260590.6579452</v>
       </c>
       <c r="AM12" s="25">
-        <v>2865835760.5223842</v>
+        <v>4133373151.9357991</v>
       </c>
       <c r="AN12" s="25">
-        <v>2858424682.3590512</v>
+        <v>4123510440.1107812</v>
       </c>
       <c r="AO12" s="25">
-        <v>2851033737.7821369</v>
+        <v>4113672390.7627201</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
+        <v>3094739302.8886118</v>
       </c>
       <c r="D13" s="25">
-        <v>285621087.51758736</v>
+        <v>3093970788.4554524</v>
       </c>
       <c r="E13" s="25">
-        <v>580658098.49597871</v>
+        <v>3093202473.2384095</v>
       </c>
       <c r="F13" s="25">
-        <v>701742455.44256842</v>
+        <v>3092437875.5142021</v>
       </c>
       <c r="G13" s="25">
-        <v>799394982.67471373</v>
+        <v>3091672855.1348429</v>
       </c>
       <c r="H13" s="25">
-        <v>907467427.83995807</v>
+        <v>3090908032.7434392</v>
       </c>
       <c r="I13" s="25">
-        <v>999875235.6809442</v>
+        <v>3090143408.2864904</v>
       </c>
       <c r="J13" s="25">
-        <v>1095637498.7496722</v>
+        <v>3089378981.7105193</v>
       </c>
       <c r="K13" s="25">
-        <v>1191760095.9625943</v>
+        <v>3081385463.0201106</v>
       </c>
       <c r="L13" s="25">
-        <v>1191427698.1406326</v>
+        <v>3073408327.2507133</v>
       </c>
       <c r="M13" s="25">
-        <v>1191095396.0453877</v>
+        <v>3065452882.7500072</v>
       </c>
       <c r="N13" s="25">
-        <v>1190763111.3043294</v>
+        <v>3057517521.661994</v>
       </c>
       <c r="O13" s="25">
-        <v>1190430922.2654023</v>
+        <v>3049603734.9638023</v>
       </c>
       <c r="P13" s="25">
-        <v>1190099208.6564355</v>
+        <v>3041727031.2526546</v>
       </c>
       <c r="Q13" s="25">
-        <v>1189767590.534862</v>
+        <v>3033871712.0135365</v>
       </c>
       <c r="R13" s="25">
-        <v>1189435680.4247272</v>
+        <v>3026036306.9222674</v>
       </c>
       <c r="S13" s="25">
-        <v>1189103865.9937007</v>
+        <v>3018222174.2791934</v>
       </c>
       <c r="T13" s="25">
-        <v>1188770578.5228028</v>
+        <v>3010367717.9592619</v>
       </c>
       <c r="U13" s="25">
-        <v>1188437355.6584709</v>
+        <v>3002533931.2568369</v>
       </c>
       <c r="V13" s="25">
-        <v>1188104903.5827398</v>
+        <v>2994734860.9812336</v>
       </c>
       <c r="W13" s="25">
-        <v>1187772547.5563648</v>
+        <v>2986957050.591423</v>
       </c>
       <c r="X13" s="25">
-        <v>1187440676.0613475</v>
+        <v>2979236799.2442737</v>
       </c>
       <c r="Y13" s="25">
-        <v>1183953055.7423918</v>
+        <v>2971539040.0492282</v>
       </c>
       <c r="Z13" s="25">
-        <v>1180475243.164124</v>
+        <v>2963860688.9641747</v>
       </c>
       <c r="AA13" s="25">
-        <v>1177008016.4968512</v>
+        <v>2956203200.0792356</v>
       </c>
       <c r="AB13" s="25">
-        <v>1173551342.634511</v>
+        <v>2948566513.9402442</v>
       </c>
       <c r="AC13" s="25">
-        <v>1170105188.5766175</v>
+        <v>2940950571.2696137</v>
       </c>
       <c r="AD13" s="25">
-        <v>1166669521.4279222</v>
+        <v>2933355312.9658136</v>
       </c>
       <c r="AE13" s="25">
-        <v>1163244308.3980727</v>
+        <v>2925780680.1028142</v>
       </c>
       <c r="AF13" s="25">
-        <v>1159828132.5492182</v>
+        <v>2918221669.2011476</v>
       </c>
       <c r="AG13" s="25">
-        <v>1156422353.7014296</v>
+        <v>2910683191.3981252</v>
       </c>
       <c r="AH13" s="25">
-        <v>1153026939.3395951</v>
+        <v>2903165188.1916423</v>
       </c>
       <c r="AI13" s="25">
-        <v>1149641857.0523086</v>
+        <v>2895667601.2533298</v>
       </c>
       <c r="AJ13" s="25">
-        <v>1146267074.5315268</v>
+        <v>2888190372.4280157</v>
       </c>
       <c r="AK13" s="25">
-        <v>1142898731.3359911</v>
+        <v>2880718547.7957902</v>
       </c>
       <c r="AL13" s="25">
-        <v>1139540640.1227481</v>
+        <v>2873267029.7762189</v>
       </c>
       <c r="AM13" s="25">
-        <v>1136192768.8383667</v>
+        <v>2865835760.5223842</v>
       </c>
       <c r="AN13" s="25">
-        <v>1132855085.5316088</v>
+        <v>2858424682.3590512</v>
       </c>
       <c r="AO13" s="25">
-        <v>1129527558.3530979</v>
+        <v>2851033737.7821369</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
@@ -6138,256 +6337,257 @@
         <v>0</v>
       </c>
       <c r="D14" s="25">
-        <v>0</v>
+        <v>285621087.51758736</v>
       </c>
       <c r="E14" s="25">
-        <v>0</v>
+        <v>580658098.49597871</v>
       </c>
       <c r="F14" s="25">
-        <v>0</v>
+        <v>701742455.44256842</v>
       </c>
       <c r="G14" s="25">
-        <v>0</v>
+        <v>799394982.67471373</v>
       </c>
       <c r="H14" s="25">
-        <v>0</v>
+        <v>907467427.83995807</v>
       </c>
       <c r="I14" s="25">
-        <v>0</v>
+        <v>999875235.6809442</v>
       </c>
       <c r="J14" s="25">
-        <v>0</v>
+        <v>1095637498.7496722</v>
       </c>
       <c r="K14" s="25">
-        <v>0</v>
+        <v>1191760095.9625943</v>
       </c>
       <c r="L14" s="25">
-        <v>93743098.887765735</v>
+        <v>1191427698.1406326</v>
       </c>
       <c r="M14" s="25">
-        <v>183671427.81931868</v>
+        <v>1191095396.0453877</v>
       </c>
       <c r="N14" s="25">
-        <v>271096443.88348812</v>
+        <v>1190763111.3043294</v>
       </c>
       <c r="O14" s="25">
-        <v>358091909.25715417</v>
+        <v>1190430922.2654023</v>
       </c>
       <c r="P14" s="25">
-        <v>446854845.22310138</v>
+        <v>1190099208.6564355</v>
       </c>
       <c r="Q14" s="25">
-        <v>534956511.50574458</v>
+        <v>1189767590.534862</v>
       </c>
       <c r="R14" s="25">
-        <v>620610216.75729096</v>
+        <v>1189435680.4247272</v>
       </c>
       <c r="S14" s="25">
-        <v>706457796.60969591</v>
+        <v>1189103865.9937007</v>
       </c>
       <c r="T14" s="25">
-        <v>782561841.36436462</v>
+        <v>1188770578.5228028</v>
       </c>
       <c r="U14" s="25">
-        <v>858435794.0529052</v>
+        <v>1188437355.6584709</v>
       </c>
       <c r="V14" s="25">
-        <v>934052351.74379897</v>
+        <v>1188104903.5827398</v>
       </c>
       <c r="W14" s="25">
-        <v>1009555247.6643574</v>
+        <v>1187772547.5563648</v>
       </c>
       <c r="X14" s="25">
-        <v>1085431018.9377952</v>
+        <v>1187440676.0613475</v>
       </c>
       <c r="Y14" s="25">
-        <v>1164522354.8259547</v>
+        <v>1183953055.7423918</v>
       </c>
       <c r="Z14" s="25">
-        <v>1243422930.1380289</v>
+        <v>1180475243.164124</v>
       </c>
       <c r="AA14" s="25">
-        <v>1321339608.844336</v>
+        <v>1177008016.4968512</v>
       </c>
       <c r="AB14" s="25">
-        <v>1399219618.9390497</v>
+        <v>1173551342.634511</v>
       </c>
       <c r="AC14" s="25">
-        <v>1476828906.5725687</v>
+        <v>1170105188.5766175</v>
       </c>
       <c r="AD14" s="25">
-        <v>1554267202.8367257</v>
+        <v>1166669521.4279222</v>
       </c>
       <c r="AE14" s="25">
-        <v>1631637590.5088789</v>
+        <v>1163244308.3980727</v>
       </c>
       <c r="AF14" s="25">
-        <v>1703392238.4534938</v>
+        <v>1159828132.5492182</v>
       </c>
       <c r="AG14" s="25">
-        <v>1775077947.6245294</v>
+        <v>1156422353.7014296</v>
       </c>
       <c r="AH14" s="25">
-        <v>1846470049.4673121</v>
+        <v>1153026939.3395951</v>
       </c>
       <c r="AI14" s="25">
-        <v>1917789792.5822642</v>
+        <v>1149641857.0523086</v>
       </c>
       <c r="AJ14" s="25">
-        <v>1988816144.0548022</v>
+        <v>1146267074.5315268</v>
       </c>
       <c r="AK14" s="25">
-        <v>2054130044.3169935</v>
+        <v>1142898731.3359911</v>
       </c>
       <c r="AL14" s="25">
-        <v>2119272115.522402</v>
+        <v>1139540640.1227481</v>
       </c>
       <c r="AM14" s="25">
-        <v>2184262331.2153649</v>
+        <v>1136192768.8383667</v>
       </c>
       <c r="AN14" s="25">
-        <v>2249127090.4681649</v>
+        <v>1132855085.5316088</v>
       </c>
       <c r="AO14" s="25">
-        <v>2313890006.0310221</v>
+        <v>1129527558.3530979</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="25">
-        <v>3896847381.9112215</v>
+        <v>0</v>
       </c>
       <c r="D15" s="25">
-        <v>3885420662.2202659</v>
+        <v>0</v>
       </c>
       <c r="E15" s="25">
-        <v>3874028852.9560761</v>
+        <v>0</v>
       </c>
       <c r="F15" s="25">
-        <v>3862698423.2289619</v>
+        <v>0</v>
       </c>
       <c r="G15" s="25">
-        <v>3851393155.4048667</v>
+        <v>0</v>
       </c>
       <c r="H15" s="25">
-        <v>3840122423.765769</v>
+        <v>0</v>
       </c>
       <c r="I15" s="25">
-        <v>3828886119.0642619</v>
+        <v>0</v>
       </c>
       <c r="J15" s="25">
-        <v>3817684132.4077926</v>
+        <v>0</v>
       </c>
       <c r="K15" s="25">
-        <v>3806516355.2574897</v>
+        <v>0</v>
       </c>
       <c r="L15" s="25">
-        <v>3795378085.7528377</v>
+        <v>93743098.887765735</v>
       </c>
       <c r="M15" s="25">
-        <v>3784273837.9817395</v>
+        <v>183671427.81931868</v>
       </c>
       <c r="N15" s="25">
-        <v>3773198113.175601</v>
+        <v>271096443.88348812</v>
       </c>
       <c r="O15" s="25">
-        <v>3762156218.8914742</v>
+        <v>358091909.25715417</v>
       </c>
       <c r="P15" s="25">
-        <v>3751159359.7469196</v>
+        <v>446854845.22310138</v>
       </c>
       <c r="Q15" s="25">
-        <v>3740196066.6729207</v>
+        <v>534956511.50574458</v>
       </c>
       <c r="R15" s="25">
-        <v>3729263553.0974422</v>
+        <v>620610216.75729096</v>
       </c>
       <c r="S15" s="25">
-        <v>3718364412.5407515</v>
+        <v>706457796.60969591</v>
       </c>
       <c r="T15" s="25">
-        <v>3707461053.8999496</v>
+        <v>782561841.36436462</v>
       </c>
       <c r="U15" s="25">
-        <v>3696590448.077559</v>
+        <v>858435794.0529052</v>
       </c>
       <c r="V15" s="25">
-        <v>3685764760.1513481</v>
+        <v>934052351.74379897</v>
       </c>
       <c r="W15" s="25">
-        <v>3674972166.7627349</v>
+        <v>1009555247.6643574</v>
       </c>
       <c r="X15" s="25">
-        <v>3664226593.7392621</v>
+        <v>1085431018.9377952</v>
       </c>
       <c r="Y15" s="25">
-        <v>3653519104.7373028</v>
+        <v>1164522354.8259547</v>
       </c>
       <c r="Z15" s="25">
-        <v>3642839059.7884731</v>
+        <v>1243422930.1380289</v>
       </c>
       <c r="AA15" s="25">
-        <v>3632191629.1969619</v>
+        <v>1321339608.844336</v>
       </c>
       <c r="AB15" s="25">
-        <v>3621576709.7466559</v>
+        <v>1399219618.9390497</v>
       </c>
       <c r="AC15" s="25">
-        <v>3610994198.5570855</v>
+        <v>1476828906.5725687</v>
       </c>
       <c r="AD15" s="25">
-        <v>3600443993.0823359</v>
+        <v>1554267202.8367257</v>
       </c>
       <c r="AE15" s="25">
-        <v>3589925991.1099219</v>
+        <v>1631637590.5088789</v>
       </c>
       <c r="AF15" s="25">
-        <v>3579435015.3260689</v>
+        <v>1703392238.4534938</v>
       </c>
       <c r="AG15" s="25">
-        <v>3568976066.3759322</v>
+        <v>1775077947.6245294</v>
       </c>
       <c r="AH15" s="25">
-        <v>3558549042.9296041</v>
+        <v>1846470049.4673121</v>
       </c>
       <c r="AI15" s="25">
-        <v>3548153843.9866385</v>
+        <v>1917789792.5822642</v>
       </c>
       <c r="AJ15" s="25">
-        <v>3537790368.8749595</v>
+        <v>1988816144.0548022</v>
       </c>
       <c r="AK15" s="25">
-        <v>3527447714.7654428</v>
+        <v>2054130044.3169935</v>
       </c>
       <c r="AL15" s="25">
-        <v>3517136632.6360412</v>
+        <v>2119272115.522402</v>
       </c>
       <c r="AM15" s="25">
-        <v>3506857022.629848</v>
+        <v>2184262331.2153649</v>
       </c>
       <c r="AN15" s="25">
-        <v>3496608785.2144852</v>
+        <v>2249127090.4681649</v>
       </c>
       <c r="AO15" s="25">
-        <v>3486391821.1810284</v>
+        <v>2313890006.0310221</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="T16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="U16" s="27">
-        <f>U11/SUM(U11:U15)</f>
-        <v>0.33037315327117933</v>
-      </c>
-      <c r="Z16" s="29">
-        <f>Z11/SUM(Z11:Z15)</f>
-        <v>0.32071782021357825</v>
+        <v>120</v>
+      </c>
+      <c r="U16" s="29">
+        <f>SUM(U11:U12)/SUM(U11:U15)</f>
+        <v>0.61339818239717359</v>
+      </c>
+      <c r="V16" s="27"/>
+      <c r="Z16" s="27">
+        <f>SUM(Z11:Z12)/SUM(Z11:Z15)</f>
+        <v>0.59473241797358878</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
@@ -6397,1914 +6597,2214 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" ref="C18:AO22" si="1">C3*10^9/C11</f>
-        <v>195.03548126447339</v>
+        <v>190.46623509884517</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" si="1"/>
-        <v>194.00175708646196</v>
+        <v>188.76614470187803</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>192.92982434368813</v>
+        <v>187.0036800402498</v>
       </c>
       <c r="F18" s="24">
         <f t="shared" si="1"/>
-        <v>191.84544464016443</v>
+        <v>185.16034291665758</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" si="1"/>
-        <v>190.75688395811761</v>
+        <v>183.31862217431578</v>
       </c>
       <c r="H18" s="24">
         <f t="shared" si="1"/>
-        <v>189.66710963375016</v>
+        <v>181.51102090801572</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="1"/>
-        <v>188.53688495899317</v>
+        <v>179.73099543776937</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="1"/>
-        <v>187.38096462098756</v>
+        <v>177.91776513073449</v>
       </c>
       <c r="K18" s="24">
         <f t="shared" si="1"/>
-        <v>186.17615831508172</v>
+        <v>176.06555184862694</v>
       </c>
       <c r="L18" s="24">
         <f t="shared" si="1"/>
-        <v>184.86260124321424</v>
+        <v>174.25662968459139</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="1"/>
-        <v>183.49618223511325</v>
+        <v>172.30116412490472</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>182.0596434802211</v>
+        <v>170.43465649622286</v>
       </c>
       <c r="O18" s="24">
         <f t="shared" si="1"/>
-        <v>180.62966855307596</v>
+        <v>168.49494614136583</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="1"/>
-        <v>179.2844186874855</v>
+        <v>166.63775376305225</v>
       </c>
       <c r="Q18" s="24">
         <f t="shared" si="1"/>
-        <v>177.94801785653544</v>
+        <v>164.76562037314378</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="1"/>
-        <v>176.61696279644246</v>
+        <v>162.99206056072487</v>
       </c>
       <c r="S18" s="24">
         <f t="shared" si="1"/>
-        <v>175.2523762620167</v>
+        <v>161.22436592512682</v>
       </c>
       <c r="T18" s="24">
         <f t="shared" si="1"/>
-        <v>173.91249269638166</v>
+        <v>159.44576854901524</v>
       </c>
       <c r="U18" s="24">
         <f t="shared" si="1"/>
-        <v>172.56126525429849</v>
+        <v>157.74256689727889</v>
       </c>
       <c r="V18" s="24">
         <f t="shared" si="1"/>
-        <v>171.07582062990849</v>
+        <v>155.96809711576537</v>
       </c>
       <c r="W18" s="24">
         <f t="shared" si="1"/>
-        <v>169.55278021311565</v>
+        <v>154.24600778842486</v>
       </c>
       <c r="X18" s="24">
         <f t="shared" si="1"/>
-        <v>168.014300686799</v>
+        <v>152.49179955525122</v>
       </c>
       <c r="Y18" s="24">
         <f t="shared" si="1"/>
-        <v>166.5167834701233</v>
+        <v>150.78399257030978</v>
       </c>
       <c r="Z18" s="24">
         <f t="shared" si="1"/>
-        <v>164.94182555406599</v>
+        <v>149.05265748996607</v>
       </c>
       <c r="AA18" s="24">
         <f t="shared" si="1"/>
-        <v>163.39322603814247</v>
+        <v>147.39622922948018</v>
       </c>
       <c r="AB18" s="24">
         <f t="shared" si="1"/>
-        <v>161.83424361587001</v>
+        <v>145.75305175768372</v>
       </c>
       <c r="AC18" s="24">
         <f t="shared" si="1"/>
-        <v>160.28448962219159</v>
+        <v>144.07822420599305</v>
       </c>
       <c r="AD18" s="24">
         <f t="shared" si="1"/>
-        <v>158.69647659328115</v>
+        <v>142.44594704179013</v>
       </c>
       <c r="AE18" s="24">
         <f t="shared" si="1"/>
-        <v>157.12205209677842</v>
+        <v>140.87381793684668</v>
       </c>
       <c r="AF18" s="24">
         <f t="shared" si="1"/>
-        <v>155.55114840243752</v>
+        <v>139.29452124536022</v>
       </c>
       <c r="AG18" s="24">
         <f t="shared" si="1"/>
-        <v>153.94766224954097</v>
+        <v>137.74226750935276</v>
       </c>
       <c r="AH18" s="24">
         <f t="shared" si="1"/>
-        <v>152.40609929720833</v>
+        <v>136.24939776652815</v>
       </c>
       <c r="AI18" s="24">
         <f t="shared" si="1"/>
-        <v>150.8231096481903</v>
+        <v>134.79304661362852</v>
       </c>
       <c r="AJ18" s="24">
         <f t="shared" si="1"/>
-        <v>149.28274075275078</v>
+        <v>133.35721197191785</v>
       </c>
       <c r="AK18" s="24">
         <f t="shared" si="1"/>
-        <v>147.67973073260461</v>
+        <v>131.8980550884215</v>
       </c>
       <c r="AL18" s="24">
         <f t="shared" si="1"/>
-        <v>146.20968743062949</v>
+        <v>130.55332983644234</v>
       </c>
       <c r="AM18" s="24">
         <f t="shared" si="1"/>
-        <v>144.66325915283525</v>
+        <v>129.21533287567323</v>
       </c>
       <c r="AN18" s="24">
         <f t="shared" si="1"/>
-        <v>143.06881752880963</v>
+        <v>127.84118557670185</v>
       </c>
       <c r="AO18" s="24">
         <f t="shared" si="1"/>
-        <v>141.51028203394617</v>
+        <v>126.44171448163847</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
       </c>
       <c r="C19" s="24">
         <f t="shared" si="1"/>
-        <v>123.67118908684903</v>
+        <v>195.03548126447339</v>
       </c>
       <c r="D19" s="24">
         <f t="shared" si="1"/>
-        <v>123.47045776219647</v>
+        <v>194.00175708646196</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" si="1"/>
-        <v>123.21132041610961</v>
+        <v>192.92982434368813</v>
       </c>
       <c r="F19" s="24">
         <f t="shared" si="1"/>
-        <v>122.92421758280346</v>
+        <v>191.84544464016443</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="1"/>
-        <v>122.63786761389477</v>
+        <v>190.75688395811761</v>
       </c>
       <c r="H19" s="24">
         <f t="shared" si="1"/>
-        <v>122.31769156836359</v>
+        <v>189.66710963375016</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" si="1"/>
-        <v>121.98309491203246</v>
+        <v>188.53688495899317</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="1"/>
-        <v>121.64511800426214</v>
+        <v>187.38096462098756</v>
       </c>
       <c r="K19" s="24">
         <f t="shared" si="1"/>
-        <v>121.23817493536984</v>
+        <v>186.17615831508172</v>
       </c>
       <c r="L19" s="24">
         <f t="shared" si="1"/>
-        <v>120.80181055986567</v>
+        <v>184.86260124321424</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="1"/>
-        <v>120.3142078843815</v>
+        <v>183.49618223511325</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>119.78071807485463</v>
+        <v>182.0596434802211</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="1"/>
-        <v>119.1884817401568</v>
+        <v>180.62966855307596</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="1"/>
-        <v>118.64905622507089</v>
+        <v>179.2844186874855</v>
       </c>
       <c r="Q19" s="24">
         <f t="shared" si="1"/>
-        <v>118.12606748651834</v>
+        <v>177.94801785653544</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="1"/>
-        <v>117.63658740632485</v>
+        <v>176.61696279644246</v>
       </c>
       <c r="S19" s="24">
         <f t="shared" si="1"/>
-        <v>117.11407116690617</v>
+        <v>175.2523762620167</v>
       </c>
       <c r="T19" s="24">
         <f t="shared" si="1"/>
-        <v>116.6025168766247</v>
+        <v>173.91249269638166</v>
       </c>
       <c r="U19" s="24">
         <f t="shared" si="1"/>
-        <v>116.06069499713355</v>
+        <v>172.56126525429849</v>
       </c>
       <c r="V19" s="24">
         <f t="shared" si="1"/>
-        <v>115.4766641056208</v>
+        <v>171.07582062990849</v>
       </c>
       <c r="W19" s="24">
         <f t="shared" si="1"/>
-        <v>114.88855408897982</v>
+        <v>169.55278021311565</v>
       </c>
       <c r="X19" s="24">
         <f t="shared" si="1"/>
-        <v>114.31586714103983</v>
+        <v>168.014300686799</v>
       </c>
       <c r="Y19" s="24">
         <f t="shared" si="1"/>
-        <v>113.67096694957306</v>
+        <v>166.5167834701233</v>
       </c>
       <c r="Z19" s="24">
         <f t="shared" si="1"/>
-        <v>112.99815667512243</v>
+        <v>164.94182555406599</v>
       </c>
       <c r="AA19" s="24">
         <f t="shared" si="1"/>
-        <v>112.3476508190205</v>
+        <v>163.39322603814247</v>
       </c>
       <c r="AB19" s="24">
         <f t="shared" si="1"/>
-        <v>111.67611632799394</v>
+        <v>161.83424361587001</v>
       </c>
       <c r="AC19" s="24">
         <f t="shared" si="1"/>
-        <v>110.96635631089546</v>
+        <v>160.28448962219159</v>
       </c>
       <c r="AD19" s="24">
         <f t="shared" si="1"/>
-        <v>110.2723355016647</v>
+        <v>158.69647659328115</v>
       </c>
       <c r="AE19" s="24">
         <f t="shared" si="1"/>
-        <v>109.57365669010379</v>
+        <v>157.12205209677842</v>
       </c>
       <c r="AF19" s="24">
         <f t="shared" si="1"/>
-        <v>108.83909918322365</v>
+        <v>155.55114840243752</v>
       </c>
       <c r="AG19" s="24">
         <f t="shared" si="1"/>
-        <v>108.09137939478823</v>
+        <v>153.94766224954097</v>
       </c>
       <c r="AH19" s="24">
         <f t="shared" si="1"/>
-        <v>107.34658662111649</v>
+        <v>152.40609929720833</v>
       </c>
       <c r="AI19" s="24">
         <f t="shared" si="1"/>
-        <v>106.63491511629451</v>
+        <v>150.8231096481903</v>
       </c>
       <c r="AJ19" s="24">
         <f t="shared" si="1"/>
-        <v>105.8996329559867</v>
+        <v>149.28274075275078</v>
       </c>
       <c r="AK19" s="24">
         <f t="shared" si="1"/>
-        <v>105.14692223261802</v>
+        <v>147.67973073260461</v>
       </c>
       <c r="AL19" s="24">
         <f t="shared" si="1"/>
-        <v>104.39625464600897</v>
+        <v>146.20968743062949</v>
       </c>
       <c r="AM19" s="24">
         <f t="shared" si="1"/>
-        <v>103.61135715145208</v>
+        <v>144.66325915283525</v>
       </c>
       <c r="AN19" s="24">
         <f t="shared" si="1"/>
-        <v>102.85141444926037</v>
+        <v>143.06881752880963</v>
       </c>
       <c r="AO19" s="24">
         <f t="shared" si="1"/>
-        <v>102.01163362350097</v>
+        <v>141.51028203394617</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="24">
+        <f t="shared" si="1"/>
+        <v>123.67118908684903</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="1"/>
-        <v>48.019282683504834</v>
+        <v>123.47045776219647</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>45.66917255404406</v>
+        <v>123.21132041610961</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>44.831580410046406</v>
+        <v>122.92421758280346</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>44.387379236840886</v>
+        <v>122.63786761389477</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>43.66789971897574</v>
+        <v>122.31769156836359</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="1"/>
-        <v>43.098233866583584</v>
+        <v>121.98309491203246</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="1"/>
-        <v>42.612332818548438</v>
+        <v>121.64511800426214</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" si="1"/>
-        <v>41.111590792859701</v>
+        <v>121.23817493536984</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" si="1"/>
-        <v>41.104794767649409</v>
+        <v>120.80181055986567</v>
       </c>
       <c r="M20" s="24">
         <f t="shared" si="1"/>
-        <v>41.095819305742609</v>
+        <v>120.3142078843815</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>41.085730481229007</v>
+        <v>119.78071807485463</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="1"/>
-        <v>41.068367220912343</v>
+        <v>119.1884817401568</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="1"/>
-        <v>41.048646073951581</v>
+        <v>118.64905622507089</v>
       </c>
       <c r="Q20" s="24">
         <f t="shared" si="1"/>
-        <v>41.028830493429915</v>
+        <v>118.12606748651834</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="1"/>
-        <v>41.003567812143565</v>
+        <v>117.63658740632485</v>
       </c>
       <c r="S20" s="24">
         <f t="shared" si="1"/>
-        <v>40.972416070440588</v>
+        <v>117.11407116690617</v>
       </c>
       <c r="T20" s="24">
         <f t="shared" si="1"/>
-        <v>40.940370861973214</v>
+        <v>116.6025168766247</v>
       </c>
       <c r="U20" s="24">
         <f t="shared" si="1"/>
-        <v>40.92242195217014</v>
+        <v>116.06069499713355</v>
       </c>
       <c r="V20" s="24">
         <f t="shared" si="1"/>
-        <v>40.849772149327023</v>
+        <v>115.4766641056208</v>
       </c>
       <c r="W20" s="24">
         <f t="shared" si="1"/>
-        <v>40.776691421473743</v>
+        <v>114.88855408897982</v>
       </c>
       <c r="X20" s="24">
         <f t="shared" si="1"/>
-        <v>40.713028760852481</v>
+        <v>114.31586714103983</v>
       </c>
       <c r="Y20" s="24">
         <f t="shared" si="1"/>
-        <v>40.637780248303322</v>
+        <v>113.67096694957306</v>
       </c>
       <c r="Z20" s="24">
         <f t="shared" si="1"/>
-        <v>40.551486094855761</v>
+        <v>112.99815667512243</v>
       </c>
       <c r="AA20" s="24">
         <f t="shared" si="1"/>
-        <v>40.472092777574005</v>
+        <v>112.3476508190205</v>
       </c>
       <c r="AB20" s="24">
         <f t="shared" si="1"/>
-        <v>40.394943346712537</v>
+        <v>111.67611632799394</v>
       </c>
       <c r="AC20" s="24">
         <f t="shared" si="1"/>
-        <v>40.316049852954521</v>
+        <v>110.96635631089546</v>
       </c>
       <c r="AD20" s="24">
         <f t="shared" si="1"/>
-        <v>40.246427470550792</v>
+        <v>110.2723355016647</v>
       </c>
       <c r="AE20" s="24">
         <f t="shared" si="1"/>
-        <v>40.168420209476551</v>
+        <v>109.57365669010379</v>
       </c>
       <c r="AF20" s="24">
         <f t="shared" si="1"/>
-        <v>40.099928995684245</v>
+        <v>108.83909918322365</v>
       </c>
       <c r="AG20" s="24">
         <f t="shared" si="1"/>
-        <v>40.031429069482819</v>
+        <v>108.09137939478823</v>
       </c>
       <c r="AH20" s="24">
         <f t="shared" si="1"/>
-        <v>39.948661848170033</v>
+        <v>107.34658662111649</v>
       </c>
       <c r="AI20" s="24">
         <f t="shared" si="1"/>
-        <v>39.862854319875424</v>
+        <v>106.63491511629451</v>
       </c>
       <c r="AJ20" s="24">
         <f t="shared" si="1"/>
-        <v>39.772516679961122</v>
+        <v>105.8996329559867</v>
       </c>
       <c r="AK20" s="24">
         <f t="shared" si="1"/>
-        <v>39.684595641129519</v>
+        <v>105.14692223261802</v>
       </c>
       <c r="AL20" s="24">
         <f t="shared" si="1"/>
-        <v>39.588112153465424</v>
+        <v>104.39625464600897</v>
       </c>
       <c r="AM20" s="24">
         <f t="shared" si="1"/>
-        <v>39.484796576634011</v>
+        <v>103.61135715145208</v>
       </c>
       <c r="AN20" s="24">
         <f t="shared" si="1"/>
-        <v>39.38416997888789</v>
+        <v>102.85141444926037</v>
       </c>
       <c r="AO20" s="24">
         <f t="shared" si="1"/>
-        <v>39.263995728995916</v>
+        <v>102.01163362350097</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>116</v>
+      <c r="D21" s="24">
+        <f t="shared" si="1"/>
+        <v>48.019282683504834</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="1"/>
+        <v>45.66917255404406</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="1"/>
+        <v>44.831580410046406</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="1"/>
+        <v>44.387379236840886</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="1"/>
+        <v>43.66789971897574</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="1"/>
+        <v>43.098233866583584</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="1"/>
+        <v>42.612332818548438</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="1"/>
+        <v>41.111590792859701</v>
       </c>
       <c r="L21" s="24">
         <f t="shared" si="1"/>
-        <v>21.132185200770842</v>
+        <v>41.104794767649409</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="1"/>
-        <v>21.11580571982665</v>
+        <v>41.095819305742609</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>21.09986740674179</v>
+        <v>41.085730481229007</v>
       </c>
       <c r="O21" s="24">
         <f t="shared" si="1"/>
-        <v>20.983788863601266</v>
+        <v>41.068367220912343</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="1"/>
-        <v>20.746367904838234</v>
+        <v>41.048646073951581</v>
       </c>
       <c r="Q21" s="24">
         <f t="shared" si="1"/>
-        <v>20.533858395297859</v>
+        <v>41.028830493429915</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="1"/>
-        <v>20.234596684522796</v>
+        <v>41.003567812143565</v>
       </c>
       <c r="S21" s="24">
         <f t="shared" si="1"/>
-        <v>20.007415498714504</v>
+        <v>40.972416070440588</v>
       </c>
       <c r="T21" s="24">
         <f t="shared" si="1"/>
-        <v>19.891830524818015</v>
+        <v>40.940370861973214</v>
       </c>
       <c r="U21" s="24">
         <f t="shared" si="1"/>
-        <v>19.793466650481388</v>
+        <v>40.92242195217014</v>
       </c>
       <c r="V21" s="24">
         <f t="shared" si="1"/>
-        <v>19.616251579693511</v>
+        <v>40.849772149327023</v>
       </c>
       <c r="W21" s="24">
         <f t="shared" si="1"/>
-        <v>19.461519014338212</v>
+        <v>40.776691421473743</v>
       </c>
       <c r="X21" s="24">
         <f t="shared" si="1"/>
-        <v>19.33269462024634</v>
+        <v>40.713028760852481</v>
       </c>
       <c r="Y21" s="24">
         <f t="shared" si="1"/>
-        <v>19.222681646328997</v>
+        <v>40.637780248303322</v>
       </c>
       <c r="Z21" s="24">
         <f t="shared" si="1"/>
-        <v>18.99436383588683</v>
+        <v>40.551486094855761</v>
       </c>
       <c r="AA21" s="24">
         <f t="shared" si="1"/>
-        <v>18.80366747856878</v>
+        <v>40.472092777574005</v>
       </c>
       <c r="AB21" s="24">
         <f t="shared" si="1"/>
-        <v>18.634281567260746</v>
+        <v>40.394943346712537</v>
       </c>
       <c r="AC21" s="24">
         <f t="shared" si="1"/>
-        <v>18.487060579542906</v>
+        <v>40.316049852954521</v>
       </c>
       <c r="AD21" s="24">
         <f t="shared" si="1"/>
-        <v>18.354054418307935</v>
+        <v>40.246427470550792</v>
       </c>
       <c r="AE21" s="24">
         <f t="shared" si="1"/>
-        <v>18.232629521593246</v>
+        <v>40.168420209476551</v>
       </c>
       <c r="AF21" s="24">
         <f t="shared" si="1"/>
-        <v>18.142460108477785</v>
+        <v>40.099928995684245</v>
       </c>
       <c r="AG21" s="24">
         <f t="shared" si="1"/>
-        <v>18.061290306755375</v>
+        <v>40.031429069482819</v>
       </c>
       <c r="AH21" s="24">
         <f t="shared" si="1"/>
-        <v>17.985840083237054</v>
+        <v>39.948661848170033</v>
       </c>
       <c r="AI21" s="24">
         <f t="shared" si="1"/>
-        <v>17.915359968176571</v>
+        <v>39.862854319875424</v>
       </c>
       <c r="AJ21" s="24">
         <f t="shared" si="1"/>
-        <v>17.849964160287044</v>
+        <v>39.772516679961122</v>
       </c>
       <c r="AK21" s="24">
         <f t="shared" si="1"/>
-        <v>17.804676535392503</v>
+        <v>39.684595641129519</v>
       </c>
       <c r="AL21" s="24">
         <f t="shared" si="1"/>
-        <v>17.761488071327364</v>
+        <v>39.588112153465424</v>
       </c>
       <c r="AM21" s="24">
         <f t="shared" si="1"/>
-        <v>17.719106328698579</v>
+        <v>39.484796576634011</v>
       </c>
       <c r="AN21" s="24">
         <f t="shared" si="1"/>
-        <v>17.679862537020341</v>
+        <v>39.38416997888789</v>
       </c>
       <c r="AO21" s="24">
         <f t="shared" si="1"/>
-        <v>17.637751673136787</v>
+        <v>39.263995728995916</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="24">
+        <f t="shared" si="1"/>
+        <v>21.132185200770842</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="1"/>
+        <v>21.11580571982665</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="1"/>
+        <v>21.09986740674179</v>
+      </c>
+      <c r="O22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.983788863601266</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.746367904838234</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.533858395297859</v>
+      </c>
+      <c r="R22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.234596684522796</v>
+      </c>
+      <c r="S22" s="24">
+        <f t="shared" si="1"/>
+        <v>20.007415498714504</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.891830524818015</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.793466650481388</v>
+      </c>
+      <c r="V22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.616251579693511</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.461519014338212</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.33269462024634</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="1"/>
+        <v>19.222681646328997</v>
+      </c>
+      <c r="Z22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.99436383588683</v>
+      </c>
+      <c r="AA22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.80366747856878</v>
+      </c>
+      <c r="AB22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.634281567260746</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.487060579542906</v>
+      </c>
+      <c r="AD22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.354054418307935</v>
+      </c>
+      <c r="AE22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.232629521593246</v>
+      </c>
+      <c r="AF22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.142460108477785</v>
+      </c>
+      <c r="AG22" s="24">
+        <f t="shared" si="1"/>
+        <v>18.061290306755375</v>
+      </c>
+      <c r="AH22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.985840083237054</v>
+      </c>
+      <c r="AI22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.915359968176571</v>
+      </c>
+      <c r="AJ22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.849964160287044</v>
+      </c>
+      <c r="AK22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.804676535392503</v>
+      </c>
+      <c r="AL22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.761488071327364</v>
+      </c>
+      <c r="AM22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.719106328698579</v>
+      </c>
+      <c r="AN22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.679862537020341</v>
+      </c>
+      <c r="AO22" s="24">
+        <f t="shared" si="1"/>
+        <v>17.637751673136787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="24">
-        <f t="shared" ref="C22:K22" si="2">C7*10^9/C15</f>
-        <v>190.46623509884517</v>
-      </c>
-      <c r="D22" s="24">
-        <f t="shared" si="2"/>
-        <v>188.76614470187803</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="2"/>
-        <v>187.0036800402498</v>
-      </c>
-      <c r="F22" s="24">
-        <f t="shared" si="2"/>
-        <v>185.16034291665758</v>
-      </c>
-      <c r="G22" s="24">
-        <f t="shared" si="2"/>
-        <v>183.31862217431578</v>
-      </c>
-      <c r="H22" s="24">
-        <f t="shared" si="2"/>
-        <v>181.51102090801572</v>
-      </c>
-      <c r="I22" s="24">
-        <f t="shared" si="2"/>
-        <v>179.73099543776937</v>
-      </c>
-      <c r="J22" s="24">
-        <f t="shared" si="2"/>
-        <v>177.91776513073449</v>
-      </c>
-      <c r="K22" s="24">
-        <f t="shared" si="2"/>
-        <v>176.06555184862694</v>
-      </c>
-      <c r="L22" s="24">
-        <f t="shared" si="1"/>
-        <v>174.25662968459139</v>
-      </c>
-      <c r="M22" s="24">
-        <f t="shared" si="1"/>
-        <v>172.30116412490472</v>
-      </c>
-      <c r="N22" s="24">
-        <f t="shared" si="1"/>
-        <v>170.43465649622286</v>
-      </c>
-      <c r="O22" s="24">
-        <f t="shared" si="1"/>
-        <v>168.49494614136583</v>
-      </c>
-      <c r="P22" s="24">
-        <f t="shared" si="1"/>
-        <v>166.63775376305225</v>
-      </c>
-      <c r="Q22" s="24">
-        <f t="shared" si="1"/>
-        <v>164.76562037314378</v>
-      </c>
-      <c r="R22" s="24">
-        <f t="shared" si="1"/>
-        <v>162.99206056072487</v>
-      </c>
-      <c r="S22" s="24">
-        <f t="shared" si="1"/>
-        <v>161.22436592512682</v>
-      </c>
-      <c r="T22" s="24">
-        <f t="shared" si="1"/>
-        <v>159.44576854901524</v>
-      </c>
-      <c r="U22" s="24">
-        <f t="shared" si="1"/>
-        <v>157.74256689727889</v>
-      </c>
-      <c r="V22" s="24">
-        <f t="shared" si="1"/>
-        <v>155.96809711576537</v>
-      </c>
-      <c r="W22" s="24">
-        <f t="shared" si="1"/>
-        <v>154.24600778842486</v>
-      </c>
-      <c r="X22" s="24">
-        <f t="shared" si="1"/>
-        <v>152.49179955525122</v>
-      </c>
-      <c r="Y22" s="24">
-        <f t="shared" si="1"/>
-        <v>150.78399257030978</v>
-      </c>
-      <c r="Z22" s="24">
-        <f t="shared" si="1"/>
-        <v>149.05265748996607</v>
-      </c>
-      <c r="AA22" s="24">
-        <f t="shared" si="1"/>
-        <v>147.39622922948018</v>
-      </c>
-      <c r="AB22" s="24">
-        <f t="shared" si="1"/>
-        <v>145.75305175768372</v>
-      </c>
-      <c r="AC22" s="24">
-        <f t="shared" si="1"/>
-        <v>144.07822420599305</v>
-      </c>
-      <c r="AD22" s="24">
-        <f t="shared" si="1"/>
-        <v>142.44594704179013</v>
-      </c>
-      <c r="AE22" s="24">
-        <f t="shared" si="1"/>
-        <v>140.87381793684668</v>
-      </c>
-      <c r="AF22" s="24">
-        <f t="shared" si="1"/>
-        <v>139.29452124536022</v>
-      </c>
-      <c r="AG22" s="24">
-        <f t="shared" si="1"/>
-        <v>137.74226750935276</v>
-      </c>
-      <c r="AH22" s="24">
-        <f t="shared" si="1"/>
-        <v>136.24939776652815</v>
-      </c>
-      <c r="AI22" s="24">
-        <f t="shared" si="1"/>
-        <v>134.79304661362852</v>
-      </c>
-      <c r="AJ22" s="24">
-        <f t="shared" si="1"/>
-        <v>133.35721197191785</v>
-      </c>
-      <c r="AK22" s="24">
-        <f t="shared" si="1"/>
-        <v>131.8980550884215</v>
-      </c>
-      <c r="AL22" s="24">
-        <f t="shared" si="1"/>
-        <v>130.55332983644234</v>
-      </c>
-      <c r="AM22" s="24">
-        <f t="shared" si="1"/>
-        <v>129.21533287567323</v>
-      </c>
-      <c r="AN22" s="24">
-        <f t="shared" si="1"/>
-        <v>127.84118557670185</v>
-      </c>
-      <c r="AO22" s="24">
-        <f t="shared" si="1"/>
-        <v>126.44171448163847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U23" s="28">
-        <f>(U18-U20)/U18</f>
-        <v>0.76285279380709248</v>
-      </c>
-      <c r="Z23" s="28">
-        <f>(Z18-Z20)/Z18</f>
-        <v>0.75414673653188435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="29">
+        <f>(U20-U18)/U18</f>
+        <v>-0.26423984800049788</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="29">
+        <f>(Z20-Z18)/Z18</f>
+        <v>-0.24189102980113422</v>
+      </c>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="25">
-        <f>C$11/30</f>
-        <v>150159120.38678154</v>
-      </c>
-      <c r="D26" s="25">
-        <f t="shared" ref="D26:AO26" si="3">D$11/30</f>
-        <v>149799439.72993097</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" si="3"/>
-        <v>149440659.58592999</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="3"/>
-        <v>149084218.96662456</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="3"/>
-        <v>148728292.95583481</v>
-      </c>
-      <c r="H26" s="25">
-        <f t="shared" si="3"/>
-        <v>148373257.33884785</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" si="3"/>
-        <v>148019109.79619929</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="3"/>
-        <v>147665848.01466605</v>
-      </c>
-      <c r="K26" s="25">
-        <f t="shared" si="3"/>
-        <v>147313469.6872488</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="3"/>
-        <v>146961825.66408634</v>
-      </c>
-      <c r="M26" s="25">
-        <f t="shared" si="3"/>
-        <v>146611061.19454429</v>
-      </c>
-      <c r="N26" s="25">
-        <f t="shared" si="3"/>
-        <v>146261039.48245677</v>
-      </c>
-      <c r="O26" s="25">
-        <f t="shared" si="3"/>
-        <v>145911893.24814913</v>
-      </c>
-      <c r="P26" s="25">
-        <f t="shared" si="3"/>
-        <v>145563927.33592257</v>
-      </c>
-      <c r="Q26" s="25">
-        <f t="shared" si="3"/>
-        <v>145216831.18001148</v>
-      </c>
-      <c r="R26" s="25">
-        <f t="shared" si="3"/>
-        <v>144870530.84522906</v>
-      </c>
-      <c r="S26" s="25">
-        <f t="shared" si="3"/>
-        <v>144525096.16961327</v>
-      </c>
-      <c r="T26" s="25">
-        <f t="shared" si="3"/>
-        <v>144178866.40098268</v>
-      </c>
-      <c r="U26" s="25">
-        <f t="shared" si="3"/>
-        <v>143833479.61071888</v>
-      </c>
-      <c r="V26" s="25">
-        <f t="shared" si="3"/>
-        <v>143489461.51052418</v>
-      </c>
-      <c r="W26" s="25">
-        <f t="shared" si="3"/>
-        <v>143146305.19267046</v>
-      </c>
-      <c r="X26" s="25">
-        <f t="shared" si="3"/>
-        <v>142804715.40755919</v>
-      </c>
-      <c r="Y26" s="25">
-        <f t="shared" si="3"/>
-        <v>142464111.99589857</v>
-      </c>
-      <c r="Z26" s="25">
-        <f t="shared" si="3"/>
-        <v>142124228.92733249</v>
-      </c>
-      <c r="AA26" s="25">
-        <f t="shared" si="3"/>
-        <v>141785196.00466165</v>
-      </c>
-      <c r="AB26" s="25">
-        <f t="shared" si="3"/>
-        <v>141447011.01212737</v>
-      </c>
-      <c r="AC26" s="25">
-        <f t="shared" si="3"/>
-        <v>141109671.73994008</v>
-      </c>
-      <c r="AD26" s="25">
-        <f t="shared" si="3"/>
-        <v>140773175.98426235</v>
-      </c>
-      <c r="AE26" s="25">
-        <f t="shared" si="3"/>
-        <v>140437521.54719296</v>
-      </c>
-      <c r="AF26" s="25">
-        <f t="shared" si="3"/>
-        <v>140102411.07962793</v>
-      </c>
-      <c r="AG26" s="25">
-        <f t="shared" si="3"/>
-        <v>139768138.8976877</v>
-      </c>
-      <c r="AH26" s="25">
-        <f t="shared" si="3"/>
-        <v>139434702.81635043</v>
-      </c>
-      <c r="AI26" s="25">
-        <f t="shared" si="3"/>
-        <v>139102100.65648142</v>
-      </c>
-      <c r="AJ26" s="25">
-        <f t="shared" si="3"/>
-        <v>138770330.24481621</v>
-      </c>
-      <c r="AK26" s="25">
-        <f t="shared" si="3"/>
-        <v>138439094.02904436</v>
-      </c>
-      <c r="AL26" s="25">
-        <f t="shared" si="3"/>
-        <v>138108686.35526484</v>
-      </c>
-      <c r="AM26" s="25">
-        <f t="shared" si="3"/>
-        <v>137779105.06452665</v>
-      </c>
-      <c r="AN26" s="25">
-        <f t="shared" si="3"/>
-        <v>137450348.00369272</v>
-      </c>
-      <c r="AO26" s="25">
-        <f t="shared" si="3"/>
-        <v>137122413.025424</v>
-      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="29">
+        <f>(U20-U19)/U19</f>
+        <v>-0.32742324978842557</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="29">
+        <f>(Z20-Z19)/Z19</f>
+        <v>-0.31492114692229495</v>
+      </c>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="25">
-        <f>C$12/18</f>
-        <v>171929961.27158955</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" ref="D27:AO27" si="4">D$12/18</f>
-        <v>171887266.02530292</v>
-      </c>
-      <c r="E27" s="25">
-        <f t="shared" si="4"/>
-        <v>171844581.8465783</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" si="4"/>
-        <v>171802104.19523346</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" si="4"/>
-        <v>171759603.06304681</v>
-      </c>
-      <c r="H27" s="25">
-        <f t="shared" si="4"/>
-        <v>171717112.93019107</v>
-      </c>
-      <c r="I27" s="25">
-        <f t="shared" si="4"/>
-        <v>171674633.7936939</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="4"/>
-        <v>171632165.6505844</v>
-      </c>
-      <c r="K27" s="25">
-        <f t="shared" si="4"/>
-        <v>171188081.27889502</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="4"/>
-        <v>170744907.06948408</v>
-      </c>
-      <c r="M27" s="25">
-        <f t="shared" si="4"/>
-        <v>170302937.93055594</v>
-      </c>
-      <c r="N27" s="25">
-        <f t="shared" si="4"/>
-        <v>169862084.53677744</v>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" si="4"/>
-        <v>169422429.72021124</v>
-      </c>
-      <c r="P27" s="25">
-        <f t="shared" si="4"/>
-        <v>168984835.06959191</v>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="4"/>
-        <v>168548428.44519648</v>
-      </c>
-      <c r="R27" s="25">
-        <f t="shared" si="4"/>
-        <v>168113128.16234818</v>
-      </c>
-      <c r="S27" s="25">
-        <f t="shared" si="4"/>
-        <v>167679009.68217742</v>
-      </c>
-      <c r="T27" s="25">
-        <f t="shared" si="4"/>
-        <v>167242650.99773678</v>
-      </c>
-      <c r="U27" s="25">
-        <f>U$12/18</f>
-        <v>166807440.62537983</v>
-      </c>
-      <c r="V27" s="25">
-        <f t="shared" si="4"/>
-        <v>166374158.94340187</v>
-      </c>
-      <c r="W27" s="25">
-        <f t="shared" si="4"/>
-        <v>165942058.36619017</v>
-      </c>
-      <c r="X27" s="25">
-        <f t="shared" si="4"/>
-        <v>165513155.51357076</v>
-      </c>
-      <c r="Y27" s="25">
-        <f t="shared" si="4"/>
-        <v>165085502.22495711</v>
-      </c>
-      <c r="Z27" s="25">
-        <f t="shared" si="4"/>
-        <v>164658927.16467637</v>
-      </c>
-      <c r="AA27" s="25">
-        <f t="shared" si="4"/>
-        <v>164233511.11551309</v>
-      </c>
-      <c r="AB27" s="25">
-        <f t="shared" si="4"/>
-        <v>163809250.77445802</v>
-      </c>
-      <c r="AC27" s="25">
-        <f t="shared" si="4"/>
-        <v>163386142.84831187</v>
-      </c>
-      <c r="AD27" s="25">
-        <f t="shared" si="4"/>
-        <v>162964184.05365631</v>
-      </c>
-      <c r="AE27" s="25">
-        <f t="shared" si="4"/>
-        <v>162543371.11682302</v>
-      </c>
-      <c r="AF27" s="25">
-        <f t="shared" si="4"/>
-        <v>162123426.06673041</v>
-      </c>
-      <c r="AG27" s="25">
-        <f t="shared" si="4"/>
-        <v>161704621.7443403</v>
-      </c>
-      <c r="AH27" s="25">
-        <f t="shared" si="4"/>
-        <v>161286954.89953569</v>
-      </c>
-      <c r="AI27" s="25">
-        <f t="shared" si="4"/>
-        <v>160870422.29185164</v>
-      </c>
-      <c r="AJ27" s="25">
-        <f t="shared" si="4"/>
-        <v>160455020.6904453</v>
-      </c>
-      <c r="AK27" s="25">
-        <f t="shared" si="4"/>
-        <v>160039919.32198834</v>
-      </c>
-      <c r="AL27" s="25">
-        <f t="shared" si="4"/>
-        <v>159625946.09867883</v>
-      </c>
-      <c r="AM27" s="25">
-        <f t="shared" si="4"/>
-        <v>159213097.80679911</v>
-      </c>
-      <c r="AN27" s="25">
-        <f t="shared" si="4"/>
-        <v>158801371.2421695</v>
-      </c>
-      <c r="AO27" s="25">
-        <f t="shared" si="4"/>
-        <v>158390763.21011871</v>
-      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="25">
-        <f>C$13/12</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="25">
-        <f t="shared" ref="D28:AO28" si="5">D$13/12</f>
-        <v>23801757.293132279</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="5"/>
-        <v>48388174.874664895</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" si="5"/>
-        <v>58478537.953547366</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="5"/>
-        <v>66616248.556226142</v>
-      </c>
-      <c r="H28" s="25">
-        <f t="shared" si="5"/>
-        <v>75622285.653329834</v>
-      </c>
-      <c r="I28" s="25">
-        <f t="shared" si="5"/>
-        <v>83322936.30674535</v>
-      </c>
-      <c r="J28" s="25">
-        <f t="shared" si="5"/>
-        <v>91303124.895806015</v>
-      </c>
-      <c r="K28" s="25">
-        <f t="shared" si="5"/>
-        <v>99313341.330216184</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="5"/>
-        <v>99285641.511719391</v>
-      </c>
-      <c r="M28" s="25">
-        <f t="shared" si="5"/>
-        <v>99257949.670448974</v>
-      </c>
-      <c r="N28" s="25">
-        <f t="shared" si="5"/>
-        <v>99230259.275360778</v>
-      </c>
-      <c r="O28" s="25">
-        <f t="shared" si="5"/>
-        <v>99202576.855450198</v>
-      </c>
-      <c r="P28" s="25">
-        <f t="shared" si="5"/>
-        <v>99174934.054702953</v>
-      </c>
-      <c r="Q28" s="25">
-        <f t="shared" si="5"/>
-        <v>99147299.211238503</v>
-      </c>
-      <c r="R28" s="25">
-        <f t="shared" si="5"/>
-        <v>99119640.035393938</v>
-      </c>
-      <c r="S28" s="25">
-        <f t="shared" si="5"/>
-        <v>99091988.83280839</v>
-      </c>
-      <c r="T28" s="25">
-        <f t="shared" si="5"/>
-        <v>99064214.876900241</v>
-      </c>
-      <c r="U28" s="25">
-        <f>U$13/12</f>
-        <v>99036446.304872572</v>
-      </c>
-      <c r="V28" s="25">
-        <f t="shared" si="5"/>
-        <v>99008741.965228319</v>
-      </c>
-      <c r="W28" s="25">
-        <f t="shared" si="5"/>
-        <v>98981045.62969707</v>
-      </c>
-      <c r="X28" s="25">
-        <f t="shared" si="5"/>
-        <v>98953389.671778962</v>
-      </c>
-      <c r="Y28" s="25">
-        <f t="shared" si="5"/>
-        <v>98662754.645199314</v>
-      </c>
-      <c r="Z28" s="25">
-        <f t="shared" si="5"/>
-        <v>98372936.930343673</v>
-      </c>
-      <c r="AA28" s="25">
-        <f t="shared" si="5"/>
-        <v>98084001.374737605</v>
-      </c>
-      <c r="AB28" s="25">
-        <f t="shared" si="5"/>
-        <v>97795945.219542578</v>
-      </c>
-      <c r="AC28" s="25">
-        <f t="shared" si="5"/>
-        <v>97508765.714718118</v>
-      </c>
-      <c r="AD28" s="25">
-        <f t="shared" si="5"/>
-        <v>97222460.118993521</v>
-      </c>
-      <c r="AE28" s="25">
-        <f t="shared" si="5"/>
-        <v>96937025.699839398</v>
-      </c>
-      <c r="AF28" s="25">
-        <f t="shared" si="5"/>
-        <v>96652344.379101515</v>
-      </c>
-      <c r="AG28" s="25">
-        <f t="shared" si="5"/>
-        <v>96368529.475119129</v>
-      </c>
-      <c r="AH28" s="25">
-        <f t="shared" si="5"/>
-        <v>96085578.278299585</v>
-      </c>
-      <c r="AI28" s="25">
-        <f t="shared" si="5"/>
-        <v>95803488.08769238</v>
-      </c>
-      <c r="AJ28" s="25">
-        <f t="shared" si="5"/>
-        <v>95522256.210960567</v>
-      </c>
-      <c r="AK28" s="25">
-        <f t="shared" si="5"/>
-        <v>95241560.944665924</v>
-      </c>
-      <c r="AL28" s="25">
-        <f t="shared" si="5"/>
-        <v>94961720.010229006</v>
-      </c>
-      <c r="AM28" s="25">
-        <f t="shared" si="5"/>
-        <v>94682730.736530557</v>
-      </c>
-      <c r="AN28" s="25">
-        <f t="shared" si="5"/>
-        <v>94404590.460967407</v>
-      </c>
-      <c r="AO28" s="25">
-        <f t="shared" si="5"/>
-        <v>94127296.529424831</v>
-      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="25">
-        <f>C$14/30</f>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U30" s="30">
+        <f>(U25*U11+U26*U12)/SUM(U11:U12)</f>
+        <v>-0.2982701080862078</v>
+      </c>
+      <c r="Z30" s="30">
+        <f>(Z25*Z11+Z26*Z12)/SUM(Z11:Z12)</f>
+        <v>-0.28127354749345396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="25">
+        <f>C$12/30</f>
+        <v>150159120.38678154</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" ref="D32:AO32" si="2">D$12/30</f>
+        <v>149799439.72993097</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="2"/>
+        <v>149440659.58592999</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="2"/>
+        <v>149084218.96662456</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="2"/>
+        <v>148728292.95583481</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="2"/>
+        <v>148373257.33884785</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="2"/>
+        <v>148019109.79619929</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="2"/>
+        <v>147665848.01466605</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="2"/>
+        <v>147313469.6872488</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="2"/>
+        <v>146961825.66408634</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="2"/>
+        <v>146611061.19454429</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="2"/>
+        <v>146261039.48245677</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="2"/>
+        <v>145911893.24814913</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" si="2"/>
+        <v>145563927.33592257</v>
+      </c>
+      <c r="Q32" s="25">
+        <f t="shared" si="2"/>
+        <v>145216831.18001148</v>
+      </c>
+      <c r="R32" s="25">
+        <f t="shared" si="2"/>
+        <v>144870530.84522906</v>
+      </c>
+      <c r="S32" s="25">
+        <f t="shared" si="2"/>
+        <v>144525096.16961327</v>
+      </c>
+      <c r="T32" s="25">
+        <f t="shared" si="2"/>
+        <v>144178866.40098268</v>
+      </c>
+      <c r="U32" s="25">
+        <f t="shared" si="2"/>
+        <v>143833479.61071888</v>
+      </c>
+      <c r="V32" s="25">
+        <f t="shared" si="2"/>
+        <v>143489461.51052418</v>
+      </c>
+      <c r="W32" s="25">
+        <f t="shared" si="2"/>
+        <v>143146305.19267046</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="2"/>
+        <v>142804715.40755919</v>
+      </c>
+      <c r="Y32" s="25">
+        <f t="shared" si="2"/>
+        <v>142464111.99589857</v>
+      </c>
+      <c r="Z32" s="25">
+        <f t="shared" si="2"/>
+        <v>142124228.92733249</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="2"/>
+        <v>141785196.00466165</v>
+      </c>
+      <c r="AB32" s="25">
+        <f t="shared" si="2"/>
+        <v>141447011.01212737</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="2"/>
+        <v>141109671.73994008</v>
+      </c>
+      <c r="AD32" s="25">
+        <f t="shared" si="2"/>
+        <v>140773175.98426235</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="2"/>
+        <v>140437521.54719296</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="2"/>
+        <v>140102411.07962793</v>
+      </c>
+      <c r="AG32" s="25">
+        <f t="shared" si="2"/>
+        <v>139768138.8976877</v>
+      </c>
+      <c r="AH32" s="25">
+        <f t="shared" si="2"/>
+        <v>139434702.81635043</v>
+      </c>
+      <c r="AI32" s="25">
+        <f t="shared" si="2"/>
+        <v>139102100.65648142</v>
+      </c>
+      <c r="AJ32" s="25">
+        <f t="shared" si="2"/>
+        <v>138770330.24481621</v>
+      </c>
+      <c r="AK32" s="25">
+        <f t="shared" si="2"/>
+        <v>138439094.02904436</v>
+      </c>
+      <c r="AL32" s="25">
+        <f t="shared" si="2"/>
+        <v>138108686.35526484</v>
+      </c>
+      <c r="AM32" s="25">
+        <f t="shared" si="2"/>
+        <v>137779105.06452665</v>
+      </c>
+      <c r="AN32" s="25">
+        <f t="shared" si="2"/>
+        <v>137450348.00369272</v>
+      </c>
+      <c r="AO32" s="25">
+        <f t="shared" si="2"/>
+        <v>137122413.025424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="25">
+        <f>C$13/18</f>
+        <v>171929961.27158955</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" ref="D33:AO33" si="3">D$13/18</f>
+        <v>171887266.02530292</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="3"/>
+        <v>171844581.8465783</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="3"/>
+        <v>171802104.19523346</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="3"/>
+        <v>171759603.06304681</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="3"/>
+        <v>171717112.93019107</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="3"/>
+        <v>171674633.7936939</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="3"/>
+        <v>171632165.6505844</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="3"/>
+        <v>171188081.27889502</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="3"/>
+        <v>170744907.06948408</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="3"/>
+        <v>170302937.93055594</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="3"/>
+        <v>169862084.53677744</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="3"/>
+        <v>169422429.72021124</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" si="3"/>
+        <v>168984835.06959191</v>
+      </c>
+      <c r="Q33" s="25">
+        <f t="shared" si="3"/>
+        <v>168548428.44519648</v>
+      </c>
+      <c r="R33" s="25">
+        <f t="shared" si="3"/>
+        <v>168113128.16234818</v>
+      </c>
+      <c r="S33" s="25">
+        <f t="shared" si="3"/>
+        <v>167679009.68217742</v>
+      </c>
+      <c r="T33" s="25">
+        <f t="shared" si="3"/>
+        <v>167242650.99773678</v>
+      </c>
+      <c r="U33" s="25">
+        <f t="shared" si="3"/>
+        <v>166807440.62537983</v>
+      </c>
+      <c r="V33" s="25">
+        <f t="shared" si="3"/>
+        <v>166374158.94340187</v>
+      </c>
+      <c r="W33" s="25">
+        <f t="shared" si="3"/>
+        <v>165942058.36619017</v>
+      </c>
+      <c r="X33" s="25">
+        <f t="shared" si="3"/>
+        <v>165513155.51357076</v>
+      </c>
+      <c r="Y33" s="25">
+        <f t="shared" si="3"/>
+        <v>165085502.22495711</v>
+      </c>
+      <c r="Z33" s="25">
+        <f t="shared" si="3"/>
+        <v>164658927.16467637</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="3"/>
+        <v>164233511.11551309</v>
+      </c>
+      <c r="AB33" s="25">
+        <f t="shared" si="3"/>
+        <v>163809250.77445802</v>
+      </c>
+      <c r="AC33" s="25">
+        <f t="shared" si="3"/>
+        <v>163386142.84831187</v>
+      </c>
+      <c r="AD33" s="25">
+        <f t="shared" si="3"/>
+        <v>162964184.05365631</v>
+      </c>
+      <c r="AE33" s="25">
+        <f t="shared" si="3"/>
+        <v>162543371.11682302</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" si="3"/>
+        <v>162123426.06673041</v>
+      </c>
+      <c r="AG33" s="25">
+        <f t="shared" si="3"/>
+        <v>161704621.7443403</v>
+      </c>
+      <c r="AH33" s="25">
+        <f t="shared" si="3"/>
+        <v>161286954.89953569</v>
+      </c>
+      <c r="AI33" s="25">
+        <f t="shared" si="3"/>
+        <v>160870422.29185164</v>
+      </c>
+      <c r="AJ33" s="25">
+        <f t="shared" si="3"/>
+        <v>160455020.6904453</v>
+      </c>
+      <c r="AK33" s="25">
+        <f t="shared" si="3"/>
+        <v>160039919.32198834</v>
+      </c>
+      <c r="AL33" s="25">
+        <f t="shared" si="3"/>
+        <v>159625946.09867883</v>
+      </c>
+      <c r="AM33" s="25">
+        <f t="shared" si="3"/>
+        <v>159213097.80679911</v>
+      </c>
+      <c r="AN33" s="25">
+        <f t="shared" si="3"/>
+        <v>158801371.2421695</v>
+      </c>
+      <c r="AO33" s="25">
+        <f t="shared" si="3"/>
+        <v>158390763.21011871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="25">
+        <f>C$14/12</f>
         <v>0</v>
       </c>
-      <c r="D29" s="25">
-        <f t="shared" ref="D29:AO29" si="6">D$14/30</f>
+      <c r="D34" s="25">
+        <f t="shared" ref="D34:AO34" si="4">D$14/12</f>
+        <v>23801757.293132279</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="4"/>
+        <v>48388174.874664895</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="4"/>
+        <v>58478537.953547366</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="4"/>
+        <v>66616248.556226142</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="4"/>
+        <v>75622285.653329834</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="4"/>
+        <v>83322936.30674535</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" si="4"/>
+        <v>91303124.895806015</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" si="4"/>
+        <v>99313341.330216184</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" si="4"/>
+        <v>99285641.511719391</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="4"/>
+        <v>99257949.670448974</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="4"/>
+        <v>99230259.275360778</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="4"/>
+        <v>99202576.855450198</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="4"/>
+        <v>99174934.054702953</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" si="4"/>
+        <v>99147299.211238503</v>
+      </c>
+      <c r="R34" s="25">
+        <f t="shared" si="4"/>
+        <v>99119640.035393938</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" si="4"/>
+        <v>99091988.83280839</v>
+      </c>
+      <c r="T34" s="25">
+        <f t="shared" si="4"/>
+        <v>99064214.876900241</v>
+      </c>
+      <c r="U34" s="25">
+        <f t="shared" si="4"/>
+        <v>99036446.304872572</v>
+      </c>
+      <c r="V34" s="25">
+        <f t="shared" si="4"/>
+        <v>99008741.965228319</v>
+      </c>
+      <c r="W34" s="25">
+        <f t="shared" si="4"/>
+        <v>98981045.62969707</v>
+      </c>
+      <c r="X34" s="25">
+        <f t="shared" si="4"/>
+        <v>98953389.671778962</v>
+      </c>
+      <c r="Y34" s="25">
+        <f t="shared" si="4"/>
+        <v>98662754.645199314</v>
+      </c>
+      <c r="Z34" s="25">
+        <f t="shared" si="4"/>
+        <v>98372936.930343673</v>
+      </c>
+      <c r="AA34" s="25">
+        <f t="shared" si="4"/>
+        <v>98084001.374737605</v>
+      </c>
+      <c r="AB34" s="25">
+        <f t="shared" si="4"/>
+        <v>97795945.219542578</v>
+      </c>
+      <c r="AC34" s="25">
+        <f t="shared" si="4"/>
+        <v>97508765.714718118</v>
+      </c>
+      <c r="AD34" s="25">
+        <f t="shared" si="4"/>
+        <v>97222460.118993521</v>
+      </c>
+      <c r="AE34" s="25">
+        <f t="shared" si="4"/>
+        <v>96937025.699839398</v>
+      </c>
+      <c r="AF34" s="25">
+        <f t="shared" si="4"/>
+        <v>96652344.379101515</v>
+      </c>
+      <c r="AG34" s="25">
+        <f t="shared" si="4"/>
+        <v>96368529.475119129</v>
+      </c>
+      <c r="AH34" s="25">
+        <f t="shared" si="4"/>
+        <v>96085578.278299585</v>
+      </c>
+      <c r="AI34" s="25">
+        <f t="shared" si="4"/>
+        <v>95803488.08769238</v>
+      </c>
+      <c r="AJ34" s="25">
+        <f t="shared" si="4"/>
+        <v>95522256.210960567</v>
+      </c>
+      <c r="AK34" s="25">
+        <f t="shared" si="4"/>
+        <v>95241560.944665924</v>
+      </c>
+      <c r="AL34" s="25">
+        <f t="shared" si="4"/>
+        <v>94961720.010229006</v>
+      </c>
+      <c r="AM34" s="25">
+        <f t="shared" si="4"/>
+        <v>94682730.736530557</v>
+      </c>
+      <c r="AN34" s="25">
+        <f t="shared" si="4"/>
+        <v>94404590.460967407</v>
+      </c>
+      <c r="AO34" s="25">
+        <f t="shared" si="4"/>
+        <v>94127296.529424831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="25">
+        <f>C$15/30</f>
         <v>0</v>
       </c>
-      <c r="E29" s="25">
-        <f t="shared" si="6"/>
+      <c r="D35" s="25">
+        <f t="shared" ref="D35:AO35" si="5">D$15/30</f>
         <v>0</v>
       </c>
-      <c r="F29" s="25">
-        <f t="shared" si="6"/>
+      <c r="E35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="25">
-        <f t="shared" si="6"/>
+      <c r="F35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H29" s="25">
-        <f t="shared" si="6"/>
+      <c r="G35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I29" s="25">
-        <f t="shared" si="6"/>
+      <c r="H35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J29" s="25">
-        <f t="shared" si="6"/>
+      <c r="I35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="25">
-        <f t="shared" si="6"/>
+      <c r="J35" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="25">
-        <f t="shared" si="6"/>
+      <c r="K35" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="5"/>
         <v>3124769.9629255245</v>
       </c>
-      <c r="M29" s="25">
-        <f t="shared" si="6"/>
+      <c r="M35" s="25">
+        <f t="shared" si="5"/>
         <v>6122380.9273106223</v>
       </c>
-      <c r="N29" s="25">
-        <f t="shared" si="6"/>
+      <c r="N35" s="25">
+        <f t="shared" si="5"/>
         <v>9036548.1294496041</v>
       </c>
-      <c r="O29" s="25">
-        <f t="shared" si="6"/>
+      <c r="O35" s="25">
+        <f t="shared" si="5"/>
         <v>11936396.975238472</v>
       </c>
-      <c r="P29" s="25">
-        <f t="shared" si="6"/>
+      <c r="P35" s="25">
+        <f t="shared" si="5"/>
         <v>14895161.507436713</v>
       </c>
-      <c r="Q29" s="25">
-        <f t="shared" si="6"/>
+      <c r="Q35" s="25">
+        <f t="shared" si="5"/>
         <v>17831883.716858152</v>
       </c>
-      <c r="R29" s="25">
-        <f t="shared" si="6"/>
+      <c r="R35" s="25">
+        <f t="shared" si="5"/>
         <v>20687007.225243032</v>
       </c>
-      <c r="S29" s="25">
-        <f t="shared" si="6"/>
+      <c r="S35" s="25">
+        <f t="shared" si="5"/>
         <v>23548593.220323198</v>
       </c>
-      <c r="T29" s="25">
-        <f t="shared" si="6"/>
+      <c r="T35" s="25">
+        <f t="shared" si="5"/>
         <v>26085394.712145489</v>
       </c>
-      <c r="U29" s="25">
-        <f t="shared" si="6"/>
+      <c r="U35" s="25">
+        <f t="shared" si="5"/>
         <v>28614526.468430173</v>
       </c>
-      <c r="V29" s="25">
-        <f t="shared" si="6"/>
+      <c r="V35" s="25">
+        <f t="shared" si="5"/>
         <v>31135078.391459964</v>
       </c>
-      <c r="W29" s="25">
-        <f t="shared" si="6"/>
+      <c r="W35" s="25">
+        <f t="shared" si="5"/>
         <v>33651841.588811912</v>
       </c>
-      <c r="X29" s="25">
-        <f t="shared" si="6"/>
+      <c r="X35" s="25">
+        <f t="shared" si="5"/>
         <v>36181033.964593172</v>
       </c>
-      <c r="Y29" s="25">
-        <f t="shared" si="6"/>
+      <c r="Y35" s="25">
+        <f t="shared" si="5"/>
         <v>38817411.827531822</v>
       </c>
-      <c r="Z29" s="25">
-        <f t="shared" si="6"/>
+      <c r="Z35" s="25">
+        <f t="shared" si="5"/>
         <v>41447431.004600964</v>
       </c>
-      <c r="AA29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AA35" s="25">
+        <f t="shared" si="5"/>
         <v>44044653.628144532</v>
       </c>
-      <c r="AB29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AB35" s="25">
+        <f t="shared" si="5"/>
         <v>46640653.964634992</v>
       </c>
-      <c r="AC29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AC35" s="25">
+        <f t="shared" si="5"/>
         <v>49227630.219085619</v>
       </c>
-      <c r="AD29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AD35" s="25">
+        <f t="shared" si="5"/>
         <v>51808906.761224188</v>
       </c>
-      <c r="AE29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AE35" s="25">
+        <f t="shared" si="5"/>
         <v>54387919.683629297</v>
       </c>
-      <c r="AF29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AF35" s="25">
+        <f t="shared" si="5"/>
         <v>56779741.281783126</v>
       </c>
-      <c r="AG29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AG35" s="25">
+        <f t="shared" si="5"/>
         <v>59169264.920817643</v>
       </c>
-      <c r="AH29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AH35" s="25">
+        <f t="shared" si="5"/>
         <v>61549001.648910403</v>
       </c>
-      <c r="AI29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AI35" s="25">
+        <f t="shared" si="5"/>
         <v>63926326.419408806</v>
       </c>
-      <c r="AJ29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AJ35" s="25">
+        <f t="shared" si="5"/>
         <v>66293871.468493409</v>
       </c>
-      <c r="AK29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AK35" s="25">
+        <f t="shared" si="5"/>
         <v>68471001.477233112</v>
       </c>
-      <c r="AL29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AL35" s="25">
+        <f t="shared" si="5"/>
         <v>70642403.850746736</v>
       </c>
-      <c r="AM29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AM35" s="25">
+        <f t="shared" si="5"/>
         <v>72808744.373845503</v>
       </c>
-      <c r="AN29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AN35" s="25">
+        <f t="shared" si="5"/>
         <v>74970903.015605494</v>
       </c>
-      <c r="AO29" s="25">
-        <f t="shared" si="6"/>
+      <c r="AO35" s="25">
+        <f t="shared" si="5"/>
         <v>77129666.867700741</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="U38" s="31">
+        <f>SUM(U11:U12)/SUM(U11:U14)</f>
+        <v>0.65655000394482876</v>
+      </c>
+      <c r="Z38" s="31">
+        <f>SUM(Z11:Z12)/SUM(Z11:Z14)</f>
+        <v>0.6560974456214822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="16"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D41" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E41" t="s">
         <v>61</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F41" t="s">
         <v>62</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G41" t="s">
         <v>63</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H41" t="s">
         <v>64</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I41" t="s">
         <v>65</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J41" t="s">
         <v>66</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K41" t="s">
         <v>67</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L41" t="s">
         <v>68</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M41" t="s">
         <v>69</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N41" t="s">
         <v>70</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O41" t="s">
         <v>71</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P41" t="s">
         <v>72</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q41" t="s">
         <v>73</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R41" t="s">
         <v>74</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S41" t="s">
         <v>75</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T41" t="s">
         <v>76</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V41" t="s">
         <v>78</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W41" t="s">
         <v>79</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X41" t="s">
         <v>80</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y41" t="s">
         <v>81</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA41" t="s">
         <v>83</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB41" t="s">
         <v>84</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC41" t="s">
         <v>85</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AD41" t="s">
         <v>86</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE41" t="s">
         <v>87</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF41" t="s">
         <v>88</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG41" t="s">
         <v>89</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AH41" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AI41" t="s">
         <v>91</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AJ41" t="s">
         <v>92</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AK41" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AL41" t="s">
         <v>94</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AM41" t="s">
         <v>95</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AN41" t="s">
         <v>96</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AO41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
-      <c r="C35">
-        <f>C$11/30</f>
+      <c r="C42">
+        <f>C$12/30</f>
         <v>150159120.38678154</v>
       </c>
-      <c r="U35" s="17">
+      <c r="U42" s="17">
+        <f>U21*U12/10^9</f>
+        <v>176.58043030436096</v>
+      </c>
+      <c r="Z42" s="17">
+        <f>Z21*Z12/10^9</f>
+        <v>172.9004607926646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="U43" s="17">
+        <f>U5</f>
+        <v>348.47617481414409</v>
+      </c>
+      <c r="Z43" s="17">
+        <f>Z5</f>
+        <v>334.91079449481015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="17">
+        <f>U6</f>
+        <v>48.633734931977244</v>
+      </c>
+      <c r="Z44" s="17">
+        <f>Z6</f>
+        <v>47.87002540849145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="U45" s="17">
+        <f>U7</f>
+        <v>16.99142026116569</v>
+      </c>
+      <c r="Z45" s="17">
+        <f>Z7</f>
+        <v>23.618027536926213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U46" s="17">
+        <f>U21*U11/10^9</f>
+        <v>151.27343410059154</v>
+      </c>
+      <c r="Z46" s="17">
+        <f>Z21*Z11/10^9</f>
+        <v>147.7225374788097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="U47" s="17">
+        <f>SUM(U42:U46)</f>
+        <v>741.95519441223951</v>
+      </c>
+      <c r="Z47" s="17">
+        <f>SUM(Z42:Z46)</f>
+        <v>727.0218457117021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="T49" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U49" s="18">
+        <f>U8-U47</f>
+        <v>999.85841846938388</v>
+      </c>
+      <c r="V49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y49" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z49" s="18">
+        <f>Z8-Z47</f>
+        <v>925.61873764039342</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="T50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U50" s="19">
+        <f>U49/U8</f>
+        <v>0.5740329568415975</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z50" s="19">
+        <f>Z49/Z8</f>
+        <v>0.5600847195479951</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>70</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <f>C$12/30</f>
+        <v>150159120.38678154</v>
+      </c>
+      <c r="U56" s="17">
+        <f>U20*U12/10^9</f>
+        <v>500.80240822428215</v>
+      </c>
+      <c r="Z56" s="17">
+        <f>Z20*Z12/10^9</f>
+        <v>481.79327662985054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="U57" s="17">
+        <f>U5</f>
+        <v>348.47617481414409</v>
+      </c>
+      <c r="Z57" s="17">
+        <f>Z5</f>
+        <v>334.91079449481015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="U58" s="17">
+        <f>U6</f>
+        <v>48.633734931977244</v>
+      </c>
+      <c r="Z58" s="17">
+        <f>Z6</f>
+        <v>47.87002540849145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="U59" s="17">
+        <f>U7</f>
+        <v>16.99142026116569</v>
+      </c>
+      <c r="Z59" s="17">
+        <f>Z7</f>
+        <v>23.618027536926213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="U60" s="17">
         <f>U20*U11/10^9</f>
-        <v>176.58043030436096</v>
-      </c>
-      <c r="Z35" s="17">
+        <v>429.02885652364682</v>
+      </c>
+      <c r="Z60" s="17">
         <f>Z20*Z11/10^9</f>
-        <v>172.9004607926646</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="U36" s="17">
-        <f>U4</f>
-        <v>348.47617481414409</v>
-      </c>
-      <c r="Z36" s="17">
-        <f>Z4</f>
-        <v>334.91079449481015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="U37" s="17">
-        <f>U5</f>
-        <v>48.633734931977244</v>
-      </c>
-      <c r="Z37" s="17">
-        <f>Z5</f>
-        <v>47.87002540849145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="U38" s="17">
-        <f>U6</f>
-        <v>16.99142026116569</v>
-      </c>
-      <c r="Z38" s="17">
-        <f>Z6</f>
-        <v>23.618027536926213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="U39" s="17">
-        <f>U20*U15/10^9</f>
-        <v>151.27343410059154</v>
-      </c>
-      <c r="Z39" s="17">
-        <f>Z20*Z15/10^9</f>
-        <v>147.7225374788097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U40" s="17">
-        <f>SUM(U35:U39)</f>
-        <v>741.95519441223951</v>
-      </c>
-      <c r="Z40" s="17">
-        <f>SUM(Z35:Z39)</f>
-        <v>727.0218457117021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T42" s="16" t="s">
+        <v>411.63409882023359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U61" s="17">
+        <f>SUM(U56:U60)</f>
+        <v>1343.9325947552159</v>
+      </c>
+      <c r="Z61" s="17">
+        <f>SUM(Z56:Z60)</f>
+        <v>1299.8262228903118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T63" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="U42" s="18">
-        <f>U8-U40</f>
-        <v>999.85841846938411</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="U63" s="22">
+        <f>U8-U61</f>
+        <v>397.88101812640753</v>
+      </c>
+      <c r="V63" t="s">
         <v>38</v>
       </c>
-      <c r="Y42" s="16" t="s">
+      <c r="Y63" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="Z42" s="18">
-        <f>Z8-Z40</f>
-        <v>925.61873764039365</v>
-      </c>
-      <c r="AA42" t="s">
+      <c r="Z63" s="22">
+        <f>Z8-Z61</f>
+        <v>352.81436046178374</v>
+      </c>
+      <c r="AA63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T43" s="16" t="s">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T64" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="19">
-        <f>U42/U8</f>
-        <v>0.5740329568415975</v>
-      </c>
-      <c r="Y43" s="16" t="s">
+      <c r="U64" s="23">
+        <f>U63/U8</f>
+        <v>0.22842915865616684</v>
+      </c>
+      <c r="Y64" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Z43" s="19">
-        <f>Z42/Z8</f>
-        <v>0.5600847195479951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" t="s">
-        <v>68</v>
-      </c>
-      <c r="M48" t="s">
-        <v>69</v>
-      </c>
-      <c r="N48" t="s">
-        <v>70</v>
-      </c>
-      <c r="O48" t="s">
-        <v>71</v>
-      </c>
-      <c r="P48" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>73</v>
-      </c>
-      <c r="R48" t="s">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s">
-        <v>75</v>
-      </c>
-      <c r="T48" t="s">
-        <v>76</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V48" t="s">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s">
-        <v>79</v>
-      </c>
-      <c r="X48" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49">
-        <f>C$11/30</f>
-        <v>150159120.38678154</v>
-      </c>
-      <c r="U49" s="17">
-        <f>U19*U11/10^9</f>
-        <v>500.80240822428215</v>
-      </c>
-      <c r="Z49" s="17">
-        <f>Z19*Z11/10^9</f>
-        <v>481.79327662985054</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="U50" s="17">
-        <f>U4</f>
-        <v>348.47617481414409</v>
-      </c>
-      <c r="Z50" s="17">
-        <f>Z4</f>
-        <v>334.91079449481015</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="U51" s="17">
-        <f>U5</f>
-        <v>48.633734931977244</v>
-      </c>
-      <c r="Z51" s="17">
-        <f>Z5</f>
-        <v>47.87002540849145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="U52" s="17">
-        <f>U6</f>
-        <v>16.99142026116569</v>
-      </c>
-      <c r="Z52" s="17">
-        <f>Z6</f>
-        <v>23.618027536926213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="U53" s="17">
-        <f>U19*U15/10^9</f>
-        <v>429.02885652364682</v>
-      </c>
-      <c r="Z53" s="17">
-        <f>Z19*Z15/10^9</f>
-        <v>411.63409882023359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="U54" s="17">
-        <f>SUM(U49:U53)</f>
-        <v>1343.9325947552159</v>
-      </c>
-      <c r="Z54" s="17">
-        <f>SUM(Z49:Z53)</f>
-        <v>1299.8262228903118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T56" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="U56" s="22">
-        <f>U8-U54</f>
-        <v>397.88101812640775</v>
-      </c>
-      <c r="V56" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y56" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z56" s="22">
-        <f>Z8-Z54</f>
-        <v>352.81436046178396</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T57" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="U57" s="23">
-        <f>U56/U8</f>
-        <v>0.22842915865616695</v>
-      </c>
-      <c r="Y57" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z57" s="23">
-        <f>Z56/Z8</f>
-        <v>0.21348523327810395</v>
-      </c>
+      <c r="Z64" s="23">
+        <f>Z63/Z8</f>
+        <v>0.21348523327810384</v>
+      </c>
+    </row>
+    <row r="66" spans="21:26" x14ac:dyDescent="0.35">
+      <c r="U66">
+        <f>U8*U16*(1-U30)</f>
+        <v>1387.1046351868599</v>
+      </c>
+      <c r="Z66">
+        <f>Z8*Z16*(1-Z30)</f>
+        <v>1259.336773626088</v>
+      </c>
+    </row>
+    <row r="67" spans="21:26" x14ac:dyDescent="0.35">
+      <c r="U67" s="27">
+        <f>(U8-U66)/U8</f>
+        <v>0.203643475439338</v>
+      </c>
+      <c r="Z67" s="27">
+        <f>(Z8-Z66)/Z8</f>
+        <v>0.23798508501362034</v>
+      </c>
+    </row>
+    <row r="69" spans="21:26" x14ac:dyDescent="0.35">
+      <c r="U69" s="27"/>
+      <c r="Z69" s="27"/>
+    </row>
+    <row r="70" spans="21:26" x14ac:dyDescent="0.35">
+      <c r="U70" s="27"/>
+      <c r="Z70" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8319,7 +8819,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8349,16 +8849,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>savings_residential!U23</f>
-        <v>0.76285279380709248</v>
+        <f>savings_residential!U30</f>
+        <v>-0.2982701080862078</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C7" si="0">$B2</f>
-        <v>0.76285279380709248</v>
+        <v>-0.2982701080862078</v>
       </c>
       <c r="D2" s="7">
-        <f>savings_commercial!X23</f>
-        <v>0.53445503893211144</v>
+        <f>savings_commercial!U31</f>
+        <v>-0.1894572490022555</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8367,15 +8867,15 @@
       </c>
       <c r="B3" s="7">
         <f>B2</f>
-        <v>0.76285279380709248</v>
+        <v>-0.2982701080862078</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>0.76285279380709248</v>
+        <v>-0.2982701080862078</v>
       </c>
       <c r="D3" s="7">
         <f>D2</f>
-        <v>0.53445503893211144</v>
+        <v>-0.1894572490022555</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8577,14 +9077,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8817,21 +9315,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8856,9 +9353,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\bldgs\BRESaC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\bldgs\BRESaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE709BDC-4715-4232-9438-A8082CDA6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE871DA-E75B-4A5D-8918-0BDE2A174455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33105" yWindow="3045" windowWidth="18765" windowHeight="12960" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ59" sqref="AJ59"/>
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,159 +2742,159 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <f>SUM(C4:C7)</f>
+        <f t="shared" ref="C8:AO8" si="0">SUM(C4:C7)</f>
         <v>535.38849971629782</v>
       </c>
       <c r="D8">
-        <f>SUM(D4:D7)</f>
+        <f t="shared" si="0"/>
         <v>538.91909208493371</v>
       </c>
       <c r="E8">
-        <f>SUM(E4:E7)</f>
+        <f t="shared" si="0"/>
         <v>543.29009945444216</v>
       </c>
       <c r="F8">
-        <f>SUM(F4:F7)</f>
+        <f t="shared" si="0"/>
         <v>546.7204540729299</v>
       </c>
       <c r="G8">
-        <f>SUM(G4:G7)</f>
+        <f t="shared" si="0"/>
         <v>549.28457075994061</v>
       </c>
       <c r="H8">
-        <f>SUM(H4:H7)</f>
+        <f t="shared" si="0"/>
         <v>555.29806501142377</v>
       </c>
       <c r="I8">
-        <f>SUM(I4:I7)</f>
+        <f t="shared" si="0"/>
         <v>555.23738279998452</v>
       </c>
       <c r="J8">
-        <f>SUM(J4:J7)</f>
+        <f t="shared" si="0"/>
         <v>556.8732893557135</v>
       </c>
       <c r="K8">
-        <f>SUM(K4:K7)</f>
+        <f t="shared" si="0"/>
         <v>554.0278424429348</v>
       </c>
       <c r="L8">
-        <f>SUM(L4:L7)</f>
+        <f t="shared" si="0"/>
         <v>550.56783194589127</v>
       </c>
       <c r="M8">
-        <f>SUM(M4:M7)</f>
+        <f t="shared" si="0"/>
         <v>548.37493747815552</v>
       </c>
       <c r="N8">
-        <f>SUM(N4:N7)</f>
+        <f t="shared" si="0"/>
         <v>544.99710395265561</v>
       </c>
       <c r="O8">
-        <f>SUM(O4:O7)</f>
+        <f t="shared" si="0"/>
         <v>542.18381433119214</v>
       </c>
       <c r="P8">
-        <f>SUM(P4:P7)</f>
+        <f t="shared" si="0"/>
         <v>541.19772315441071</v>
       </c>
       <c r="Q8">
-        <f>SUM(Q4:Q7)</f>
+        <f t="shared" si="0"/>
         <v>538.82420337273811</v>
       </c>
       <c r="R8">
-        <f>SUM(R4:R7)</f>
+        <f t="shared" si="0"/>
         <v>536.90178990782317</v>
       </c>
       <c r="S8">
-        <f>SUM(S4:S7)</f>
+        <f t="shared" si="0"/>
         <v>535.63580402753439</v>
       </c>
       <c r="T8">
-        <f>SUM(T4:T7)</f>
+        <f t="shared" si="0"/>
         <v>534.08076165051421</v>
       </c>
       <c r="U8" s="1">
-        <f>SUM(U4:U7)</f>
+        <f t="shared" si="0"/>
         <v>532.56628229455873</v>
       </c>
       <c r="V8">
-        <f>SUM(V4:V7)</f>
+        <f t="shared" si="0"/>
         <v>530.03536899271614</v>
       </c>
       <c r="W8">
-        <f>SUM(W4:W7)</f>
+        <f t="shared" si="0"/>
         <v>527.97466379714001</v>
       </c>
       <c r="X8">
-        <f>SUM(X4:X7)</f>
+        <f t="shared" si="0"/>
         <v>525.71982441055434</v>
       </c>
       <c r="Y8">
-        <f>SUM(Y4:Y7)</f>
+        <f t="shared" si="0"/>
         <v>523.36160076869703</v>
       </c>
       <c r="Z8" s="1">
-        <f>SUM(Z4:Z7)</f>
+        <f t="shared" si="0"/>
         <v>521.23944186205233</v>
       </c>
       <c r="AA8">
-        <f>SUM(AA4:AA7)</f>
+        <f t="shared" si="0"/>
         <v>518.47030630453719</v>
       </c>
       <c r="AB8">
-        <f>SUM(AB4:AB7)</f>
+        <f t="shared" si="0"/>
         <v>516.16058222964398</v>
       </c>
       <c r="AC8">
-        <f>SUM(AC4:AC7)</f>
+        <f t="shared" si="0"/>
         <v>513.29215901858265</v>
       </c>
       <c r="AD8">
-        <f>SUM(AD4:AD7)</f>
+        <f t="shared" si="0"/>
         <v>510.637454684668</v>
       </c>
       <c r="AE8">
-        <f>SUM(AE4:AE7)</f>
+        <f t="shared" si="0"/>
         <v>508.01872211266925</v>
       </c>
       <c r="AF8">
-        <f>SUM(AF4:AF7)</f>
+        <f t="shared" si="0"/>
         <v>505.17939508129223</v>
       </c>
       <c r="AG8">
-        <f>SUM(AG4:AG7)</f>
+        <f t="shared" si="0"/>
         <v>502.91324698355646</v>
       </c>
       <c r="AH8">
-        <f>SUM(AH4:AH7)</f>
+        <f t="shared" si="0"/>
         <v>500.24822351918971</v>
       </c>
       <c r="AI8">
-        <f>SUM(AI4:AI7)</f>
+        <f t="shared" si="0"/>
         <v>497.58427326763183</v>
       </c>
       <c r="AJ8">
-        <f>SUM(AJ4:AJ7)</f>
+        <f t="shared" si="0"/>
         <v>495.3581814188214</v>
       </c>
       <c r="AK8">
-        <f>SUM(AK4:AK7)</f>
+        <f t="shared" si="0"/>
         <v>492.23946501319421</v>
       </c>
       <c r="AL8">
-        <f>SUM(AL4:AL7)</f>
+        <f t="shared" si="0"/>
         <v>489.56765175759978</v>
       </c>
       <c r="AM8">
-        <f>SUM(AM4:AM7)</f>
+        <f t="shared" si="0"/>
         <v>486.76362275995768</v>
       </c>
       <c r="AN8">
-        <f>SUM(AN4:AN7)</f>
+        <f t="shared" si="0"/>
         <v>485.02267708619758</v>
       </c>
       <c r="AO8">
-        <f>SUM(AO4:AO7)</f>
+        <f t="shared" si="0"/>
         <v>482.66195114430155</v>
       </c>
     </row>
@@ -3555,159 +3555,159 @@
         <v>102</v>
       </c>
       <c r="C18">
-        <f>C3*10^9/C11</f>
+        <f t="shared" ref="C18:AO18" si="1">C3*10^9/C11</f>
         <v>168.62175118580225</v>
       </c>
       <c r="D18">
-        <f>D3*10^9/D11</f>
+        <f t="shared" si="1"/>
         <v>166.9945113004085</v>
       </c>
       <c r="E18">
-        <f>E3*10^9/E11</f>
+        <f t="shared" si="1"/>
         <v>165.43423148147218</v>
       </c>
       <c r="F18">
-        <f>F3*10^9/F11</f>
+        <f t="shared" si="1"/>
         <v>163.8509505683146</v>
       </c>
       <c r="G18">
-        <f>G3*10^9/G11</f>
+        <f t="shared" si="1"/>
         <v>162.27688026102663</v>
       </c>
       <c r="H18">
-        <f>H3*10^9/H11</f>
+        <f t="shared" si="1"/>
         <v>160.68972603784371</v>
       </c>
       <c r="I18">
-        <f>I3*10^9/I11</f>
+        <f t="shared" si="1"/>
         <v>159.09776882563872</v>
       </c>
       <c r="J18">
-        <f>J3*10^9/J11</f>
+        <f t="shared" si="1"/>
         <v>157.53088991526732</v>
       </c>
       <c r="K18">
-        <f>K3*10^9/K11</f>
+        <f t="shared" si="1"/>
         <v>155.91188201082332</v>
       </c>
       <c r="L18">
-        <f>L3*10^9/L11</f>
+        <f t="shared" si="1"/>
         <v>154.09821940798636</v>
       </c>
       <c r="M18">
-        <f>M3*10^9/M11</f>
+        <f t="shared" si="1"/>
         <v>152.34143187723879</v>
       </c>
       <c r="N18">
-        <f>N3*10^9/N11</f>
+        <f t="shared" si="1"/>
         <v>150.4704948167217</v>
       </c>
       <c r="O18">
-        <f>O3*10^9/O11</f>
+        <f t="shared" si="1"/>
         <v>148.61925890075349</v>
       </c>
       <c r="P18">
-        <f>P3*10^9/P11</f>
+        <f t="shared" si="1"/>
         <v>146.7646465932969</v>
       </c>
       <c r="Q18">
-        <f>Q3*10^9/Q11</f>
+        <f t="shared" si="1"/>
         <v>145.01359112828794</v>
       </c>
       <c r="R18">
-        <f>R3*10^9/R11</f>
+        <f t="shared" si="1"/>
         <v>143.21120121244996</v>
       </c>
       <c r="S18">
-        <f>S3*10^9/S11</f>
+        <f t="shared" si="1"/>
         <v>141.5033650262497</v>
       </c>
       <c r="T18">
-        <f>T3*10^9/T11</f>
+        <f t="shared" si="1"/>
         <v>139.75052809234421</v>
       </c>
       <c r="U18">
-        <f>U3*10^9/U11</f>
+        <f t="shared" si="1"/>
         <v>138.01287769782709</v>
       </c>
       <c r="V18">
-        <f>V3*10^9/V11</f>
+        <f t="shared" si="1"/>
         <v>136.31408197291594</v>
       </c>
       <c r="W18">
-        <f>W3*10^9/W11</f>
+        <f t="shared" si="1"/>
         <v>134.5842195937625</v>
       </c>
       <c r="X18">
-        <f>X3*10^9/X11</f>
+        <f t="shared" si="1"/>
         <v>132.94379561237685</v>
       </c>
       <c r="Y18">
-        <f>Y3*10^9/Y11</f>
+        <f t="shared" si="1"/>
         <v>131.3477708677961</v>
       </c>
       <c r="Z18">
-        <f>Z3*10^9/Z11</f>
+        <f t="shared" si="1"/>
         <v>129.78016241334447</v>
       </c>
       <c r="AA18">
-        <f>AA3*10^9/AA11</f>
+        <f t="shared" si="1"/>
         <v>128.18788507830405</v>
       </c>
       <c r="AB18">
-        <f>AB3*10^9/AB11</f>
+        <f t="shared" si="1"/>
         <v>126.66140387705178</v>
       </c>
       <c r="AC18">
-        <f>AC3*10^9/AC11</f>
+        <f t="shared" si="1"/>
         <v>125.18166185578141</v>
       </c>
       <c r="AD18">
-        <f>AD3*10^9/AD11</f>
+        <f t="shared" si="1"/>
         <v>123.75148228042389</v>
       </c>
       <c r="AE18">
-        <f>AE3*10^9/AE11</f>
+        <f t="shared" si="1"/>
         <v>122.34265098337366</v>
       </c>
       <c r="AF18">
-        <f>AF3*10^9/AF11</f>
+        <f t="shared" si="1"/>
         <v>120.94876194211994</v>
       </c>
       <c r="AG18">
-        <f>AG3*10^9/AG11</f>
+        <f t="shared" si="1"/>
         <v>119.60288703342948</v>
       </c>
       <c r="AH18">
-        <f>AH3*10^9/AH11</f>
+        <f t="shared" si="1"/>
         <v>118.22541471891374</v>
       </c>
       <c r="AI18">
-        <f>AI3*10^9/AI11</f>
+        <f t="shared" si="1"/>
         <v>116.91113172916236</v>
       </c>
       <c r="AJ18">
-        <f>AJ3*10^9/AJ11</f>
+        <f t="shared" si="1"/>
         <v>115.65380861387032</v>
       </c>
       <c r="AK18">
-        <f>AK3*10^9/AK11</f>
+        <f t="shared" si="1"/>
         <v>114.42493972360802</v>
       </c>
       <c r="AL18">
-        <f>AL3*10^9/AL11</f>
+        <f t="shared" si="1"/>
         <v>113.19465982743949</v>
       </c>
       <c r="AM18">
-        <f>AM3*10^9/AM11</f>
+        <f t="shared" si="1"/>
         <v>111.92705918333725</v>
       </c>
       <c r="AN18">
-        <f>AN3*10^9/AN11</f>
+        <f t="shared" si="1"/>
         <v>110.77293338240585</v>
       </c>
       <c r="AO18">
-        <f>AO3*10^9/AO11</f>
+        <f t="shared" si="1"/>
         <v>109.63665906731201</v>
       </c>
     </row>
@@ -3716,159 +3716,159 @@
         <v>98</v>
       </c>
       <c r="C19">
-        <f>C4*10^9/C12</f>
+        <f t="shared" ref="C19:AO19" si="2">C4*10^9/C12</f>
         <v>167.75093034392182</v>
       </c>
       <c r="D19">
-        <f>D4*10^9/D12</f>
+        <f t="shared" si="2"/>
         <v>167.06374031943508</v>
       </c>
       <c r="E19">
-        <f>E4*10^9/E12</f>
+        <f t="shared" si="2"/>
         <v>166.3794817931558</v>
       </c>
       <c r="F19">
-        <f>F4*10^9/F12</f>
+        <f t="shared" si="2"/>
         <v>165.71867705556181</v>
       </c>
       <c r="G19">
-        <f>G4*10^9/G12</f>
+        <f t="shared" si="2"/>
         <v>164.92025375076702</v>
       </c>
       <c r="H19">
-        <f>H4*10^9/H12</f>
+        <f t="shared" si="2"/>
         <v>164.13746927453522</v>
       </c>
       <c r="I19">
-        <f>I4*10^9/I12</f>
+        <f t="shared" si="2"/>
         <v>163.31672014377054</v>
       </c>
       <c r="J19">
-        <f>J4*10^9/J12</f>
+        <f t="shared" si="2"/>
         <v>162.4892991373745</v>
       </c>
       <c r="K19">
-        <f>K4*10^9/K12</f>
+        <f t="shared" si="2"/>
         <v>161.57178394835319</v>
       </c>
       <c r="L19">
-        <f>L4*10^9/L12</f>
+        <f t="shared" si="2"/>
         <v>160.50126694997797</v>
       </c>
       <c r="M19">
-        <f>M4*10^9/M12</f>
+        <f t="shared" si="2"/>
         <v>159.38689136080725</v>
       </c>
       <c r="N19">
-        <f>N4*10^9/N12</f>
+        <f t="shared" si="2"/>
         <v>158.24363522143247</v>
       </c>
       <c r="O19">
-        <f>O4*10^9/O12</f>
+        <f t="shared" si="2"/>
         <v>156.93830780801338</v>
       </c>
       <c r="P19">
-        <f>P4*10^9/P12</f>
+        <f t="shared" si="2"/>
         <v>155.68148459693489</v>
       </c>
       <c r="Q19">
-        <f>Q4*10^9/Q12</f>
+        <f t="shared" si="2"/>
         <v>154.41445977263604</v>
       </c>
       <c r="R19">
-        <f>R4*10^9/R12</f>
+        <f t="shared" si="2"/>
         <v>153.1897353259439</v>
       </c>
       <c r="S19">
-        <f>S4*10^9/S12</f>
+        <f t="shared" si="2"/>
         <v>151.87381686912195</v>
       </c>
       <c r="T19">
-        <f>T4*10^9/T12</f>
+        <f t="shared" si="2"/>
         <v>150.54368836347413</v>
       </c>
       <c r="U19">
-        <f>U4*10^9/U12</f>
+        <f t="shared" si="2"/>
         <v>149.18970688344487</v>
       </c>
       <c r="V19">
-        <f>V4*10^9/V12</f>
+        <f t="shared" si="2"/>
         <v>147.895261507491</v>
       </c>
       <c r="W19">
-        <f>W4*10^9/W12</f>
+        <f t="shared" si="2"/>
         <v>146.51690746572953</v>
       </c>
       <c r="X19">
-        <f>X4*10^9/X12</f>
+        <f t="shared" si="2"/>
         <v>145.19238325810184</v>
       </c>
       <c r="Y19">
-        <f>Y4*10^9/Y12</f>
+        <f t="shared" si="2"/>
         <v>143.90501569157624</v>
       </c>
       <c r="Z19">
-        <f>Z4*10^9/Z12</f>
+        <f t="shared" si="2"/>
         <v>142.57571834167808</v>
       </c>
       <c r="AA19">
-        <f>AA4*10^9/AA12</f>
+        <f t="shared" si="2"/>
         <v>141.26927912096835</v>
       </c>
       <c r="AB19">
-        <f>AB4*10^9/AB12</f>
+        <f t="shared" si="2"/>
         <v>140.01253797730848</v>
       </c>
       <c r="AC19">
-        <f>AC4*10^9/AC12</f>
+        <f t="shared" si="2"/>
         <v>138.75510188434779</v>
       </c>
       <c r="AD19">
-        <f>AD4*10^9/AD12</f>
+        <f t="shared" si="2"/>
         <v>137.49662197851816</v>
       </c>
       <c r="AE19">
-        <f>AE4*10^9/AE12</f>
+        <f t="shared" si="2"/>
         <v>136.2747134211865</v>
       </c>
       <c r="AF19">
-        <f>AF4*10^9/AF12</f>
+        <f t="shared" si="2"/>
         <v>135.02823615071475</v>
       </c>
       <c r="AG19">
-        <f>AG4*10^9/AG12</f>
+        <f t="shared" si="2"/>
         <v>133.84349014771186</v>
       </c>
       <c r="AH19">
-        <f>AH4*10^9/AH12</f>
+        <f t="shared" si="2"/>
         <v>132.57320184420414</v>
       </c>
       <c r="AI19">
-        <f>AI4*10^9/AI12</f>
+        <f t="shared" si="2"/>
         <v>131.3364381605916</v>
       </c>
       <c r="AJ19">
-        <f>AJ4*10^9/AJ12</f>
+        <f t="shared" si="2"/>
         <v>130.06001964785651</v>
       </c>
       <c r="AK19">
-        <f>AK4*10^9/AK12</f>
+        <f t="shared" si="2"/>
         <v>128.76938643856352</v>
       </c>
       <c r="AL19">
-        <f>AL4*10^9/AL12</f>
+        <f t="shared" si="2"/>
         <v>127.52316053011032</v>
       </c>
       <c r="AM19">
-        <f>AM4*10^9/AM12</f>
+        <f t="shared" si="2"/>
         <v>126.33639054278282</v>
       </c>
       <c r="AN19">
-        <f>AN4*10^9/AN12</f>
+        <f t="shared" si="2"/>
         <v>125.11168459156335</v>
       </c>
       <c r="AO19">
-        <f>AO4*10^9/AO12</f>
+        <f t="shared" si="2"/>
         <v>123.91474517171322</v>
       </c>
     </row>
@@ -3877,159 +3877,159 @@
         <v>99</v>
       </c>
       <c r="C20">
-        <f>C5*10^9/C13</f>
+        <f t="shared" ref="C20:AO20" si="3">C5*10^9/C13</f>
         <v>122.70453681200028</v>
       </c>
       <c r="D20">
-        <f>D5*10^9/D13</f>
+        <f t="shared" si="3"/>
         <v>122.56550531073073</v>
       </c>
       <c r="E20">
-        <f>E5*10^9/E13</f>
+        <f t="shared" si="3"/>
         <v>122.40862990417223</v>
       </c>
       <c r="F20">
-        <f>F5*10^9/F13</f>
+        <f t="shared" si="3"/>
         <v>122.23735270249193</v>
       </c>
       <c r="G20">
-        <f>G5*10^9/G13</f>
+        <f t="shared" si="3"/>
         <v>122.04983207249253</v>
       </c>
       <c r="H20">
-        <f>H5*10^9/H13</f>
+        <f t="shared" si="3"/>
         <v>121.83527251699131</v>
       </c>
       <c r="I20">
-        <f>I5*10^9/I13</f>
+        <f t="shared" si="3"/>
         <v>121.61107441160028</v>
       </c>
       <c r="J20">
-        <f>J5*10^9/J13</f>
+        <f t="shared" si="3"/>
         <v>121.395335541745</v>
       </c>
       <c r="K20">
-        <f>K5*10^9/K13</f>
+        <f t="shared" si="3"/>
         <v>121.14547017245391</v>
       </c>
       <c r="L20">
-        <f>L5*10^9/L13</f>
+        <f t="shared" si="3"/>
         <v>120.80303734583964</v>
       </c>
       <c r="M20">
-        <f>M5*10^9/M13</f>
+        <f t="shared" si="3"/>
         <v>120.45364555649762</v>
       </c>
       <c r="N20">
-        <f>N5*10^9/N13</f>
+        <f t="shared" si="3"/>
         <v>120.0068665728872</v>
       </c>
       <c r="O20">
-        <f>O5*10^9/O13</f>
+        <f t="shared" si="3"/>
         <v>119.48960139343785</v>
       </c>
       <c r="P20">
-        <f>P5*10^9/P13</f>
+        <f t="shared" si="3"/>
         <v>118.99349843758522</v>
       </c>
       <c r="Q20">
-        <f>Q5*10^9/Q13</f>
+        <f t="shared" si="3"/>
         <v>118.53458485308147</v>
       </c>
       <c r="R20">
-        <f>R5*10^9/R13</f>
+        <f t="shared" si="3"/>
         <v>118.07685839911022</v>
       </c>
       <c r="S20">
-        <f>S5*10^9/S13</f>
+        <f t="shared" si="3"/>
         <v>117.63727138961781</v>
       </c>
       <c r="T20">
-        <f>T5*10^9/T13</f>
+        <f t="shared" si="3"/>
         <v>117.19381027873084</v>
       </c>
       <c r="U20">
-        <f>U5*10^9/U13</f>
+        <f t="shared" si="3"/>
         <v>116.79143444539262</v>
       </c>
       <c r="V20">
-        <f>V5*10^9/V13</f>
+        <f t="shared" si="3"/>
         <v>116.36007338929809</v>
       </c>
       <c r="W20">
-        <f>W5*10^9/W13</f>
+        <f t="shared" si="3"/>
         <v>115.91803167621546</v>
       </c>
       <c r="X20">
-        <f>X5*10^9/X13</f>
+        <f t="shared" si="3"/>
         <v>115.4964176570504</v>
       </c>
       <c r="Y20">
-        <f>Y5*10^9/Y13</f>
+        <f t="shared" si="3"/>
         <v>115.09723882765341</v>
       </c>
       <c r="Z20">
-        <f>Z5*10^9/Z13</f>
+        <f t="shared" si="3"/>
         <v>114.70164341889149</v>
       </c>
       <c r="AA20">
-        <f>AA5*10^9/AA13</f>
+        <f t="shared" si="3"/>
         <v>114.33015839973854</v>
       </c>
       <c r="AB20">
-        <f>AB5*10^9/AB13</f>
+        <f t="shared" si="3"/>
         <v>113.89901465552182</v>
       </c>
       <c r="AC20">
-        <f>AC5*10^9/AC13</f>
+        <f t="shared" si="3"/>
         <v>113.49253468693374</v>
       </c>
       <c r="AD20">
-        <f>AD5*10^9/AD13</f>
+        <f t="shared" si="3"/>
         <v>113.07948566129971</v>
       </c>
       <c r="AE20">
-        <f>AE5*10^9/AE13</f>
+        <f t="shared" si="3"/>
         <v>112.70402317073413</v>
       </c>
       <c r="AF20">
-        <f>AF5*10^9/AF13</f>
+        <f t="shared" si="3"/>
         <v>112.28024410882037</v>
       </c>
       <c r="AG20">
-        <f>AG5*10^9/AG13</f>
+        <f t="shared" si="3"/>
         <v>111.88698710414486</v>
       </c>
       <c r="AH20">
-        <f>AH5*10^9/AH13</f>
+        <f t="shared" si="3"/>
         <v>111.505714041186</v>
       </c>
       <c r="AI20">
-        <f>AI5*10^9/AI13</f>
+        <f t="shared" si="3"/>
         <v>111.14113644736447</v>
       </c>
       <c r="AJ20">
-        <f>AJ5*10^9/AJ13</f>
+        <f t="shared" si="3"/>
         <v>110.77438119966367</v>
       </c>
       <c r="AK20">
-        <f>AK5*10^9/AK13</f>
+        <f t="shared" si="3"/>
         <v>110.3515686748438</v>
       </c>
       <c r="AL20">
-        <f>AL5*10^9/AL13</f>
+        <f t="shared" si="3"/>
         <v>109.91216577872498</v>
       </c>
       <c r="AM20">
-        <f>AM5*10^9/AM13</f>
+        <f t="shared" si="3"/>
         <v>109.49895603153306</v>
       </c>
       <c r="AN20">
-        <f>AN5*10^9/AN13</f>
+        <f t="shared" si="3"/>
         <v>109.08589357219418</v>
       </c>
       <c r="AO20">
-        <f>AO5*10^9/AO13</f>
+        <f t="shared" si="3"/>
         <v>108.67869702891251</v>
       </c>
     </row>
@@ -4038,159 +4038,159 @@
         <v>100</v>
       </c>
       <c r="C21" t="e">
-        <f>C6*10^9/C14</f>
+        <f t="shared" ref="C21:AO21" si="4">C6*10^9/C14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D21">
-        <f>D6*10^9/D14</f>
+        <f t="shared" si="4"/>
         <v>66.835522982403717</v>
       </c>
       <c r="E21">
-        <f>E6*10^9/E14</f>
+        <f t="shared" si="4"/>
         <v>69.484328084077873</v>
       </c>
       <c r="F21">
-        <f>F6*10^9/F14</f>
+        <f t="shared" si="4"/>
         <v>70.332015718093601</v>
       </c>
       <c r="G21">
-        <f>G6*10^9/G14</f>
+        <f t="shared" si="4"/>
         <v>69.69796486936707</v>
       </c>
       <c r="H21">
-        <f>H6*10^9/H14</f>
+        <f t="shared" si="4"/>
         <v>69.557093392200358</v>
       </c>
       <c r="I21">
-        <f>I6*10^9/I14</f>
+        <f t="shared" si="4"/>
         <v>69.75464195017905</v>
       </c>
       <c r="J21">
-        <f>J6*10^9/J14</f>
+        <f t="shared" si="4"/>
         <v>70.288610388889069</v>
       </c>
       <c r="K21">
-        <f>K6*10^9/K14</f>
+        <f t="shared" si="4"/>
         <v>69.611129053235558</v>
       </c>
       <c r="L21">
-        <f>L6*10^9/L14</f>
+        <f t="shared" si="4"/>
         <v>69.585875259841387</v>
       </c>
       <c r="M21">
-        <f>M6*10^9/M14</f>
+        <f t="shared" si="4"/>
         <v>69.544011143998688</v>
       </c>
       <c r="N21">
-        <f>N6*10^9/N14</f>
+        <f t="shared" si="4"/>
         <v>69.470030019682213</v>
       </c>
       <c r="O21">
-        <f>O6*10^9/O14</f>
+        <f t="shared" si="4"/>
         <v>69.360147792415432</v>
       </c>
       <c r="P21">
-        <f>P6*10^9/P14</f>
+        <f t="shared" si="4"/>
         <v>69.221123931397926</v>
       </c>
       <c r="Q21">
-        <f>Q6*10^9/Q14</f>
+        <f t="shared" si="4"/>
         <v>69.058248470750073</v>
       </c>
       <c r="R21">
-        <f>R6*10^9/R14</f>
+        <f t="shared" si="4"/>
         <v>68.879371981945951</v>
       </c>
       <c r="S21">
-        <f>S6*10^9/S14</f>
+        <f t="shared" si="4"/>
         <v>68.667846073645691</v>
       </c>
       <c r="T21">
-        <f>T6*10^9/T14</f>
+        <f t="shared" si="4"/>
         <v>68.43367051126981</v>
       </c>
       <c r="U21">
-        <f>U6*10^9/U14</f>
+        <f t="shared" si="4"/>
         <v>68.252916178059635</v>
       </c>
       <c r="V21">
-        <f>V6*10^9/V14</f>
+        <f t="shared" si="4"/>
         <v>68.026497687148577</v>
       </c>
       <c r="W21">
-        <f>W6*10^9/W14</f>
+        <f t="shared" si="4"/>
         <v>67.799843553864918</v>
       </c>
       <c r="X21">
-        <f>X6*10^9/X14</f>
+        <f t="shared" si="4"/>
         <v>67.59358241124697</v>
       </c>
       <c r="Y21">
-        <f>Y6*10^9/Y14</f>
+        <f t="shared" si="4"/>
         <v>67.387566640157601</v>
       </c>
       <c r="Z21">
-        <f>Z6*10^9/Z14</f>
+        <f t="shared" si="4"/>
         <v>67.188932192230766</v>
       </c>
       <c r="AA21">
-        <f>AA6*10^9/AA14</f>
+        <f t="shared" si="4"/>
         <v>67.017513659110818</v>
       </c>
       <c r="AB21">
-        <f>AB6*10^9/AB14</f>
+        <f t="shared" si="4"/>
         <v>66.87039437728717</v>
       </c>
       <c r="AC21">
-        <f>AC6*10^9/AC14</f>
+        <f t="shared" si="4"/>
         <v>66.720547173464965</v>
       </c>
       <c r="AD21">
-        <f>AD6*10^9/AD14</f>
+        <f t="shared" si="4"/>
         <v>66.585706298289125</v>
       </c>
       <c r="AE21">
-        <f>AE6*10^9/AE14</f>
+        <f t="shared" si="4"/>
         <v>66.481627933845658</v>
       </c>
       <c r="AF21">
-        <f>AF6*10^9/AF14</f>
+        <f t="shared" si="4"/>
         <v>66.415348433887075</v>
       </c>
       <c r="AG21">
-        <f>AG6*10^9/AG14</f>
+        <f t="shared" si="4"/>
         <v>66.351929151587015</v>
       </c>
       <c r="AH21">
-        <f>AH6*10^9/AH14</f>
+        <f t="shared" si="4"/>
         <v>66.304120262158619</v>
       </c>
       <c r="AI21">
-        <f>AI6*10^9/AI14</f>
+        <f t="shared" si="4"/>
         <v>66.27000008792713</v>
       </c>
       <c r="AJ21">
-        <f>AJ6*10^9/AJ14</f>
+        <f t="shared" si="4"/>
         <v>66.210808181463307</v>
       </c>
       <c r="AK21">
-        <f>AK6*10^9/AK14</f>
+        <f t="shared" si="4"/>
         <v>66.169376509362436</v>
       </c>
       <c r="AL21">
-        <f>AL6*10^9/AL14</f>
+        <f t="shared" si="4"/>
         <v>66.143526887101473</v>
       </c>
       <c r="AM21">
-        <f>AM6*10^9/AM14</f>
+        <f t="shared" si="4"/>
         <v>66.123188380863269</v>
       </c>
       <c r="AN21">
-        <f>AN6*10^9/AN14</f>
+        <f t="shared" si="4"/>
         <v>66.107328337770397</v>
       </c>
       <c r="AO21">
-        <f>AO6*10^9/AO14</f>
+        <f t="shared" si="4"/>
         <v>66.088253495645588</v>
       </c>
     </row>
@@ -4199,159 +4199,159 @@
         <v>101</v>
       </c>
       <c r="C22" t="e">
-        <f>C7*10^9/C15</f>
+        <f t="shared" ref="C22:AO22" si="5">C7*10^9/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D22" t="e">
-        <f>D7*10^9/D15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" t="e">
-        <f>E7*10^9/E15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" t="e">
-        <f>F7*10^9/F15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" t="e">
-        <f>G7*10^9/G15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" t="e">
-        <f>H7*10^9/H15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" t="e">
-        <f>I7*10^9/I15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" t="e">
-        <f>J7*10^9/J15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" t="e">
-        <f>K7*10^9/K15</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L22">
-        <f>L7*10^9/L15</f>
+        <f t="shared" si="5"/>
         <v>60.003331858798532</v>
       </c>
       <c r="M22">
-        <f>M7*10^9/M15</f>
+        <f t="shared" si="5"/>
         <v>59.638670042874104</v>
       </c>
       <c r="N22">
-        <f>N7*10^9/N15</f>
+        <f t="shared" si="5"/>
         <v>59.472406314753989</v>
       </c>
       <c r="O22">
-        <f>O7*10^9/O15</f>
+        <f t="shared" si="5"/>
         <v>58.54414165977073</v>
       </c>
       <c r="P22">
-        <f>P7*10^9/P15</f>
+        <f t="shared" si="5"/>
         <v>57.853882350739234</v>
       </c>
       <c r="Q22">
-        <f>Q7*10^9/Q15</f>
+        <f t="shared" si="5"/>
         <v>57.312366688107275</v>
       </c>
       <c r="R22">
-        <f>R7*10^9/R15</f>
+        <f t="shared" si="5"/>
         <v>56.971866397382726</v>
       </c>
       <c r="S22">
-        <f>S7*10^9/S15</f>
+        <f t="shared" si="5"/>
         <v>56.504900984119551</v>
       </c>
       <c r="T22">
-        <f>T7*10^9/T15</f>
+        <f t="shared" si="5"/>
         <v>56.569706569897697</v>
       </c>
       <c r="U22">
-        <f>U7*10^9/U15</f>
+        <f t="shared" si="5"/>
         <v>56.103933237363087</v>
       </c>
       <c r="V22">
-        <f>V7*10^9/V15</f>
+        <f t="shared" si="5"/>
         <v>56.042893977238904</v>
       </c>
       <c r="W22">
-        <f>W7*10^9/W15</f>
+        <f t="shared" si="5"/>
         <v>55.859693144019033</v>
       </c>
       <c r="X22">
-        <f>X7*10^9/X15</f>
+        <f t="shared" si="5"/>
         <v>55.714422981585365</v>
       </c>
       <c r="Y22">
-        <f>Y7*10^9/Y15</f>
+        <f t="shared" si="5"/>
         <v>55.68147935200659</v>
       </c>
       <c r="Z22">
-        <f>Z7*10^9/Z15</f>
+        <f t="shared" si="5"/>
         <v>55.568694794408025</v>
       </c>
       <c r="AA22">
-        <f>AA7*10^9/AA15</f>
+        <f t="shared" si="5"/>
         <v>55.47189038446853</v>
       </c>
       <c r="AB22">
-        <f>AB7*10^9/AB15</f>
+        <f t="shared" si="5"/>
         <v>55.40382894846325</v>
       </c>
       <c r="AC22">
-        <f>AC7*10^9/AC15</f>
+        <f t="shared" si="5"/>
         <v>55.272005760184122</v>
       </c>
       <c r="AD22">
-        <f>AD7*10^9/AD15</f>
+        <f t="shared" si="5"/>
         <v>55.040968647246345</v>
       </c>
       <c r="AE22">
-        <f>AE7*10^9/AE15</f>
+        <f t="shared" si="5"/>
         <v>55.074990257947853</v>
       </c>
       <c r="AF22">
-        <f>AF7*10^9/AF15</f>
+        <f t="shared" si="5"/>
         <v>55.000152371639835</v>
       </c>
       <c r="AG22">
-        <f>AG7*10^9/AG15</f>
+        <f t="shared" si="5"/>
         <v>54.824201729373399</v>
       </c>
       <c r="AH22">
-        <f>AH7*10^9/AH15</f>
+        <f t="shared" si="5"/>
         <v>54.777902034106475</v>
       </c>
       <c r="AI22">
-        <f>AI7*10^9/AI15</f>
+        <f t="shared" si="5"/>
         <v>54.758066297378519</v>
       </c>
       <c r="AJ22">
-        <f>AJ7*10^9/AJ15</f>
+        <f t="shared" si="5"/>
         <v>54.688603908483913</v>
       </c>
       <c r="AK22">
-        <f>AK7*10^9/AK15</f>
+        <f t="shared" si="5"/>
         <v>54.618857202463197</v>
       </c>
       <c r="AL22">
-        <f>AL7*10^9/AL15</f>
+        <f t="shared" si="5"/>
         <v>54.614176388106344</v>
       </c>
       <c r="AM22">
-        <f>AM7*10^9/AM15</f>
+        <f t="shared" si="5"/>
         <v>54.591434883340682</v>
       </c>
       <c r="AN22">
-        <f>AN7*10^9/AN15</f>
+        <f t="shared" si="5"/>
         <v>54.561393345673501</v>
       </c>
       <c r="AO22">
-        <f>AO7*10^9/AO15</f>
+        <f t="shared" si="5"/>
         <v>54.550898106764869</v>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8849,16 +8849,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>savings_residential!U30</f>
-        <v>-0.2982701080862078</v>
+        <f>savings_residential!U30*-1</f>
+        <v>0.2982701080862078</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C7" si="0">$B2</f>
-        <v>-0.2982701080862078</v>
+        <v>0.2982701080862078</v>
       </c>
       <c r="D2" s="7">
-        <f>savings_commercial!U31</f>
-        <v>-0.1894572490022555</v>
+        <f>savings_commercial!U27*-1</f>
+        <v>0.21716157980901149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8867,15 +8867,15 @@
       </c>
       <c r="B3" s="7">
         <f>B2</f>
-        <v>-0.2982701080862078</v>
+        <v>0.2982701080862078</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>-0.2982701080862078</v>
+        <v>0.2982701080862078</v>
       </c>
       <c r="D3" s="7">
         <f>D2</f>
-        <v>-0.1894572490022555</v>
+        <v>0.21716157980901149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9077,6 +9077,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9085,7 +9096,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -9314,18 +9325,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9333,7 +9344,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9350,15 +9361,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\bldgs\BRESaC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\bldgs\BRESaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE871DA-E75B-4A5D-8918-0BDE2A174455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2692DF89-CEEC-4EFD-A5B2-F3E9DCD3779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33105" yWindow="3045" windowWidth="18765" windowHeight="12960" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
   <si>
     <t>BRESaC Percent Energy Savings from Retrofitting by Component</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Share of bldg floorspace from pre 1961 and 1961-90</t>
+  </si>
+  <si>
+    <t>Share of bldg floorspace from pre 1961</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +585,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,6 +628,9 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1971,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D26CD-6318-4B74-895D-30922EB64AE0}">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,160 +2754,160 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:AO8" si="0">SUM(C4:C7)</f>
-        <v>535.38849971629782</v>
+        <f>SUM(C3:C7)</f>
+        <v>796.02743900576957</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>538.91909208493371</v>
+        <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
+        <v>795.19596136539224</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>543.29009945444216</v>
+        <v>795.36882514207798</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>546.7204540729299</v>
+        <v>794.60559318703793</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>549.28457075994061</v>
+        <v>793.04525758054388</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>555.29806501142377</v>
+        <v>794.9649949870111</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>555.23738279998452</v>
+        <v>790.82416001457432</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>556.8732893557135</v>
+        <v>788.46536446164635</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>554.0278424429348</v>
+        <v>781.59228663375347</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>550.56783194589127</v>
+        <v>773.86901493211951</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>548.37493747815552</v>
+        <v>767.55151384503029</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>544.99710395265561</v>
+        <v>759.93282837839422</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>542.18381433119214</v>
+        <v>752.96598378954002</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>541.19772315441071</v>
+        <v>747.87323110300053</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>538.82420337273811</v>
+        <v>741.58820753767372</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>536.90178990782317</v>
+        <v>735.72744478637617</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>535.63580402753439</v>
+        <v>730.7036297073746</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>534.08076165051421</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="0"/>
-        <v>532.56628229455873</v>
+        <v>725.36663489329339</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>720.13628524414344</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>530.03536899271614</v>
+        <v>713.97894260463602</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>527.97466379714001</v>
+        <v>708.28700372299011</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>525.71982441055434</v>
+        <v>702.56314369062113</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>523.36160076869703</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="0"/>
-        <v>521.23944186205233</v>
+        <v>696.83645554550264</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>691.41887576561987</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>518.47030630453719</v>
+        <v>685.35959063109499</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>516.16058222964398</v>
+        <v>679.88670426760677</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>513.29215901858265</v>
+        <v>673.94711222636602</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>510.637454684668</v>
+        <v>668.31985805803993</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>508.01872211266925</v>
+        <v>662.78531892700721</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>505.17939508129223</v>
+        <v>657.08440078492686</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>502.91324698355646</v>
+        <v>652.0531495420023</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>500.24822351918971</v>
+        <v>646.60880202617705</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>497.58427326763183</v>
+        <v>641.27354358024377</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>495.3581814188214</v>
+        <v>636.47987975172703</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>492.23946501319421</v>
+        <v>630.8549761903995</v>
       </c>
       <c r="AL8">
         <f t="shared" si="0"/>
-        <v>489.56765175759978</v>
+        <v>625.70384343039757</v>
       </c>
       <c r="AM8">
         <f t="shared" si="0"/>
-        <v>486.76362275995768</v>
+        <v>620.40262946281666</v>
       </c>
       <c r="AN8">
         <f t="shared" si="0"/>
-        <v>485.02267708619758</v>
+        <v>616.33128117371791</v>
       </c>
       <c r="AO8">
         <f t="shared" si="0"/>
-        <v>482.66195114430155</v>
+        <v>611.6849402133189</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -3530,16 +3542,16 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="T16" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U16" s="29">
-        <f>SUM(U11:U12)/SUM(U11:U15)</f>
-        <v>0.49892341517071065</v>
+        <f>SUM(U11)/SUM(U11:U14)</f>
+        <v>0.25299594354555016</v>
       </c>
       <c r="V16" s="27"/>
       <c r="Z16" s="27">
-        <f>SUM(Z11:Z12)/SUM(Z11:Z15)</f>
-        <v>0.46277867078299695</v>
+        <f>SUM(Z11)/SUM(Z11:Z14)</f>
+        <v>0.25321691235952715</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
@@ -4388,16 +4400,16 @@
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="29">
-        <f>(U20-U18)/U18</f>
-        <v>-0.15376422553044544</v>
+        <f>(U21-U18)/U18</f>
+        <v>-0.5054597997188619</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="29">
-        <f>(Z20-Z18)/Z18</f>
-        <v>-0.11618508340611038</v>
+        <f>(Z21-Z18)/Z18</f>
+        <v>-0.48228657644735579</v>
       </c>
       <c r="AA26" s="24"/>
     </row>
@@ -4426,15 +4438,15 @@
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
-      <c r="U27" s="29">
+      <c r="U27" s="32">
         <f>(U20-U19)/U19</f>
         <v>-0.21716157980901149</v>
       </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="29">
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="32">
         <f>(Z20-Z19)/Z19</f>
         <v>-0.19550366112122455</v>
       </c>
@@ -4542,21 +4554,21 @@
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="U31" s="30">
         <f>(U26*U11+U27*U12)/SUM(U11:U12)</f>
-        <v>-0.1894572490022555</v>
+        <v>-0.34314647848926666</v>
       </c>
       <c r="Z31" s="30">
         <f>(Z26*Z11+Z27*Z12)/SUM(Z11:Z12)</f>
-        <v>-0.1606554420496199</v>
+        <v>-0.3215002957958038</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="U34" s="31">
-        <f>SUM(U11:U12)/SUM(U11:U14)</f>
-        <v>0.5789446269565186</v>
+        <f>SUM(U11)/SUM(U11:U14)</f>
+        <v>0.25299594354555016</v>
       </c>
       <c r="Z34" s="31">
-        <f>SUM(Z11:Z12)/SUM(Z11:Z14)</f>
-        <v>0.57635098369018545</v>
+        <f>SUM(Z11)/SUM(Z11:Z14)</f>
+        <v>0.25321691235952715</v>
       </c>
     </row>
     <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
@@ -4774,7 +4786,7 @@
       </c>
       <c r="U46" s="18">
         <f>U8-U44</f>
-        <v>48.957227678273284</v>
+        <v>236.52723062785799</v>
       </c>
       <c r="V46" t="s">
         <v>38</v>
@@ -4784,7 +4796,7 @@
       </c>
       <c r="Z46" s="18">
         <f>Z8-Z44</f>
-        <v>38.044887129072436</v>
+        <v>208.22432103263998</v>
       </c>
       <c r="AA46" t="s">
         <v>38</v>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="U47" s="19">
         <f>U46/U8</f>
-        <v>9.1927013229867557E-2</v>
+        <v>0.32844787226305311</v>
       </c>
       <c r="Y47" s="16" t="s">
         <v>110</v>
       </c>
       <c r="Z47" s="19">
         <f>Z46/Z8</f>
-        <v>7.2989271481763915E-2</v>
+        <v>0.30115510052002797</v>
       </c>
     </row>
     <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35"/>
@@ -4978,7 +4990,7 @@
       </c>
       <c r="U60" s="22">
         <f>U8-U58</f>
-        <v>-101.9999467190712</v>
+        <v>85.570056230513501</v>
       </c>
       <c r="V60" t="s">
         <v>38</v>
@@ -4988,7 +5000,7 @@
       </c>
       <c r="Z60" s="22">
         <f>Z8-Z58</f>
-        <v>-103.76382228533646</v>
+        <v>66.415611618231083</v>
       </c>
       <c r="AA60" t="s">
         <v>38</v>
@@ -5000,14 +5012,34 @@
       </c>
       <c r="U61" s="23">
         <f>U60/U8</f>
-        <v>-0.19152535582914679</v>
+        <v>0.11882480855898436</v>
       </c>
       <c r="Y61" s="21" t="s">
         <v>110</v>
       </c>
       <c r="Z61" s="23">
         <f>Z60/Z8</f>
-        <v>-0.19907131723312274</v>
+        <v>9.6056983611689725E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U63" s="34">
+        <f>SUM(U4:U7)+(U3*(1+U26))</f>
+        <v>625.32718911998006</v>
+      </c>
+      <c r="Z63" s="34">
+        <f>SUM(Z4:Z7)+(Z3*(1+Z26))</f>
+        <v>609.34361920651918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U64" s="27">
+        <f>(U8-U63)/U8</f>
+        <v>0.13165437996506568</v>
+      </c>
+      <c r="Z64" s="27">
+        <f>(Z8-Z63)/Z8</f>
+        <v>0.11870554801995732</v>
       </c>
     </row>
   </sheetData>
@@ -5019,15 +5051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9921B-F39F-43F4-ABB5-C04C9CADE685}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="19" width="12.54296875" hidden="1" customWidth="1"/>
-    <col min="20" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -6581,13 +6615,13 @@
         <v>120</v>
       </c>
       <c r="U16" s="29">
-        <f>SUM(U11:U12)/SUM(U11:U15)</f>
-        <v>0.61339818239717359</v>
+        <f>SUM(U11)/SUM(U11:U14)</f>
+        <v>0.30293549821580473</v>
       </c>
       <c r="V16" s="27"/>
       <c r="Z16" s="27">
-        <f>SUM(Z11:Z12)/SUM(Z11:Z15)</f>
-        <v>0.59473241797358878</v>
+        <f>SUM(Z11)/SUM(Z11:Z14)</f>
+        <v>0.30228767126214501</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
@@ -7430,16 +7464,16 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="29">
-        <f>(U20-U18)/U18</f>
-        <v>-0.26423984800049788</v>
+        <f>(U21-U18)/U18</f>
+        <v>-0.74057464160058584</v>
       </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="29">
-        <f>(Z20-Z18)/Z18</f>
-        <v>-0.24189102980113422</v>
+        <f>(Z21-Z18)/Z18</f>
+        <v>-0.72793852335316056</v>
       </c>
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
@@ -7482,15 +7516,15 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="29">
+      <c r="U26" s="32">
         <f>(U20-U19)/U19</f>
         <v>-0.32742324978842557</v>
       </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="29">
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="32">
         <f>(Z20-Z19)/Z19</f>
         <v>-0.31492114692229495</v>
       </c>
@@ -7654,11 +7688,11 @@
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="U30" s="30">
         <f>(U25*U11+U26*U12)/SUM(U11:U12)</f>
-        <v>-0.2982701080862078</v>
+        <v>-0.51805339519268512</v>
       </c>
       <c r="Z30" s="30">
         <f>(Z25*Z11+Z26*Z12)/SUM(Z11:Z12)</f>
-        <v>-0.28127354749345396</v>
+        <v>-0.50521309478047327</v>
       </c>
     </row>
     <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
@@ -8317,12 +8351,12 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.35">
       <c r="U38" s="31">
-        <f>SUM(U11:U12)/SUM(U11:U14)</f>
-        <v>0.65655000394482876</v>
+        <f>SUM(U11)/SUM(U11:U14)</f>
+        <v>0.30293549821580473</v>
       </c>
       <c r="Z38" s="31">
-        <f>SUM(Z11:Z12)/SUM(Z11:Z14)</f>
-        <v>0.6560974456214822</v>
+        <f>SUM(Z11)/SUM(Z11:Z14)</f>
+        <v>0.30228767126214501</v>
       </c>
     </row>
     <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35"/>
@@ -8779,23 +8813,23 @@
       </c>
     </row>
     <row r="66" spans="21:26" x14ac:dyDescent="0.35">
-      <c r="U66">
-        <f>U8*U16*(1-U30)</f>
-        <v>1387.1046351868599</v>
-      </c>
-      <c r="Z66">
-        <f>Z8*Z16*(1-Z30)</f>
-        <v>1259.336773626088</v>
+      <c r="U66" s="34">
+        <f>SUM(U4:U7)+(U3*(1+U25))</f>
+        <v>1309.9773809344986</v>
+      </c>
+      <c r="Z66" s="34">
+        <f>SUM(Z4:Z7)+(Z3*(1+Z25))</f>
+        <v>1257.3882781611842</v>
       </c>
     </row>
     <row r="67" spans="21:26" x14ac:dyDescent="0.35">
       <c r="U67" s="27">
         <f>(U8-U66)/U8</f>
-        <v>0.203643475439338</v>
+        <v>0.24792333046054402</v>
       </c>
       <c r="Z67" s="27">
         <f>(Z8-Z66)/Z8</f>
-        <v>0.23798508501362034</v>
+        <v>0.23916410450795683</v>
       </c>
     </row>
     <row r="69" spans="21:26" x14ac:dyDescent="0.35">
@@ -8818,8 +8852,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8849,16 +8883,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>savings_residential!U30*-1</f>
-        <v>0.2982701080862078</v>
+        <f>savings_residential!U25*-1</f>
+        <v>0.74057464160058584</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C7" si="0">$B2</f>
-        <v>0.2982701080862078</v>
+        <v>0.74057464160058584</v>
       </c>
       <c r="D2" s="7">
-        <f>savings_commercial!U27*-1</f>
-        <v>0.21716157980901149</v>
+        <f>savings_commercial!U26*-1</f>
+        <v>0.5054597997188619</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8867,15 +8901,15 @@
       </c>
       <c r="B3" s="7">
         <f>B2</f>
-        <v>0.2982701080862078</v>
+        <v>0.74057464160058584</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>0.2982701080862078</v>
+        <v>0.74057464160058584</v>
       </c>
       <c r="D3" s="7">
         <f>D2</f>
-        <v>0.21716157980901149</v>
+        <v>0.5054597997188619</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9088,15 +9122,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -9325,6 +9350,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
   <ds:schemaRefs>
@@ -9337,14 +9371,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9361,4 +9387,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
+++ b/InputData/bldgs/BRESaC/Bldg Retrofitting E Savings and Costs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\bldgs\BRESaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2692DF89-CEEC-4EFD-A5B2-F3E9DCD3779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C5C90-58A5-4099-8979-16927F2C0D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="calc" sheetId="23" r:id="rId2"/>
     <sheet name="savings_commercial" sheetId="24" r:id="rId3"/>
-    <sheet name="savings_residential" sheetId="25" r:id="rId4"/>
+    <sheet name="savings_residential" sheetId="26" r:id="rId4"/>
     <sheet name="BRESaC-energy" sheetId="10" r:id="rId5"/>
     <sheet name="BRESaC-cost" sheetId="12" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="138">
   <si>
     <t>BRESaC Percent Energy Savings from Retrofitting by Component</t>
   </si>
@@ -394,9 +394,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Average Floor Area per year</t>
-  </si>
-  <si>
     <t>TWh/m2</t>
   </si>
   <si>
@@ -407,6 +404,57 @@
   </si>
   <si>
     <t>Share of bldg floorspace from pre 1961</t>
+  </si>
+  <si>
+    <t>kWh/m2</t>
+  </si>
+  <si>
+    <t>BAU Totals</t>
+  </si>
+  <si>
+    <t>Final energy demand, residential</t>
+  </si>
+  <si>
+    <t>Floor area, residential</t>
+  </si>
+  <si>
+    <t>spec. heat demand, residential</t>
+  </si>
+  <si>
+    <t>% reduction vs 2020</t>
+  </si>
+  <si>
+    <t>Additional Renovations</t>
+  </si>
+  <si>
+    <t>Reduction in spec. heat</t>
+  </si>
+  <si>
+    <t>for a pre-1990 building to 1990 standards</t>
+  </si>
+  <si>
+    <t>% energy reduction</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Floorspace</t>
+  </si>
+  <si>
+    <t>Share of pre-existing floorspace renovated</t>
+  </si>
+  <si>
+    <t>New energy demand</t>
+  </si>
+  <si>
+    <t>New spec heat demand</t>
+  </si>
+  <si>
+    <t>Specific heat reduction for 1961-1990 buildings (highest kWh/m2) renovated to post-1990 levels</t>
+  </si>
+  <si>
+    <t>Share of pre-existing floorspace that needs renovation to hit MEPS targets of 16% (2030) and 20-22% (2035) reductions vs 2020</t>
   </si>
 </sst>
 </file>
@@ -482,7 +530,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +558,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +645,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,7 +679,6 @@
     <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -631,6 +690,28 @@
     <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1985,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D26CD-6318-4B74-895D-30922EB64AE0}">
   <dimension ref="A1:AO64"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3542,14 +3623,14 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="T16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U16" s="29">
+        <v>120</v>
+      </c>
+      <c r="U16" s="28">
         <f>SUM(U11)/SUM(U11:U14)</f>
         <v>0.25299594354555016</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="Z16" s="27">
+      <c r="V16" s="26"/>
+      <c r="Z16" s="26">
         <f>SUM(Z11)/SUM(Z11:Z14)</f>
         <v>0.25321691235952715</v>
       </c>
@@ -3558,9 +3639,9 @@
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -4369,12 +4450,12 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="T23" s="5"/>
-      <c r="U23" s="28"/>
-      <c r="X23" s="28"/>
+      <c r="U23" s="27"/>
+      <c r="X23" s="27"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
@@ -4399,7 +4480,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="29">
+      <c r="U26" s="28">
         <f>(U21-U18)/U18</f>
         <v>-0.5054597997188619</v>
       </c>
@@ -4407,7 +4488,7 @@
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
-      <c r="Z26" s="29">
+      <c r="Z26" s="28">
         <f>(Z21-Z18)/Z18</f>
         <v>-0.48228657644735579</v>
       </c>
@@ -4418,7 +4499,7 @@
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4438,15 +4519,15 @@
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
-      <c r="U27" s="32">
+      <c r="U27" s="31">
         <f>(U20-U19)/U19</f>
         <v>-0.21716157980901149</v>
       </c>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="32">
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="31">
         <f>(Z20-Z19)/Z19</f>
         <v>-0.19550366112122455</v>
       </c>
@@ -4457,7 +4538,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4490,9 +4571,9 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="C29" s="25"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -4523,17 +4604,17 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -4552,21 +4633,21 @@
       <c r="AA30" s="24"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U31" s="30">
+      <c r="U31" s="29">
         <f>(U26*U11+U27*U12)/SUM(U11:U12)</f>
         <v>-0.34314647848926666</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z31" s="29">
         <f>(Z26*Z11+Z27*Z12)/SUM(Z11:Z12)</f>
         <v>-0.3215002957958038</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U34" s="31">
+      <c r="U34" s="30">
         <f>SUM(U11)/SUM(U11:U14)</f>
         <v>0.25299594354555016</v>
       </c>
-      <c r="Z34" s="31">
+      <c r="Z34" s="30">
         <f>SUM(Z11)/SUM(Z11:Z14)</f>
         <v>0.25321691235952715</v>
       </c>
@@ -5023,21 +5104,21 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="U63" s="34">
+      <c r="U63" s="33">
         <f>SUM(U4:U7)+(U3*(1+U26))</f>
         <v>625.32718911998006</v>
       </c>
-      <c r="Z63" s="34">
+      <c r="Z63" s="33">
         <f>SUM(Z4:Z7)+(Z3*(1+Z26))</f>
         <v>609.34361920651918</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="U64" s="27">
+      <c r="U64" s="26">
         <f>(U8-U63)/U8</f>
         <v>0.13165437996506568</v>
       </c>
-      <c r="Z64" s="27">
+      <c r="Z64" s="26">
         <f>(Z8-Z63)/Z8</f>
         <v>0.11870554801995732</v>
       </c>
@@ -5048,3797 +5129,2928 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9921B-F39F-43F4-ABB5-C04C9CADE685}">
-  <dimension ref="A1:AO70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CBA6A7-D323-421D-8700-2216B9CC38BC}">
+  <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="12.54296875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="41" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="34" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="34"/>
+    <col min="3" max="10" width="12.54296875" style="34" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="34" customWidth="1"/>
+    <col min="12" max="20" width="12.54296875" style="34" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="12.54296875" style="34" hidden="1" customWidth="1"/>
+    <col min="26" max="41" width="12.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.7265625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="38">
         <v>742.21784958742194</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="38">
         <v>733.43587895233748</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="38">
         <v>724.45765208489399</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="38">
         <v>715.21856462870721</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="38">
         <v>706.03208670041067</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="38">
         <v>697.0245415494885</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="38">
         <v>688.16951359727739</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="38">
         <v>679.23382881306156</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="38">
         <v>670.19640270923401</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="38">
         <v>661.36979360204555</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="38">
         <v>652.03478765167483</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="38">
         <v>643.08372431127975</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="38">
         <v>633.9043094775235</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="38">
         <v>625.084769715476</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="38">
         <v>616.25572524255608</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="38">
         <v>607.84035089336226</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="38">
         <v>599.49094469043928</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="38">
         <v>591.13897710461947</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="37">
         <v>583.10966604771659</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="38">
         <v>574.86171605715117</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="38">
         <v>566.84978545672936</v>
       </c>
-      <c r="X3" s="24">
+      <c r="X3" s="38">
         <v>558.76450725750851</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="38">
         <v>550.89219754419435</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="37">
         <v>542.97484266972128</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="38">
         <v>535.37134998251452</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="38">
         <v>527.85585762012624</v>
       </c>
-      <c r="AC3" s="24">
+      <c r="AC3" s="38">
         <v>520.265631746248</v>
       </c>
-      <c r="AD3" s="24">
+      <c r="AD3" s="38">
         <v>512.86865436553785</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3" s="38">
         <v>505.72658047837297</v>
       </c>
-      <c r="AF3" s="24">
+      <c r="AF3" s="38">
         <v>498.59568678872336</v>
       </c>
-      <c r="AG3" s="24">
+      <c r="AG3" s="38">
         <v>491.5988560692312</v>
       </c>
-      <c r="AH3" s="24">
+      <c r="AH3" s="38">
         <v>484.85016402181373</v>
       </c>
-      <c r="AI3" s="24">
+      <c r="AI3" s="38">
         <v>478.26646648481625</v>
       </c>
-      <c r="AJ3" s="24">
+      <c r="AJ3" s="38">
         <v>471.78986013426749</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3" s="38">
         <v>465.26349300365894</v>
       </c>
-      <c r="AL3" s="24">
+      <c r="AL3" s="38">
         <v>459.17389888036723</v>
       </c>
-      <c r="AM3" s="24">
+      <c r="AM3" s="38">
         <v>453.13969752650814</v>
       </c>
-      <c r="AN3" s="24">
+      <c r="AN3" s="38">
         <v>447.01061259973102</v>
       </c>
-      <c r="AO3" s="24">
+      <c r="AO3" s="38">
         <v>440.8253592248912</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="38">
         <v>878.59068932657794</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="38">
         <v>871.84063554522504</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="38">
         <v>864.94680611155104</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="38">
         <v>858.03384829451159</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="38">
         <v>851.12837161995299</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="38">
         <v>844.2458059921164</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="38">
         <v>837.21185626135821</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="38">
         <v>830.09307127692796</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="38">
         <v>822.78767563311669</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="38">
         <v>815.03236127144282</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="38">
         <v>807.07710007912317</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="38">
         <v>798.84698109667875</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="38">
         <v>790.68050746094946</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="38">
         <v>782.92032282864773</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="38">
         <v>775.23141803670535</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="38">
         <v>767.59779469778073</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="38">
         <v>759.85099599663636</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="38">
         <v>752.23518149800452</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="37">
         <v>744.60261682661985</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="38">
         <v>736.42732138969779</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="38">
         <v>728.12562067957288</v>
       </c>
-      <c r="X4" s="24">
+      <c r="X4" s="38">
         <v>719.79703181935236</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="38">
         <v>711.67997068453303</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="37">
         <v>703.26689324214647</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="38">
         <v>695.00221738956054</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="38">
         <v>686.72910116619812</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AC4" s="38">
         <v>678.53075146773858</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="38">
         <v>670.20621082645005</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="38">
         <v>661.97494730641483</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="38">
         <v>653.79272812159536</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="38">
         <v>645.50934720804457</v>
       </c>
-      <c r="AH4" s="24">
+      <c r="AH4" s="38">
         <v>637.52097488716311</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="38">
         <v>629.39434138818297</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4" s="38">
         <v>621.48045702331535</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="38">
         <v>613.33944387225006</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="38">
         <v>605.78483590374344</v>
       </c>
-      <c r="AM4" s="24">
+      <c r="AM4" s="38">
         <v>597.94723145386001</v>
       </c>
-      <c r="AN4" s="24">
+      <c r="AN4" s="38">
         <v>589.94576273435086</v>
       </c>
-      <c r="AO4" s="24">
+      <c r="AO4" s="38">
         <v>582.12694021209006</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="38">
         <v>382.73008950204081</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="38">
         <v>382.01398955345866</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="38">
         <v>381.11756104208035</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="38">
         <v>380.13550627101023</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="38">
         <v>379.15616631349889</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="38">
         <v>378.0727354152894</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="38">
         <v>376.9452566648024</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="38">
         <v>375.80787079006336</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="38">
         <v>373.58154980893772</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="38">
         <v>371.2732905216543</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="38">
         <v>368.81753539496094</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="38">
         <v>366.23164427112351</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="38">
         <v>363.47763907944716</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="38">
         <v>360.89804155241416</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="38">
         <v>358.37933459874995</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="38">
         <v>355.97258451397374</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="38">
         <v>353.47628651606777</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="38">
         <v>351.01645263819103</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="37">
         <v>348.47617481414409</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="38">
         <v>345.82199162692291</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="38">
         <v>343.16717666833233</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="38">
         <v>340.57403812410519</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="38">
         <v>337.7777160108019</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="37">
         <v>334.91079449481015</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="38">
         <v>332.12248487257295</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="38">
         <v>329.28445701161826</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="38">
         <v>326.34656898423555</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="38">
         <v>323.46794121695683</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="38">
         <v>320.58848779212417</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="38">
         <v>317.61661769281619</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AG5" s="38">
         <v>314.61976113944775</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AH5" s="38">
         <v>311.64487334962411</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI5" s="38">
         <v>308.77926886465298</v>
       </c>
-      <c r="AJ5" s="24">
+      <c r="AJ5" s="38">
         <v>305.85830034714144</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="38">
         <v>302.89868911914431</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="38">
         <v>299.95831650650001</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="38">
         <v>296.93313252088808</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="38">
         <v>293.99302167730622</v>
       </c>
-      <c r="AO5" s="24">
+      <c r="AO5" s="38">
         <v>290.8386091068719</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="38">
         <v>0</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="38">
         <v>13.715319741877101</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="38">
         <v>26.518174895115962</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="38">
         <v>31.460223318316913</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="38">
         <v>35.48304825601037</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="38">
         <v>39.627196637152146</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="38">
         <v>43.092856744782715</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="38">
         <v>46.687669745202982</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="38">
         <v>48.995153388473391</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="38">
         <v>48.97339101256366</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="38">
         <v>48.949041171783179</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="38">
         <v>48.923372258039372</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="38">
         <v>48.889054266724898</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="38">
         <v>48.85196120902787</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="38">
         <v>48.814772798631388</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="38">
         <v>48.771106580478424</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="38">
         <v>48.720458348463332</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="38">
         <v>48.668708354526004</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="37">
         <v>48.633734931977244</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="38">
         <v>48.53381460085307</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="38">
         <v>48.43343465060363</v>
       </c>
-      <c r="X6" s="24">
+      <c r="X6" s="38">
         <v>48.344306396291756</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="Y6" s="38">
         <v>48.113224103566537</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="37">
         <v>47.87002540849145</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="38">
         <v>47.635977643608918</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="38">
         <v>47.405540000179506</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="38">
         <v>47.174019115855657</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="38">
         <v>46.954280276251076</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="38">
         <v>46.725686186015714</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="38">
         <v>46.509025762420698</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="38">
         <v>46.293239426563147</v>
       </c>
-      <c r="AH6" s="24">
+      <c r="AH6" s="38">
         <v>46.06188330150794</v>
       </c>
-      <c r="AI6" s="24">
+      <c r="AI6" s="38">
         <v>45.828005867707219</v>
       </c>
-      <c r="AJ6" s="24">
+      <c r="AJ6" s="38">
         <v>45.589926341495392</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="38">
         <v>45.355474011828733</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="38">
         <v>45.112262664611137</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6" s="38">
         <v>44.862340349425459</v>
       </c>
-      <c r="AN6" s="24">
+      <c r="AN6" s="38">
         <v>44.616557250024464</v>
       </c>
-      <c r="AO6" s="24">
+      <c r="AO6" s="38">
         <v>44.349765226959221</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="38">
         <v>0</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="38">
         <v>0</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="38">
         <v>0</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="38">
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="38">
         <v>0</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="38">
         <v>0</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="38">
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="38">
         <v>1.9809965269904406</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="38">
         <v>3.8783701861158972</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="38">
         <v>5.7200990203808155</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="38">
         <v>7.5141250176159868</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="38">
         <v>9.2706150190580061</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="38">
         <v>10.984721254901489</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="38">
         <v>12.557797434378054</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="38">
         <v>14.134394669076528</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="38">
         <v>15.566587523609462</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="37">
         <v>16.99142026116569</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="38">
         <v>18.322605920410737</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="38">
         <v>19.647478648444814</v>
       </c>
-      <c r="X7" s="24">
+      <c r="X7" s="38">
         <v>20.984306420467217</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="38">
         <v>22.385242496852705</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="37">
         <v>23.618027536926213</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="38">
         <v>24.846030630971036</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="38">
         <v>26.073452353745541</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="38">
         <v>27.302225461427184</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="38">
         <v>28.527104821456518</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="38">
         <v>29.749043701253456</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="38">
         <v>30.903725735233191</v>
       </c>
-      <c r="AG7" s="24">
+      <c r="AG7" s="38">
         <v>32.060198129166139</v>
       </c>
-      <c r="AH7" s="24">
+      <c r="AH7" s="38">
         <v>33.210315028205891</v>
       </c>
-      <c r="AI7" s="24">
+      <c r="AI7" s="38">
         <v>34.357894477405942</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="38">
         <v>35.500296892778493</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="38">
         <v>36.573121000695537</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="38">
         <v>37.64142639974785</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM7" s="38">
         <v>38.703176496576084</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN7" s="38">
         <v>39.764257787765672</v>
       </c>
-      <c r="AO7" s="24">
+      <c r="AO7" s="38">
         <v>40.81181732532815</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="38">
         <f>SUM(C3:C7)</f>
         <v>2003.5386284160406</v>
       </c>
-      <c r="D8" s="24">
-        <f t="shared" ref="D8:AO8" si="0">SUM(D3:D7)</f>
+      <c r="D8" s="38">
+        <f>SUM(D3:D7)</f>
         <v>2001.0058237928981</v>
       </c>
-      <c r="E8" s="24">
-        <f t="shared" si="0"/>
+      <c r="E8" s="38">
+        <f>SUM(E3:E7)</f>
         <v>1997.0401941336411</v>
       </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
+      <c r="F8" s="38">
+        <f>SUM(F3:F7)</f>
         <v>1984.8481425125458</v>
       </c>
-      <c r="G8" s="24">
-        <f t="shared" si="0"/>
+      <c r="G8" s="38">
+        <f>SUM(G3:G7)</f>
         <v>1971.7996728898729</v>
       </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
+      <c r="H8" s="38">
+        <f>SUM(H3:H7)</f>
         <v>1958.9702795940464</v>
       </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
+      <c r="I8" s="38">
+        <f>SUM(I3:I7)</f>
         <v>1945.4194832682206</v>
       </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
+      <c r="J8" s="38">
+        <f>SUM(J3:J7)</f>
         <v>1931.8224406252559</v>
       </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
+      <c r="K8" s="38">
+        <f>SUM(K3:K7)</f>
         <v>1915.5607815397618</v>
       </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
+      <c r="L8" s="38">
+        <f>SUM(L3:L7)</f>
         <v>1898.6298329346967</v>
       </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
+      <c r="M8" s="38">
+        <f>SUM(M3:M7)</f>
         <v>1880.7568344836582</v>
       </c>
-      <c r="N8" s="24">
-        <f t="shared" si="0"/>
+      <c r="N8" s="38">
+        <f>SUM(N3:N7)</f>
         <v>1862.8058209575022</v>
       </c>
-      <c r="O8" s="24">
-        <f t="shared" si="0"/>
+      <c r="O8" s="38">
+        <f>SUM(O3:O7)</f>
         <v>1844.4656353022613</v>
       </c>
-      <c r="P8" s="24">
-        <f t="shared" si="0"/>
+      <c r="P8" s="38">
+        <f>SUM(P3:P7)</f>
         <v>1827.0257103246238</v>
       </c>
-      <c r="Q8" s="24">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="38">
+        <f>SUM(Q3:Q7)</f>
         <v>1809.6659719315442</v>
       </c>
-      <c r="R8" s="24">
-        <f t="shared" si="0"/>
+      <c r="R8" s="38">
+        <f>SUM(R3:R7)</f>
         <v>1792.7396341199731</v>
       </c>
-      <c r="S8" s="24">
-        <f t="shared" si="0"/>
+      <c r="S8" s="38">
+        <f>SUM(S3:S7)</f>
         <v>1775.6730802206835</v>
       </c>
-      <c r="T8" s="24">
-        <f t="shared" si="0"/>
+      <c r="T8" s="38">
+        <f>SUM(T3:T7)</f>
         <v>1758.6259071189504</v>
       </c>
-      <c r="U8" s="24">
-        <f t="shared" si="0"/>
+      <c r="U8" s="38">
+        <f>SUM(U3:U7)</f>
         <v>1741.8136128816234</v>
       </c>
-      <c r="V8" s="24">
-        <f t="shared" si="0"/>
+      <c r="V8" s="38">
+        <f>SUM(V3:V7)</f>
         <v>1723.9674495950355</v>
       </c>
-      <c r="W8" s="24">
-        <f t="shared" si="0"/>
+      <c r="W8" s="38">
+        <f>SUM(W3:W7)</f>
         <v>1706.2234961036831</v>
       </c>
-      <c r="X8" s="24">
-        <f t="shared" si="0"/>
+      <c r="X8" s="38">
+        <f>SUM(X3:X7)</f>
         <v>1688.4641900177251</v>
       </c>
-      <c r="Y8" s="24">
-        <f t="shared" si="0"/>
+      <c r="Y8" s="38">
+        <f>SUM(Y3:Y7)</f>
         <v>1670.8483508399486</v>
       </c>
-      <c r="Z8" s="24">
-        <f t="shared" si="0"/>
+      <c r="Z8" s="38">
+        <f>SUM(Z3:Z7)</f>
         <v>1652.6405833520955</v>
       </c>
-      <c r="AA8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="38">
+        <f>SUM(AA3:AA7)</f>
         <v>1634.9780605192279</v>
       </c>
-      <c r="AB8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="38">
+        <f>SUM(AB3:AB7)</f>
         <v>1617.3484081518679</v>
       </c>
-      <c r="AC8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AC8" s="38">
+        <f>SUM(AC3:AC7)</f>
         <v>1599.6191967755051</v>
       </c>
-      <c r="AD8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AD8" s="38">
+        <f>SUM(AD3:AD7)</f>
         <v>1582.0241915066524</v>
       </c>
-      <c r="AE8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="38">
+        <f>SUM(AE3:AE7)</f>
         <v>1564.764745464181</v>
       </c>
-      <c r="AF8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AF8" s="38">
+        <f>SUM(AF3:AF7)</f>
         <v>1547.4177841007886</v>
       </c>
-      <c r="AG8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AG8" s="38">
+        <f>SUM(AG3:AG7)</f>
         <v>1530.0814019724528</v>
       </c>
-      <c r="AH8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AH8" s="38">
+        <f>SUM(AH3:AH7)</f>
         <v>1513.2882105883148</v>
       </c>
-      <c r="AI8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AI8" s="38">
+        <f>SUM(AI3:AI7)</f>
         <v>1496.6259770827653</v>
       </c>
-      <c r="AJ8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AJ8" s="38">
+        <f>SUM(AJ3:AJ7)</f>
         <v>1480.2188407389983</v>
       </c>
-      <c r="AK8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AK8" s="38">
+        <f>SUM(AK3:AK7)</f>
         <v>1463.4302210075778</v>
       </c>
-      <c r="AL8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AL8" s="38">
+        <f>SUM(AL3:AL7)</f>
         <v>1447.6707403549697</v>
       </c>
-      <c r="AM8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AM8" s="38">
+        <f>SUM(AM3:AM7)</f>
         <v>1431.585578347258</v>
       </c>
-      <c r="AN8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AN8" s="38">
+        <f>SUM(AN3:AN7)</f>
         <v>1415.3302120491783</v>
       </c>
-      <c r="AO8" s="24">
-        <f t="shared" si="0"/>
+      <c r="AO8" s="38">
+        <f>SUM(AO3:AO7)</f>
         <v>1398.9524910961406</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="39">
         <v>3896847381.9112215</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="39">
         <v>3885420662.2202659</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="39">
         <v>3874028852.9560761</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="39">
         <v>3862698423.2289619</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="39">
         <v>3851393155.4048667</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="39">
         <v>3840122423.765769</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="39">
         <v>3828886119.0642619</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="39">
         <v>3817684132.4077926</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="39">
         <v>3806516355.2574897</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="39">
         <v>3795378085.7528377</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="39">
         <v>3784273837.9817395</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="39">
         <v>3773198113.175601</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="39">
         <v>3762156218.8914742</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="39">
         <v>3751159359.7469196</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="39">
         <v>3740196066.6729207</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="39">
         <v>3729263553.0974422</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="39">
         <v>3718364412.5407515</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="39">
         <v>3707461053.8999496</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="39">
         <v>3696590448.077559</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11" s="39">
         <v>3685764760.1513481</v>
       </c>
-      <c r="W11" s="25">
+      <c r="W11" s="39">
         <v>3674972166.7627349</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="39">
         <v>3664226593.7392621</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Y11" s="39">
         <v>3653519104.7373028</v>
       </c>
-      <c r="Z11" s="25">
+      <c r="Z11" s="39">
         <v>3642839059.7884731</v>
       </c>
-      <c r="AA11" s="25">
+      <c r="AA11" s="39">
         <v>3632191629.1969619</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AB11" s="39">
         <v>3621576709.7466559</v>
       </c>
-      <c r="AC11" s="25">
+      <c r="AC11" s="39">
         <v>3610994198.5570855</v>
       </c>
-      <c r="AD11" s="25">
+      <c r="AD11" s="39">
         <v>3600443993.0823359</v>
       </c>
-      <c r="AE11" s="25">
+      <c r="AE11" s="39">
         <v>3589925991.1099219</v>
       </c>
-      <c r="AF11" s="25">
+      <c r="AF11" s="39">
         <v>3579435015.3260689</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AG11" s="39">
         <v>3568976066.3759322</v>
       </c>
-      <c r="AH11" s="25">
+      <c r="AH11" s="39">
         <v>3558549042.9296041</v>
       </c>
-      <c r="AI11" s="25">
+      <c r="AI11" s="39">
         <v>3548153843.9866385</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11" s="39">
         <v>3537790368.8749595</v>
       </c>
-      <c r="AK11" s="25">
+      <c r="AK11" s="39">
         <v>3527447714.7654428</v>
       </c>
-      <c r="AL11" s="25">
+      <c r="AL11" s="39">
         <v>3517136632.6360412</v>
       </c>
-      <c r="AM11" s="25">
+      <c r="AM11" s="39">
         <v>3506857022.629848</v>
       </c>
-      <c r="AN11" s="25">
+      <c r="AN11" s="39">
         <v>3496608785.2144852</v>
       </c>
-      <c r="AO11" s="25">
+      <c r="AO11" s="39">
         <v>3486391821.1810284</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="39">
         <v>4504773611.603446</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="39">
         <v>4493983191.8979292</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="39">
         <v>4483219787.5778999</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="39">
         <v>4472526568.9987364</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="39">
         <v>4461848788.6750441</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="39">
         <v>4451197720.1654358</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="39">
         <v>4440573293.8859787</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="39">
         <v>4429975440.4399815</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="39">
         <v>4419404090.6174641</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="39">
         <v>4408854769.9225903</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="39">
         <v>4398331835.8363285</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="39">
         <v>4387831184.4737034</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="39">
         <v>4377356797.4444742</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="39">
         <v>4366917820.0776768</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="39">
         <v>4356504935.4003448</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="39">
         <v>4346115925.3568716</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="39">
         <v>4335752885.088398</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="39">
         <v>4325365992.02948</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="39">
         <v>4315004388.3215666</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="39">
         <v>4304683845.3157253</v>
       </c>
-      <c r="W12" s="25">
+      <c r="W12" s="39">
         <v>4294389155.7801137</v>
       </c>
-      <c r="X12" s="25">
+      <c r="X12" s="39">
         <v>4284141462.2267756</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Y12" s="39">
         <v>4273923359.8769569</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="Z12" s="39">
         <v>4263726867.8199749</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AA12" s="39">
         <v>4253555880.1398497</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="39">
         <v>4243410330.3638215</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AC12" s="39">
         <v>4233290152.1982021</v>
       </c>
-      <c r="AD12" s="25">
+      <c r="AD12" s="39">
         <v>4223195279.5278702</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="39">
         <v>4213125646.4157887</v>
       </c>
-      <c r="AF12" s="25">
+      <c r="AF12" s="39">
         <v>4203072332.3888383</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="39">
         <v>4193044166.9306307</v>
       </c>
-      <c r="AH12" s="25">
+      <c r="AH12" s="39">
         <v>4183041084.4905128</v>
       </c>
-      <c r="AI12" s="25">
+      <c r="AI12" s="39">
         <v>4173063019.6944427</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="39">
         <v>4163109907.3444867</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AK12" s="39">
         <v>4153172820.8713307</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AL12" s="39">
         <v>4143260590.6579452</v>
       </c>
-      <c r="AM12" s="25">
+      <c r="AM12" s="39">
         <v>4133373151.9357991</v>
       </c>
-      <c r="AN12" s="25">
+      <c r="AN12" s="39">
         <v>4123510440.1107812</v>
       </c>
-      <c r="AO12" s="25">
+      <c r="AO12" s="39">
         <v>4113672390.7627201</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="39">
         <v>3094739302.8886118</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="39">
         <v>3093970788.4554524</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="39">
         <v>3093202473.2384095</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="39">
         <v>3092437875.5142021</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="39">
         <v>3091672855.1348429</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="39">
         <v>3090908032.7434392</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="39">
         <v>3090143408.2864904</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="39">
         <v>3089378981.7105193</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="39">
         <v>3081385463.0201106</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="39">
         <v>3073408327.2507133</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="39">
         <v>3065452882.7500072</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="39">
         <v>3057517521.661994</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="39">
         <v>3049603734.9638023</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="39">
         <v>3041727031.2526546</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="39">
         <v>3033871712.0135365</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="39">
         <v>3026036306.9222674</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="39">
         <v>3018222174.2791934</v>
       </c>
-      <c r="T13" s="25">
+      <c r="T13" s="39">
         <v>3010367717.9592619</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="39">
         <v>3002533931.2568369</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="39">
         <v>2994734860.9812336</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13" s="39">
         <v>2986957050.591423</v>
       </c>
-      <c r="X13" s="25">
+      <c r="X13" s="39">
         <v>2979236799.2442737</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13" s="39">
         <v>2971539040.0492282</v>
       </c>
-      <c r="Z13" s="25">
+      <c r="Z13" s="39">
         <v>2963860688.9641747</v>
       </c>
-      <c r="AA13" s="25">
+      <c r="AA13" s="39">
         <v>2956203200.0792356</v>
       </c>
-      <c r="AB13" s="25">
+      <c r="AB13" s="39">
         <v>2948566513.9402442</v>
       </c>
-      <c r="AC13" s="25">
+      <c r="AC13" s="39">
         <v>2940950571.2696137</v>
       </c>
-      <c r="AD13" s="25">
+      <c r="AD13" s="39">
         <v>2933355312.9658136</v>
       </c>
-      <c r="AE13" s="25">
+      <c r="AE13" s="39">
         <v>2925780680.1028142</v>
       </c>
-      <c r="AF13" s="25">
+      <c r="AF13" s="39">
         <v>2918221669.2011476</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AG13" s="39">
         <v>2910683191.3981252</v>
       </c>
-      <c r="AH13" s="25">
+      <c r="AH13" s="39">
         <v>2903165188.1916423</v>
       </c>
-      <c r="AI13" s="25">
+      <c r="AI13" s="39">
         <v>2895667601.2533298</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13" s="39">
         <v>2888190372.4280157</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AK13" s="39">
         <v>2880718547.7957902</v>
       </c>
-      <c r="AL13" s="25">
+      <c r="AL13" s="39">
         <v>2873267029.7762189</v>
       </c>
-      <c r="AM13" s="25">
+      <c r="AM13" s="39">
         <v>2865835760.5223842</v>
       </c>
-      <c r="AN13" s="25">
+      <c r="AN13" s="39">
         <v>2858424682.3590512</v>
       </c>
-      <c r="AO13" s="25">
+      <c r="AO13" s="39">
         <v>2851033737.7821369</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="39">
         <v>0</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="39">
         <v>285621087.51758736</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="39">
         <v>580658098.49597871</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="39">
         <v>701742455.44256842</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="39">
         <v>799394982.67471373</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="39">
         <v>907467427.83995807</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="39">
         <v>999875235.6809442</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="39">
         <v>1095637498.7496722</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="39">
         <v>1191760095.9625943</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="39">
         <v>1191427698.1406326</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="39">
         <v>1191095396.0453877</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="39">
         <v>1190763111.3043294</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="39">
         <v>1190430922.2654023</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="39">
         <v>1190099208.6564355</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="39">
         <v>1189767590.534862</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="39">
         <v>1189435680.4247272</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="39">
         <v>1189103865.9937007</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="39">
         <v>1188770578.5228028</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="39">
         <v>1188437355.6584709</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="39">
         <v>1188104903.5827398</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14" s="39">
         <v>1187772547.5563648</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14" s="39">
         <v>1187440676.0613475</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="39">
         <v>1183953055.7423918</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="Z14" s="39">
         <v>1180475243.164124</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AA14" s="39">
         <v>1177008016.4968512</v>
       </c>
-      <c r="AB14" s="25">
+      <c r="AB14" s="39">
         <v>1173551342.634511</v>
       </c>
-      <c r="AC14" s="25">
+      <c r="AC14" s="39">
         <v>1170105188.5766175</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AD14" s="39">
         <v>1166669521.4279222</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AE14" s="39">
         <v>1163244308.3980727</v>
       </c>
-      <c r="AF14" s="25">
+      <c r="AF14" s="39">
         <v>1159828132.5492182</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AG14" s="39">
         <v>1156422353.7014296</v>
       </c>
-      <c r="AH14" s="25">
+      <c r="AH14" s="39">
         <v>1153026939.3395951</v>
       </c>
-      <c r="AI14" s="25">
+      <c r="AI14" s="39">
         <v>1149641857.0523086</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14" s="39">
         <v>1146267074.5315268</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14" s="39">
         <v>1142898731.3359911</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AL14" s="39">
         <v>1139540640.1227481</v>
       </c>
-      <c r="AM14" s="25">
+      <c r="AM14" s="39">
         <v>1136192768.8383667</v>
       </c>
-      <c r="AN14" s="25">
+      <c r="AN14" s="39">
         <v>1132855085.5316088</v>
       </c>
-      <c r="AO14" s="25">
+      <c r="AO14" s="39">
         <v>1129527558.3530979</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="39">
         <v>0</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="39">
         <v>0</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="39">
         <v>0</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="39">
         <v>0</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="39">
         <v>0</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="39">
         <v>0</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="39">
         <v>0</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="39">
         <v>0</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="39">
         <v>0</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="39">
         <v>93743098.887765735</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="39">
         <v>183671427.81931868</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="39">
         <v>271096443.88348812</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="39">
         <v>358091909.25715417</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="39">
         <v>446854845.22310138</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="39">
         <v>534956511.50574458</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="39">
         <v>620610216.75729096</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="39">
         <v>706457796.60969591</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="39">
         <v>782561841.36436462</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="39">
         <v>858435794.0529052</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="39">
         <v>934052351.74379897</v>
       </c>
-      <c r="W15" s="25">
+      <c r="W15" s="39">
         <v>1009555247.6643574</v>
       </c>
-      <c r="X15" s="25">
+      <c r="X15" s="39">
         <v>1085431018.9377952</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Y15" s="39">
         <v>1164522354.8259547</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="Z15" s="39">
         <v>1243422930.1380289</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AA15" s="39">
         <v>1321339608.844336</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AB15" s="39">
         <v>1399219618.9390497</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AC15" s="39">
         <v>1476828906.5725687</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AD15" s="39">
         <v>1554267202.8367257</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AE15" s="39">
         <v>1631637590.5088789</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AF15" s="39">
         <v>1703392238.4534938</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AG15" s="39">
         <v>1775077947.6245294</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AH15" s="39">
         <v>1846470049.4673121</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AI15" s="39">
         <v>1917789792.5822642</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="39">
         <v>1988816144.0548022</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15" s="39">
         <v>2054130044.3169935</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15" s="39">
         <v>2119272115.522402</v>
       </c>
-      <c r="AM15" s="25">
+      <c r="AM15" s="39">
         <v>2184262331.2153649</v>
       </c>
-      <c r="AN15" s="25">
+      <c r="AN15" s="39">
         <v>2249127090.4681649</v>
       </c>
-      <c r="AO15" s="25">
+      <c r="AO15" s="39">
         <v>2313890006.0310221</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="T16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" s="29">
-        <f>SUM(U11)/SUM(U11:U14)</f>
-        <v>0.30293549821580473</v>
-      </c>
-      <c r="V16" s="27"/>
-      <c r="Z16" s="27">
-        <f>SUM(Z11)/SUM(Z11:Z14)</f>
-        <v>0.30228767126214501</v>
+      <c r="T16" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" s="43">
+        <f>SUM(U11:U12)/SUM(U11:U15)</f>
+        <v>0.61339818239717359</v>
+      </c>
+      <c r="V16" s="41"/>
+      <c r="Z16" s="41">
+        <f>SUM(Z11:Z12)/SUM(Z11:Z15)</f>
+        <v>0.59473241797358878</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="24">
-        <f t="shared" ref="C18:AO22" si="1">C3*10^9/C11</f>
+      <c r="B18" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="38">
+        <f>C3*10^9/C11</f>
         <v>190.46623509884517</v>
       </c>
-      <c r="D18" s="24">
-        <f t="shared" si="1"/>
+      <c r="D18" s="38">
+        <f>D3*10^9/D11</f>
         <v>188.76614470187803</v>
       </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
+      <c r="E18" s="38">
+        <f>E3*10^9/E11</f>
         <v>187.0036800402498</v>
       </c>
-      <c r="F18" s="24">
-        <f t="shared" si="1"/>
+      <c r="F18" s="38">
+        <f>F3*10^9/F11</f>
         <v>185.16034291665758</v>
       </c>
-      <c r="G18" s="24">
-        <f t="shared" si="1"/>
+      <c r="G18" s="38">
+        <f>G3*10^9/G11</f>
         <v>183.31862217431578</v>
       </c>
-      <c r="H18" s="24">
-        <f t="shared" si="1"/>
+      <c r="H18" s="38">
+        <f>H3*10^9/H11</f>
         <v>181.51102090801572</v>
       </c>
-      <c r="I18" s="24">
-        <f t="shared" si="1"/>
+      <c r="I18" s="38">
+        <f>I3*10^9/I11</f>
         <v>179.73099543776937</v>
       </c>
-      <c r="J18" s="24">
-        <f t="shared" si="1"/>
+      <c r="J18" s="38">
+        <f>J3*10^9/J11</f>
         <v>177.91776513073449</v>
       </c>
-      <c r="K18" s="24">
-        <f t="shared" si="1"/>
+      <c r="K18" s="38">
+        <f>K3*10^9/K11</f>
         <v>176.06555184862694</v>
       </c>
-      <c r="L18" s="24">
-        <f t="shared" si="1"/>
+      <c r="L18" s="38">
+        <f>L3*10^9/L11</f>
         <v>174.25662968459139</v>
       </c>
-      <c r="M18" s="24">
-        <f t="shared" si="1"/>
+      <c r="M18" s="38">
+        <f>M3*10^9/M11</f>
         <v>172.30116412490472</v>
       </c>
-      <c r="N18" s="24">
-        <f t="shared" si="1"/>
+      <c r="N18" s="38">
+        <f>N3*10^9/N11</f>
         <v>170.43465649622286</v>
       </c>
-      <c r="O18" s="24">
-        <f t="shared" si="1"/>
+      <c r="O18" s="38">
+        <f>O3*10^9/O11</f>
         <v>168.49494614136583</v>
       </c>
-      <c r="P18" s="24">
-        <f t="shared" si="1"/>
+      <c r="P18" s="38">
+        <f>P3*10^9/P11</f>
         <v>166.63775376305225</v>
       </c>
-      <c r="Q18" s="24">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="38">
+        <f>Q3*10^9/Q11</f>
         <v>164.76562037314378</v>
       </c>
-      <c r="R18" s="24">
-        <f t="shared" si="1"/>
+      <c r="R18" s="38">
+        <f>R3*10^9/R11</f>
         <v>162.99206056072487</v>
       </c>
-      <c r="S18" s="24">
-        <f t="shared" si="1"/>
+      <c r="S18" s="38">
+        <f>S3*10^9/S11</f>
         <v>161.22436592512682</v>
       </c>
-      <c r="T18" s="24">
-        <f t="shared" si="1"/>
+      <c r="T18" s="38">
+        <f>T3*10^9/T11</f>
         <v>159.44576854901524</v>
       </c>
-      <c r="U18" s="24">
-        <f t="shared" si="1"/>
+      <c r="U18" s="38">
+        <f>U3*10^9/U11</f>
         <v>157.74256689727889</v>
       </c>
-      <c r="V18" s="24">
-        <f t="shared" si="1"/>
+      <c r="V18" s="38">
+        <f>V3*10^9/V11</f>
         <v>155.96809711576537</v>
       </c>
-      <c r="W18" s="24">
-        <f t="shared" si="1"/>
+      <c r="W18" s="38">
+        <f>W3*10^9/W11</f>
         <v>154.24600778842486</v>
       </c>
-      <c r="X18" s="24">
-        <f t="shared" si="1"/>
+      <c r="X18" s="38">
+        <f>X3*10^9/X11</f>
         <v>152.49179955525122</v>
       </c>
-      <c r="Y18" s="24">
-        <f t="shared" si="1"/>
+      <c r="Y18" s="38">
+        <f>Y3*10^9/Y11</f>
         <v>150.78399257030978</v>
       </c>
-      <c r="Z18" s="24">
-        <f t="shared" si="1"/>
+      <c r="Z18" s="38">
+        <f>Z3*10^9/Z11</f>
         <v>149.05265748996607</v>
       </c>
-      <c r="AA18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA18" s="38">
+        <f>AA3*10^9/AA11</f>
         <v>147.39622922948018</v>
       </c>
-      <c r="AB18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AB18" s="38">
+        <f>AB3*10^9/AB11</f>
         <v>145.75305175768372</v>
       </c>
-      <c r="AC18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AC18" s="38">
+        <f>AC3*10^9/AC11</f>
         <v>144.07822420599305</v>
       </c>
-      <c r="AD18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AD18" s="38">
+        <f>AD3*10^9/AD11</f>
         <v>142.44594704179013</v>
       </c>
-      <c r="AE18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AE18" s="38">
+        <f>AE3*10^9/AE11</f>
         <v>140.87381793684668</v>
       </c>
-      <c r="AF18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AF18" s="38">
+        <f>AF3*10^9/AF11</f>
         <v>139.29452124536022</v>
       </c>
-      <c r="AG18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AG18" s="38">
+        <f>AG3*10^9/AG11</f>
         <v>137.74226750935276</v>
       </c>
-      <c r="AH18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AH18" s="38">
+        <f>AH3*10^9/AH11</f>
         <v>136.24939776652815</v>
       </c>
-      <c r="AI18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AI18" s="38">
+        <f>AI3*10^9/AI11</f>
         <v>134.79304661362852</v>
       </c>
-      <c r="AJ18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AJ18" s="38">
+        <f>AJ3*10^9/AJ11</f>
         <v>133.35721197191785</v>
       </c>
-      <c r="AK18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AK18" s="38">
+        <f>AK3*10^9/AK11</f>
         <v>131.8980550884215</v>
       </c>
-      <c r="AL18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AL18" s="38">
+        <f>AL3*10^9/AL11</f>
         <v>130.55332983644234</v>
       </c>
-      <c r="AM18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AM18" s="38">
+        <f>AM3*10^9/AM11</f>
         <v>129.21533287567323</v>
       </c>
-      <c r="AN18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AN18" s="38">
+        <f>AN3*10^9/AN11</f>
         <v>127.84118557670185</v>
       </c>
-      <c r="AO18" s="24">
-        <f t="shared" si="1"/>
+      <c r="AO18" s="38">
+        <f>AO3*10^9/AO11</f>
         <v>126.44171448163847</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="24">
-        <f t="shared" si="1"/>
+      <c r="B19" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="38">
+        <f>C4*10^9/C12</f>
         <v>195.03548126447339</v>
       </c>
-      <c r="D19" s="24">
-        <f t="shared" si="1"/>
+      <c r="D19" s="38">
+        <f>D4*10^9/D12</f>
         <v>194.00175708646196</v>
       </c>
-      <c r="E19" s="24">
-        <f t="shared" si="1"/>
+      <c r="E19" s="38">
+        <f>E4*10^9/E12</f>
         <v>192.92982434368813</v>
       </c>
-      <c r="F19" s="24">
-        <f t="shared" si="1"/>
+      <c r="F19" s="38">
+        <f>F4*10^9/F12</f>
         <v>191.84544464016443</v>
       </c>
-      <c r="G19" s="24">
-        <f t="shared" si="1"/>
+      <c r="G19" s="38">
+        <f>G4*10^9/G12</f>
         <v>190.75688395811761</v>
       </c>
-      <c r="H19" s="24">
-        <f t="shared" si="1"/>
+      <c r="H19" s="38">
+        <f>H4*10^9/H12</f>
         <v>189.66710963375016</v>
       </c>
-      <c r="I19" s="24">
-        <f t="shared" si="1"/>
+      <c r="I19" s="38">
+        <f>I4*10^9/I12</f>
         <v>188.53688495899317</v>
       </c>
-      <c r="J19" s="24">
-        <f t="shared" si="1"/>
+      <c r="J19" s="38">
+        <f>J4*10^9/J12</f>
         <v>187.38096462098756</v>
       </c>
-      <c r="K19" s="24">
-        <f t="shared" si="1"/>
+      <c r="K19" s="38">
+        <f>K4*10^9/K12</f>
         <v>186.17615831508172</v>
       </c>
-      <c r="L19" s="24">
-        <f t="shared" si="1"/>
+      <c r="L19" s="38">
+        <f>L4*10^9/L12</f>
         <v>184.86260124321424</v>
       </c>
-      <c r="M19" s="24">
-        <f t="shared" si="1"/>
+      <c r="M19" s="38">
+        <f>M4*10^9/M12</f>
         <v>183.49618223511325</v>
       </c>
-      <c r="N19" s="24">
-        <f t="shared" si="1"/>
+      <c r="N19" s="38">
+        <f>N4*10^9/N12</f>
         <v>182.0596434802211</v>
       </c>
-      <c r="O19" s="24">
-        <f t="shared" si="1"/>
+      <c r="O19" s="38">
+        <f>O4*10^9/O12</f>
         <v>180.62966855307596</v>
       </c>
-      <c r="P19" s="24">
-        <f t="shared" si="1"/>
+      <c r="P19" s="38">
+        <f>P4*10^9/P12</f>
         <v>179.2844186874855</v>
       </c>
-      <c r="Q19" s="24">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="38">
+        <f>Q4*10^9/Q12</f>
         <v>177.94801785653544</v>
       </c>
-      <c r="R19" s="24">
-        <f t="shared" si="1"/>
+      <c r="R19" s="38">
+        <f>R4*10^9/R12</f>
         <v>176.61696279644246</v>
       </c>
-      <c r="S19" s="24">
-        <f t="shared" si="1"/>
+      <c r="S19" s="38">
+        <f>S4*10^9/S12</f>
         <v>175.2523762620167</v>
       </c>
-      <c r="T19" s="24">
-        <f t="shared" si="1"/>
+      <c r="T19" s="38">
+        <f>T4*10^9/T12</f>
         <v>173.91249269638166</v>
       </c>
-      <c r="U19" s="24">
-        <f t="shared" si="1"/>
+      <c r="U19" s="38">
+        <f>U4*10^9/U12</f>
         <v>172.56126525429849</v>
       </c>
-      <c r="V19" s="24">
-        <f t="shared" si="1"/>
+      <c r="V19" s="38">
+        <f>V4*10^9/V12</f>
         <v>171.07582062990849</v>
       </c>
-      <c r="W19" s="24">
-        <f t="shared" si="1"/>
+      <c r="W19" s="38">
+        <f>W4*10^9/W12</f>
         <v>169.55278021311565</v>
       </c>
-      <c r="X19" s="24">
-        <f t="shared" si="1"/>
+      <c r="X19" s="38">
+        <f>X4*10^9/X12</f>
         <v>168.014300686799</v>
       </c>
-      <c r="Y19" s="24">
-        <f t="shared" si="1"/>
+      <c r="Y19" s="38">
+        <f>Y4*10^9/Y12</f>
         <v>166.5167834701233</v>
       </c>
-      <c r="Z19" s="24">
-        <f t="shared" si="1"/>
+      <c r="Z19" s="38">
+        <f>Z4*10^9/Z12</f>
         <v>164.94182555406599</v>
       </c>
-      <c r="AA19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA19" s="38">
+        <f>AA4*10^9/AA12</f>
         <v>163.39322603814247</v>
       </c>
-      <c r="AB19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AB19" s="38">
+        <f>AB4*10^9/AB12</f>
         <v>161.83424361587001</v>
       </c>
-      <c r="AC19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AC19" s="38">
+        <f>AC4*10^9/AC12</f>
         <v>160.28448962219159</v>
       </c>
-      <c r="AD19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AD19" s="38">
+        <f>AD4*10^9/AD12</f>
         <v>158.69647659328115</v>
       </c>
-      <c r="AE19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AE19" s="38">
+        <f>AE4*10^9/AE12</f>
         <v>157.12205209677842</v>
       </c>
-      <c r="AF19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AF19" s="38">
+        <f>AF4*10^9/AF12</f>
         <v>155.55114840243752</v>
       </c>
-      <c r="AG19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AG19" s="38">
+        <f>AG4*10^9/AG12</f>
         <v>153.94766224954097</v>
       </c>
-      <c r="AH19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AH19" s="38">
+        <f>AH4*10^9/AH12</f>
         <v>152.40609929720833</v>
       </c>
-      <c r="AI19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AI19" s="38">
+        <f>AI4*10^9/AI12</f>
         <v>150.8231096481903</v>
       </c>
-      <c r="AJ19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AJ19" s="38">
+        <f>AJ4*10^9/AJ12</f>
         <v>149.28274075275078</v>
       </c>
-      <c r="AK19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AK19" s="38">
+        <f>AK4*10^9/AK12</f>
         <v>147.67973073260461</v>
       </c>
-      <c r="AL19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AL19" s="38">
+        <f>AL4*10^9/AL12</f>
         <v>146.20968743062949</v>
       </c>
-      <c r="AM19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AM19" s="38">
+        <f>AM4*10^9/AM12</f>
         <v>144.66325915283525</v>
       </c>
-      <c r="AN19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AN19" s="38">
+        <f>AN4*10^9/AN12</f>
         <v>143.06881752880963</v>
       </c>
-      <c r="AO19" s="24">
-        <f t="shared" si="1"/>
+      <c r="AO19" s="38">
+        <f>AO4*10^9/AO12</f>
         <v>141.51028203394617</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="24">
-        <f t="shared" si="1"/>
+      <c r="B20" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="38">
+        <f>C5*10^9/C13</f>
         <v>123.67118908684903</v>
       </c>
-      <c r="D20" s="24">
-        <f t="shared" si="1"/>
+      <c r="D20" s="38">
+        <f>D5*10^9/D13</f>
         <v>123.47045776219647</v>
       </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
+      <c r="E20" s="38">
+        <f>E5*10^9/E13</f>
         <v>123.21132041610961</v>
       </c>
-      <c r="F20" s="24">
-        <f t="shared" si="1"/>
+      <c r="F20" s="38">
+        <f>F5*10^9/F13</f>
         <v>122.92421758280346</v>
       </c>
-      <c r="G20" s="24">
-        <f t="shared" si="1"/>
+      <c r="G20" s="38">
+        <f>G5*10^9/G13</f>
         <v>122.63786761389477</v>
       </c>
-      <c r="H20" s="24">
-        <f t="shared" si="1"/>
+      <c r="H20" s="38">
+        <f>H5*10^9/H13</f>
         <v>122.31769156836359</v>
       </c>
-      <c r="I20" s="24">
-        <f t="shared" si="1"/>
+      <c r="I20" s="38">
+        <f>I5*10^9/I13</f>
         <v>121.98309491203246</v>
       </c>
-      <c r="J20" s="24">
-        <f t="shared" si="1"/>
+      <c r="J20" s="38">
+        <f>J5*10^9/J13</f>
         <v>121.64511800426214</v>
       </c>
-      <c r="K20" s="24">
-        <f t="shared" si="1"/>
+      <c r="K20" s="38">
+        <f>K5*10^9/K13</f>
         <v>121.23817493536984</v>
       </c>
-      <c r="L20" s="24">
-        <f t="shared" si="1"/>
+      <c r="L20" s="38">
+        <f>L5*10^9/L13</f>
         <v>120.80181055986567</v>
       </c>
-      <c r="M20" s="24">
-        <f t="shared" si="1"/>
+      <c r="M20" s="38">
+        <f>M5*10^9/M13</f>
         <v>120.3142078843815</v>
       </c>
-      <c r="N20" s="24">
-        <f t="shared" si="1"/>
+      <c r="N20" s="38">
+        <f>N5*10^9/N13</f>
         <v>119.78071807485463</v>
       </c>
-      <c r="O20" s="24">
-        <f t="shared" si="1"/>
+      <c r="O20" s="38">
+        <f>O5*10^9/O13</f>
         <v>119.1884817401568</v>
       </c>
-      <c r="P20" s="24">
-        <f t="shared" si="1"/>
+      <c r="P20" s="38">
+        <f>P5*10^9/P13</f>
         <v>118.64905622507089</v>
       </c>
-      <c r="Q20" s="24">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="38">
+        <f>Q5*10^9/Q13</f>
         <v>118.12606748651834</v>
       </c>
-      <c r="R20" s="24">
-        <f t="shared" si="1"/>
+      <c r="R20" s="38">
+        <f>R5*10^9/R13</f>
         <v>117.63658740632485</v>
       </c>
-      <c r="S20" s="24">
-        <f t="shared" si="1"/>
+      <c r="S20" s="38">
+        <f>S5*10^9/S13</f>
         <v>117.11407116690617</v>
       </c>
-      <c r="T20" s="24">
-        <f t="shared" si="1"/>
+      <c r="T20" s="38">
+        <f>T5*10^9/T13</f>
         <v>116.6025168766247</v>
       </c>
-      <c r="U20" s="24">
-        <f t="shared" si="1"/>
+      <c r="U20" s="38">
+        <f>U5*10^9/U13</f>
         <v>116.06069499713355</v>
       </c>
-      <c r="V20" s="24">
-        <f t="shared" si="1"/>
+      <c r="V20" s="38">
+        <f>V5*10^9/V13</f>
         <v>115.4766641056208</v>
       </c>
-      <c r="W20" s="24">
-        <f t="shared" si="1"/>
+      <c r="W20" s="38">
+        <f>W5*10^9/W13</f>
         <v>114.88855408897982</v>
       </c>
-      <c r="X20" s="24">
-        <f t="shared" si="1"/>
+      <c r="X20" s="38">
+        <f>X5*10^9/X13</f>
         <v>114.31586714103983</v>
       </c>
-      <c r="Y20" s="24">
-        <f t="shared" si="1"/>
+      <c r="Y20" s="38">
+        <f>Y5*10^9/Y13</f>
         <v>113.67096694957306</v>
       </c>
-      <c r="Z20" s="24">
-        <f t="shared" si="1"/>
+      <c r="Z20" s="38">
+        <f>Z5*10^9/Z13</f>
         <v>112.99815667512243</v>
       </c>
-      <c r="AA20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA20" s="38">
+        <f>AA5*10^9/AA13</f>
         <v>112.3476508190205</v>
       </c>
-      <c r="AB20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AB20" s="38">
+        <f>AB5*10^9/AB13</f>
         <v>111.67611632799394</v>
       </c>
-      <c r="AC20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AC20" s="38">
+        <f>AC5*10^9/AC13</f>
         <v>110.96635631089546</v>
       </c>
-      <c r="AD20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AD20" s="38">
+        <f>AD5*10^9/AD13</f>
         <v>110.2723355016647</v>
       </c>
-      <c r="AE20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AE20" s="38">
+        <f>AE5*10^9/AE13</f>
         <v>109.57365669010379</v>
       </c>
-      <c r="AF20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AF20" s="38">
+        <f>AF5*10^9/AF13</f>
         <v>108.83909918322365</v>
       </c>
-      <c r="AG20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AG20" s="38">
+        <f>AG5*10^9/AG13</f>
         <v>108.09137939478823</v>
       </c>
-      <c r="AH20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AH20" s="38">
+        <f>AH5*10^9/AH13</f>
         <v>107.34658662111649</v>
       </c>
-      <c r="AI20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AI20" s="38">
+        <f>AI5*10^9/AI13</f>
         <v>106.63491511629451</v>
       </c>
-      <c r="AJ20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AJ20" s="38">
+        <f>AJ5*10^9/AJ13</f>
         <v>105.8996329559867</v>
       </c>
-      <c r="AK20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AK20" s="38">
+        <f>AK5*10^9/AK13</f>
         <v>105.14692223261802</v>
       </c>
-      <c r="AL20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AL20" s="38">
+        <f>AL5*10^9/AL13</f>
         <v>104.39625464600897</v>
       </c>
-      <c r="AM20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AM20" s="38">
+        <f>AM5*10^9/AM13</f>
         <v>103.61135715145208</v>
       </c>
-      <c r="AN20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AN20" s="38">
+        <f>AN5*10^9/AN13</f>
         <v>102.85141444926037</v>
       </c>
-      <c r="AO20" s="24">
-        <f t="shared" si="1"/>
+      <c r="AO20" s="38">
+        <f>AO5*10^9/AO13</f>
         <v>102.01163362350097</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="24">
-        <f t="shared" si="1"/>
+      <c r="D21" s="38">
+        <f>D6*10^9/D14</f>
         <v>48.019282683504834</v>
       </c>
-      <c r="E21" s="24">
-        <f t="shared" si="1"/>
+      <c r="E21" s="38">
+        <f>E6*10^9/E14</f>
         <v>45.66917255404406</v>
       </c>
-      <c r="F21" s="24">
-        <f t="shared" si="1"/>
+      <c r="F21" s="38">
+        <f>F6*10^9/F14</f>
         <v>44.831580410046406</v>
       </c>
-      <c r="G21" s="24">
-        <f t="shared" si="1"/>
+      <c r="G21" s="38">
+        <f>G6*10^9/G14</f>
         <v>44.387379236840886</v>
       </c>
-      <c r="H21" s="24">
-        <f t="shared" si="1"/>
+      <c r="H21" s="38">
+        <f>H6*10^9/H14</f>
         <v>43.66789971897574</v>
       </c>
-      <c r="I21" s="24">
-        <f t="shared" si="1"/>
+      <c r="I21" s="38">
+        <f>I6*10^9/I14</f>
         <v>43.098233866583584</v>
       </c>
-      <c r="J21" s="24">
-        <f t="shared" si="1"/>
+      <c r="J21" s="38">
+        <f>J6*10^9/J14</f>
         <v>42.612332818548438</v>
       </c>
-      <c r="K21" s="24">
-        <f t="shared" si="1"/>
+      <c r="K21" s="38">
+        <f>K6*10^9/K14</f>
         <v>41.111590792859701</v>
       </c>
-      <c r="L21" s="24">
-        <f t="shared" si="1"/>
+      <c r="L21" s="38">
+        <f>L6*10^9/L14</f>
         <v>41.104794767649409</v>
       </c>
-      <c r="M21" s="24">
-        <f t="shared" si="1"/>
+      <c r="M21" s="38">
+        <f>M6*10^9/M14</f>
         <v>41.095819305742609</v>
       </c>
-      <c r="N21" s="24">
-        <f t="shared" si="1"/>
+      <c r="N21" s="38">
+        <f>N6*10^9/N14</f>
         <v>41.085730481229007</v>
       </c>
-      <c r="O21" s="24">
-        <f t="shared" si="1"/>
+      <c r="O21" s="38">
+        <f>O6*10^9/O14</f>
         <v>41.068367220912343</v>
       </c>
-      <c r="P21" s="24">
-        <f t="shared" si="1"/>
+      <c r="P21" s="38">
+        <f>P6*10^9/P14</f>
         <v>41.048646073951581</v>
       </c>
-      <c r="Q21" s="24">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="38">
+        <f>Q6*10^9/Q14</f>
         <v>41.028830493429915</v>
       </c>
-      <c r="R21" s="24">
-        <f t="shared" si="1"/>
+      <c r="R21" s="38">
+        <f>R6*10^9/R14</f>
         <v>41.003567812143565</v>
       </c>
-      <c r="S21" s="24">
-        <f t="shared" si="1"/>
+      <c r="S21" s="38">
+        <f>S6*10^9/S14</f>
         <v>40.972416070440588</v>
       </c>
-      <c r="T21" s="24">
-        <f t="shared" si="1"/>
+      <c r="T21" s="38">
+        <f>T6*10^9/T14</f>
         <v>40.940370861973214</v>
       </c>
-      <c r="U21" s="24">
-        <f t="shared" si="1"/>
+      <c r="U21" s="38">
+        <f>U6*10^9/U14</f>
         <v>40.92242195217014</v>
       </c>
-      <c r="V21" s="24">
-        <f t="shared" si="1"/>
+      <c r="V21" s="38">
+        <f>V6*10^9/V14</f>
         <v>40.849772149327023</v>
       </c>
-      <c r="W21" s="24">
-        <f t="shared" si="1"/>
+      <c r="W21" s="38">
+        <f>W6*10^9/W14</f>
         <v>40.776691421473743</v>
       </c>
-      <c r="X21" s="24">
-        <f t="shared" si="1"/>
+      <c r="X21" s="38">
+        <f>X6*10^9/X14</f>
         <v>40.713028760852481</v>
       </c>
-      <c r="Y21" s="24">
-        <f t="shared" si="1"/>
+      <c r="Y21" s="38">
+        <f>Y6*10^9/Y14</f>
         <v>40.637780248303322</v>
       </c>
-      <c r="Z21" s="24">
-        <f t="shared" si="1"/>
+      <c r="Z21" s="38">
+        <f>Z6*10^9/Z14</f>
         <v>40.551486094855761</v>
       </c>
-      <c r="AA21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA21" s="38">
+        <f>AA6*10^9/AA14</f>
         <v>40.472092777574005</v>
       </c>
-      <c r="AB21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AB21" s="38">
+        <f>AB6*10^9/AB14</f>
         <v>40.394943346712537</v>
       </c>
-      <c r="AC21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AC21" s="38">
+        <f>AC6*10^9/AC14</f>
         <v>40.316049852954521</v>
       </c>
-      <c r="AD21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AD21" s="38">
+        <f>AD6*10^9/AD14</f>
         <v>40.246427470550792</v>
       </c>
-      <c r="AE21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AE21" s="38">
+        <f>AE6*10^9/AE14</f>
         <v>40.168420209476551</v>
       </c>
-      <c r="AF21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AF21" s="38">
+        <f>AF6*10^9/AF14</f>
         <v>40.099928995684245</v>
       </c>
-      <c r="AG21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AG21" s="38">
+        <f>AG6*10^9/AG14</f>
         <v>40.031429069482819</v>
       </c>
-      <c r="AH21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AH21" s="38">
+        <f>AH6*10^9/AH14</f>
         <v>39.948661848170033</v>
       </c>
-      <c r="AI21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AI21" s="38">
+        <f>AI6*10^9/AI14</f>
         <v>39.862854319875424</v>
       </c>
-      <c r="AJ21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AJ21" s="38">
+        <f>AJ6*10^9/AJ14</f>
         <v>39.772516679961122</v>
       </c>
-      <c r="AK21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AK21" s="38">
+        <f>AK6*10^9/AK14</f>
         <v>39.684595641129519</v>
       </c>
-      <c r="AL21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AL21" s="38">
+        <f>AL6*10^9/AL14</f>
         <v>39.588112153465424</v>
       </c>
-      <c r="AM21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AM21" s="38">
+        <f>AM6*10^9/AM14</f>
         <v>39.484796576634011</v>
       </c>
-      <c r="AN21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AN21" s="38">
+        <f>AN6*10^9/AN14</f>
         <v>39.38416997888789</v>
       </c>
-      <c r="AO21" s="24">
-        <f t="shared" si="1"/>
+      <c r="AO21" s="38">
+        <f>AO6*10^9/AO14</f>
         <v>39.263995728995916</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="24">
-        <f t="shared" si="1"/>
+      <c r="L22" s="38">
+        <f>L7*10^9/L15</f>
         <v>21.132185200770842</v>
       </c>
-      <c r="M22" s="24">
-        <f t="shared" si="1"/>
+      <c r="M22" s="38">
+        <f>M7*10^9/M15</f>
         <v>21.11580571982665</v>
       </c>
-      <c r="N22" s="24">
-        <f t="shared" si="1"/>
+      <c r="N22" s="38">
+        <f>N7*10^9/N15</f>
         <v>21.09986740674179</v>
       </c>
-      <c r="O22" s="24">
-        <f t="shared" si="1"/>
+      <c r="O22" s="38">
+        <f>O7*10^9/O15</f>
         <v>20.983788863601266</v>
       </c>
-      <c r="P22" s="24">
-        <f t="shared" si="1"/>
+      <c r="P22" s="38">
+        <f>P7*10^9/P15</f>
         <v>20.746367904838234</v>
       </c>
-      <c r="Q22" s="24">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="38">
+        <f>Q7*10^9/Q15</f>
         <v>20.533858395297859</v>
       </c>
-      <c r="R22" s="24">
-        <f t="shared" si="1"/>
+      <c r="R22" s="38">
+        <f>R7*10^9/R15</f>
         <v>20.234596684522796</v>
       </c>
-      <c r="S22" s="24">
-        <f t="shared" si="1"/>
+      <c r="S22" s="38">
+        <f>S7*10^9/S15</f>
         <v>20.007415498714504</v>
       </c>
-      <c r="T22" s="24">
-        <f t="shared" si="1"/>
+      <c r="T22" s="38">
+        <f>T7*10^9/T15</f>
         <v>19.891830524818015</v>
       </c>
-      <c r="U22" s="24">
-        <f t="shared" si="1"/>
+      <c r="U22" s="38">
+        <f>U7*10^9/U15</f>
         <v>19.793466650481388</v>
       </c>
-      <c r="V22" s="24">
-        <f t="shared" si="1"/>
+      <c r="V22" s="38">
+        <f>V7*10^9/V15</f>
         <v>19.616251579693511</v>
       </c>
-      <c r="W22" s="24">
-        <f t="shared" si="1"/>
+      <c r="W22" s="38">
+        <f>W7*10^9/W15</f>
         <v>19.461519014338212</v>
       </c>
-      <c r="X22" s="24">
-        <f t="shared" si="1"/>
+      <c r="X22" s="38">
+        <f>X7*10^9/X15</f>
         <v>19.33269462024634</v>
       </c>
-      <c r="Y22" s="24">
-        <f t="shared" si="1"/>
+      <c r="Y22" s="38">
+        <f>Y7*10^9/Y15</f>
         <v>19.222681646328997</v>
       </c>
-      <c r="Z22" s="24">
-        <f t="shared" si="1"/>
+      <c r="Z22" s="38">
+        <f>Z7*10^9/Z15</f>
         <v>18.99436383588683</v>
       </c>
-      <c r="AA22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA22" s="38">
+        <f>AA7*10^9/AA15</f>
         <v>18.80366747856878</v>
       </c>
-      <c r="AB22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AB22" s="38">
+        <f>AB7*10^9/AB15</f>
         <v>18.634281567260746</v>
       </c>
-      <c r="AC22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AC22" s="38">
+        <f>AC7*10^9/AC15</f>
         <v>18.487060579542906</v>
       </c>
-      <c r="AD22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AD22" s="38">
+        <f>AD7*10^9/AD15</f>
         <v>18.354054418307935</v>
       </c>
-      <c r="AE22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AE22" s="38">
+        <f>AE7*10^9/AE15</f>
         <v>18.232629521593246</v>
       </c>
-      <c r="AF22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AF22" s="38">
+        <f>AF7*10^9/AF15</f>
         <v>18.142460108477785</v>
       </c>
-      <c r="AG22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AG22" s="38">
+        <f>AG7*10^9/AG15</f>
         <v>18.061290306755375</v>
       </c>
-      <c r="AH22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AH22" s="38">
+        <f>AH7*10^9/AH15</f>
         <v>17.985840083237054</v>
       </c>
-      <c r="AI22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AI22" s="38">
+        <f>AI7*10^9/AI15</f>
         <v>17.915359968176571</v>
       </c>
-      <c r="AJ22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AJ22" s="38">
+        <f>AJ7*10^9/AJ15</f>
         <v>17.849964160287044</v>
       </c>
-      <c r="AK22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AK22" s="38">
+        <f>AK7*10^9/AK15</f>
         <v>17.804676535392503</v>
       </c>
-      <c r="AL22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AL22" s="38">
+        <f>AL7*10^9/AL15</f>
         <v>17.761488071327364</v>
       </c>
-      <c r="AM22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AM22" s="38">
+        <f>AM7*10^9/AM15</f>
         <v>17.719106328698579</v>
       </c>
-      <c r="AN22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AN22" s="38">
+        <f>AN7*10^9/AN15</f>
         <v>17.679862537020341</v>
       </c>
-      <c r="AO22" s="24">
-        <f t="shared" si="1"/>
+      <c r="AO22" s="38">
+        <f>AO7*10^9/AO15</f>
         <v>17.637751673136787</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A24" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="29">
-        <f>(U21-U18)/U18</f>
-        <v>-0.74057464160058584</v>
-      </c>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="29">
-        <f>(Z21-Z18)/Z18</f>
-        <v>-0.72793852335316056</v>
-      </c>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
+      <c r="A25" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="38">
+        <f>SUM(C3:C7)</f>
+        <v>2003.5386284160406</v>
+      </c>
+      <c r="D25" s="38">
+        <f>SUM(D3:D7)</f>
+        <v>2001.0058237928981</v>
+      </c>
+      <c r="E25" s="38">
+        <f>SUM(E3:E7)</f>
+        <v>1997.0401941336411</v>
+      </c>
+      <c r="F25" s="38">
+        <f>SUM(F3:F7)</f>
+        <v>1984.8481425125458</v>
+      </c>
+      <c r="G25" s="38">
+        <f>SUM(G3:G7)</f>
+        <v>1971.7996728898729</v>
+      </c>
+      <c r="H25" s="38">
+        <f>SUM(H3:H7)</f>
+        <v>1958.9702795940464</v>
+      </c>
+      <c r="I25" s="38">
+        <f>SUM(I3:I7)</f>
+        <v>1945.4194832682206</v>
+      </c>
+      <c r="J25" s="38">
+        <f>SUM(J3:J7)</f>
+        <v>1931.8224406252559</v>
+      </c>
+      <c r="K25" s="38">
+        <f>SUM(K3:K7)</f>
+        <v>1915.5607815397618</v>
+      </c>
+      <c r="L25" s="38">
+        <f>SUM(L3:L7)</f>
+        <v>1898.6298329346967</v>
+      </c>
+      <c r="M25" s="38">
+        <f>SUM(M3:M7)</f>
+        <v>1880.7568344836582</v>
+      </c>
+      <c r="N25" s="38">
+        <f>SUM(N3:N7)</f>
+        <v>1862.8058209575022</v>
+      </c>
+      <c r="O25" s="38">
+        <f>SUM(O3:O7)</f>
+        <v>1844.4656353022613</v>
+      </c>
+      <c r="P25" s="38">
+        <f>SUM(P3:P7)</f>
+        <v>1827.0257103246238</v>
+      </c>
+      <c r="Q25" s="38">
+        <f>SUM(Q3:Q7)</f>
+        <v>1809.6659719315442</v>
+      </c>
+      <c r="R25" s="38">
+        <f>SUM(R3:R7)</f>
+        <v>1792.7396341199731</v>
+      </c>
+      <c r="S25" s="38">
+        <f>SUM(S3:S7)</f>
+        <v>1775.6730802206835</v>
+      </c>
+      <c r="T25" s="38">
+        <f>SUM(T3:T7)</f>
+        <v>1758.6259071189504</v>
+      </c>
+      <c r="U25" s="38">
+        <f>SUM(U3:U7)</f>
+        <v>1741.8136128816234</v>
+      </c>
+      <c r="V25" s="38">
+        <f>SUM(V3:V7)</f>
+        <v>1723.9674495950355</v>
+      </c>
+      <c r="W25" s="38">
+        <f>SUM(W3:W7)</f>
+        <v>1706.2234961036831</v>
+      </c>
+      <c r="X25" s="38">
+        <f>SUM(X3:X7)</f>
+        <v>1688.4641900177251</v>
+      </c>
+      <c r="Y25" s="38">
+        <f>SUM(Y3:Y7)</f>
+        <v>1670.8483508399486</v>
+      </c>
+      <c r="Z25" s="38">
+        <f>SUM(Z3:Z7)</f>
+        <v>1652.6405833520955</v>
+      </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="32">
-        <f>(U20-U19)/U19</f>
-        <v>-0.32742324978842557</v>
-      </c>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="32">
-        <f>(Z20-Z19)/Z19</f>
-        <v>-0.31492114692229495</v>
-      </c>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
+      <c r="A26" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="39">
+        <f>SUM(C11:C15)</f>
+        <v>11496360296.403278</v>
+      </c>
+      <c r="D26" s="39">
+        <f>SUM(D11:D15)</f>
+        <v>11758995730.091234</v>
+      </c>
+      <c r="E26" s="39">
+        <f>SUM(E11:E15)</f>
+        <v>12031109212.268364</v>
+      </c>
+      <c r="F26" s="39">
+        <f>SUM(F11:F15)</f>
+        <v>12129405323.184469</v>
+      </c>
+      <c r="G26" s="39">
+        <f>SUM(G11:G15)</f>
+        <v>12204309781.889465</v>
+      </c>
+      <c r="H26" s="39">
+        <f>SUM(H11:H15)</f>
+        <v>12289695604.514603</v>
+      </c>
+      <c r="I26" s="39">
+        <f>SUM(I11:I15)</f>
+        <v>12359478056.917677</v>
+      </c>
+      <c r="J26" s="39">
+        <f>SUM(J11:J15)</f>
+        <v>12432676053.307966</v>
+      </c>
+      <c r="K26" s="39">
+        <f>SUM(K11:K15)</f>
+        <v>12499066004.85766</v>
+      </c>
+      <c r="L26" s="39">
+        <f>SUM(L11:L15)</f>
+        <v>12562811979.95454</v>
+      </c>
+      <c r="M26" s="39">
+        <f>SUM(M11:M15)</f>
+        <v>12622825380.432781</v>
+      </c>
+      <c r="N26" s="39">
+        <f>SUM(N11:N15)</f>
+        <v>12680406374.499115</v>
+      </c>
+      <c r="O26" s="39">
+        <f>SUM(O11:O15)</f>
+        <v>12737639582.822308</v>
+      </c>
+      <c r="P26" s="39">
+        <f>SUM(P11:P15)</f>
+        <v>12796758264.956787</v>
+      </c>
+      <c r="Q26" s="39">
+        <f>SUM(Q11:Q15)</f>
+        <v>12855296816.127409</v>
+      </c>
+      <c r="R26" s="39">
+        <f>SUM(R11:R15)</f>
+        <v>12911461682.558599</v>
+      </c>
+      <c r="S26" s="39">
+        <f>SUM(S11:S15)</f>
+        <v>12967901134.511738</v>
+      </c>
+      <c r="T26" s="39">
+        <f>SUM(T11:T15)</f>
+        <v>13014527183.775858</v>
+      </c>
+      <c r="U26" s="39">
+        <f>SUM(U11:U15)</f>
+        <v>13061001917.36734</v>
+      </c>
+      <c r="V26" s="39">
+        <f>SUM(V11:V15)</f>
+        <v>13107340721.774847</v>
+      </c>
+      <c r="W26" s="39">
+        <f>SUM(W11:W15)</f>
+        <v>13153646168.354994</v>
+      </c>
+      <c r="X26" s="39">
+        <f>SUM(X11:X15)</f>
+        <v>13200476550.209455</v>
+      </c>
+      <c r="Y26" s="39">
+        <f>SUM(Y11:Y15)</f>
+        <v>13247456915.231834</v>
+      </c>
+      <c r="Z26" s="39">
+        <f>SUM(Z11:Z15)</f>
+        <v>13294324789.874775</v>
+      </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
+      <c r="A27" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="39">
+        <f>SUMPRODUCT(C18:C22,C11:C15)/SUM(C11:C15)</f>
+        <v>174.2759079186882</v>
+      </c>
+      <c r="D27" s="39">
+        <f>SUMPRODUCT(D18:D22,D11:D15)/SUM(D11:D15)</f>
+        <v>170.16808830641298</v>
+      </c>
+      <c r="E27" s="39">
+        <f>SUMPRODUCT(E18:E22,E11:E15)/SUM(E11:E15)</f>
+        <v>165.9896987799944</v>
+      </c>
+      <c r="F27" s="39">
+        <f>SUMPRODUCT(F18:F22,F11:F15)/SUM(F11:F15)</f>
+        <v>163.63936150428202</v>
+      </c>
+      <c r="G27" s="39">
+        <f>SUMPRODUCT(G18:G22,G11:G15)/SUM(G11:G15)</f>
+        <v>161.56584912453772</v>
+      </c>
+      <c r="H27" s="39">
+        <f>SUMPRODUCT(H18:H22,H11:H15)/SUM(H11:H15)</f>
+        <v>159.39941416241601</v>
+      </c>
+      <c r="I27" s="39">
+        <f>SUMPRODUCT(I18:I22,I11:I15)/SUM(I11:I15)</f>
+        <v>157.40304520216833</v>
+      </c>
+      <c r="J27" s="39">
+        <f>SUMPRODUCT(J18:J22,J11:J15)/SUM(J11:J15)</f>
+        <v>155.38267323479846</v>
+      </c>
+      <c r="K27" s="42">
+        <f>SUMPRODUCT(K18:K22,K11:K15)/SUM(K11:K15)</f>
+        <v>153.25631377538886</v>
+      </c>
+      <c r="L27" s="42">
+        <f>SUMPRODUCT(L18:L22,L11:L15)/SUM(L11:L15)</f>
+        <v>151.13095984913141</v>
+      </c>
+      <c r="M27" s="42">
+        <f>SUMPRODUCT(M18:M22,M11:M15)/SUM(M11:M15)</f>
+        <v>148.99650258959497</v>
+      </c>
+      <c r="N27" s="42">
+        <f>SUMPRODUCT(N18:N22,N11:N15)/SUM(N11:N15)</f>
+        <v>146.90426836033356</v>
+      </c>
+      <c r="O27" s="42">
+        <f>SUMPRODUCT(O18:O22,O11:O15)/SUM(O11:O15)</f>
+        <v>144.80435117583838</v>
+      </c>
+      <c r="P27" s="42">
+        <f>SUMPRODUCT(P18:P22,P11:P15)/SUM(P11:P15)</f>
+        <v>142.77254227172767</v>
+      </c>
+      <c r="Q27" s="42">
+        <f>SUMPRODUCT(Q18:Q22,Q11:Q15)/SUM(Q11:Q15)</f>
+        <v>140.77200999834218</v>
+      </c>
+      <c r="R27" s="42">
+        <f>SUMPRODUCT(R18:R22,R11:R15)/SUM(R11:R15)</f>
+        <v>138.84869724251973</v>
+      </c>
+      <c r="S27" s="42">
+        <f>SUMPRODUCT(S18:S22,S11:S15)/SUM(S11:S15)</f>
+        <v>136.92833264243885</v>
+      </c>
+      <c r="T27" s="42">
+        <f>SUMPRODUCT(T18:T22,T11:T15)/SUM(T11:T15)</f>
+        <v>135.12791377556033</v>
+      </c>
+      <c r="U27" s="42">
+        <f>SUMPRODUCT(U18:U22,U11:U15)/SUM(U11:U15)</f>
+        <v>133.35987728211856</v>
+      </c>
+      <c r="V27" s="42">
+        <f>SUMPRODUCT(V18:V22,V11:V15)/SUM(V11:V15)</f>
+        <v>131.52686621864174</v>
+      </c>
+      <c r="W27" s="42">
+        <f>SUMPRODUCT(W18:W22,W11:W15)/SUM(W11:W15)</f>
+        <v>129.71486949440001</v>
+      </c>
+      <c r="X27" s="42">
+        <f>SUMPRODUCT(X18:X22,X11:X15)/SUM(X11:X15)</f>
+        <v>127.90933596946041</v>
+      </c>
+      <c r="Y27" s="42">
+        <f>SUMPRODUCT(Y18:Y22,Y11:Y15)/SUM(Y11:Y15)</f>
+        <v>126.12596980170729</v>
+      </c>
+      <c r="Z27" s="42">
+        <f>SUMPRODUCT(Z18:Z22,Z11:Z15)/SUM(Z11:Z15)</f>
+        <v>124.31173523086932</v>
+      </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
+      <c r="A28" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="U28" s="41">
+        <f>(U27-K27)/K27</f>
+        <v>-0.12982457951083404</v>
+      </c>
+      <c r="Z28" s="41">
+        <f>(Z27-K27)/K27</f>
+        <v>-0.1888638570998156</v>
+      </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
+      <c r="U29" s="41"/>
+      <c r="Z29" s="41"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U30" s="30">
-        <f>(U25*U11+U26*U12)/SUM(U11:U12)</f>
-        <v>-0.51805339519268512</v>
-      </c>
-      <c r="Z30" s="30">
-        <f>(Z25*Z11+Z26*Z12)/SUM(Z11:Z12)</f>
-        <v>-0.50521309478047327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="25">
-        <f>C$12/30</f>
-        <v>150159120.38678154</v>
-      </c>
-      <c r="D32" s="25">
-        <f t="shared" ref="D32:AO32" si="2">D$12/30</f>
-        <v>149799439.72993097</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="2"/>
-        <v>149440659.58592999</v>
-      </c>
-      <c r="F32" s="25">
-        <f t="shared" si="2"/>
-        <v>149084218.96662456</v>
-      </c>
-      <c r="G32" s="25">
-        <f t="shared" si="2"/>
-        <v>148728292.95583481</v>
-      </c>
-      <c r="H32" s="25">
-        <f t="shared" si="2"/>
-        <v>148373257.33884785</v>
-      </c>
-      <c r="I32" s="25">
-        <f t="shared" si="2"/>
-        <v>148019109.79619929</v>
-      </c>
-      <c r="J32" s="25">
-        <f t="shared" si="2"/>
-        <v>147665848.01466605</v>
-      </c>
-      <c r="K32" s="25">
-        <f t="shared" si="2"/>
-        <v>147313469.6872488</v>
-      </c>
-      <c r="L32" s="25">
-        <f t="shared" si="2"/>
-        <v>146961825.66408634</v>
-      </c>
-      <c r="M32" s="25">
-        <f t="shared" si="2"/>
-        <v>146611061.19454429</v>
-      </c>
-      <c r="N32" s="25">
-        <f t="shared" si="2"/>
-        <v>146261039.48245677</v>
-      </c>
-      <c r="O32" s="25">
-        <f t="shared" si="2"/>
-        <v>145911893.24814913</v>
-      </c>
-      <c r="P32" s="25">
-        <f t="shared" si="2"/>
-        <v>145563927.33592257</v>
-      </c>
-      <c r="Q32" s="25">
-        <f t="shared" si="2"/>
-        <v>145216831.18001148</v>
-      </c>
-      <c r="R32" s="25">
-        <f t="shared" si="2"/>
-        <v>144870530.84522906</v>
-      </c>
-      <c r="S32" s="25">
-        <f t="shared" si="2"/>
-        <v>144525096.16961327</v>
-      </c>
-      <c r="T32" s="25">
-        <f t="shared" si="2"/>
-        <v>144178866.40098268</v>
-      </c>
-      <c r="U32" s="25">
-        <f t="shared" si="2"/>
-        <v>143833479.61071888</v>
-      </c>
-      <c r="V32" s="25">
-        <f t="shared" si="2"/>
-        <v>143489461.51052418</v>
-      </c>
-      <c r="W32" s="25">
-        <f t="shared" si="2"/>
-        <v>143146305.19267046</v>
-      </c>
-      <c r="X32" s="25">
-        <f t="shared" si="2"/>
-        <v>142804715.40755919</v>
-      </c>
-      <c r="Y32" s="25">
-        <f t="shared" si="2"/>
-        <v>142464111.99589857</v>
-      </c>
-      <c r="Z32" s="25">
-        <f t="shared" si="2"/>
-        <v>142124228.92733249</v>
-      </c>
-      <c r="AA32" s="25">
-        <f t="shared" si="2"/>
-        <v>141785196.00466165</v>
-      </c>
-      <c r="AB32" s="25">
-        <f t="shared" si="2"/>
-        <v>141447011.01212737</v>
-      </c>
-      <c r="AC32" s="25">
-        <f t="shared" si="2"/>
-        <v>141109671.73994008</v>
-      </c>
-      <c r="AD32" s="25">
-        <f t="shared" si="2"/>
-        <v>140773175.98426235</v>
-      </c>
-      <c r="AE32" s="25">
-        <f t="shared" si="2"/>
-        <v>140437521.54719296</v>
-      </c>
-      <c r="AF32" s="25">
-        <f t="shared" si="2"/>
-        <v>140102411.07962793</v>
-      </c>
-      <c r="AG32" s="25">
-        <f t="shared" si="2"/>
-        <v>139768138.8976877</v>
-      </c>
-      <c r="AH32" s="25">
-        <f t="shared" si="2"/>
-        <v>139434702.81635043</v>
-      </c>
-      <c r="AI32" s="25">
-        <f t="shared" si="2"/>
-        <v>139102100.65648142</v>
-      </c>
-      <c r="AJ32" s="25">
-        <f t="shared" si="2"/>
-        <v>138770330.24481621</v>
-      </c>
-      <c r="AK32" s="25">
-        <f t="shared" si="2"/>
-        <v>138439094.02904436</v>
-      </c>
-      <c r="AL32" s="25">
-        <f t="shared" si="2"/>
-        <v>138108686.35526484</v>
-      </c>
-      <c r="AM32" s="25">
-        <f t="shared" si="2"/>
-        <v>137779105.06452665</v>
-      </c>
-      <c r="AN32" s="25">
-        <f t="shared" si="2"/>
-        <v>137450348.00369272</v>
-      </c>
-      <c r="AO32" s="25">
-        <f t="shared" si="2"/>
-        <v>137122413.025424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="25">
-        <f>C$13/18</f>
-        <v>171929961.27158955</v>
-      </c>
-      <c r="D33" s="25">
-        <f t="shared" ref="D33:AO33" si="3">D$13/18</f>
-        <v>171887266.02530292</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="3"/>
-        <v>171844581.8465783</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" si="3"/>
-        <v>171802104.19523346</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" si="3"/>
-        <v>171759603.06304681</v>
-      </c>
-      <c r="H33" s="25">
-        <f t="shared" si="3"/>
-        <v>171717112.93019107</v>
-      </c>
-      <c r="I33" s="25">
-        <f t="shared" si="3"/>
-        <v>171674633.7936939</v>
-      </c>
-      <c r="J33" s="25">
-        <f t="shared" si="3"/>
-        <v>171632165.6505844</v>
-      </c>
-      <c r="K33" s="25">
-        <f t="shared" si="3"/>
-        <v>171188081.27889502</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="3"/>
-        <v>170744907.06948408</v>
-      </c>
-      <c r="M33" s="25">
-        <f t="shared" si="3"/>
-        <v>170302937.93055594</v>
-      </c>
-      <c r="N33" s="25">
-        <f t="shared" si="3"/>
-        <v>169862084.53677744</v>
-      </c>
-      <c r="O33" s="25">
-        <f t="shared" si="3"/>
-        <v>169422429.72021124</v>
-      </c>
-      <c r="P33" s="25">
-        <f t="shared" si="3"/>
-        <v>168984835.06959191</v>
-      </c>
-      <c r="Q33" s="25">
-        <f t="shared" si="3"/>
-        <v>168548428.44519648</v>
-      </c>
-      <c r="R33" s="25">
-        <f t="shared" si="3"/>
-        <v>168113128.16234818</v>
-      </c>
-      <c r="S33" s="25">
-        <f t="shared" si="3"/>
-        <v>167679009.68217742</v>
-      </c>
-      <c r="T33" s="25">
-        <f t="shared" si="3"/>
-        <v>167242650.99773678</v>
-      </c>
-      <c r="U33" s="25">
-        <f t="shared" si="3"/>
-        <v>166807440.62537983</v>
-      </c>
-      <c r="V33" s="25">
-        <f t="shared" si="3"/>
-        <v>166374158.94340187</v>
-      </c>
-      <c r="W33" s="25">
-        <f t="shared" si="3"/>
-        <v>165942058.36619017</v>
-      </c>
-      <c r="X33" s="25">
-        <f t="shared" si="3"/>
-        <v>165513155.51357076</v>
-      </c>
-      <c r="Y33" s="25">
-        <f t="shared" si="3"/>
-        <v>165085502.22495711</v>
-      </c>
-      <c r="Z33" s="25">
-        <f t="shared" si="3"/>
-        <v>164658927.16467637</v>
-      </c>
-      <c r="AA33" s="25">
-        <f t="shared" si="3"/>
-        <v>164233511.11551309</v>
-      </c>
-      <c r="AB33" s="25">
-        <f t="shared" si="3"/>
-        <v>163809250.77445802</v>
-      </c>
-      <c r="AC33" s="25">
-        <f t="shared" si="3"/>
-        <v>163386142.84831187</v>
-      </c>
-      <c r="AD33" s="25">
-        <f t="shared" si="3"/>
-        <v>162964184.05365631</v>
-      </c>
-      <c r="AE33" s="25">
-        <f t="shared" si="3"/>
-        <v>162543371.11682302</v>
-      </c>
-      <c r="AF33" s="25">
-        <f t="shared" si="3"/>
-        <v>162123426.06673041</v>
-      </c>
-      <c r="AG33" s="25">
-        <f t="shared" si="3"/>
-        <v>161704621.7443403</v>
-      </c>
-      <c r="AH33" s="25">
-        <f t="shared" si="3"/>
-        <v>161286954.89953569</v>
-      </c>
-      <c r="AI33" s="25">
-        <f t="shared" si="3"/>
-        <v>160870422.29185164</v>
-      </c>
-      <c r="AJ33" s="25">
-        <f t="shared" si="3"/>
-        <v>160455020.6904453</v>
-      </c>
-      <c r="AK33" s="25">
-        <f t="shared" si="3"/>
-        <v>160039919.32198834</v>
-      </c>
-      <c r="AL33" s="25">
-        <f t="shared" si="3"/>
-        <v>159625946.09867883</v>
-      </c>
-      <c r="AM33" s="25">
-        <f t="shared" si="3"/>
-        <v>159213097.80679911</v>
-      </c>
-      <c r="AN33" s="25">
-        <f t="shared" si="3"/>
-        <v>158801371.2421695</v>
-      </c>
-      <c r="AO33" s="25">
-        <f t="shared" si="3"/>
-        <v>158390763.21011871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="25">
-        <f>C$14/12</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" ref="D34:AO34" si="4">D$14/12</f>
-        <v>23801757.293132279</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="4"/>
-        <v>48388174.874664895</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="4"/>
-        <v>58478537.953547366</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="4"/>
-        <v>66616248.556226142</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="4"/>
-        <v>75622285.653329834</v>
-      </c>
-      <c r="I34" s="25">
-        <f t="shared" si="4"/>
-        <v>83322936.30674535</v>
-      </c>
-      <c r="J34" s="25">
-        <f t="shared" si="4"/>
-        <v>91303124.895806015</v>
-      </c>
-      <c r="K34" s="25">
-        <f t="shared" si="4"/>
-        <v>99313341.330216184</v>
-      </c>
-      <c r="L34" s="25">
-        <f t="shared" si="4"/>
-        <v>99285641.511719391</v>
-      </c>
-      <c r="M34" s="25">
-        <f t="shared" si="4"/>
-        <v>99257949.670448974</v>
-      </c>
-      <c r="N34" s="25">
-        <f t="shared" si="4"/>
-        <v>99230259.275360778</v>
-      </c>
-      <c r="O34" s="25">
-        <f t="shared" si="4"/>
-        <v>99202576.855450198</v>
-      </c>
-      <c r="P34" s="25">
-        <f t="shared" si="4"/>
-        <v>99174934.054702953</v>
-      </c>
-      <c r="Q34" s="25">
-        <f t="shared" si="4"/>
-        <v>99147299.211238503</v>
-      </c>
-      <c r="R34" s="25">
-        <f t="shared" si="4"/>
-        <v>99119640.035393938</v>
-      </c>
-      <c r="S34" s="25">
-        <f t="shared" si="4"/>
-        <v>99091988.83280839</v>
-      </c>
-      <c r="T34" s="25">
-        <f t="shared" si="4"/>
-        <v>99064214.876900241</v>
-      </c>
-      <c r="U34" s="25">
-        <f t="shared" si="4"/>
-        <v>99036446.304872572</v>
-      </c>
-      <c r="V34" s="25">
-        <f t="shared" si="4"/>
-        <v>99008741.965228319</v>
-      </c>
-      <c r="W34" s="25">
-        <f t="shared" si="4"/>
-        <v>98981045.62969707</v>
-      </c>
-      <c r="X34" s="25">
-        <f t="shared" si="4"/>
-        <v>98953389.671778962</v>
-      </c>
-      <c r="Y34" s="25">
-        <f t="shared" si="4"/>
-        <v>98662754.645199314</v>
-      </c>
-      <c r="Z34" s="25">
-        <f t="shared" si="4"/>
-        <v>98372936.930343673</v>
-      </c>
-      <c r="AA34" s="25">
-        <f t="shared" si="4"/>
-        <v>98084001.374737605</v>
-      </c>
-      <c r="AB34" s="25">
-        <f t="shared" si="4"/>
-        <v>97795945.219542578</v>
-      </c>
-      <c r="AC34" s="25">
-        <f t="shared" si="4"/>
-        <v>97508765.714718118</v>
-      </c>
-      <c r="AD34" s="25">
-        <f t="shared" si="4"/>
-        <v>97222460.118993521</v>
-      </c>
-      <c r="AE34" s="25">
-        <f t="shared" si="4"/>
-        <v>96937025.699839398</v>
-      </c>
-      <c r="AF34" s="25">
-        <f t="shared" si="4"/>
-        <v>96652344.379101515</v>
-      </c>
-      <c r="AG34" s="25">
-        <f t="shared" si="4"/>
-        <v>96368529.475119129</v>
-      </c>
-      <c r="AH34" s="25">
-        <f t="shared" si="4"/>
-        <v>96085578.278299585</v>
-      </c>
-      <c r="AI34" s="25">
-        <f t="shared" si="4"/>
-        <v>95803488.08769238</v>
-      </c>
-      <c r="AJ34" s="25">
-        <f t="shared" si="4"/>
-        <v>95522256.210960567</v>
-      </c>
-      <c r="AK34" s="25">
-        <f t="shared" si="4"/>
-        <v>95241560.944665924</v>
-      </c>
-      <c r="AL34" s="25">
-        <f t="shared" si="4"/>
-        <v>94961720.010229006</v>
-      </c>
-      <c r="AM34" s="25">
-        <f t="shared" si="4"/>
-        <v>94682730.736530557</v>
-      </c>
-      <c r="AN34" s="25">
-        <f t="shared" si="4"/>
-        <v>94404590.460967407</v>
-      </c>
-      <c r="AO34" s="25">
-        <f t="shared" si="4"/>
-        <v>94127296.529424831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="25">
-        <f>C$15/30</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" ref="D35:AO35" si="5">D$15/30</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="5"/>
-        <v>3124769.9629255245</v>
-      </c>
-      <c r="M35" s="25">
-        <f t="shared" si="5"/>
-        <v>6122380.9273106223</v>
-      </c>
-      <c r="N35" s="25">
-        <f t="shared" si="5"/>
-        <v>9036548.1294496041</v>
-      </c>
-      <c r="O35" s="25">
-        <f t="shared" si="5"/>
-        <v>11936396.975238472</v>
-      </c>
-      <c r="P35" s="25">
-        <f t="shared" si="5"/>
-        <v>14895161.507436713</v>
-      </c>
-      <c r="Q35" s="25">
-        <f t="shared" si="5"/>
-        <v>17831883.716858152</v>
-      </c>
-      <c r="R35" s="25">
-        <f t="shared" si="5"/>
-        <v>20687007.225243032</v>
-      </c>
-      <c r="S35" s="25">
-        <f t="shared" si="5"/>
-        <v>23548593.220323198</v>
-      </c>
-      <c r="T35" s="25">
-        <f t="shared" si="5"/>
-        <v>26085394.712145489</v>
-      </c>
-      <c r="U35" s="25">
-        <f t="shared" si="5"/>
-        <v>28614526.468430173</v>
-      </c>
-      <c r="V35" s="25">
-        <f t="shared" si="5"/>
-        <v>31135078.391459964</v>
-      </c>
-      <c r="W35" s="25">
-        <f t="shared" si="5"/>
-        <v>33651841.588811912</v>
-      </c>
-      <c r="X35" s="25">
-        <f t="shared" si="5"/>
-        <v>36181033.964593172</v>
-      </c>
-      <c r="Y35" s="25">
-        <f t="shared" si="5"/>
-        <v>38817411.827531822</v>
-      </c>
-      <c r="Z35" s="25">
-        <f t="shared" si="5"/>
-        <v>41447431.004600964</v>
-      </c>
-      <c r="AA35" s="25">
-        <f t="shared" si="5"/>
-        <v>44044653.628144532</v>
-      </c>
-      <c r="AB35" s="25">
-        <f t="shared" si="5"/>
-        <v>46640653.964634992</v>
-      </c>
-      <c r="AC35" s="25">
-        <f t="shared" si="5"/>
-        <v>49227630.219085619</v>
-      </c>
-      <c r="AD35" s="25">
-        <f t="shared" si="5"/>
-        <v>51808906.761224188</v>
-      </c>
-      <c r="AE35" s="25">
-        <f t="shared" si="5"/>
-        <v>54387919.683629297</v>
-      </c>
-      <c r="AF35" s="25">
-        <f t="shared" si="5"/>
-        <v>56779741.281783126</v>
-      </c>
-      <c r="AG35" s="25">
-        <f t="shared" si="5"/>
-        <v>59169264.920817643</v>
-      </c>
-      <c r="AH35" s="25">
-        <f t="shared" si="5"/>
-        <v>61549001.648910403</v>
-      </c>
-      <c r="AI35" s="25">
-        <f t="shared" si="5"/>
-        <v>63926326.419408806</v>
-      </c>
-      <c r="AJ35" s="25">
-        <f t="shared" si="5"/>
-        <v>66293871.468493409</v>
-      </c>
-      <c r="AK35" s="25">
-        <f t="shared" si="5"/>
-        <v>68471001.477233112</v>
-      </c>
-      <c r="AL35" s="25">
-        <f t="shared" si="5"/>
-        <v>70642403.850746736</v>
-      </c>
-      <c r="AM35" s="25">
-        <f t="shared" si="5"/>
-        <v>72808744.373845503</v>
-      </c>
-      <c r="AN35" s="25">
-        <f t="shared" si="5"/>
-        <v>74970903.015605494</v>
-      </c>
-      <c r="AO35" s="25">
-        <f t="shared" si="5"/>
-        <v>77129666.867700741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U38" s="31">
-        <f>SUM(U11)/SUM(U11:U14)</f>
-        <v>0.30293549821580473</v>
-      </c>
-      <c r="Z38" s="31">
-        <f>SUM(Z11)/SUM(Z11:Z14)</f>
-        <v>0.30228767126214501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" t="s">
-        <v>68</v>
-      </c>
-      <c r="M41" t="s">
-        <v>69</v>
-      </c>
-      <c r="N41" t="s">
-        <v>70</v>
-      </c>
-      <c r="O41" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>73</v>
-      </c>
-      <c r="R41" t="s">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s">
-        <v>75</v>
-      </c>
-      <c r="T41" t="s">
-        <v>76</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42">
-        <f>C$12/30</f>
-        <v>150159120.38678154</v>
-      </c>
-      <c r="U42" s="17">
-        <f>U21*U12/10^9</f>
-        <v>176.58043030436096</v>
-      </c>
-      <c r="Z42" s="17">
-        <f>Z21*Z12/10^9</f>
-        <v>172.9004607926646</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="U43" s="17">
-        <f>U5</f>
-        <v>348.47617481414409</v>
-      </c>
-      <c r="Z43" s="17">
-        <f>Z5</f>
-        <v>334.91079449481015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="U44" s="17">
-        <f>U6</f>
-        <v>48.633734931977244</v>
-      </c>
-      <c r="Z44" s="17">
-        <f>Z6</f>
-        <v>47.87002540849145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="U45" s="17">
-        <f>U7</f>
-        <v>16.99142026116569</v>
-      </c>
-      <c r="Z45" s="17">
-        <f>Z7</f>
-        <v>23.618027536926213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="U46" s="17">
-        <f>U21*U11/10^9</f>
-        <v>151.27343410059154</v>
-      </c>
-      <c r="Z46" s="17">
-        <f>Z21*Z11/10^9</f>
-        <v>147.7225374788097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="U47" s="17">
-        <f>SUM(U42:U46)</f>
-        <v>741.95519441223951</v>
-      </c>
-      <c r="Z47" s="17">
-        <f>SUM(Z42:Z46)</f>
-        <v>727.0218457117021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="T49" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="U49" s="18">
-        <f>U8-U47</f>
-        <v>999.85841846938388</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="A30" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="U31" s="38">
+        <f>(U19-U20)</f>
+        <v>56.500570257164938</v>
+      </c>
+      <c r="Z31" s="38">
+        <f>(Z19-Z20)</f>
+        <v>51.943668878943555</v>
+      </c>
+      <c r="AA31" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="U32" s="49">
+        <f>U31/U19</f>
+        <v>0.32742324978842557</v>
+      </c>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47">
+        <f>Z31/Z19</f>
+        <v>0.31492114692229495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="39">
+        <v>1090000000</v>
+      </c>
+      <c r="Z33" s="39">
+        <v>1090000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="U34" s="45">
+        <f>U33/SUM(U11:U14)</f>
+        <v>8.9325473755673998E-2</v>
+      </c>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="45">
+        <f>Z33/SUM(Z11:Z14)</f>
+        <v>9.0449661999306263E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="Y49" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z49" s="18">
-        <f>Z8-Z47</f>
-        <v>925.61873764039342</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="T50" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="U50" s="19">
-        <f>U49/U8</f>
-        <v>0.5740329568415975</v>
-      </c>
-      <c r="Y50" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z50" s="19">
-        <f>Z49/Z8</f>
-        <v>0.5600847195479951</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" t="s">
-        <v>68</v>
-      </c>
-      <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55" t="s">
-        <v>70</v>
-      </c>
-      <c r="O55" t="s">
-        <v>71</v>
-      </c>
-      <c r="P55" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>73</v>
-      </c>
-      <c r="R55" t="s">
-        <v>74</v>
-      </c>
-      <c r="S55" t="s">
-        <v>75</v>
-      </c>
-      <c r="T55" t="s">
-        <v>76</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56">
-        <f>C$12/30</f>
-        <v>150159120.38678154</v>
-      </c>
-      <c r="U56" s="17">
-        <f>U20*U12/10^9</f>
-        <v>500.80240822428215</v>
-      </c>
-      <c r="Z56" s="17">
-        <f>Z20*Z12/10^9</f>
-        <v>481.79327662985054</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
-      <c r="U57" s="17">
-        <f>U5</f>
-        <v>348.47617481414409</v>
-      </c>
-      <c r="Z57" s="17">
-        <f>Z5</f>
-        <v>334.91079449481015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>100</v>
-      </c>
-      <c r="U58" s="17">
-        <f>U6</f>
-        <v>48.633734931977244</v>
-      </c>
-      <c r="Z58" s="17">
-        <f>Z6</f>
-        <v>47.87002540849145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>101</v>
-      </c>
-      <c r="U59" s="17">
-        <f>U7</f>
-        <v>16.99142026116569</v>
-      </c>
-      <c r="Z59" s="17">
-        <f>Z7</f>
-        <v>23.618027536926213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>102</v>
-      </c>
-      <c r="U60" s="17">
-        <f>U20*U11/10^9</f>
-        <v>429.02885652364682</v>
-      </c>
-      <c r="Z60" s="17">
-        <f>Z20*Z11/10^9</f>
-        <v>411.63409882023359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="U61" s="17">
-        <f>SUM(U56:U60)</f>
-        <v>1343.9325947552159</v>
-      </c>
-      <c r="Z61" s="17">
-        <f>SUM(Z56:Z60)</f>
-        <v>1299.8262228903118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T63" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="U63" s="22">
-        <f>U8-U61</f>
-        <v>397.88101812640753</v>
-      </c>
-      <c r="V63" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y63" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z63" s="22">
-        <f>Z8-Z61</f>
-        <v>352.81436046178374</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="T64" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="U64" s="23">
-        <f>U63/U8</f>
-        <v>0.22842915865616684</v>
-      </c>
-      <c r="Y64" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z64" s="23">
-        <f>Z63/Z8</f>
-        <v>0.21348523327810384</v>
-      </c>
-    </row>
-    <row r="66" spans="21:26" x14ac:dyDescent="0.35">
-      <c r="U66" s="34">
-        <f>SUM(U4:U7)+(U3*(1+U25))</f>
-        <v>1309.9773809344986</v>
-      </c>
-      <c r="Z66" s="34">
-        <f>SUM(Z4:Z7)+(Z3*(1+Z25))</f>
-        <v>1257.3882781611842</v>
-      </c>
-    </row>
-    <row r="67" spans="21:26" x14ac:dyDescent="0.35">
-      <c r="U67" s="27">
-        <f>(U8-U66)/U8</f>
-        <v>0.24792333046054402</v>
-      </c>
-      <c r="Z67" s="27">
-        <f>(Z8-Z66)/Z8</f>
-        <v>0.23916410450795683</v>
-      </c>
-    </row>
-    <row r="69" spans="21:26" x14ac:dyDescent="0.35">
-      <c r="U69" s="27"/>
-      <c r="Z69" s="27"/>
-    </row>
-    <row r="70" spans="21:26" x14ac:dyDescent="0.35">
-      <c r="U70" s="27"/>
-      <c r="Z70" s="27"/>
+      <c r="U35" s="44">
+        <f>(U27*U26-U31*U33)/10^9</f>
+        <v>1680.227991301314</v>
+      </c>
+      <c r="Z35" s="44">
+        <f>(Z27*Z26-Z31*Z33)/10^9</f>
+        <v>1596.0219842740469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="44">
+        <f>U35/U26*10^9</f>
+        <v>128.64464777905732</v>
+      </c>
+      <c r="Z36" s="44">
+        <f>Z35/Z26*10^9</f>
+        <v>120.05288042079499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="U37" s="43">
+        <f>(U36-$K27)/$K27</f>
+        <v>-0.16059153055450742</v>
+      </c>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43">
+        <f>(Z36-$K27)/$K27</f>
+        <v>-0.21665295567043677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="50"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="U40" s="41"/>
+      <c r="Z40" s="41"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8853,7 +8065,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8883,12 +8095,12 @@
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>savings_residential!U25*-1</f>
-        <v>0.74057464160058584</v>
+        <f>savings_residential!U32</f>
+        <v>0.32742324978842557</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C7" si="0">$B2</f>
-        <v>0.74057464160058584</v>
+        <v>0.32742324978842557</v>
       </c>
       <c r="D2" s="7">
         <f>savings_commercial!U26*-1</f>
@@ -8901,11 +8113,11 @@
       </c>
       <c r="B3" s="7">
         <f>B2</f>
-        <v>0.74057464160058584</v>
+        <v>0.32742324978842557</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>0.74057464160058584</v>
+        <v>0.32742324978842557</v>
       </c>
       <c r="D3" s="7">
         <f>D2</f>
@@ -9122,6 +8334,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -9350,15 +8571,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BCF5D9-3972-43CF-88C7-BA42C2BD5A61}">
   <ds:schemaRefs>
@@ -9371,6 +8583,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923BB36F-34B4-48B9-A841-D5CFBCACFD83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9387,12 +8607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCF26DFC-E322-4B03-BD33-D84AE438B047}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>